--- a/carriers_source_analyses/wood.carrier.xlsx
+++ b/carriers_source_analyses/wood.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -250,12 +250,6 @@
     <t>CE_Delft_201109_Toelichting_ketenkentallen_incl_biodiesel_bio-ethanol_(LCA).pdf</t>
   </si>
   <si>
-    <t>kg CO2/MJ</t>
-  </si>
-  <si>
-    <t>Co2 emission factor</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
@@ -549,6 +543,55 @@
   </si>
   <si>
     <t>Quintel definition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>potential_co2_conversion_per_mj</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t>CO2 emission from biomass is defined as 0</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
   </si>
 </sst>
 </file>
@@ -567,12 +610,26 @@
     <numFmt numFmtId="172" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -828,6 +885,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1303,719 +1393,760 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="41" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="409">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2327,6 +2458,14 @@
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3173,6 +3312,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299200" y="78600300"/>
+          <a:ext cx="9779000" cy="7785100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3295,6 +3472,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3302,6 +3480,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3665,10 +3844,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3839,9 +4018,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3865,28 +4046,28 @@
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="197" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+      <c r="B2" s="221" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="223"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="200"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="205"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="229"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
@@ -3939,7 +4120,7 @@
     <row r="9" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="19"/>
@@ -3987,14 +4168,14 @@
       <c r="G11" s="105"/>
       <c r="H11" s="31"/>
       <c r="I11" s="184" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="24"/>
       <c r="C12" s="105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>51</v>
@@ -4007,7 +4188,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="31"/>
       <c r="I12" s="184" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J12" s="44"/>
     </row>
@@ -4024,45 +4205,69 @@
         <v>0</v>
       </c>
       <c r="F13" s="35"/>
-      <c r="G13" s="105"/>
+      <c r="G13" s="219" t="s">
+        <v>171</v>
+      </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="184" t="s">
+      <c r="I13" s="200" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="35" t="s">
+    <row r="14" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="24"/>
+      <c r="C14" s="199" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="179">
+        <f>'Research data'!G10</f>
+        <v>0.112</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="219" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="230" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="39"/>
+      <c r="C15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="171">
-        <f>'Research data'!G10</f>
+      <c r="E15" s="171">
+        <f>'Research data'!G11</f>
         <v>18500000</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="122" t="str">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="122" t="str">
         <f>I13</f>
         <v>http://refman.et-model.com/publications/1623</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4115,10 +4320,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:U11"/>
+  <dimension ref="B1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4142,13 +4347,14 @@
     <col min="17" max="17" width="8.5" style="65" customWidth="1"/>
     <col min="18" max="18" width="2.75" style="65" customWidth="1"/>
     <col min="19" max="19" width="9.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.75" style="65" customWidth="1"/>
-    <col min="21" max="21" width="60" style="64" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="64"/>
+    <col min="20" max="20" width="9.625" style="65" customWidth="1"/>
+    <col min="21" max="21" width="2.75" style="65" customWidth="1"/>
+    <col min="22" max="22" width="60" style="64" customWidth="1"/>
+    <col min="23" max="16384" width="10.625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:22" ht="16" thickBot="1"/>
+    <row r="2" spans="2:22">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -4168,9 +4374,10 @@
       <c r="R2" s="68"/>
       <c r="S2" s="68"/>
       <c r="T2" s="68"/>
-      <c r="U2" s="69"/>
-    </row>
-    <row r="3" spans="2:21" s="25" customFormat="1">
+      <c r="U2" s="68"/>
+      <c r="V2" s="69"/>
+    </row>
+    <row r="3" spans="2:22" s="25" customFormat="1">
       <c r="B3" s="24"/>
       <c r="C3" s="97" t="s">
         <v>30</v>
@@ -4185,34 +4392,37 @@
       </c>
       <c r="H3" s="97"/>
       <c r="I3" s="63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="U3" s="63"/>
+      <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:22">
       <c r="B4" s="70"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -4231,10 +4441,11 @@
       <c r="Q4" s="94"/>
       <c r="R4" s="96"/>
       <c r="S4" s="94"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="2:21" ht="16" thickBot="1">
+      <c r="T4" s="94"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="2:22" ht="16" thickBot="1">
       <c r="B5" s="70"/>
       <c r="C5" s="19" t="s">
         <v>53</v>
@@ -4256,9 +4467,10 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
+      <c r="U5" s="16"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="2:22" ht="16" thickBot="1">
       <c r="B6" s="70"/>
       <c r="C6" s="108" t="s">
         <v>37</v>
@@ -4288,11 +4500,12 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="196" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="U6" s="16"/>
+      <c r="V6" s="196" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="109" t="s">
         <v>38</v>
@@ -4324,15 +4537,16 @@
       <c r="S7" s="193">
         <v>3.3E-3</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="196" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="T7" s="218"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="196" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="109" t="s">
         <v>50</v>
@@ -4372,9 +4586,10 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="U8" s="16"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
         <v>39</v>
@@ -4405,75 +4620,114 @@
       <c r="S9" s="99">
         <v>0</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="196" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" ht="16" thickBot="1">
-      <c r="B10" s="70"/>
-      <c r="C10" s="110" t="s">
-        <v>40</v>
+      <c r="T9" s="197"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="196" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="198" t="s">
+        <v>163</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="171">
-        <f>K10</f>
-        <v>18500000</v>
-      </c>
-      <c r="H10" s="74"/>
+        <v>48</v>
+      </c>
+      <c r="G10" s="99">
+        <f>T10</f>
+        <v>0.112</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="171">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="99">
+        <f>Notes!G412</f>
+        <v>0.112</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="196"/>
+    </row>
+    <row r="11" spans="2:22" ht="16" thickBot="1">
+      <c r="B11" s="70"/>
+      <c r="C11" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="171">
+        <f>K11</f>
+        <v>18500000</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="171">
         <f>Notes!H276</f>
         <v>18500000</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="171">
+      <c r="L11" s="18"/>
+      <c r="M11" s="171">
         <f>Notes!H126</f>
         <v>33304320</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="171">
+      <c r="N11" s="18"/>
+      <c r="O11" s="171">
         <f>Notes!H160</f>
         <v>18879000</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="172" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="70"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="195"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="115"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="70"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4491,10 +4745,10 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4512,8 +4766,8 @@
     <col min="13" max="16384" width="33.125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="1:12" ht="16" thickBot="1"/>
+    <row r="2" spans="1:12">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -4526,7 +4780,7 @@
       <c r="K2" s="51"/>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:12">
       <c r="B3" s="52"/>
       <c r="C3" s="53" t="s">
         <v>11</v>
@@ -4541,7 +4795,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12">
       <c r="B4" s="52"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4554,7 +4808,7 @@
       <c r="K4" s="56"/>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="1:12">
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
         <v>13</v>
@@ -4583,7 +4837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12">
       <c r="B6" s="52"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -4596,30 +4850,30 @@
       <c r="K6" s="54"/>
       <c r="L6" s="53"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="1:12">
       <c r="B7" s="52"/>
       <c r="C7" s="47" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="47">
         <v>2013</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="52"/>
       <c r="E8" s="173"/>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="1:12">
       <c r="B9" s="52"/>
       <c r="C9" s="120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="60"/>
       <c r="E9" s="119" t="s">
@@ -4632,25 +4886,25 @@
         <v>62</v>
       </c>
       <c r="H9" s="180" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="180" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="56"/>
       <c r="K9" s="56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12">
       <c r="B10" s="52"/>
       <c r="E10" s="118"/>
       <c r="F10" s="118"/>
       <c r="H10" s="181"/>
       <c r="I10" s="181"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="1:12">
       <c r="B11" s="52"/>
       <c r="C11" s="121" t="s">
         <v>39</v>
@@ -4673,98 +4927,119 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="52"/>
-      <c r="C12" s="183" t="s">
+    <row r="12" spans="1:12" s="216" customFormat="1">
+      <c r="A12" s="210"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="205" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="212"/>
+      <c r="E12" s="205" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="205"/>
+      <c r="G12" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="217" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="214" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="215"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="52"/>
+      <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="52"/>
-      <c r="C13" s="47" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" s="52"/>
+      <c r="C14" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="52"/>
-    </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:12">
       <c r="B15" s="52"/>
-      <c r="C15" s="120" t="s">
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="52"/>
+      <c r="C16" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="47">
+      <c r="E16" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="47">
         <v>2008</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="52"/>
-      <c r="C16" s="47" t="s">
-        <v>40</v>
+      <c r="K16" s="48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="52"/>
+      <c r="C17" s="47" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="52"/>
-      <c r="C18" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="47">
-        <v>2002</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="52"/>
-      <c r="C19" s="47" t="s">
-        <v>40</v>
+      <c r="C19" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="47">
+        <v>2002</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="52"/>
+      <c r="C20" s="47" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="52"/>
-      <c r="E21" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="47">
-        <v>2010</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="52"/>
+      <c r="E22" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="47">
+        <v>2010</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="52"/>
-      <c r="E23" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="47">
-        <v>2010</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="52"/>
+      <c r="E24" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="47">
+        <v>2010</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="52"/>
@@ -4775,7 +5050,13 @@
     <row r="27" spans="2:11">
       <c r="B27" s="52"/>
     </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="52"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4788,10 +5069,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y387"/>
+  <dimension ref="A1:AI446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D393" sqref="D393:J398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4972,7 +5253,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="111"/>
       <c r="G8" s="112"/>
@@ -5089,15 +5370,9 @@
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
       <c r="E12" s="111"/>
-      <c r="F12" s="111">
-        <v>0</v>
-      </c>
-      <c r="G12" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="111" t="s">
-        <v>66</v>
-      </c>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="111"/>
       <c r="J12" s="111"/>
       <c r="K12" s="111"/>
@@ -5689,7 +5964,7 @@
     <row r="64" spans="1:25" s="125" customFormat="1">
       <c r="B64" s="101"/>
       <c r="C64" s="125" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:8" s="125" customFormat="1">
@@ -5698,10 +5973,10 @@
     <row r="66" spans="2:8" s="125" customFormat="1">
       <c r="B66" s="101"/>
       <c r="D66" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="126" t="s">
         <v>101</v>
-      </c>
-      <c r="F66" s="126" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="125" customFormat="1">
@@ -5767,7 +6042,7 @@
       <c r="B83" s="101"/>
       <c r="D83"/>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H83">
         <v>16.899999999999999</v>
@@ -5776,7 +6051,7 @@
         <v>51</v>
       </c>
       <c r="J83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:10" s="125" customFormat="1" ht="16">
@@ -5790,21 +6065,21 @@
         <v>51</v>
       </c>
       <c r="J84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:10" s="125" customFormat="1" ht="16">
       <c r="B85" s="101"/>
       <c r="D85"/>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H85" s="165">
         <v>0.12</v>
       </c>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="125" customFormat="1" ht="16">
@@ -5816,7 +6091,7 @@
       </c>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="2:10" s="125" customFormat="1">
@@ -5867,7 +6142,7 @@
     <row r="101" spans="2:9" s="125" customFormat="1" ht="16">
       <c r="B101" s="101"/>
       <c r="F101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H101">
         <v>17.7</v>
@@ -5897,7 +6172,7 @@
     <row r="108" spans="2:9" s="125" customFormat="1">
       <c r="B108" s="101"/>
       <c r="F108" s="126" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H108" s="164">
         <v>0.84</v>
@@ -5918,7 +6193,7 @@
         <v>1216</v>
       </c>
       <c r="F112" s="126" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="2:10" s="125" customFormat="1">
@@ -5960,13 +6235,13 @@
     <row r="121" spans="2:10" s="125" customFormat="1">
       <c r="B121" s="101"/>
       <c r="F121" s="166" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H121" s="125">
         <v>22.4</v>
       </c>
       <c r="I121" s="166" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="2:10" s="125" customFormat="1">
@@ -5976,7 +6251,7 @@
         <v>22400</v>
       </c>
       <c r="I122" s="166" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="2:10" s="125" customFormat="1">
@@ -5986,7 +6261,7 @@
         <v>2240000</v>
       </c>
       <c r="I123" s="166" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="2:10" s="125" customFormat="1">
@@ -6001,20 +6276,20 @@
         <v>39648000</v>
       </c>
       <c r="I125" s="166" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="2:10" s="125" customFormat="1">
       <c r="B126" s="101"/>
       <c r="F126" s="166" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H126" s="167">
         <f>H125*H108</f>
         <v>33304320</v>
       </c>
       <c r="I126" s="166" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="2:10" s="125" customFormat="1">
@@ -6029,7 +6304,7 @@
         <v>1222</v>
       </c>
       <c r="F129" s="126" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H129" s="158">
         <v>17.7</v>
@@ -6132,7 +6407,7 @@
     <row r="143" spans="1:25" customFormat="1" ht="16">
       <c r="B143" s="101"/>
       <c r="C143" s="168" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D143" s="158"/>
       <c r="E143" s="158"/>
@@ -6164,7 +6439,7 @@
       </c>
       <c r="E144" s="100"/>
       <c r="F144" s="158" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G144" s="158"/>
       <c r="H144" s="158"/>
@@ -6266,7 +6541,7 @@
       <c r="D148" s="158"/>
       <c r="E148" s="100"/>
       <c r="F148" s="159" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G148" s="158"/>
       <c r="H148" s="158"/>
@@ -6320,10 +6595,10 @@
       <c r="F150" s="161"/>
       <c r="G150" s="100"/>
       <c r="H150" s="161" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I150" s="161" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J150" s="161"/>
       <c r="K150" s="158"/>
@@ -6347,7 +6622,7 @@
       <c r="D151" s="161"/>
       <c r="E151" s="100"/>
       <c r="F151" s="161" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G151" s="100"/>
       <c r="H151" s="161">
@@ -6378,7 +6653,7 @@
       <c r="D152" s="161"/>
       <c r="E152" s="100"/>
       <c r="F152" s="161" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G152" s="100"/>
       <c r="H152" s="161">
@@ -6411,10 +6686,10 @@
       <c r="F153" s="161"/>
       <c r="G153" s="100"/>
       <c r="H153" s="161" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I153" s="161" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J153" s="161"/>
       <c r="K153" s="158"/>
@@ -6438,7 +6713,7 @@
       <c r="D154" s="161"/>
       <c r="E154" s="100"/>
       <c r="F154" s="161" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G154" s="100"/>
       <c r="H154" s="161">
@@ -6471,7 +6746,7 @@
       <c r="D155" s="161"/>
       <c r="E155" s="100"/>
       <c r="F155" s="161" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G155" s="100"/>
       <c r="H155" s="161">
@@ -6513,7 +6788,7 @@
       </c>
       <c r="J156" s="161"/>
       <c r="K156" s="158" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L156" s="158"/>
       <c r="M156" s="158"/>
@@ -6535,7 +6810,7 @@
       <c r="D157" s="161"/>
       <c r="E157" s="100"/>
       <c r="F157" s="161" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G157" s="100"/>
       <c r="H157" s="169">
@@ -6571,7 +6846,7 @@
       <c r="D158" s="161"/>
       <c r="E158" s="100"/>
       <c r="F158" s="161" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G158" s="100"/>
       <c r="H158" s="169">
@@ -6635,7 +6910,7 @@
       <c r="D160" s="161"/>
       <c r="E160" s="100"/>
       <c r="F160" s="166" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G160" s="100"/>
       <c r="H160" s="169">
@@ -7271,7 +7546,7 @@
     <row r="185" spans="1:25" customFormat="1" ht="16">
       <c r="B185" s="101"/>
       <c r="C185" s="158" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D185" s="158"/>
       <c r="E185" s="100"/>
@@ -7301,7 +7576,7 @@
       <c r="D186" s="158"/>
       <c r="E186" s="100"/>
       <c r="F186" s="158" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G186" s="158"/>
       <c r="H186" s="158"/>
@@ -7354,7 +7629,7 @@
       <c r="B188" s="101"/>
       <c r="C188" s="158"/>
       <c r="D188" s="158" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E188" s="100"/>
       <c r="F188" s="158"/>
@@ -7383,13 +7658,13 @@
       <c r="D189" s="158"/>
       <c r="E189" s="100"/>
       <c r="F189" s="170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G189">
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I189" s="158"/>
       <c r="J189" s="158"/>
@@ -7415,7 +7690,7 @@
       <c r="E190" s="100"/>
       <c r="F190" s="158"/>
       <c r="H190" s="158" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I190" s="158"/>
       <c r="J190" s="158"/>
@@ -7444,7 +7719,7 @@
         <v>50</v>
       </c>
       <c r="H191" s="161" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I191" s="161"/>
       <c r="J191" s="161"/>
@@ -7473,7 +7748,7 @@
         <v>200</v>
       </c>
       <c r="H192" s="161" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I192" s="161"/>
       <c r="J192" s="161"/>
@@ -7499,10 +7774,10 @@
       <c r="E193" s="100"/>
       <c r="F193" s="161"/>
       <c r="G193" s="161" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H193" s="161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I193" s="161"/>
       <c r="J193" s="161"/>
@@ -7528,12 +7803,12 @@
       <c r="E194" s="100"/>
       <c r="F194" s="161"/>
       <c r="G194" s="161" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H194" s="161"/>
       <c r="I194" s="161"/>
       <c r="J194" s="161" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K194" s="158"/>
       <c r="L194" s="158"/>
@@ -7556,7 +7831,7 @@
       <c r="D195" s="161"/>
       <c r="E195" s="100"/>
       <c r="F195" s="161" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G195" s="161">
         <f>50/17500</f>
@@ -7589,7 +7864,7 @@
       <c r="D196" s="161"/>
       <c r="E196" s="100"/>
       <c r="F196" s="161" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G196" s="161">
         <f>200/17500</f>
@@ -7621,7 +7896,7 @@
       <c r="D197" s="161"/>
       <c r="E197" s="161"/>
       <c r="F197" s="161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G197" s="161">
         <f>170/17500</f>
@@ -8489,7 +8764,7 @@
       <c r="A232" s="125"/>
       <c r="B232" s="101"/>
       <c r="C232" s="158" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D232" s="125"/>
       <c r="E232" s="125"/>
@@ -8570,7 +8845,7 @@
       <c r="C235" s="158"/>
       <c r="D235" s="158"/>
       <c r="E235" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F235" s="100"/>
       <c r="G235" s="158">
@@ -8578,7 +8853,7 @@
         <v>7.6704545454545454E-3</v>
       </c>
       <c r="H235" s="161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I235" s="158"/>
       <c r="J235" s="158"/>
@@ -8602,7 +8877,7 @@
       <c r="C236" s="158"/>
       <c r="D236" s="158"/>
       <c r="E236" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F236" s="100"/>
       <c r="G236" s="158">
@@ -8610,7 +8885,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H236" s="161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I236" s="158"/>
       <c r="J236" s="158"/>
@@ -9089,18 +9364,18 @@
       <c r="H255" s="158"/>
       <c r="I255" s="161"/>
       <c r="J255" s="161" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K255" s="161" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L255" s="161"/>
       <c r="M255" s="161"/>
       <c r="N255" s="161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O255" s="161" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P255" s="158"/>
       <c r="Q255" s="158"/>
@@ -9125,7 +9400,7 @@
         <v>135</v>
       </c>
       <c r="K256" s="161" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L256" s="161"/>
       <c r="M256" s="161"/>
@@ -9133,7 +9408,7 @@
         <v>220</v>
       </c>
       <c r="O256" s="161" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P256" s="158"/>
       <c r="Q256" s="158"/>
@@ -9159,7 +9434,7 @@
         <v>17600</v>
       </c>
       <c r="K257" s="161" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L257" s="161"/>
       <c r="M257" s="161"/>
@@ -9168,7 +9443,7 @@
         <v>17600</v>
       </c>
       <c r="O257" s="161" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P257" s="158"/>
       <c r="Q257" s="158"/>
@@ -9194,7 +9469,7 @@
         <v>7.6704545454545454E-3</v>
       </c>
       <c r="K258" s="161" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L258" s="161"/>
       <c r="M258" s="161"/>
@@ -9203,7 +9478,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="O258" s="161" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P258" s="158"/>
       <c r="Q258" s="158"/>
@@ -9275,7 +9550,7 @@
       <c r="H261" s="158"/>
       <c r="I261" s="161"/>
       <c r="J261" s="161" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K261" s="163">
         <v>0.40100000000000002</v>
@@ -9470,13 +9745,13 @@
     <row r="274" spans="2:10" s="125" customFormat="1">
       <c r="B274" s="101"/>
       <c r="F274" s="166" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H274" s="125">
         <v>10</v>
       </c>
       <c r="I274" s="166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="275" spans="2:10" s="125" customFormat="1">
@@ -9486,7 +9761,7 @@
         <v>185000</v>
       </c>
       <c r="I275" s="166" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="276" spans="2:10" s="125" customFormat="1">
@@ -9499,7 +9774,7 @@
         <v>54</v>
       </c>
       <c r="J276" s="166" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="277" spans="2:10" s="125" customFormat="1">
@@ -9512,7 +9787,7 @@
         <v>54</v>
       </c>
       <c r="J277" s="166" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="278" spans="2:10" s="125" customFormat="1">
@@ -9548,13 +9823,13 @@
     <row r="288" spans="2:10" s="125" customFormat="1">
       <c r="B288" s="101"/>
       <c r="F288" s="126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H288" s="125">
         <v>18.5</v>
       </c>
       <c r="I288" s="126" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="2:9" s="125" customFormat="1">
@@ -9564,7 +9839,7 @@
         <v>18500</v>
       </c>
       <c r="I289" s="126" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="2:9" s="125" customFormat="1">
@@ -9733,39 +10008,39 @@
       <c r="B344" s="101"/>
       <c r="O344" s="127"/>
       <c r="P344" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q344" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="R344" s="154" t="s">
         <v>69</v>
-      </c>
-      <c r="Q344" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="R344" s="154" t="s">
-        <v>71</v>
       </c>
       <c r="S344" s="128"/>
       <c r="T344" s="155" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U344" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="V344" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="W344" s="154" t="s">
         <v>69</v>
-      </c>
-      <c r="V344" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="W344" s="154" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="345" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B345" s="101"/>
       <c r="O345" s="129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P345" s="130"/>
       <c r="Q345" s="131"/>
       <c r="R345" s="132"/>
       <c r="S345" s="128"/>
       <c r="T345" s="129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U345" s="130"/>
       <c r="V345" s="131"/>
@@ -9783,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O346" s="133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P346" s="134">
         <v>7.9890805766714692</v>
@@ -9796,7 +10071,7 @@
       </c>
       <c r="S346" s="128"/>
       <c r="T346" s="137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U346" s="134"/>
       <c r="V346" s="135"/>
@@ -9815,7 +10090,7 @@
         <v>1.1470417155166664E-3</v>
       </c>
       <c r="O347" s="133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P347" s="134">
         <v>4.5482472277188012E-2</v>
@@ -9824,7 +10099,7 @@
       <c r="R347" s="136"/>
       <c r="S347" s="128"/>
       <c r="T347" s="137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U347" s="134"/>
       <c r="V347" s="135"/>
@@ -9843,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="O348" s="133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P348" s="134">
         <v>2.9196099920271799E-2</v>
@@ -9873,7 +10148,7 @@
         <v>8.0811981354912427E-3</v>
       </c>
       <c r="O349" s="133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P349" s="134">
         <v>17.826580159842166</v>
@@ -9903,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="O350" s="123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P350" s="142"/>
       <c r="Q350" s="143"/>
@@ -9926,14 +10201,14 @@
         <v>0</v>
       </c>
       <c r="O351" s="129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P351" s="130"/>
       <c r="Q351" s="131"/>
       <c r="R351" s="132"/>
       <c r="S351" s="128"/>
       <c r="T351" s="129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U351" s="130"/>
       <c r="V351" s="131"/>
@@ -9942,14 +10217,14 @@
     <row r="352" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B352" s="101"/>
       <c r="O352" s="133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P352" s="134"/>
       <c r="Q352" s="135"/>
       <c r="R352" s="136"/>
       <c r="S352" s="128"/>
       <c r="T352" s="137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U352" s="134"/>
       <c r="V352" s="135"/>
@@ -9958,7 +10233,7 @@
     <row r="353" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B353" s="101"/>
       <c r="O353" s="133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P353" s="134">
         <v>6.6464692278060872E-2</v>
@@ -9967,7 +10242,7 @@
       <c r="R353" s="136"/>
       <c r="S353" s="128"/>
       <c r="T353" s="137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U353" s="134">
         <v>6.3635256261973708E-2</v>
@@ -9978,7 +10253,7 @@
     <row r="354" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B354" s="101"/>
       <c r="O354" s="133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P354" s="134"/>
       <c r="Q354" s="135"/>
@@ -9992,7 +10267,7 @@
     <row r="355" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B355" s="101"/>
       <c r="O355" s="133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P355" s="134">
         <v>1.6616173069515219</v>
@@ -10012,7 +10287,7 @@
     <row r="356" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
       <c r="B356" s="101"/>
       <c r="O356" s="123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P356" s="145">
         <v>6.3635256261973708E-2</v>
@@ -10028,14 +10303,14 @@
     <row r="357" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B357" s="101"/>
       <c r="O357" s="129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P357" s="130"/>
       <c r="Q357" s="131"/>
       <c r="R357" s="132"/>
       <c r="S357" s="128"/>
       <c r="T357" s="129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U357" s="130"/>
       <c r="V357" s="131"/>
@@ -10044,7 +10319,7 @@
     <row r="358" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B358" s="101"/>
       <c r="O358" s="133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P358" s="146"/>
       <c r="Q358" s="135">
@@ -10055,7 +10330,7 @@
       </c>
       <c r="S358" s="128"/>
       <c r="T358" s="137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U358" s="146"/>
       <c r="V358" s="135"/>
@@ -10064,14 +10339,14 @@
     <row r="359" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B359" s="101"/>
       <c r="O359" s="133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P359" s="146"/>
       <c r="Q359" s="135"/>
       <c r="R359" s="141"/>
       <c r="S359" s="128"/>
       <c r="T359" s="137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U359" s="146"/>
       <c r="V359" s="135"/>
@@ -10080,7 +10355,7 @@
     <row r="360" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B360" s="101"/>
       <c r="O360" s="133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P360" s="146"/>
       <c r="Q360" s="135"/>
@@ -10094,7 +10369,7 @@
     <row r="361" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B361" s="101"/>
       <c r="O361" s="133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P361" s="134">
         <v>0</v>
@@ -10114,7 +10389,7 @@
     <row r="362" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
       <c r="B362" s="101"/>
       <c r="O362" s="123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P362" s="147"/>
       <c r="Q362" s="143"/>
@@ -10128,14 +10403,14 @@
     <row r="363" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B363" s="101"/>
       <c r="O363" s="129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P363" s="146"/>
       <c r="Q363" s="148"/>
       <c r="R363" s="149"/>
       <c r="S363" s="128"/>
       <c r="T363" s="129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U363" s="146"/>
       <c r="V363" s="148"/>
@@ -10144,14 +10419,14 @@
     <row r="364" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B364" s="101"/>
       <c r="O364" s="133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P364" s="146"/>
       <c r="Q364" s="135"/>
       <c r="R364" s="141"/>
       <c r="S364" s="128"/>
       <c r="T364" s="137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U364" s="146"/>
       <c r="V364" s="135"/>
@@ -10160,14 +10435,14 @@
     <row r="365" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B365" s="101"/>
       <c r="O365" s="133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P365" s="146"/>
       <c r="Q365" s="135"/>
       <c r="R365" s="141"/>
       <c r="S365" s="128"/>
       <c r="T365" s="137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U365" s="146"/>
       <c r="V365" s="150">
@@ -10180,7 +10455,7 @@
     <row r="366" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B366" s="101"/>
       <c r="O366" s="133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P366" s="146"/>
       <c r="Q366" s="135"/>
@@ -10194,7 +10469,7 @@
     <row r="367" spans="2:23" s="125" customFormat="1" ht="16">
       <c r="B367" s="101"/>
       <c r="O367" s="133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P367" s="134">
         <v>0</v>
@@ -10214,7 +10489,7 @@
     <row r="368" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
       <c r="B368" s="101"/>
       <c r="O368" s="123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P368" s="146"/>
       <c r="Q368" s="151">
@@ -10232,14 +10507,14 @@
     <row r="369" spans="1:25" s="125" customFormat="1" ht="16">
       <c r="B369" s="101"/>
       <c r="O369" s="129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P369" s="130"/>
       <c r="Q369" s="131"/>
       <c r="R369" s="132"/>
       <c r="S369" s="128"/>
       <c r="T369" s="129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U369" s="130"/>
       <c r="V369" s="131"/>
@@ -10248,14 +10523,14 @@
     <row r="370" spans="1:25" s="125" customFormat="1" ht="16">
       <c r="B370" s="101"/>
       <c r="O370" s="133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P370" s="134"/>
       <c r="Q370" s="135"/>
       <c r="R370" s="136"/>
       <c r="S370" s="128"/>
       <c r="T370" s="137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U370" s="134"/>
       <c r="V370" s="135"/>
@@ -10264,14 +10539,14 @@
     <row r="371" spans="1:25" s="125" customFormat="1" ht="16">
       <c r="B371" s="101"/>
       <c r="O371" s="133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P371" s="134"/>
       <c r="Q371" s="135"/>
       <c r="R371" s="136"/>
       <c r="S371" s="128"/>
       <c r="T371" s="137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U371" s="134"/>
       <c r="V371" s="135"/>
@@ -10280,7 +10555,7 @@
     <row r="372" spans="1:25" s="125" customFormat="1" ht="16">
       <c r="B372" s="101"/>
       <c r="O372" s="133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P372" s="134"/>
       <c r="Q372" s="135"/>
@@ -10294,7 +10569,7 @@
     <row r="373" spans="1:25" s="125" customFormat="1" ht="16">
       <c r="B373" s="101"/>
       <c r="O373" s="133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P373" s="134"/>
       <c r="Q373" s="135"/>
@@ -10308,7 +10583,7 @@
     <row r="374" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1">
       <c r="B374" s="101"/>
       <c r="O374" s="123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P374" s="142"/>
       <c r="Q374" s="143"/>
@@ -10386,22 +10661,22 @@
     <row r="380" spans="1:25" ht="16">
       <c r="B380" s="101"/>
       <c r="C380" s="173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F380" s="175">
         <v>139.09</v>
       </c>
       <c r="G380" s="158" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H380" s="176" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I380" s="177">
         <v>41327</v>
       </c>
       <c r="J380" s="178" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="381" spans="1:25">
@@ -10422,7 +10697,7 @@
         <v>17800</v>
       </c>
       <c r="G382" s="190" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="383" spans="1:25">
@@ -10435,14 +10710,2195 @@
     <row r="384" spans="1:25">
       <c r="B384" s="101"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:35">
       <c r="B385" s="101"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:35" ht="16" thickBot="1">
       <c r="B386" s="101"/>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="101"/>
+    <row r="387" spans="2:35">
+      <c r="B387" s="201"/>
+      <c r="C387" s="202" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387" s="202" t="s">
+        <v>55</v>
+      </c>
+      <c r="E387" s="202"/>
+      <c r="F387" s="202" t="s">
+        <v>32</v>
+      </c>
+      <c r="G387" s="202"/>
+      <c r="H387" s="202"/>
+      <c r="I387" s="202"/>
+      <c r="J387" s="202"/>
+      <c r="K387" s="202"/>
+      <c r="L387" s="202"/>
+      <c r="M387" s="202"/>
+      <c r="N387" s="202"/>
+      <c r="O387" s="202"/>
+      <c r="P387" s="202"/>
+      <c r="Q387" s="202"/>
+      <c r="R387" s="202"/>
+      <c r="S387" s="202"/>
+      <c r="T387" s="202"/>
+      <c r="U387" s="202"/>
+      <c r="V387" s="203"/>
+      <c r="W387" s="203"/>
+      <c r="X387" s="203"/>
+      <c r="Y387" s="203"/>
+      <c r="Z387" s="203"/>
+      <c r="AA387" s="203"/>
+      <c r="AB387" s="203"/>
+      <c r="AC387" s="203"/>
+      <c r="AD387" s="203"/>
+      <c r="AE387" s="203"/>
+      <c r="AF387" s="203"/>
+      <c r="AG387" s="203"/>
+      <c r="AH387" s="203"/>
+      <c r="AI387" s="203"/>
+    </row>
+    <row r="388" spans="2:35">
+      <c r="B388" s="204"/>
+      <c r="C388" s="205"/>
+      <c r="D388" s="205"/>
+      <c r="E388" s="205"/>
+      <c r="F388" s="205"/>
+      <c r="G388" s="205"/>
+      <c r="H388" s="205"/>
+      <c r="I388" s="205"/>
+      <c r="J388" s="205"/>
+      <c r="K388" s="205"/>
+      <c r="L388" s="205"/>
+      <c r="M388" s="205"/>
+      <c r="N388" s="205"/>
+      <c r="O388" s="205"/>
+      <c r="P388" s="205"/>
+      <c r="Q388" s="205"/>
+      <c r="R388" s="205"/>
+      <c r="S388" s="205"/>
+      <c r="T388" s="205"/>
+      <c r="U388" s="205"/>
+      <c r="V388" s="205"/>
+      <c r="W388" s="205"/>
+      <c r="X388" s="205"/>
+      <c r="Y388" s="205"/>
+      <c r="Z388" s="205"/>
+      <c r="AA388" s="205"/>
+      <c r="AB388" s="205"/>
+      <c r="AC388" s="205"/>
+      <c r="AD388" s="205"/>
+      <c r="AE388" s="205"/>
+      <c r="AF388" s="205"/>
+      <c r="AG388" s="205"/>
+      <c r="AH388" s="205"/>
+      <c r="AI388" s="205"/>
+    </row>
+    <row r="389" spans="2:35" ht="16">
+      <c r="B389" s="204"/>
+      <c r="C389" s="206" t="s">
+        <v>164</v>
+      </c>
+      <c r="D389" s="207"/>
+      <c r="E389" s="207"/>
+      <c r="F389" s="207"/>
+      <c r="G389" s="207"/>
+      <c r="H389" s="207"/>
+      <c r="I389" s="207"/>
+      <c r="J389" s="111"/>
+      <c r="K389" s="111"/>
+      <c r="L389" s="111"/>
+      <c r="M389" s="111"/>
+      <c r="N389" s="111"/>
+      <c r="O389" s="111"/>
+      <c r="P389" s="111"/>
+      <c r="Q389" s="111"/>
+      <c r="R389" s="111"/>
+      <c r="S389" s="111"/>
+      <c r="T389" s="111"/>
+      <c r="U389" s="111"/>
+      <c r="V389" s="111"/>
+      <c r="W389" s="111"/>
+      <c r="X389" s="111"/>
+      <c r="Y389" s="111"/>
+      <c r="Z389" s="208"/>
+      <c r="AA389" s="208"/>
+      <c r="AB389" s="208"/>
+      <c r="AC389" s="208"/>
+      <c r="AD389" s="208"/>
+      <c r="AE389" s="208"/>
+      <c r="AF389" s="208"/>
+      <c r="AG389" s="208"/>
+      <c r="AH389" s="208"/>
+      <c r="AI389" s="208"/>
+    </row>
+    <row r="390" spans="2:35" ht="16">
+      <c r="B390" s="204"/>
+      <c r="C390" s="207"/>
+      <c r="D390" s="207"/>
+      <c r="E390" s="207"/>
+      <c r="F390" s="207"/>
+      <c r="G390" s="207"/>
+      <c r="H390" s="207"/>
+      <c r="I390" s="207"/>
+      <c r="J390" s="111"/>
+      <c r="K390" s="111"/>
+      <c r="L390" s="111"/>
+      <c r="M390" s="111"/>
+      <c r="N390" s="111"/>
+      <c r="O390" s="111"/>
+      <c r="P390" s="111"/>
+      <c r="Q390" s="111"/>
+      <c r="R390" s="111"/>
+      <c r="S390" s="111"/>
+      <c r="T390" s="111"/>
+      <c r="U390" s="111"/>
+      <c r="V390" s="111"/>
+      <c r="W390" s="111"/>
+      <c r="X390" s="111"/>
+      <c r="Y390" s="111"/>
+      <c r="Z390" s="208"/>
+      <c r="AA390" s="208"/>
+      <c r="AB390" s="208"/>
+      <c r="AC390" s="208"/>
+      <c r="AD390" s="208"/>
+      <c r="AE390" s="208"/>
+      <c r="AF390" s="208"/>
+      <c r="AG390" s="208"/>
+      <c r="AH390" s="208"/>
+      <c r="AI390" s="208"/>
+    </row>
+    <row r="391" spans="2:35" ht="16">
+      <c r="B391" s="204"/>
+      <c r="C391" s="207"/>
+      <c r="D391" s="207"/>
+      <c r="E391" s="207"/>
+      <c r="F391" s="207"/>
+      <c r="G391" s="207"/>
+      <c r="H391" s="207"/>
+      <c r="I391" s="207"/>
+      <c r="J391" s="111"/>
+      <c r="K391" s="111"/>
+      <c r="L391" s="111"/>
+      <c r="M391" s="111"/>
+      <c r="N391" s="111"/>
+      <c r="O391" s="111"/>
+      <c r="P391" s="111"/>
+      <c r="Q391" s="111"/>
+      <c r="R391" s="111"/>
+      <c r="S391" s="111"/>
+      <c r="T391" s="111"/>
+      <c r="U391" s="111"/>
+      <c r="V391" s="111"/>
+      <c r="W391" s="111"/>
+      <c r="X391" s="111"/>
+      <c r="Y391" s="111"/>
+      <c r="Z391" s="208"/>
+      <c r="AA391" s="208"/>
+      <c r="AB391" s="208"/>
+      <c r="AC391" s="208"/>
+      <c r="AD391" s="208"/>
+      <c r="AE391" s="208"/>
+      <c r="AF391" s="208"/>
+      <c r="AG391" s="208"/>
+      <c r="AH391" s="208"/>
+      <c r="AI391" s="208"/>
+    </row>
+    <row r="392" spans="2:35" ht="16">
+      <c r="B392" s="204"/>
+      <c r="C392" s="207"/>
+      <c r="D392" s="207"/>
+      <c r="E392" s="207"/>
+      <c r="F392" s="207"/>
+      <c r="G392" s="207"/>
+      <c r="H392" s="207"/>
+      <c r="I392" s="207"/>
+      <c r="J392" s="111"/>
+      <c r="K392" s="111"/>
+      <c r="L392" s="111"/>
+      <c r="M392" s="111"/>
+      <c r="N392" s="111"/>
+      <c r="O392" s="111"/>
+      <c r="P392" s="111"/>
+      <c r="Q392" s="111"/>
+      <c r="R392" s="111"/>
+      <c r="S392" s="111"/>
+      <c r="T392" s="111"/>
+      <c r="U392" s="111"/>
+      <c r="V392" s="111"/>
+      <c r="W392" s="111"/>
+      <c r="X392" s="111"/>
+      <c r="Y392" s="111"/>
+      <c r="Z392" s="208"/>
+      <c r="AA392" s="208"/>
+      <c r="AB392" s="208"/>
+      <c r="AC392" s="208"/>
+      <c r="AD392" s="208"/>
+      <c r="AE392" s="208"/>
+      <c r="AF392" s="208"/>
+      <c r="AG392" s="208"/>
+      <c r="AH392" s="208"/>
+      <c r="AI392" s="208"/>
+    </row>
+    <row r="393" spans="2:35" ht="16">
+      <c r="B393" s="204"/>
+      <c r="C393" s="207"/>
+      <c r="D393" s="220"/>
+      <c r="E393" s="220"/>
+      <c r="F393" s="220"/>
+      <c r="G393" s="220"/>
+      <c r="H393" s="220"/>
+      <c r="I393" s="220"/>
+      <c r="J393" s="157"/>
+      <c r="K393" s="111"/>
+      <c r="L393" s="111"/>
+      <c r="M393" s="111"/>
+      <c r="N393" s="111"/>
+      <c r="O393" s="111"/>
+      <c r="P393" s="111"/>
+      <c r="Q393" s="111"/>
+      <c r="R393" s="111"/>
+      <c r="S393" s="111"/>
+      <c r="T393" s="111"/>
+      <c r="U393" s="111"/>
+      <c r="V393" s="111"/>
+      <c r="W393" s="111"/>
+      <c r="X393" s="111"/>
+      <c r="Y393" s="111"/>
+      <c r="Z393" s="208"/>
+      <c r="AA393" s="208"/>
+      <c r="AB393" s="208"/>
+      <c r="AC393" s="208"/>
+      <c r="AD393" s="208"/>
+      <c r="AE393" s="208"/>
+      <c r="AF393" s="208"/>
+      <c r="AG393" s="208"/>
+      <c r="AH393" s="208"/>
+      <c r="AI393" s="208"/>
+    </row>
+    <row r="394" spans="2:35" ht="16">
+      <c r="B394" s="204"/>
+      <c r="C394" s="207"/>
+      <c r="D394" s="125"/>
+      <c r="E394" s="125"/>
+      <c r="F394" s="125"/>
+      <c r="G394" s="125"/>
+      <c r="H394" s="125"/>
+      <c r="I394" s="125"/>
+      <c r="J394" s="157"/>
+      <c r="K394" s="111"/>
+      <c r="L394" s="111"/>
+      <c r="M394" s="111"/>
+      <c r="N394" s="111"/>
+      <c r="O394" s="111"/>
+      <c r="P394" s="111"/>
+      <c r="Q394" s="111"/>
+      <c r="R394" s="111"/>
+      <c r="S394" s="111"/>
+      <c r="T394" s="111"/>
+      <c r="U394" s="111"/>
+      <c r="V394" s="111"/>
+      <c r="W394" s="111"/>
+      <c r="X394" s="111"/>
+      <c r="Y394" s="111"/>
+      <c r="Z394" s="208"/>
+      <c r="AA394" s="208"/>
+      <c r="AB394" s="208"/>
+      <c r="AC394" s="208"/>
+      <c r="AD394" s="208"/>
+      <c r="AE394" s="208"/>
+      <c r="AF394" s="208"/>
+      <c r="AG394" s="208"/>
+      <c r="AH394" s="208"/>
+      <c r="AI394" s="208"/>
+    </row>
+    <row r="395" spans="2:35" ht="16">
+      <c r="B395" s="204"/>
+      <c r="C395" s="207"/>
+      <c r="D395" s="125"/>
+      <c r="E395" s="125"/>
+      <c r="F395" s="125"/>
+      <c r="G395" s="125"/>
+      <c r="H395" s="125"/>
+      <c r="I395" s="125"/>
+      <c r="J395" s="157"/>
+      <c r="K395" s="111"/>
+      <c r="L395" s="111"/>
+      <c r="M395" s="111"/>
+      <c r="N395" s="111"/>
+      <c r="O395" s="111"/>
+      <c r="P395" s="111"/>
+      <c r="Q395" s="111"/>
+      <c r="R395" s="111"/>
+      <c r="S395" s="111"/>
+      <c r="T395" s="111"/>
+      <c r="U395" s="111"/>
+      <c r="V395" s="111"/>
+      <c r="W395" s="111"/>
+      <c r="X395" s="111"/>
+      <c r="Y395" s="111"/>
+      <c r="Z395" s="208"/>
+      <c r="AA395" s="208"/>
+      <c r="AB395" s="208"/>
+      <c r="AC395" s="208"/>
+      <c r="AD395" s="208"/>
+      <c r="AE395" s="208"/>
+      <c r="AF395" s="208"/>
+      <c r="AG395" s="208"/>
+      <c r="AH395" s="208"/>
+      <c r="AI395" s="208"/>
+    </row>
+    <row r="396" spans="2:35" ht="16">
+      <c r="B396" s="204"/>
+      <c r="C396" s="207"/>
+      <c r="D396" s="125"/>
+      <c r="E396" s="125"/>
+      <c r="F396" s="125"/>
+      <c r="G396" s="125"/>
+      <c r="H396" s="125"/>
+      <c r="I396" s="125"/>
+      <c r="J396" s="157"/>
+      <c r="K396" s="111"/>
+      <c r="L396" s="111"/>
+      <c r="M396" s="111"/>
+      <c r="N396" s="111"/>
+      <c r="O396" s="111"/>
+      <c r="P396" s="111"/>
+      <c r="Q396" s="111"/>
+      <c r="R396" s="111"/>
+      <c r="S396" s="111"/>
+      <c r="T396" s="111"/>
+      <c r="U396" s="111"/>
+      <c r="V396" s="111"/>
+      <c r="W396" s="111"/>
+      <c r="X396" s="111"/>
+      <c r="Y396" s="111"/>
+      <c r="Z396" s="208"/>
+      <c r="AA396" s="208"/>
+      <c r="AB396" s="208"/>
+      <c r="AC396" s="208"/>
+      <c r="AD396" s="208"/>
+      <c r="AE396" s="208"/>
+      <c r="AF396" s="208"/>
+      <c r="AG396" s="208"/>
+      <c r="AH396" s="208"/>
+      <c r="AI396" s="208"/>
+    </row>
+    <row r="397" spans="2:35" ht="16">
+      <c r="B397" s="204"/>
+      <c r="C397" s="111"/>
+      <c r="D397" s="157"/>
+      <c r="E397" s="157"/>
+      <c r="F397" s="157"/>
+      <c r="G397" s="157"/>
+      <c r="H397" s="157"/>
+      <c r="I397" s="157"/>
+      <c r="J397" s="157"/>
+      <c r="K397" s="111"/>
+      <c r="L397" s="111"/>
+      <c r="M397" s="111"/>
+      <c r="N397" s="111"/>
+      <c r="O397" s="111"/>
+      <c r="P397" s="111"/>
+      <c r="Q397" s="111"/>
+      <c r="R397" s="111"/>
+      <c r="S397" s="111"/>
+      <c r="T397" s="111"/>
+      <c r="U397" s="111"/>
+      <c r="V397" s="111"/>
+      <c r="W397" s="111"/>
+      <c r="X397" s="111"/>
+      <c r="Y397" s="111"/>
+      <c r="Z397" s="208"/>
+      <c r="AA397" s="208"/>
+      <c r="AB397" s="208"/>
+      <c r="AC397" s="208"/>
+      <c r="AD397" s="208"/>
+      <c r="AE397" s="208"/>
+      <c r="AF397" s="208"/>
+      <c r="AG397" s="208"/>
+      <c r="AH397" s="208"/>
+      <c r="AI397" s="208"/>
+    </row>
+    <row r="398" spans="2:35" ht="16">
+      <c r="B398" s="204"/>
+      <c r="C398" s="111"/>
+      <c r="D398" s="157"/>
+      <c r="E398" s="157"/>
+      <c r="F398" s="157"/>
+      <c r="G398" s="157"/>
+      <c r="H398" s="157"/>
+      <c r="I398" s="157"/>
+      <c r="J398" s="157"/>
+      <c r="K398" s="111"/>
+      <c r="L398" s="111"/>
+      <c r="M398" s="111"/>
+      <c r="N398" s="111"/>
+      <c r="O398" s="111"/>
+      <c r="P398" s="111"/>
+      <c r="Q398" s="111"/>
+      <c r="R398" s="111"/>
+      <c r="S398" s="111"/>
+      <c r="T398" s="111"/>
+      <c r="U398" s="111"/>
+      <c r="V398" s="111"/>
+      <c r="W398" s="111"/>
+      <c r="X398" s="111"/>
+      <c r="Y398" s="111"/>
+      <c r="Z398" s="208"/>
+      <c r="AA398" s="208"/>
+      <c r="AB398" s="208"/>
+      <c r="AC398" s="208"/>
+      <c r="AD398" s="208"/>
+      <c r="AE398" s="208"/>
+      <c r="AF398" s="208"/>
+      <c r="AG398" s="208"/>
+      <c r="AH398" s="208"/>
+      <c r="AI398" s="208"/>
+    </row>
+    <row r="399" spans="2:35" ht="16">
+      <c r="B399" s="204"/>
+      <c r="C399" s="111"/>
+      <c r="D399" s="111"/>
+      <c r="E399" s="111"/>
+      <c r="F399" s="111"/>
+      <c r="G399" s="111"/>
+      <c r="H399" s="111"/>
+      <c r="I399" s="111"/>
+      <c r="J399" s="111"/>
+      <c r="K399" s="111"/>
+      <c r="L399" s="111"/>
+      <c r="M399" s="111"/>
+      <c r="N399" s="111"/>
+      <c r="O399" s="111"/>
+      <c r="P399" s="111"/>
+      <c r="Q399" s="111"/>
+      <c r="R399" s="111"/>
+      <c r="S399" s="111"/>
+      <c r="T399" s="111"/>
+      <c r="U399" s="111"/>
+      <c r="V399" s="111"/>
+      <c r="W399" s="111"/>
+      <c r="X399" s="111"/>
+      <c r="Y399" s="111"/>
+      <c r="Z399" s="208"/>
+      <c r="AA399" s="208"/>
+      <c r="AB399" s="208"/>
+      <c r="AC399" s="208"/>
+      <c r="AD399" s="208"/>
+      <c r="AE399" s="208"/>
+      <c r="AF399" s="208"/>
+      <c r="AG399" s="208"/>
+      <c r="AH399" s="208"/>
+      <c r="AI399" s="208"/>
+    </row>
+    <row r="400" spans="2:35" ht="16">
+      <c r="B400" s="204"/>
+      <c r="C400" s="111"/>
+      <c r="D400" s="111"/>
+      <c r="E400" s="111"/>
+      <c r="F400" s="111"/>
+      <c r="G400" s="111"/>
+      <c r="H400" s="111"/>
+      <c r="I400" s="111"/>
+      <c r="J400" s="111"/>
+      <c r="K400" s="111"/>
+      <c r="L400" s="111"/>
+      <c r="M400" s="111"/>
+      <c r="N400" s="111"/>
+      <c r="O400" s="111"/>
+      <c r="P400" s="111"/>
+      <c r="Q400" s="111"/>
+      <c r="R400" s="111"/>
+      <c r="S400" s="111"/>
+      <c r="T400" s="111"/>
+      <c r="U400" s="111"/>
+      <c r="V400" s="111"/>
+      <c r="W400" s="111"/>
+      <c r="X400" s="111"/>
+      <c r="Y400" s="111"/>
+      <c r="Z400" s="208"/>
+      <c r="AA400" s="208"/>
+      <c r="AB400" s="208"/>
+      <c r="AC400" s="208"/>
+      <c r="AD400" s="208"/>
+      <c r="AE400" s="208"/>
+      <c r="AF400" s="208"/>
+      <c r="AG400" s="208"/>
+      <c r="AH400" s="208"/>
+      <c r="AI400" s="208"/>
+    </row>
+    <row r="401" spans="2:35" ht="16">
+      <c r="B401" s="204"/>
+      <c r="C401" s="111"/>
+      <c r="D401" s="111"/>
+      <c r="E401" s="111"/>
+      <c r="F401" s="111"/>
+      <c r="G401" s="111"/>
+      <c r="H401" s="111"/>
+      <c r="I401" s="111"/>
+      <c r="J401" s="111"/>
+      <c r="K401" s="111"/>
+      <c r="L401" s="111"/>
+      <c r="M401" s="111"/>
+      <c r="N401" s="111"/>
+      <c r="O401" s="111"/>
+      <c r="P401" s="111"/>
+      <c r="Q401" s="111"/>
+      <c r="R401" s="111"/>
+      <c r="S401" s="111"/>
+      <c r="T401" s="111"/>
+      <c r="U401" s="111"/>
+      <c r="V401" s="111"/>
+      <c r="W401" s="111"/>
+      <c r="X401" s="111"/>
+      <c r="Y401" s="111"/>
+      <c r="Z401" s="208"/>
+      <c r="AA401" s="208"/>
+      <c r="AB401" s="208"/>
+      <c r="AC401" s="208"/>
+      <c r="AD401" s="208"/>
+      <c r="AE401" s="208"/>
+      <c r="AF401" s="208"/>
+      <c r="AG401" s="208"/>
+      <c r="AH401" s="208"/>
+      <c r="AI401" s="208"/>
+    </row>
+    <row r="402" spans="2:35" ht="16">
+      <c r="B402" s="204"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="111"/>
+      <c r="Q402" s="111"/>
+      <c r="R402" s="111"/>
+      <c r="S402" s="111"/>
+      <c r="T402" s="111"/>
+      <c r="U402" s="111"/>
+      <c r="V402" s="111"/>
+      <c r="W402" s="111"/>
+      <c r="X402" s="111"/>
+      <c r="Y402" s="111"/>
+      <c r="Z402" s="208"/>
+      <c r="AA402" s="208"/>
+      <c r="AB402" s="208"/>
+      <c r="AC402" s="208"/>
+      <c r="AD402" s="208"/>
+      <c r="AE402" s="208"/>
+      <c r="AF402" s="208"/>
+      <c r="AG402" s="208"/>
+      <c r="AH402" s="208"/>
+      <c r="AI402" s="208"/>
+    </row>
+    <row r="403" spans="2:35" ht="16">
+      <c r="B403" s="204"/>
+      <c r="C403" s="111"/>
+      <c r="D403" s="111"/>
+      <c r="E403" s="111"/>
+      <c r="F403" s="111"/>
+      <c r="G403" s="111"/>
+      <c r="H403" s="111"/>
+      <c r="I403" s="111"/>
+      <c r="J403" s="111"/>
+      <c r="K403" s="111"/>
+      <c r="L403" s="111"/>
+      <c r="M403" s="111"/>
+      <c r="N403" s="111"/>
+      <c r="O403" s="111"/>
+      <c r="P403" s="111"/>
+      <c r="Q403" s="111"/>
+      <c r="R403" s="111"/>
+      <c r="S403" s="111"/>
+      <c r="T403" s="111"/>
+      <c r="U403" s="111"/>
+      <c r="V403" s="111"/>
+      <c r="W403" s="111"/>
+      <c r="X403" s="111"/>
+      <c r="Y403" s="111"/>
+      <c r="Z403" s="208"/>
+      <c r="AA403" s="208"/>
+      <c r="AB403" s="208"/>
+      <c r="AC403" s="208"/>
+      <c r="AD403" s="208"/>
+      <c r="AE403" s="208"/>
+      <c r="AF403" s="208"/>
+      <c r="AG403" s="208"/>
+      <c r="AH403" s="208"/>
+      <c r="AI403" s="208"/>
+    </row>
+    <row r="404" spans="2:35" ht="16">
+      <c r="B404" s="204"/>
+      <c r="C404" s="111"/>
+      <c r="D404" s="111"/>
+      <c r="E404" s="111"/>
+      <c r="F404" s="111"/>
+      <c r="G404" s="111"/>
+      <c r="H404" s="111"/>
+      <c r="I404" s="111"/>
+      <c r="J404" s="111"/>
+      <c r="K404" s="111"/>
+      <c r="L404" s="111"/>
+      <c r="M404" s="111"/>
+      <c r="N404" s="111"/>
+      <c r="O404" s="111"/>
+      <c r="P404" s="111"/>
+      <c r="Q404" s="111"/>
+      <c r="R404" s="111"/>
+      <c r="S404" s="111"/>
+      <c r="T404" s="111"/>
+      <c r="U404" s="111"/>
+      <c r="V404" s="111"/>
+      <c r="W404" s="111"/>
+      <c r="X404" s="111"/>
+      <c r="Y404" s="111"/>
+      <c r="Z404" s="208"/>
+      <c r="AA404" s="208"/>
+      <c r="AB404" s="208"/>
+      <c r="AC404" s="208"/>
+      <c r="AD404" s="208"/>
+      <c r="AE404" s="208"/>
+      <c r="AF404" s="208"/>
+      <c r="AG404" s="208"/>
+      <c r="AH404" s="208"/>
+      <c r="AI404" s="208"/>
+    </row>
+    <row r="405" spans="2:35" ht="16">
+      <c r="B405" s="204"/>
+      <c r="C405" s="111"/>
+      <c r="D405" s="111"/>
+      <c r="E405" s="111"/>
+      <c r="F405" s="111"/>
+      <c r="G405" s="111"/>
+      <c r="H405" s="111"/>
+      <c r="I405" s="111"/>
+      <c r="J405" s="111"/>
+      <c r="K405" s="111"/>
+      <c r="L405" s="111"/>
+      <c r="M405" s="111"/>
+      <c r="N405" s="111"/>
+      <c r="O405" s="111"/>
+      <c r="P405" s="111"/>
+      <c r="Q405" s="111"/>
+      <c r="R405" s="111"/>
+      <c r="S405" s="111"/>
+      <c r="T405" s="111"/>
+      <c r="U405" s="111"/>
+      <c r="V405" s="111"/>
+      <c r="W405" s="111"/>
+      <c r="X405" s="111"/>
+      <c r="Y405" s="111"/>
+      <c r="Z405" s="208"/>
+      <c r="AA405" s="208"/>
+      <c r="AB405" s="208"/>
+      <c r="AC405" s="208"/>
+      <c r="AD405" s="208"/>
+      <c r="AE405" s="208"/>
+      <c r="AF405" s="208"/>
+      <c r="AG405" s="208"/>
+      <c r="AH405" s="208"/>
+      <c r="AI405" s="208"/>
+    </row>
+    <row r="406" spans="2:35" ht="16">
+      <c r="B406" s="204"/>
+      <c r="C406" s="111"/>
+      <c r="D406" s="111"/>
+      <c r="E406" s="111"/>
+      <c r="F406" s="111"/>
+      <c r="G406" s="111"/>
+      <c r="H406" s="111"/>
+      <c r="I406" s="111"/>
+      <c r="J406" s="111"/>
+      <c r="K406" s="111"/>
+      <c r="L406" s="111"/>
+      <c r="M406" s="111"/>
+      <c r="N406" s="111"/>
+      <c r="O406" s="111"/>
+      <c r="P406" s="111"/>
+      <c r="Q406" s="111"/>
+      <c r="R406" s="111"/>
+      <c r="S406" s="111"/>
+      <c r="T406" s="111"/>
+      <c r="U406" s="111"/>
+      <c r="V406" s="111"/>
+      <c r="W406" s="111"/>
+      <c r="X406" s="111"/>
+      <c r="Y406" s="111"/>
+      <c r="Z406" s="208"/>
+      <c r="AA406" s="208"/>
+      <c r="AB406" s="208"/>
+      <c r="AC406" s="208"/>
+      <c r="AD406" s="208"/>
+      <c r="AE406" s="208"/>
+      <c r="AF406" s="208"/>
+      <c r="AG406" s="208"/>
+      <c r="AH406" s="208"/>
+      <c r="AI406" s="208"/>
+    </row>
+    <row r="407" spans="2:35" ht="16">
+      <c r="B407" s="204"/>
+      <c r="C407" s="111"/>
+      <c r="D407" s="111"/>
+      <c r="E407" s="111"/>
+      <c r="F407" s="111"/>
+      <c r="G407" s="111"/>
+      <c r="H407" s="111"/>
+      <c r="I407" s="111"/>
+      <c r="J407" s="111"/>
+      <c r="K407" s="111"/>
+      <c r="L407" s="111"/>
+      <c r="M407" s="111"/>
+      <c r="N407" s="111"/>
+      <c r="O407" s="111"/>
+      <c r="P407" s="111"/>
+      <c r="Q407" s="111"/>
+      <c r="R407" s="111"/>
+      <c r="S407" s="111"/>
+      <c r="T407" s="111"/>
+      <c r="U407" s="111"/>
+      <c r="V407" s="111"/>
+      <c r="W407" s="111"/>
+      <c r="X407" s="111"/>
+      <c r="Y407" s="111"/>
+      <c r="Z407" s="208"/>
+      <c r="AA407" s="208"/>
+      <c r="AB407" s="208"/>
+      <c r="AC407" s="208"/>
+      <c r="AD407" s="208"/>
+      <c r="AE407" s="208"/>
+      <c r="AF407" s="208"/>
+      <c r="AG407" s="208"/>
+      <c r="AH407" s="208"/>
+      <c r="AI407" s="208"/>
+    </row>
+    <row r="408" spans="2:35" ht="16">
+      <c r="B408" s="204"/>
+      <c r="C408" s="111"/>
+      <c r="D408" s="111"/>
+      <c r="E408" s="111"/>
+      <c r="F408" s="111"/>
+      <c r="G408" s="111"/>
+      <c r="H408" s="111"/>
+      <c r="I408" s="111"/>
+      <c r="J408" s="111"/>
+      <c r="K408" s="111"/>
+      <c r="L408" s="111"/>
+      <c r="M408" s="111"/>
+      <c r="N408" s="111"/>
+      <c r="O408" s="111"/>
+      <c r="P408" s="111"/>
+      <c r="Q408" s="111"/>
+      <c r="R408" s="111"/>
+      <c r="S408" s="111"/>
+      <c r="T408" s="111"/>
+      <c r="U408" s="111"/>
+      <c r="V408" s="111"/>
+      <c r="W408" s="111"/>
+      <c r="X408" s="111"/>
+      <c r="Y408" s="111"/>
+      <c r="Z408" s="208"/>
+      <c r="AA408" s="208"/>
+      <c r="AB408" s="208"/>
+      <c r="AC408" s="208"/>
+      <c r="AD408" s="208"/>
+      <c r="AE408" s="208"/>
+      <c r="AF408" s="208"/>
+      <c r="AG408" s="208"/>
+      <c r="AH408" s="208"/>
+      <c r="AI408" s="208"/>
+    </row>
+    <row r="409" spans="2:35" ht="16">
+      <c r="B409" s="204"/>
+      <c r="C409" s="111"/>
+      <c r="D409" s="111"/>
+      <c r="E409" s="111"/>
+      <c r="F409" s="111"/>
+      <c r="G409" s="111"/>
+      <c r="H409" s="111"/>
+      <c r="I409" s="111"/>
+      <c r="J409" s="111"/>
+      <c r="K409" s="111"/>
+      <c r="L409" s="111"/>
+      <c r="M409" s="111"/>
+      <c r="N409" s="111"/>
+      <c r="O409" s="111"/>
+      <c r="P409" s="111"/>
+      <c r="Q409" s="111"/>
+      <c r="R409" s="111"/>
+      <c r="S409" s="111"/>
+      <c r="T409" s="111"/>
+      <c r="U409" s="111"/>
+      <c r="V409" s="111"/>
+      <c r="W409" s="111"/>
+      <c r="X409" s="111"/>
+      <c r="Y409" s="111"/>
+      <c r="Z409" s="208"/>
+      <c r="AA409" s="208"/>
+      <c r="AB409" s="208"/>
+      <c r="AC409" s="208"/>
+      <c r="AD409" s="208"/>
+      <c r="AE409" s="208"/>
+      <c r="AF409" s="208"/>
+      <c r="AG409" s="208"/>
+      <c r="AH409" s="208"/>
+      <c r="AI409" s="208"/>
+    </row>
+    <row r="410" spans="2:35" ht="16">
+      <c r="B410" s="204"/>
+      <c r="C410" s="111"/>
+      <c r="D410" s="207">
+        <v>1.24</v>
+      </c>
+      <c r="E410" s="209"/>
+      <c r="F410" s="207"/>
+      <c r="G410" s="207">
+        <v>112000</v>
+      </c>
+      <c r="H410" s="207" t="s">
+        <v>165</v>
+      </c>
+      <c r="I410" s="207"/>
+      <c r="J410" s="111"/>
+      <c r="K410" s="111"/>
+      <c r="L410" s="111"/>
+      <c r="M410" s="111"/>
+      <c r="N410" s="111"/>
+      <c r="O410" s="111"/>
+      <c r="P410" s="111"/>
+      <c r="Q410" s="111"/>
+      <c r="R410" s="111"/>
+      <c r="S410" s="111"/>
+      <c r="T410" s="111"/>
+      <c r="U410" s="111"/>
+      <c r="V410" s="111"/>
+      <c r="W410" s="111"/>
+      <c r="X410" s="111"/>
+      <c r="Y410" s="111"/>
+      <c r="Z410" s="208"/>
+      <c r="AA410" s="208"/>
+      <c r="AB410" s="208"/>
+      <c r="AC410" s="208"/>
+      <c r="AD410" s="208"/>
+      <c r="AE410" s="208"/>
+      <c r="AF410" s="208"/>
+      <c r="AG410" s="208"/>
+      <c r="AH410" s="208"/>
+      <c r="AI410" s="208"/>
+    </row>
+    <row r="411" spans="2:35" ht="16">
+      <c r="B411" s="204"/>
+      <c r="C411" s="111"/>
+      <c r="D411" s="207"/>
+      <c r="E411" s="209"/>
+      <c r="F411" s="207"/>
+      <c r="G411" s="207">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H411" s="207" t="s">
+        <v>166</v>
+      </c>
+      <c r="I411" s="207"/>
+      <c r="J411" s="111"/>
+      <c r="K411" s="111"/>
+      <c r="L411" s="111"/>
+      <c r="M411" s="111"/>
+      <c r="N411" s="111"/>
+      <c r="O411" s="111"/>
+      <c r="P411" s="111"/>
+      <c r="Q411" s="111"/>
+      <c r="R411" s="111"/>
+      <c r="S411" s="111"/>
+      <c r="T411" s="111"/>
+      <c r="U411" s="111"/>
+      <c r="V411" s="111"/>
+      <c r="W411" s="111"/>
+      <c r="X411" s="111"/>
+      <c r="Y411" s="111"/>
+      <c r="Z411" s="208"/>
+      <c r="AA411" s="208"/>
+      <c r="AB411" s="208"/>
+      <c r="AC411" s="208"/>
+      <c r="AD411" s="208"/>
+      <c r="AE411" s="208"/>
+      <c r="AF411" s="208"/>
+      <c r="AG411" s="208"/>
+      <c r="AH411" s="208"/>
+      <c r="AI411" s="208"/>
+    </row>
+    <row r="412" spans="2:35" ht="16">
+      <c r="B412" s="204"/>
+      <c r="C412" s="111"/>
+      <c r="D412" s="207"/>
+      <c r="E412" s="209"/>
+      <c r="F412" s="207"/>
+      <c r="G412" s="207">
+        <f>G410/G411</f>
+        <v>0.112</v>
+      </c>
+      <c r="H412" s="207" t="s">
+        <v>165</v>
+      </c>
+      <c r="I412" s="207"/>
+      <c r="J412" s="111"/>
+      <c r="K412" s="111"/>
+      <c r="L412" s="111"/>
+      <c r="M412" s="111"/>
+      <c r="N412" s="111"/>
+      <c r="O412" s="111"/>
+      <c r="P412" s="111"/>
+      <c r="Q412" s="111"/>
+      <c r="R412" s="111"/>
+      <c r="S412" s="111"/>
+      <c r="T412" s="111"/>
+      <c r="U412" s="111"/>
+      <c r="V412" s="111"/>
+      <c r="W412" s="111"/>
+      <c r="X412" s="111"/>
+      <c r="Y412" s="111"/>
+      <c r="Z412" s="208"/>
+      <c r="AA412" s="208"/>
+      <c r="AB412" s="208"/>
+      <c r="AC412" s="208"/>
+      <c r="AD412" s="208"/>
+      <c r="AE412" s="208"/>
+      <c r="AF412" s="208"/>
+      <c r="AG412" s="208"/>
+      <c r="AH412" s="208"/>
+      <c r="AI412" s="208"/>
+    </row>
+    <row r="413" spans="2:35" ht="16">
+      <c r="B413" s="204"/>
+      <c r="C413" s="111"/>
+      <c r="D413" s="111"/>
+      <c r="E413" s="111"/>
+      <c r="F413" s="111"/>
+      <c r="G413" s="111"/>
+      <c r="H413" s="111"/>
+      <c r="I413" s="111"/>
+      <c r="J413" s="111"/>
+      <c r="K413" s="111"/>
+      <c r="L413" s="111"/>
+      <c r="M413" s="111"/>
+      <c r="N413" s="111"/>
+      <c r="O413" s="111"/>
+      <c r="P413" s="111"/>
+      <c r="Q413" s="111"/>
+      <c r="R413" s="111"/>
+      <c r="S413" s="111"/>
+      <c r="T413" s="111"/>
+      <c r="U413" s="111"/>
+      <c r="V413" s="111"/>
+      <c r="W413" s="111"/>
+      <c r="X413" s="111"/>
+      <c r="Y413" s="111"/>
+      <c r="Z413" s="208"/>
+      <c r="AA413" s="208"/>
+      <c r="AB413" s="208"/>
+      <c r="AC413" s="208"/>
+      <c r="AD413" s="208"/>
+      <c r="AE413" s="208"/>
+      <c r="AF413" s="208"/>
+      <c r="AG413" s="208"/>
+      <c r="AH413" s="208"/>
+      <c r="AI413" s="208"/>
+    </row>
+    <row r="414" spans="2:35" ht="16">
+      <c r="B414" s="204"/>
+      <c r="C414" s="208"/>
+      <c r="D414" s="208"/>
+      <c r="E414" s="208"/>
+      <c r="F414" s="208"/>
+      <c r="G414" s="208"/>
+      <c r="H414" s="208"/>
+      <c r="I414" s="208"/>
+      <c r="J414" s="208"/>
+      <c r="K414" s="208"/>
+      <c r="L414" s="208"/>
+      <c r="M414" s="208"/>
+      <c r="N414" s="208"/>
+      <c r="O414" s="208"/>
+      <c r="P414" s="208"/>
+      <c r="Q414" s="208"/>
+      <c r="R414" s="208"/>
+      <c r="S414" s="208"/>
+      <c r="T414" s="208"/>
+      <c r="U414" s="208"/>
+      <c r="V414" s="208"/>
+      <c r="W414" s="208"/>
+      <c r="X414" s="208"/>
+      <c r="Y414" s="208"/>
+      <c r="Z414" s="208"/>
+      <c r="AA414" s="208"/>
+      <c r="AB414" s="208"/>
+      <c r="AC414" s="208"/>
+      <c r="AD414" s="208"/>
+      <c r="AE414" s="208"/>
+      <c r="AF414" s="208"/>
+      <c r="AG414" s="208"/>
+      <c r="AH414" s="208"/>
+      <c r="AI414" s="208"/>
+    </row>
+    <row r="415" spans="2:35" ht="16">
+      <c r="B415" s="204"/>
+      <c r="C415" s="208"/>
+      <c r="D415" s="208"/>
+      <c r="E415" s="208"/>
+      <c r="F415" s="208"/>
+      <c r="G415" s="208"/>
+      <c r="H415" s="208"/>
+      <c r="I415" s="208"/>
+      <c r="J415" s="208"/>
+      <c r="K415" s="208"/>
+      <c r="L415" s="208"/>
+      <c r="M415" s="208"/>
+      <c r="N415" s="208"/>
+      <c r="O415" s="208"/>
+      <c r="P415" s="208"/>
+      <c r="Q415" s="208"/>
+      <c r="R415" s="208"/>
+      <c r="S415" s="208"/>
+      <c r="T415" s="208"/>
+      <c r="U415" s="208"/>
+      <c r="V415" s="208"/>
+      <c r="W415" s="208"/>
+      <c r="X415" s="208"/>
+      <c r="Y415" s="208"/>
+      <c r="Z415" s="208"/>
+      <c r="AA415" s="208"/>
+      <c r="AB415" s="208"/>
+      <c r="AC415" s="208"/>
+      <c r="AD415" s="208"/>
+      <c r="AE415" s="208"/>
+      <c r="AF415" s="208"/>
+      <c r="AG415" s="208"/>
+      <c r="AH415" s="208"/>
+      <c r="AI415" s="208"/>
+    </row>
+    <row r="416" spans="2:35" ht="16">
+      <c r="B416" s="204"/>
+      <c r="C416" s="208"/>
+      <c r="D416" s="208"/>
+      <c r="E416" s="208"/>
+      <c r="F416" s="208"/>
+      <c r="G416" s="208"/>
+      <c r="H416" s="208"/>
+      <c r="I416" s="208"/>
+      <c r="J416" s="208"/>
+      <c r="K416" s="208"/>
+      <c r="L416" s="208"/>
+      <c r="M416" s="208"/>
+      <c r="N416" s="208"/>
+      <c r="O416" s="208"/>
+      <c r="P416" s="208"/>
+      <c r="Q416" s="208"/>
+      <c r="R416" s="208"/>
+      <c r="S416" s="208"/>
+      <c r="T416" s="208"/>
+      <c r="U416" s="208"/>
+      <c r="V416" s="208"/>
+      <c r="W416" s="208"/>
+      <c r="X416" s="208"/>
+      <c r="Y416" s="208"/>
+      <c r="Z416" s="208"/>
+      <c r="AA416" s="208"/>
+      <c r="AB416" s="208"/>
+      <c r="AC416" s="208"/>
+      <c r="AD416" s="208"/>
+      <c r="AE416" s="208"/>
+      <c r="AF416" s="208"/>
+      <c r="AG416" s="208"/>
+      <c r="AH416" s="208"/>
+      <c r="AI416" s="208"/>
+    </row>
+    <row r="417" spans="2:35" ht="16">
+      <c r="B417" s="204"/>
+      <c r="C417" s="208"/>
+      <c r="D417" s="208"/>
+      <c r="E417" s="208"/>
+      <c r="F417" s="208"/>
+      <c r="G417" s="208"/>
+      <c r="H417" s="208"/>
+      <c r="I417" s="208"/>
+      <c r="J417" s="208"/>
+      <c r="K417" s="208"/>
+      <c r="L417" s="208"/>
+      <c r="M417" s="208"/>
+      <c r="N417" s="208"/>
+      <c r="O417" s="208"/>
+      <c r="P417" s="208"/>
+      <c r="Q417" s="208"/>
+      <c r="R417" s="208"/>
+      <c r="S417" s="208"/>
+      <c r="T417" s="208"/>
+      <c r="U417" s="208"/>
+      <c r="V417" s="208"/>
+      <c r="W417" s="208"/>
+      <c r="X417" s="208"/>
+      <c r="Y417" s="208"/>
+      <c r="Z417" s="208"/>
+      <c r="AA417" s="208"/>
+      <c r="AB417" s="208"/>
+      <c r="AC417" s="208"/>
+      <c r="AD417" s="208"/>
+      <c r="AE417" s="208"/>
+      <c r="AF417" s="208"/>
+      <c r="AG417" s="208"/>
+      <c r="AH417" s="208"/>
+      <c r="AI417" s="208"/>
+    </row>
+    <row r="418" spans="2:35" ht="16">
+      <c r="B418" s="204"/>
+      <c r="C418" s="208"/>
+      <c r="D418" s="208"/>
+      <c r="E418" s="208"/>
+      <c r="F418" s="208"/>
+      <c r="G418" s="208"/>
+      <c r="H418" s="208"/>
+      <c r="I418" s="208"/>
+      <c r="J418" s="208"/>
+      <c r="K418" s="208"/>
+      <c r="L418" s="208"/>
+      <c r="M418" s="208"/>
+      <c r="N418" s="208"/>
+      <c r="O418" s="208"/>
+      <c r="P418" s="208"/>
+      <c r="Q418" s="208"/>
+      <c r="R418" s="208"/>
+      <c r="S418" s="208"/>
+      <c r="T418" s="208"/>
+      <c r="U418" s="208"/>
+      <c r="V418" s="208"/>
+      <c r="W418" s="208"/>
+      <c r="X418" s="208"/>
+      <c r="Y418" s="208"/>
+      <c r="Z418" s="208"/>
+      <c r="AA418" s="208"/>
+      <c r="AB418" s="208"/>
+      <c r="AC418" s="208"/>
+      <c r="AD418" s="208"/>
+      <c r="AE418" s="208"/>
+      <c r="AF418" s="208"/>
+      <c r="AG418" s="208"/>
+      <c r="AH418" s="208"/>
+      <c r="AI418" s="208"/>
+    </row>
+    <row r="419" spans="2:35" ht="16">
+      <c r="B419" s="204"/>
+      <c r="C419" s="208"/>
+      <c r="D419" s="208"/>
+      <c r="E419" s="208"/>
+      <c r="F419" s="208"/>
+      <c r="G419" s="208"/>
+      <c r="H419" s="208"/>
+      <c r="I419" s="208"/>
+      <c r="J419" s="208"/>
+      <c r="K419" s="208"/>
+      <c r="L419" s="208"/>
+      <c r="M419" s="208"/>
+      <c r="N419" s="208"/>
+      <c r="O419" s="208"/>
+      <c r="P419" s="208"/>
+      <c r="Q419" s="208"/>
+      <c r="R419" s="208"/>
+      <c r="S419" s="208"/>
+      <c r="T419" s="208"/>
+      <c r="U419" s="208"/>
+      <c r="V419" s="208"/>
+      <c r="W419" s="208"/>
+      <c r="X419" s="208"/>
+      <c r="Y419" s="208"/>
+      <c r="Z419" s="208"/>
+      <c r="AA419" s="208"/>
+      <c r="AB419" s="208"/>
+      <c r="AC419" s="208"/>
+      <c r="AD419" s="208"/>
+      <c r="AE419" s="208"/>
+      <c r="AF419" s="208"/>
+      <c r="AG419" s="208"/>
+      <c r="AH419" s="208"/>
+      <c r="AI419" s="208"/>
+    </row>
+    <row r="420" spans="2:35" ht="16">
+      <c r="B420" s="204"/>
+      <c r="C420" s="208"/>
+      <c r="D420" s="208"/>
+      <c r="E420" s="208"/>
+      <c r="F420" s="208"/>
+      <c r="G420" s="208"/>
+      <c r="H420" s="208"/>
+      <c r="I420" s="208"/>
+      <c r="J420" s="208"/>
+      <c r="K420" s="208"/>
+      <c r="L420" s="208"/>
+      <c r="M420" s="208"/>
+      <c r="N420" s="208"/>
+      <c r="O420" s="208"/>
+      <c r="P420" s="208"/>
+      <c r="Q420" s="208"/>
+      <c r="R420" s="208"/>
+      <c r="S420" s="208"/>
+      <c r="T420" s="208"/>
+      <c r="U420" s="208"/>
+      <c r="V420" s="208"/>
+      <c r="W420" s="208"/>
+      <c r="X420" s="208"/>
+      <c r="Y420" s="208"/>
+      <c r="Z420" s="208"/>
+      <c r="AA420" s="208"/>
+      <c r="AB420" s="208"/>
+      <c r="AC420" s="208"/>
+      <c r="AD420" s="208"/>
+      <c r="AE420" s="208"/>
+      <c r="AF420" s="208"/>
+      <c r="AG420" s="208"/>
+      <c r="AH420" s="208"/>
+      <c r="AI420" s="208"/>
+    </row>
+    <row r="421" spans="2:35" ht="16">
+      <c r="B421" s="204"/>
+      <c r="C421" s="208"/>
+      <c r="D421" s="208"/>
+      <c r="E421" s="208"/>
+      <c r="F421" s="208"/>
+      <c r="G421" s="208"/>
+      <c r="H421" s="208"/>
+      <c r="I421" s="208"/>
+      <c r="J421" s="208"/>
+      <c r="K421" s="208"/>
+      <c r="L421" s="208"/>
+      <c r="M421" s="208"/>
+      <c r="N421" s="208"/>
+      <c r="O421" s="208"/>
+      <c r="P421" s="208"/>
+      <c r="Q421" s="208"/>
+      <c r="R421" s="208"/>
+      <c r="S421" s="208"/>
+      <c r="T421" s="208"/>
+      <c r="U421" s="208"/>
+      <c r="V421" s="208"/>
+      <c r="W421" s="208"/>
+      <c r="X421" s="208"/>
+      <c r="Y421" s="208"/>
+      <c r="Z421" s="208"/>
+      <c r="AA421" s="208"/>
+      <c r="AB421" s="208"/>
+      <c r="AC421" s="208"/>
+      <c r="AD421" s="208"/>
+      <c r="AE421" s="208"/>
+      <c r="AF421" s="208"/>
+      <c r="AG421" s="208"/>
+      <c r="AH421" s="208"/>
+      <c r="AI421" s="208"/>
+    </row>
+    <row r="422" spans="2:35" ht="16">
+      <c r="B422" s="204"/>
+      <c r="C422" s="208"/>
+      <c r="D422" s="208"/>
+      <c r="E422" s="208"/>
+      <c r="F422" s="208"/>
+      <c r="G422" s="208"/>
+      <c r="H422" s="208"/>
+      <c r="I422" s="208"/>
+      <c r="J422" s="208"/>
+      <c r="K422" s="208"/>
+      <c r="L422" s="208"/>
+      <c r="M422" s="208"/>
+      <c r="N422" s="208"/>
+      <c r="O422" s="208"/>
+      <c r="P422" s="208"/>
+      <c r="Q422" s="208"/>
+      <c r="R422" s="208"/>
+      <c r="S422" s="208"/>
+      <c r="T422" s="208"/>
+      <c r="U422" s="208"/>
+      <c r="V422" s="208"/>
+      <c r="W422" s="208"/>
+      <c r="X422" s="208"/>
+      <c r="Y422" s="208"/>
+      <c r="Z422" s="208"/>
+      <c r="AA422" s="208"/>
+      <c r="AB422" s="208"/>
+      <c r="AC422" s="208"/>
+      <c r="AD422" s="208"/>
+      <c r="AE422" s="208"/>
+      <c r="AF422" s="208"/>
+      <c r="AG422" s="208"/>
+      <c r="AH422" s="208"/>
+      <c r="AI422" s="208"/>
+    </row>
+    <row r="423" spans="2:35" ht="16">
+      <c r="B423" s="204"/>
+      <c r="C423" s="208"/>
+      <c r="D423" s="208"/>
+      <c r="E423" s="208"/>
+      <c r="F423" s="208"/>
+      <c r="G423" s="208"/>
+      <c r="H423" s="208"/>
+      <c r="I423" s="208"/>
+      <c r="J423" s="208"/>
+      <c r="K423" s="208"/>
+      <c r="L423" s="208"/>
+      <c r="M423" s="208"/>
+      <c r="N423" s="208"/>
+      <c r="O423" s="208"/>
+      <c r="P423" s="208"/>
+      <c r="Q423" s="208"/>
+      <c r="R423" s="208"/>
+      <c r="S423" s="208"/>
+      <c r="T423" s="208"/>
+      <c r="U423" s="208"/>
+      <c r="V423" s="208"/>
+      <c r="W423" s="208"/>
+      <c r="X423" s="208"/>
+      <c r="Y423" s="208"/>
+      <c r="Z423" s="208"/>
+      <c r="AA423" s="208"/>
+      <c r="AB423" s="208"/>
+      <c r="AC423" s="208"/>
+      <c r="AD423" s="208"/>
+      <c r="AE423" s="208"/>
+      <c r="AF423" s="208"/>
+      <c r="AG423" s="208"/>
+      <c r="AH423" s="208"/>
+      <c r="AI423" s="208"/>
+    </row>
+    <row r="424" spans="2:35" ht="16">
+      <c r="B424" s="204"/>
+      <c r="C424" s="208"/>
+      <c r="D424" s="208"/>
+      <c r="E424" s="208"/>
+      <c r="F424" s="208"/>
+      <c r="G424" s="208"/>
+      <c r="H424" s="208"/>
+      <c r="I424" s="208"/>
+      <c r="J424" s="208"/>
+      <c r="K424" s="208"/>
+      <c r="L424" s="208"/>
+      <c r="M424" s="208"/>
+      <c r="N424" s="208"/>
+      <c r="O424" s="208"/>
+      <c r="P424" s="208"/>
+      <c r="Q424" s="208"/>
+      <c r="R424" s="208"/>
+      <c r="S424" s="208"/>
+      <c r="T424" s="208"/>
+      <c r="U424" s="208"/>
+      <c r="V424" s="208"/>
+      <c r="W424" s="208"/>
+      <c r="X424" s="208"/>
+      <c r="Y424" s="208"/>
+      <c r="Z424" s="208"/>
+      <c r="AA424" s="208"/>
+      <c r="AB424" s="208"/>
+      <c r="AC424" s="208"/>
+      <c r="AD424" s="208"/>
+      <c r="AE424" s="208"/>
+      <c r="AF424" s="208"/>
+      <c r="AG424" s="208"/>
+      <c r="AH424" s="208"/>
+      <c r="AI424" s="208"/>
+    </row>
+    <row r="425" spans="2:35" ht="16">
+      <c r="B425" s="204"/>
+      <c r="C425" s="208"/>
+      <c r="D425" s="208"/>
+      <c r="E425" s="208"/>
+      <c r="F425" s="208"/>
+      <c r="G425" s="208"/>
+      <c r="H425" s="208"/>
+      <c r="I425" s="208"/>
+      <c r="J425" s="208"/>
+      <c r="K425" s="208"/>
+      <c r="L425" s="208"/>
+      <c r="M425" s="208"/>
+      <c r="N425" s="208"/>
+      <c r="O425" s="208"/>
+      <c r="P425" s="208"/>
+      <c r="Q425" s="208"/>
+      <c r="R425" s="208"/>
+      <c r="S425" s="208"/>
+      <c r="T425" s="208"/>
+      <c r="U425" s="208"/>
+      <c r="V425" s="208"/>
+      <c r="W425" s="208"/>
+      <c r="X425" s="208"/>
+      <c r="Y425" s="208"/>
+      <c r="Z425" s="208"/>
+      <c r="AA425" s="208"/>
+      <c r="AB425" s="208"/>
+      <c r="AC425" s="208"/>
+      <c r="AD425" s="208"/>
+      <c r="AE425" s="208"/>
+      <c r="AF425" s="208"/>
+      <c r="AG425" s="208"/>
+      <c r="AH425" s="208"/>
+      <c r="AI425" s="208"/>
+    </row>
+    <row r="426" spans="2:35" ht="16">
+      <c r="B426" s="204"/>
+      <c r="C426" s="208"/>
+      <c r="D426" s="208"/>
+      <c r="E426" s="208"/>
+      <c r="F426" s="208"/>
+      <c r="G426" s="208"/>
+      <c r="H426" s="208"/>
+      <c r="I426" s="208"/>
+      <c r="J426" s="208"/>
+      <c r="K426" s="208"/>
+      <c r="L426" s="208"/>
+      <c r="M426" s="208"/>
+      <c r="N426" s="208"/>
+      <c r="O426" s="208"/>
+      <c r="P426" s="208"/>
+      <c r="Q426" s="208"/>
+      <c r="R426" s="208"/>
+      <c r="S426" s="208"/>
+      <c r="T426" s="208"/>
+      <c r="U426" s="208"/>
+      <c r="V426" s="208"/>
+      <c r="W426" s="208"/>
+      <c r="X426" s="208"/>
+      <c r="Y426" s="208"/>
+      <c r="Z426" s="208"/>
+      <c r="AA426" s="208"/>
+      <c r="AB426" s="208"/>
+      <c r="AC426" s="208"/>
+      <c r="AD426" s="208"/>
+      <c r="AE426" s="208"/>
+      <c r="AF426" s="208"/>
+      <c r="AG426" s="208"/>
+      <c r="AH426" s="208"/>
+      <c r="AI426" s="208"/>
+    </row>
+    <row r="427" spans="2:35" ht="16">
+      <c r="B427" s="204"/>
+      <c r="C427" s="208"/>
+      <c r="D427" s="208"/>
+      <c r="E427" s="208"/>
+      <c r="F427" s="208"/>
+      <c r="G427" s="208"/>
+      <c r="H427" s="208"/>
+      <c r="I427" s="208"/>
+      <c r="J427" s="208"/>
+      <c r="K427" s="208"/>
+      <c r="L427" s="208"/>
+      <c r="M427" s="208"/>
+      <c r="N427" s="208"/>
+      <c r="O427" s="208"/>
+      <c r="P427" s="208"/>
+      <c r="Q427" s="208"/>
+      <c r="R427" s="208"/>
+      <c r="S427" s="208"/>
+      <c r="T427" s="208"/>
+      <c r="U427" s="208"/>
+      <c r="V427" s="208"/>
+      <c r="W427" s="208"/>
+      <c r="X427" s="208"/>
+      <c r="Y427" s="208"/>
+      <c r="Z427" s="208"/>
+      <c r="AA427" s="208"/>
+      <c r="AB427" s="208"/>
+      <c r="AC427" s="208"/>
+      <c r="AD427" s="208"/>
+      <c r="AE427" s="208"/>
+      <c r="AF427" s="208"/>
+      <c r="AG427" s="208"/>
+      <c r="AH427" s="208"/>
+      <c r="AI427" s="208"/>
+    </row>
+    <row r="428" spans="2:35" ht="16">
+      <c r="B428" s="204"/>
+      <c r="C428" s="208"/>
+      <c r="D428" s="208"/>
+      <c r="E428" s="208"/>
+      <c r="F428" s="208"/>
+      <c r="G428" s="208"/>
+      <c r="H428" s="208"/>
+      <c r="I428" s="208"/>
+      <c r="J428" s="208"/>
+      <c r="K428" s="208"/>
+      <c r="L428" s="208"/>
+      <c r="M428" s="208"/>
+      <c r="N428" s="208"/>
+      <c r="O428" s="208"/>
+      <c r="P428" s="208"/>
+      <c r="Q428" s="208"/>
+      <c r="R428" s="208"/>
+      <c r="S428" s="208"/>
+      <c r="T428" s="208"/>
+      <c r="U428" s="208"/>
+      <c r="V428" s="208"/>
+      <c r="W428" s="208"/>
+      <c r="X428" s="208"/>
+      <c r="Y428" s="208"/>
+      <c r="Z428" s="208"/>
+      <c r="AA428" s="208"/>
+      <c r="AB428" s="208"/>
+      <c r="AC428" s="208"/>
+      <c r="AD428" s="208"/>
+      <c r="AE428" s="208"/>
+      <c r="AF428" s="208"/>
+      <c r="AG428" s="208"/>
+      <c r="AH428" s="208"/>
+      <c r="AI428" s="208"/>
+    </row>
+    <row r="429" spans="2:35" ht="16">
+      <c r="B429" s="204"/>
+      <c r="C429" s="208"/>
+      <c r="D429" s="208"/>
+      <c r="E429" s="208"/>
+      <c r="F429" s="208"/>
+      <c r="G429" s="208"/>
+      <c r="H429" s="208"/>
+      <c r="I429" s="208"/>
+      <c r="J429" s="208"/>
+      <c r="K429" s="208"/>
+      <c r="L429" s="208"/>
+      <c r="M429" s="208"/>
+      <c r="N429" s="208"/>
+      <c r="O429" s="208"/>
+      <c r="P429" s="208"/>
+      <c r="Q429" s="208"/>
+      <c r="R429" s="208"/>
+      <c r="S429" s="208"/>
+      <c r="T429" s="208"/>
+      <c r="U429" s="208"/>
+      <c r="V429" s="208"/>
+      <c r="W429" s="208"/>
+      <c r="X429" s="208"/>
+      <c r="Y429" s="208"/>
+      <c r="Z429" s="208"/>
+      <c r="AA429" s="208"/>
+      <c r="AB429" s="208"/>
+      <c r="AC429" s="208"/>
+      <c r="AD429" s="208"/>
+      <c r="AE429" s="208"/>
+      <c r="AF429" s="208"/>
+      <c r="AG429" s="208"/>
+      <c r="AH429" s="208"/>
+      <c r="AI429" s="208"/>
+    </row>
+    <row r="430" spans="2:35" ht="16">
+      <c r="B430" s="204"/>
+      <c r="C430" s="208"/>
+      <c r="D430" s="208"/>
+      <c r="E430" s="208"/>
+      <c r="F430" s="208"/>
+      <c r="G430" s="208"/>
+      <c r="H430" s="208"/>
+      <c r="I430" s="208"/>
+      <c r="J430" s="208"/>
+      <c r="K430" s="208"/>
+      <c r="L430" s="208"/>
+      <c r="M430" s="208"/>
+      <c r="N430" s="208"/>
+      <c r="O430" s="208"/>
+      <c r="P430" s="208"/>
+      <c r="Q430" s="208"/>
+      <c r="R430" s="208"/>
+      <c r="S430" s="208"/>
+      <c r="T430" s="208"/>
+      <c r="U430" s="208"/>
+      <c r="V430" s="208"/>
+      <c r="W430" s="208"/>
+      <c r="X430" s="208"/>
+      <c r="Y430" s="208"/>
+      <c r="Z430" s="208"/>
+      <c r="AA430" s="208"/>
+      <c r="AB430" s="208"/>
+      <c r="AC430" s="208"/>
+      <c r="AD430" s="208"/>
+      <c r="AE430" s="208"/>
+      <c r="AF430" s="208"/>
+      <c r="AG430" s="208"/>
+      <c r="AH430" s="208"/>
+      <c r="AI430" s="208"/>
+    </row>
+    <row r="431" spans="2:35" ht="16">
+      <c r="B431" s="204"/>
+      <c r="C431" s="208"/>
+      <c r="D431" s="208"/>
+      <c r="E431" s="208"/>
+      <c r="F431" s="208"/>
+      <c r="G431" s="208"/>
+      <c r="H431" s="208"/>
+      <c r="I431" s="208"/>
+      <c r="J431" s="208"/>
+      <c r="K431" s="208"/>
+      <c r="L431" s="208"/>
+      <c r="M431" s="208"/>
+      <c r="N431" s="208"/>
+      <c r="O431" s="208"/>
+      <c r="P431" s="208"/>
+      <c r="Q431" s="208"/>
+      <c r="R431" s="208"/>
+      <c r="S431" s="208"/>
+      <c r="T431" s="208"/>
+      <c r="U431" s="208"/>
+      <c r="V431" s="208"/>
+      <c r="W431" s="208"/>
+      <c r="X431" s="208"/>
+      <c r="Y431" s="208"/>
+      <c r="Z431" s="208"/>
+      <c r="AA431" s="208"/>
+      <c r="AB431" s="208"/>
+      <c r="AC431" s="208"/>
+      <c r="AD431" s="208"/>
+      <c r="AE431" s="208"/>
+      <c r="AF431" s="208"/>
+      <c r="AG431" s="208"/>
+      <c r="AH431" s="208"/>
+      <c r="AI431" s="208"/>
+    </row>
+    <row r="432" spans="2:35" ht="16">
+      <c r="B432" s="204"/>
+      <c r="C432" s="208"/>
+      <c r="D432" s="208"/>
+      <c r="E432" s="208"/>
+      <c r="F432" s="208"/>
+      <c r="G432" s="208"/>
+      <c r="H432" s="208"/>
+      <c r="I432" s="208"/>
+      <c r="J432" s="208"/>
+      <c r="K432" s="208"/>
+      <c r="L432" s="208"/>
+      <c r="M432" s="208"/>
+      <c r="N432" s="208"/>
+      <c r="O432" s="208"/>
+      <c r="P432" s="208"/>
+      <c r="Q432" s="208"/>
+      <c r="R432" s="208"/>
+      <c r="S432" s="208"/>
+      <c r="T432" s="208"/>
+      <c r="U432" s="208"/>
+      <c r="V432" s="208"/>
+      <c r="W432" s="208"/>
+      <c r="X432" s="208"/>
+      <c r="Y432" s="208"/>
+      <c r="Z432" s="208"/>
+      <c r="AA432" s="208"/>
+      <c r="AB432" s="208"/>
+      <c r="AC432" s="208"/>
+      <c r="AD432" s="208"/>
+      <c r="AE432" s="208"/>
+      <c r="AF432" s="208"/>
+      <c r="AG432" s="208"/>
+      <c r="AH432" s="208"/>
+      <c r="AI432" s="208"/>
+    </row>
+    <row r="433" spans="2:35" ht="16">
+      <c r="B433" s="204"/>
+      <c r="C433" s="208"/>
+      <c r="D433" s="208"/>
+      <c r="E433" s="208"/>
+      <c r="F433" s="208"/>
+      <c r="G433" s="208"/>
+      <c r="H433" s="208"/>
+      <c r="I433" s="208"/>
+      <c r="J433" s="208"/>
+      <c r="K433" s="208"/>
+      <c r="L433" s="208"/>
+      <c r="M433" s="208"/>
+      <c r="N433" s="208"/>
+      <c r="O433" s="208"/>
+      <c r="P433" s="208"/>
+      <c r="Q433" s="208"/>
+      <c r="R433" s="208"/>
+      <c r="S433" s="208"/>
+      <c r="T433" s="208"/>
+      <c r="U433" s="208"/>
+      <c r="V433" s="208"/>
+      <c r="W433" s="208"/>
+      <c r="X433" s="208"/>
+      <c r="Y433" s="208"/>
+      <c r="Z433" s="208"/>
+      <c r="AA433" s="208"/>
+      <c r="AB433" s="208"/>
+      <c r="AC433" s="208"/>
+      <c r="AD433" s="208"/>
+      <c r="AE433" s="208"/>
+      <c r="AF433" s="208"/>
+      <c r="AG433" s="208"/>
+      <c r="AH433" s="208"/>
+      <c r="AI433" s="208"/>
+    </row>
+    <row r="434" spans="2:35" ht="16">
+      <c r="B434" s="204"/>
+      <c r="C434" s="208"/>
+      <c r="D434" s="208"/>
+      <c r="E434" s="208"/>
+      <c r="F434" s="208"/>
+      <c r="G434" s="208"/>
+      <c r="H434" s="208"/>
+      <c r="I434" s="208"/>
+      <c r="J434" s="208"/>
+      <c r="K434" s="208"/>
+      <c r="L434" s="208"/>
+      <c r="M434" s="208"/>
+      <c r="N434" s="208"/>
+      <c r="O434" s="208"/>
+      <c r="P434" s="208"/>
+      <c r="Q434" s="208"/>
+      <c r="R434" s="208"/>
+      <c r="S434" s="208"/>
+      <c r="T434" s="208"/>
+      <c r="U434" s="208"/>
+      <c r="V434" s="208"/>
+      <c r="W434" s="208"/>
+      <c r="X434" s="208"/>
+      <c r="Y434" s="208"/>
+      <c r="Z434" s="208"/>
+      <c r="AA434" s="208"/>
+      <c r="AB434" s="208"/>
+      <c r="AC434" s="208"/>
+      <c r="AD434" s="208"/>
+      <c r="AE434" s="208"/>
+      <c r="AF434" s="208"/>
+      <c r="AG434" s="208"/>
+      <c r="AH434" s="208"/>
+      <c r="AI434" s="208"/>
+    </row>
+    <row r="435" spans="2:35" ht="16">
+      <c r="B435" s="204"/>
+      <c r="C435" s="208"/>
+      <c r="D435" s="208"/>
+      <c r="E435" s="208"/>
+      <c r="F435" s="208"/>
+      <c r="G435" s="208"/>
+      <c r="H435" s="208"/>
+      <c r="I435" s="208"/>
+      <c r="J435" s="208"/>
+      <c r="K435" s="208"/>
+      <c r="L435" s="208"/>
+      <c r="M435" s="208"/>
+      <c r="N435" s="208"/>
+      <c r="O435" s="208"/>
+      <c r="P435" s="208"/>
+      <c r="Q435" s="208"/>
+      <c r="R435" s="208"/>
+      <c r="S435" s="208"/>
+      <c r="T435" s="208"/>
+      <c r="U435" s="208"/>
+      <c r="V435" s="208"/>
+      <c r="W435" s="208"/>
+      <c r="X435" s="208"/>
+      <c r="Y435" s="208"/>
+      <c r="Z435" s="208"/>
+      <c r="AA435" s="208"/>
+      <c r="AB435" s="208"/>
+      <c r="AC435" s="208"/>
+      <c r="AD435" s="208"/>
+      <c r="AE435" s="208"/>
+      <c r="AF435" s="208"/>
+      <c r="AG435" s="208"/>
+      <c r="AH435" s="208"/>
+      <c r="AI435" s="208"/>
+    </row>
+    <row r="436" spans="2:35" ht="16">
+      <c r="B436" s="204"/>
+      <c r="C436" s="208"/>
+      <c r="D436" s="208"/>
+      <c r="E436" s="208"/>
+      <c r="F436" s="208"/>
+      <c r="G436" s="208"/>
+      <c r="H436" s="208"/>
+      <c r="I436" s="208"/>
+      <c r="J436" s="208"/>
+      <c r="K436" s="208"/>
+      <c r="L436" s="208"/>
+      <c r="M436" s="208"/>
+      <c r="N436" s="208"/>
+      <c r="O436" s="208"/>
+      <c r="P436" s="208"/>
+      <c r="Q436" s="208"/>
+      <c r="R436" s="208"/>
+      <c r="S436" s="208"/>
+      <c r="T436" s="208"/>
+      <c r="U436" s="208"/>
+      <c r="V436" s="208"/>
+      <c r="W436" s="208"/>
+      <c r="X436" s="208"/>
+      <c r="Y436" s="208"/>
+      <c r="Z436" s="208"/>
+      <c r="AA436" s="208"/>
+      <c r="AB436" s="208"/>
+      <c r="AC436" s="208"/>
+      <c r="AD436" s="208"/>
+      <c r="AE436" s="208"/>
+      <c r="AF436" s="208"/>
+      <c r="AG436" s="208"/>
+      <c r="AH436" s="208"/>
+      <c r="AI436" s="208"/>
+    </row>
+    <row r="437" spans="2:35" ht="16">
+      <c r="B437" s="204"/>
+      <c r="C437" s="208"/>
+      <c r="D437" s="208"/>
+      <c r="E437" s="208"/>
+      <c r="F437" s="208"/>
+      <c r="G437" s="208"/>
+      <c r="H437" s="208"/>
+      <c r="I437" s="208"/>
+      <c r="J437" s="208"/>
+      <c r="K437" s="208"/>
+      <c r="L437" s="208"/>
+      <c r="M437" s="208"/>
+      <c r="N437" s="208"/>
+      <c r="O437" s="208"/>
+      <c r="P437" s="208"/>
+      <c r="Q437" s="208"/>
+      <c r="R437" s="208"/>
+      <c r="S437" s="208"/>
+      <c r="T437" s="208"/>
+      <c r="U437" s="208"/>
+      <c r="V437" s="208"/>
+      <c r="W437" s="208"/>
+      <c r="X437" s="208"/>
+      <c r="Y437" s="208"/>
+      <c r="Z437" s="208"/>
+      <c r="AA437" s="208"/>
+      <c r="AB437" s="208"/>
+      <c r="AC437" s="208"/>
+      <c r="AD437" s="208"/>
+      <c r="AE437" s="208"/>
+      <c r="AF437" s="208"/>
+      <c r="AG437" s="208"/>
+      <c r="AH437" s="208"/>
+      <c r="AI437" s="208"/>
+    </row>
+    <row r="438" spans="2:35" ht="16">
+      <c r="B438" s="204"/>
+      <c r="C438" s="208"/>
+      <c r="D438" s="208"/>
+      <c r="E438" s="208"/>
+      <c r="F438" s="208"/>
+      <c r="G438" s="208"/>
+      <c r="H438" s="208"/>
+      <c r="I438" s="208"/>
+      <c r="J438" s="208"/>
+      <c r="K438" s="208"/>
+      <c r="L438" s="208"/>
+      <c r="M438" s="208"/>
+      <c r="N438" s="208"/>
+      <c r="O438" s="208"/>
+      <c r="P438" s="208"/>
+      <c r="Q438" s="208"/>
+      <c r="R438" s="208"/>
+      <c r="S438" s="208"/>
+      <c r="T438" s="208"/>
+      <c r="U438" s="208"/>
+      <c r="V438" s="208"/>
+      <c r="W438" s="208"/>
+      <c r="X438" s="208"/>
+      <c r="Y438" s="208"/>
+      <c r="Z438" s="208"/>
+      <c r="AA438" s="208"/>
+      <c r="AB438" s="208"/>
+      <c r="AC438" s="208"/>
+      <c r="AD438" s="208"/>
+      <c r="AE438" s="208"/>
+      <c r="AF438" s="208"/>
+      <c r="AG438" s="208"/>
+      <c r="AH438" s="208"/>
+      <c r="AI438" s="208"/>
+    </row>
+    <row r="439" spans="2:35" ht="16">
+      <c r="B439" s="204"/>
+      <c r="C439" s="208"/>
+      <c r="D439" s="208"/>
+      <c r="E439" s="208"/>
+      <c r="F439" s="208"/>
+      <c r="G439" s="208"/>
+      <c r="H439" s="208"/>
+      <c r="I439" s="208"/>
+      <c r="J439" s="208"/>
+      <c r="K439" s="208"/>
+      <c r="L439" s="208"/>
+      <c r="M439" s="208"/>
+      <c r="N439" s="208"/>
+      <c r="O439" s="208"/>
+      <c r="P439" s="208"/>
+      <c r="Q439" s="208"/>
+      <c r="R439" s="208"/>
+      <c r="S439" s="208"/>
+      <c r="T439" s="208"/>
+      <c r="U439" s="208"/>
+      <c r="V439" s="208"/>
+      <c r="W439" s="208"/>
+      <c r="X439" s="208"/>
+      <c r="Y439" s="208"/>
+      <c r="Z439" s="208"/>
+      <c r="AA439" s="208"/>
+      <c r="AB439" s="208"/>
+      <c r="AC439" s="208"/>
+      <c r="AD439" s="208"/>
+      <c r="AE439" s="208"/>
+      <c r="AF439" s="208"/>
+      <c r="AG439" s="208"/>
+      <c r="AH439" s="208"/>
+      <c r="AI439" s="208"/>
+    </row>
+    <row r="440" spans="2:35" ht="16">
+      <c r="B440" s="204"/>
+      <c r="C440" s="208"/>
+      <c r="D440" s="208"/>
+      <c r="E440" s="208"/>
+      <c r="F440" s="208"/>
+      <c r="G440" s="208"/>
+      <c r="H440" s="208"/>
+      <c r="I440" s="208"/>
+      <c r="J440" s="208"/>
+      <c r="K440" s="208"/>
+      <c r="L440" s="208"/>
+      <c r="M440" s="208"/>
+      <c r="N440" s="208"/>
+      <c r="O440" s="208"/>
+      <c r="P440" s="208"/>
+      <c r="Q440" s="208"/>
+      <c r="R440" s="208"/>
+      <c r="S440" s="208"/>
+      <c r="T440" s="208"/>
+      <c r="U440" s="208"/>
+      <c r="V440" s="208"/>
+      <c r="W440" s="208"/>
+      <c r="X440" s="208"/>
+      <c r="Y440" s="208"/>
+      <c r="Z440" s="208"/>
+      <c r="AA440" s="208"/>
+      <c r="AB440" s="208"/>
+      <c r="AC440" s="208"/>
+      <c r="AD440" s="208"/>
+      <c r="AE440" s="208"/>
+      <c r="AF440" s="208"/>
+      <c r="AG440" s="208"/>
+      <c r="AH440" s="208"/>
+      <c r="AI440" s="208"/>
+    </row>
+    <row r="441" spans="2:35" ht="16">
+      <c r="B441" s="204"/>
+      <c r="C441" s="208"/>
+      <c r="D441" s="208"/>
+      <c r="E441" s="208"/>
+      <c r="F441" s="208"/>
+      <c r="G441" s="208"/>
+      <c r="H441" s="208"/>
+      <c r="I441" s="208"/>
+      <c r="J441" s="208"/>
+      <c r="K441" s="208"/>
+      <c r="L441" s="208"/>
+      <c r="M441" s="208"/>
+      <c r="N441" s="208"/>
+      <c r="O441" s="208"/>
+      <c r="P441" s="208"/>
+      <c r="Q441" s="208"/>
+      <c r="R441" s="208"/>
+      <c r="S441" s="208"/>
+      <c r="T441" s="208"/>
+      <c r="U441" s="208"/>
+      <c r="V441" s="208"/>
+      <c r="W441" s="208"/>
+      <c r="X441" s="208"/>
+      <c r="Y441" s="208"/>
+      <c r="Z441" s="208"/>
+      <c r="AA441" s="208"/>
+      <c r="AB441" s="208"/>
+      <c r="AC441" s="208"/>
+      <c r="AD441" s="208"/>
+      <c r="AE441" s="208"/>
+      <c r="AF441" s="208"/>
+      <c r="AG441" s="208"/>
+      <c r="AH441" s="208"/>
+      <c r="AI441" s="208"/>
+    </row>
+    <row r="442" spans="2:35" ht="16">
+      <c r="B442" s="204"/>
+      <c r="C442" s="208"/>
+      <c r="D442" s="208"/>
+      <c r="E442" s="208"/>
+      <c r="F442" s="208"/>
+      <c r="G442" s="208"/>
+      <c r="H442" s="208"/>
+      <c r="I442" s="208"/>
+      <c r="J442" s="208"/>
+      <c r="K442" s="208"/>
+      <c r="L442" s="208"/>
+      <c r="M442" s="208"/>
+      <c r="N442" s="208"/>
+      <c r="O442" s="208"/>
+      <c r="P442" s="208"/>
+      <c r="Q442" s="208"/>
+      <c r="R442" s="208"/>
+      <c r="S442" s="208"/>
+      <c r="T442" s="208"/>
+      <c r="U442" s="208"/>
+      <c r="V442" s="208"/>
+      <c r="W442" s="208"/>
+      <c r="X442" s="208"/>
+      <c r="Y442" s="208"/>
+      <c r="Z442" s="208"/>
+      <c r="AA442" s="208"/>
+      <c r="AB442" s="208"/>
+      <c r="AC442" s="208"/>
+      <c r="AD442" s="208"/>
+      <c r="AE442" s="208"/>
+      <c r="AF442" s="208"/>
+      <c r="AG442" s="208"/>
+      <c r="AH442" s="208"/>
+      <c r="AI442" s="208"/>
+    </row>
+    <row r="443" spans="2:35" ht="16">
+      <c r="B443" s="204"/>
+      <c r="C443" s="208"/>
+      <c r="D443" s="208"/>
+      <c r="E443" s="208"/>
+      <c r="F443" s="208"/>
+      <c r="G443" s="208"/>
+      <c r="H443" s="208"/>
+      <c r="I443" s="208"/>
+      <c r="J443" s="208"/>
+      <c r="K443" s="208"/>
+      <c r="L443" s="208"/>
+      <c r="M443" s="208"/>
+      <c r="N443" s="208"/>
+      <c r="O443" s="208"/>
+      <c r="P443" s="208"/>
+      <c r="Q443" s="208"/>
+      <c r="R443" s="208"/>
+      <c r="S443" s="208"/>
+      <c r="T443" s="208"/>
+      <c r="U443" s="208"/>
+      <c r="V443" s="208"/>
+      <c r="W443" s="208"/>
+      <c r="X443" s="208"/>
+      <c r="Y443" s="208"/>
+      <c r="Z443" s="208"/>
+      <c r="AA443" s="208"/>
+      <c r="AB443" s="208"/>
+      <c r="AC443" s="208"/>
+      <c r="AD443" s="208"/>
+      <c r="AE443" s="208"/>
+      <c r="AF443" s="208"/>
+      <c r="AG443" s="208"/>
+      <c r="AH443" s="208"/>
+      <c r="AI443" s="208"/>
+    </row>
+    <row r="444" spans="2:35" ht="16">
+      <c r="B444" s="204"/>
+      <c r="C444" s="208"/>
+      <c r="D444" s="208"/>
+      <c r="E444" s="208"/>
+      <c r="F444" s="208"/>
+      <c r="G444" s="208"/>
+      <c r="H444" s="208"/>
+      <c r="I444" s="208"/>
+      <c r="J444" s="208"/>
+      <c r="K444" s="208"/>
+      <c r="L444" s="208"/>
+      <c r="M444" s="208"/>
+      <c r="N444" s="208"/>
+      <c r="O444" s="208"/>
+      <c r="P444" s="208"/>
+      <c r="Q444" s="208"/>
+      <c r="R444" s="208"/>
+      <c r="S444" s="208"/>
+      <c r="T444" s="208"/>
+      <c r="U444" s="208"/>
+      <c r="V444" s="208"/>
+      <c r="W444" s="208"/>
+      <c r="X444" s="208"/>
+      <c r="Y444" s="208"/>
+      <c r="Z444" s="208"/>
+      <c r="AA444" s="208"/>
+      <c r="AB444" s="208"/>
+      <c r="AC444" s="208"/>
+      <c r="AD444" s="208"/>
+      <c r="AE444" s="208"/>
+      <c r="AF444" s="208"/>
+      <c r="AG444" s="208"/>
+      <c r="AH444" s="208"/>
+      <c r="AI444" s="208"/>
+    </row>
+    <row r="445" spans="2:35" ht="16">
+      <c r="B445" s="204"/>
+      <c r="C445" s="208"/>
+      <c r="D445" s="208"/>
+      <c r="E445" s="208"/>
+      <c r="F445" s="208"/>
+      <c r="G445" s="208"/>
+      <c r="H445" s="208"/>
+      <c r="I445" s="208"/>
+      <c r="J445" s="208"/>
+      <c r="K445" s="208"/>
+      <c r="L445" s="208"/>
+      <c r="M445" s="208"/>
+      <c r="N445" s="208"/>
+      <c r="O445" s="208"/>
+      <c r="P445" s="208"/>
+      <c r="Q445" s="208"/>
+      <c r="R445" s="208"/>
+      <c r="S445" s="208"/>
+      <c r="T445" s="208"/>
+      <c r="U445" s="208"/>
+      <c r="V445" s="208"/>
+      <c r="W445" s="208"/>
+      <c r="X445" s="208"/>
+      <c r="Y445" s="208"/>
+      <c r="Z445" s="208"/>
+      <c r="AA445" s="208"/>
+      <c r="AB445" s="208"/>
+      <c r="AC445" s="208"/>
+      <c r="AD445" s="208"/>
+      <c r="AE445" s="208"/>
+      <c r="AF445" s="208"/>
+      <c r="AG445" s="208"/>
+      <c r="AH445" s="208"/>
+      <c r="AI445" s="208"/>
+    </row>
+    <row r="446" spans="2:35" ht="16">
+      <c r="B446" s="204"/>
+      <c r="C446" s="208"/>
+      <c r="D446" s="208"/>
+      <c r="E446" s="208"/>
+      <c r="F446" s="208"/>
+      <c r="G446" s="208"/>
+      <c r="H446" s="208"/>
+      <c r="I446" s="208"/>
+      <c r="J446" s="208"/>
+      <c r="K446" s="208"/>
+      <c r="L446" s="208"/>
+      <c r="M446" s="208"/>
+      <c r="N446" s="208"/>
+      <c r="O446" s="208"/>
+      <c r="P446" s="208"/>
+      <c r="Q446" s="208"/>
+      <c r="R446" s="208"/>
+      <c r="S446" s="208"/>
+      <c r="T446" s="208"/>
+      <c r="U446" s="208"/>
+      <c r="V446" s="208"/>
+      <c r="W446" s="208"/>
+      <c r="X446" s="208"/>
+      <c r="Y446" s="208"/>
+      <c r="Z446" s="208"/>
+      <c r="AA446" s="208"/>
+      <c r="AB446" s="208"/>
+      <c r="AC446" s="208"/>
+      <c r="AD446" s="208"/>
+      <c r="AE446" s="208"/>
+      <c r="AF446" s="208"/>
+      <c r="AG446" s="208"/>
+      <c r="AH446" s="208"/>
+      <c r="AI446" s="208"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/wood.carrier.xlsx
+++ b/carriers_source_analyses/wood.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="44320" yWindow="-2800" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -506,10 +514,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
-</t>
   </si>
   <si>
     <t>EUR/tonne</t>
@@ -593,6 +597,9 @@
   <si>
     <t>Actual CO2 emission from biomass</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
+  </si>
 </sst>
 </file>
 
@@ -610,7 +617,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -880,11 +887,6 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -2091,22 +2093,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="48" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="47" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2116,7 +2118,8 @@
     </xf>
     <xf numFmtId="172" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2144,7 +2147,6 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="409">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -2559,80 +2561,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3354,7 +3291,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3467,12 +3404,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3481,6 +3419,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3815,42 +3754,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="1.875" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1">
+    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3859,7 +3798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3868,17 +3807,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="75" t="s">
         <v>15</v>
@@ -3886,13 +3825,13 @@
       <c r="C9" s="76"/>
       <c r="D9" s="185"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
       <c r="D10" s="186"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="77" t="s">
         <v>16</v>
@@ -3902,7 +3841,7 @@
       </c>
       <c r="D11" s="186"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="77"/>
       <c r="C12" s="19" t="s">
@@ -3910,7 +3849,7 @@
       </c>
       <c r="D12" s="186"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
@@ -3918,7 +3857,7 @@
       </c>
       <c r="D13" s="186"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
@@ -3926,13 +3865,13 @@
       </c>
       <c r="D14" s="186"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
       <c r="D15" s="186"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="77" t="s">
         <v>21</v>
@@ -3942,7 +3881,7 @@
       </c>
       <c r="D16" s="186"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
@@ -3950,7 +3889,7 @@
       </c>
       <c r="D17" s="186"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
@@ -3958,7 +3897,7 @@
       </c>
       <c r="D18" s="186"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
@@ -3966,7 +3905,7 @@
       </c>
       <c r="D19" s="186"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
@@ -3974,7 +3913,7 @@
       </c>
       <c r="D20" s="186"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
@@ -3982,7 +3921,7 @@
       </c>
       <c r="D21" s="186"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
@@ -3990,14 +3929,14 @@
       </c>
       <c r="D22" s="186"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="186"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="187"/>
       <c r="C24" s="188"/>
       <c r="D24" s="189"/>
@@ -4005,76 +3944,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="46" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
     <col min="7" max="7" width="45" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="221" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="222" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="223"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="224"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="226"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="227"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="227"/>
+    </row>
+    <row r="4" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
       <c r="E4" s="229"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="F4" s="229"/>
+      <c r="G4" s="230"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="37"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4085,7 +4019,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="2:11" s="43" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -4106,7 +4040,7 @@
       </c>
       <c r="J7" s="92"/>
     </row>
-    <row r="8" spans="2:11" s="43" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="19"/>
       <c r="D8" s="32"/>
@@ -4117,7 +4051,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
         <v>150</v>
@@ -4130,7 +4064,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="98" t="s">
         <v>37</v>
@@ -4152,7 +4086,7 @@
       </c>
       <c r="J10" s="44"/>
     </row>
-    <row r="11" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="105" t="s">
         <v>38</v>
@@ -4172,7 +4106,7 @@
       </c>
       <c r="J11" s="44"/>
     </row>
-    <row r="12" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="105" t="s">
         <v>148</v>
@@ -4192,7 +4126,7 @@
       </c>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="35" t="s">
         <v>39</v>
@@ -4206,7 +4140,7 @@
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="200" t="s">
@@ -4214,10 +4148,10 @@
       </c>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="199" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>48</v>
@@ -4228,15 +4162,15 @@
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="219" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="230" t="s">
-        <v>168</v>
+      <c r="I14" s="221" t="s">
+        <v>167</v>
       </c>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="35" t="s">
         <v>40</v>
@@ -4258,7 +4192,7 @@
       <c r="J15" s="93"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -4271,47 +4205,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4326,35 +4223,34 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="64" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="64" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="64" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="64" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="64" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="64" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="65" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="64" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="64" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="64" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="64" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="64" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="65" customWidth="1"/>
     <col min="10" max="10" width="3" style="65" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="65" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="65" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="65" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="65" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="65" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="65" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="65" customWidth="1"/>
-    <col min="18" max="18" width="2.75" style="65" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="65" customWidth="1"/>
-    <col min="21" max="21" width="2.75" style="65" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="65" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="65" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="65" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="65" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="65" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="65" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="65" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="65" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="65" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="65" customWidth="1"/>
     <col min="22" max="22" width="60" style="64" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="64"/>
+    <col min="23" max="16384" width="10.7109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="16" thickBot="1"/>
-    <row r="2" spans="2:22">
+    <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -4377,7 +4273,7 @@
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
     </row>
-    <row r="3" spans="2:22" s="25" customFormat="1">
+    <row r="3" spans="2:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="97" t="s">
         <v>30</v>
@@ -4408,21 +4304,21 @@
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T3" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U3" s="63"/>
       <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="70"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -4445,7 +4341,7 @@
       <c r="U4" s="96"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="2:22" ht="16" thickBot="1">
+    <row r="5" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="70"/>
       <c r="C5" s="19" t="s">
         <v>53</v>
@@ -4470,7 +4366,7 @@
       <c r="U5" s="16"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="2:22" ht="16" thickBot="1">
+    <row r="6" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="108" t="s">
         <v>37</v>
@@ -4502,10 +4398,10 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="196" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="109" t="s">
         <v>38</v>
@@ -4540,10 +4436,10 @@
       <c r="T7" s="218"/>
       <c r="U7" s="16"/>
       <c r="V7" s="196" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="109" t="s">
         <v>148</v>
@@ -4589,7 +4485,7 @@
       <c r="U8" s="16"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
         <v>39</v>
@@ -4623,13 +4519,13 @@
       <c r="T9" s="197"/>
       <c r="U9" s="16"/>
       <c r="V9" s="196" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="198" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>39</v>
@@ -4663,7 +4559,7 @@
       <c r="U10" s="16"/>
       <c r="V10" s="196"/>
     </row>
-    <row r="11" spans="2:22" ht="16" thickBot="1">
+    <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="70"/>
       <c r="C11" s="110" t="s">
         <v>40</v>
@@ -4706,7 +4602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="70"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4732,11 +4628,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4751,23 +4642,23 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="47" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="47" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="47" customWidth="1"/>
     <col min="6" max="6" width="5" style="47" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="47" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="47" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="47"/>
+    <col min="7" max="7" width="10.28515625" style="47" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="47" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1"/>
-    <row r="2" spans="1:12">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -4780,7 +4671,7 @@
       <c r="K2" s="51"/>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="52"/>
       <c r="C3" s="53" t="s">
         <v>11</v>
@@ -4795,7 +4686,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4808,7 +4699,7 @@
       <c r="K4" s="56"/>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
         <v>13</v>
@@ -4837,7 +4728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="52"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -4850,7 +4741,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="53"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="52"/>
       <c r="C7" s="47" t="s">
         <v>38</v>
@@ -4865,12 +4756,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="E8" s="173"/>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="120" t="s">
         <v>148</v>
@@ -4897,14 +4788,14 @@
       </c>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="52"/>
       <c r="E10" s="118"/>
       <c r="F10" s="118"/>
       <c r="H10" s="181"/>
       <c r="I10" s="181"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="52"/>
       <c r="C11" s="121" t="s">
         <v>39</v>
@@ -4927,46 +4818,46 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="216" customFormat="1">
+    <row r="12" spans="1:12" s="216" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="210"/>
       <c r="B12" s="211"/>
       <c r="C12" s="205" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="212"/>
       <c r="E12" s="205" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="205"/>
       <c r="G12" s="210" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I12" s="213"/>
       <c r="J12" s="213"/>
       <c r="K12" s="214" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L12" s="215"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="52"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="52"/>
       <c r="C14" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="52"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="52"/>
       <c r="C16" s="120" t="s">
         <v>50</v>
@@ -4981,16 +4872,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="52"/>
       <c r="C17" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="52"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="52"/>
       <c r="C19" s="120" t="s">
         <v>50</v>
@@ -5005,16 +4896,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="52"/>
       <c r="C20" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="52"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="52"/>
       <c r="E22" s="47" t="s">
         <v>120</v>
@@ -5026,10 +4917,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="52"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="52"/>
       <c r="E24" s="47" t="s">
         <v>89</v>
@@ -5041,16 +4932,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="52"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="52"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="52"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="52"/>
     </row>
   </sheetData>
@@ -5059,11 +4950,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5075,22 +4961,22 @@
       <selection activeCell="D393" sqref="D393:J398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="100" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="100" customWidth="1"/>
     <col min="2" max="2" width="5" style="100" customWidth="1"/>
     <col min="3" max="5" width="7" style="100"/>
-    <col min="6" max="6" width="11.25" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="100" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="100"/>
-    <col min="8" max="8" width="8.125" style="100" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="100" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="100" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="100" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="100" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="100" customWidth="1"/>
     <col min="12" max="16384" width="7" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="25" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="103"/>
       <c r="C2" s="104" t="s">
         <v>25</v>
@@ -5118,7 +5004,7 @@
       <c r="T2" s="104"/>
       <c r="U2" s="104"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="101"/>
       <c r="C3" s="102"/>
       <c r="D3" s="102"/>
@@ -5140,7 +5026,7 @@
       <c r="T3" s="102"/>
       <c r="U3" s="102"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="101"/>
       <c r="C4" s="111" t="s">
         <v>56</v>
@@ -5168,7 +5054,7 @@
       <c r="X4" s="111"/>
       <c r="Y4" s="111"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="101"/>
       <c r="C5" s="111"/>
       <c r="D5" s="111"/>
@@ -5194,7 +5080,7 @@
       <c r="X5" s="111"/>
       <c r="Y5" s="111"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="101"/>
       <c r="C6" s="111"/>
       <c r="D6" s="111"/>
@@ -5220,7 +5106,7 @@
       <c r="X6" s="111"/>
       <c r="Y6" s="111"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="101"/>
       <c r="C7" s="111"/>
       <c r="D7" s="111"/>
@@ -5246,7 +5132,7 @@
       <c r="X7" s="111"/>
       <c r="Y7" s="111"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="101"/>
       <c r="C8" s="111"/>
       <c r="D8" s="111">
@@ -5276,7 +5162,7 @@
       <c r="X8" s="111"/>
       <c r="Y8" s="111"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="101"/>
       <c r="C9" s="111"/>
       <c r="D9" s="111"/>
@@ -5307,7 +5193,7 @@
       <c r="X9" s="111"/>
       <c r="Y9" s="111"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="101"/>
       <c r="C10" s="111"/>
       <c r="D10" s="111"/>
@@ -5336,7 +5222,7 @@
       <c r="X10" s="111"/>
       <c r="Y10" s="111"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="101"/>
       <c r="C11" s="111"/>
       <c r="D11" s="111"/>
@@ -5365,7 +5251,7 @@
       <c r="X11" s="111"/>
       <c r="Y11" s="111"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="101"/>
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
@@ -5391,7 +5277,7 @@
       <c r="X12" s="111"/>
       <c r="Y12" s="111"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="101"/>
       <c r="C13" s="111"/>
       <c r="D13" s="111"/>
@@ -5417,7 +5303,7 @@
       <c r="X13" s="111"/>
       <c r="Y13" s="111"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="101"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
@@ -5443,7 +5329,7 @@
       <c r="X14" s="111"/>
       <c r="Y14" s="111"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="101"/>
       <c r="C15" s="111"/>
       <c r="D15" s="111"/>
@@ -5469,7 +5355,7 @@
       <c r="X15" s="111"/>
       <c r="Y15" s="111"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="101"/>
       <c r="C16" s="111"/>
       <c r="D16" s="111"/>
@@ -5495,7 +5381,7 @@
       <c r="X16" s="111"/>
       <c r="Y16" s="111"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="101"/>
       <c r="C17" s="111"/>
       <c r="D17" s="111"/>
@@ -5521,7 +5407,7 @@
       <c r="X17" s="111"/>
       <c r="Y17" s="111"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="101"/>
       <c r="C18" s="111"/>
       <c r="D18" s="111"/>
@@ -5547,7 +5433,7 @@
       <c r="X18" s="111"/>
       <c r="Y18" s="111"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="101"/>
       <c r="C19" s="111"/>
       <c r="D19" s="111"/>
@@ -5573,7 +5459,7 @@
       <c r="X19" s="111"/>
       <c r="Y19" s="111"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="101"/>
       <c r="C20" s="111"/>
       <c r="D20" s="111"/>
@@ -5599,7 +5485,7 @@
       <c r="X20" s="111"/>
       <c r="Y20" s="111"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="101"/>
       <c r="C21" s="111"/>
       <c r="D21" s="111"/>
@@ -5625,7 +5511,7 @@
       <c r="X21" s="111"/>
       <c r="Y21" s="111"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="101"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
@@ -5651,7 +5537,7 @@
       <c r="X22" s="111"/>
       <c r="Y22" s="111"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="101"/>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
@@ -5677,7 +5563,7 @@
       <c r="X23" s="111"/>
       <c r="Y23" s="111"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="101"/>
       <c r="C24" s="111"/>
       <c r="D24" s="111"/>
@@ -5703,7 +5589,7 @@
       <c r="X24" s="111"/>
       <c r="Y24" s="111"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="101"/>
       <c r="C25" s="111"/>
       <c r="D25" s="111"/>
@@ -5729,7 +5615,7 @@
       <c r="X25" s="111"/>
       <c r="Y25" s="111"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="101"/>
       <c r="C26" s="111"/>
       <c r="D26" s="111"/>
@@ -5755,7 +5641,7 @@
       <c r="X26" s="111"/>
       <c r="Y26" s="111"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="101"/>
       <c r="C27" s="111"/>
       <c r="D27" s="111"/>
@@ -5781,7 +5667,7 @@
       <c r="X27" s="111"/>
       <c r="Y27" s="111"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="101"/>
       <c r="C28" s="111"/>
       <c r="D28" s="111"/>
@@ -5807,106 +5693,106 @@
       <c r="X28" s="111"/>
       <c r="Y28" s="111"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="101"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="101"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="101"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="101"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="101"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="101"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="101"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="101"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="101"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="101"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="101"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="101"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="101"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="101"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="101"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="101"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="101"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="101"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="101"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="16">
+    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="101"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="16">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="101"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="16">
+    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="101"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="16">
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="101"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" ht="16">
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="101"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="16">
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="101"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="16">
+    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="101"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="16">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" ht="16">
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="101"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="16">
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="101"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="16">
+    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="101"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="16">
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="101"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="101"/>
     </row>
-    <row r="62" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="62" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="103"/>
       <c r="C62" s="104" t="s">
@@ -5935,7 +5821,7 @@
       <c r="T62" s="104"/>
       <c r="U62" s="104"/>
     </row>
-    <row r="63" spans="1:25" s="128" customFormat="1" ht="16">
+    <row r="63" spans="1:25" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="101"/>
       <c r="C63" s="156"/>
       <c r="D63" s="157"/>
@@ -5961,16 +5847,16 @@
       <c r="X63" s="157"/>
       <c r="Y63" s="157"/>
     </row>
-    <row r="64" spans="1:25" s="125" customFormat="1">
+    <row r="64" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="101"/>
       <c r="C64" s="125" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="125" customFormat="1">
+    <row r="65" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="101"/>
     </row>
-    <row r="66" spans="2:8" s="125" customFormat="1">
+    <row r="66" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="101"/>
       <c r="D66" s="158" t="s">
         <v>99</v>
@@ -5979,55 +5865,55 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="125" customFormat="1">
+    <row r="67" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="101"/>
       <c r="H67" s="164">
         <v>0.87</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="125" customFormat="1">
+    <row r="68" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="101"/>
     </row>
-    <row r="69" spans="2:8" s="125" customFormat="1">
+    <row r="69" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="101"/>
     </row>
-    <row r="70" spans="2:8" s="125" customFormat="1">
+    <row r="70" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="101"/>
     </row>
-    <row r="71" spans="2:8" s="125" customFormat="1">
+    <row r="71" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="101"/>
     </row>
-    <row r="72" spans="2:8" s="125" customFormat="1">
+    <row r="72" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="101"/>
     </row>
-    <row r="73" spans="2:8" s="125" customFormat="1">
+    <row r="73" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="101"/>
     </row>
-    <row r="74" spans="2:8" s="125" customFormat="1">
+    <row r="74" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="101"/>
     </row>
-    <row r="75" spans="2:8" s="125" customFormat="1">
+    <row r="75" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="101"/>
     </row>
-    <row r="76" spans="2:8" s="125" customFormat="1">
+    <row r="76" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="101"/>
     </row>
-    <row r="77" spans="2:8" s="125" customFormat="1">
+    <row r="77" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="101"/>
     </row>
-    <row r="78" spans="2:8" s="125" customFormat="1">
+    <row r="78" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="101"/>
     </row>
-    <row r="79" spans="2:8" s="125" customFormat="1">
+    <row r="79" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="101"/>
     </row>
-    <row r="80" spans="2:8" s="125" customFormat="1">
+    <row r="80" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="101"/>
     </row>
-    <row r="81" spans="2:10" s="125" customFormat="1">
+    <row r="81" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="101"/>
     </row>
-    <row r="82" spans="2:10" s="125" customFormat="1" ht="16">
+    <row r="82" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="101"/>
       <c r="D82">
         <v>1211</v>
@@ -6038,7 +5924,7 @@
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="2:10" s="125" customFormat="1" ht="16">
+    <row r="83" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="101"/>
       <c r="D83"/>
       <c r="F83" t="s">
@@ -6054,7 +5940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="125" customFormat="1" ht="16">
+    <row r="84" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="101"/>
       <c r="D84"/>
       <c r="F84"/>
@@ -6068,7 +5954,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="125" customFormat="1" ht="16">
+    <row r="85" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="101"/>
       <c r="D85"/>
       <c r="F85" t="s">
@@ -6082,7 +5968,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="125" customFormat="1" ht="16">
+    <row r="86" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="101"/>
       <c r="D86"/>
       <c r="F86"/>
@@ -6094,52 +5980,52 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="125" customFormat="1">
+    <row r="87" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="101"/>
     </row>
-    <row r="88" spans="2:10" s="125" customFormat="1">
+    <row r="88" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="101"/>
     </row>
-    <row r="89" spans="2:10" s="125" customFormat="1">
+    <row r="89" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="101"/>
     </row>
-    <row r="90" spans="2:10" s="125" customFormat="1">
+    <row r="90" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="101"/>
     </row>
-    <row r="91" spans="2:10" s="125" customFormat="1">
+    <row r="91" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="101"/>
     </row>
-    <row r="92" spans="2:10" s="125" customFormat="1">
+    <row r="92" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="101"/>
     </row>
-    <row r="93" spans="2:10" s="125" customFormat="1">
+    <row r="93" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="101"/>
     </row>
-    <row r="94" spans="2:10" s="125" customFormat="1">
+    <row r="94" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="101"/>
     </row>
-    <row r="95" spans="2:10" s="125" customFormat="1">
+    <row r="95" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="101"/>
     </row>
-    <row r="96" spans="2:10" s="125" customFormat="1">
+    <row r="96" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="101"/>
     </row>
-    <row r="97" spans="2:9" s="125" customFormat="1">
+    <row r="97" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="101"/>
     </row>
-    <row r="98" spans="2:9" s="125" customFormat="1">
+    <row r="98" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="101"/>
     </row>
-    <row r="99" spans="2:9" s="125" customFormat="1">
+    <row r="99" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="101"/>
     </row>
-    <row r="100" spans="2:9" s="125" customFormat="1">
+    <row r="100" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="101"/>
       <c r="D100" s="125">
         <v>1212</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="125" customFormat="1" ht="16">
+    <row r="101" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="101"/>
       <c r="F101" t="s">
         <v>100</v>
@@ -6151,25 +6037,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="2:9" s="125" customFormat="1">
+    <row r="102" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="101"/>
     </row>
-    <row r="103" spans="2:9" s="125" customFormat="1">
+    <row r="103" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="101"/>
     </row>
-    <row r="104" spans="2:9" s="125" customFormat="1">
+    <row r="104" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="101"/>
     </row>
-    <row r="105" spans="2:9" s="125" customFormat="1">
+    <row r="105" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="101"/>
     </row>
-    <row r="106" spans="2:9" s="125" customFormat="1">
+    <row r="106" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="101"/>
     </row>
-    <row r="107" spans="2:9" s="125" customFormat="1">
+    <row r="107" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="101"/>
     </row>
-    <row r="108" spans="2:9" s="125" customFormat="1">
+    <row r="108" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="101"/>
       <c r="F108" s="126" t="s">
         <v>102</v>
@@ -6178,16 +6064,16 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="109" spans="2:9" s="125" customFormat="1">
+    <row r="109" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="101"/>
     </row>
-    <row r="110" spans="2:9" s="125" customFormat="1">
+    <row r="110" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="101"/>
     </row>
-    <row r="111" spans="2:9" s="125" customFormat="1">
+    <row r="111" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="101"/>
     </row>
-    <row r="112" spans="2:9" s="125" customFormat="1">
+    <row r="112" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="101"/>
       <c r="D112" s="158">
         <v>1216</v>
@@ -6196,22 +6082,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="2:10" s="125" customFormat="1">
+    <row r="113" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="101"/>
     </row>
-    <row r="114" spans="2:10" s="125" customFormat="1">
+    <row r="114" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="101"/>
     </row>
-    <row r="115" spans="2:10" s="125" customFormat="1">
+    <row r="115" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="101"/>
     </row>
-    <row r="116" spans="2:10" s="125" customFormat="1">
+    <row r="116" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="101"/>
     </row>
-    <row r="117" spans="2:10" s="125" customFormat="1">
+    <row r="117" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="101"/>
     </row>
-    <row r="118" spans="2:10" s="125" customFormat="1">
+    <row r="118" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="101"/>
       <c r="H118" s="158">
         <v>17.7</v>
@@ -6223,16 +6109,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:10" s="125" customFormat="1">
+    <row r="119" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="101"/>
       <c r="H119" s="159"/>
       <c r="I119" s="159"/>
       <c r="J119" s="158"/>
     </row>
-    <row r="120" spans="2:10" s="125" customFormat="1">
+    <row r="120" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="101"/>
     </row>
-    <row r="121" spans="2:10" s="125" customFormat="1">
+    <row r="121" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="101"/>
       <c r="F121" s="166" t="s">
         <v>109</v>
@@ -6244,7 +6130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="2:10" s="125" customFormat="1">
+    <row r="122" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="101"/>
       <c r="H122" s="125">
         <f>H121*1000</f>
@@ -6254,7 +6140,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="2:10" s="125" customFormat="1">
+    <row r="123" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="101"/>
       <c r="H123" s="125">
         <f>H122*100</f>
@@ -6264,12 +6150,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="2:10" s="125" customFormat="1">
+    <row r="124" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="101"/>
       <c r="H124" s="167"/>
       <c r="I124" s="166"/>
     </row>
-    <row r="125" spans="2:10" s="125" customFormat="1">
+    <row r="125" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="101"/>
       <c r="H125" s="167">
         <f>H123*H129</f>
@@ -6279,7 +6165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="2:10" s="125" customFormat="1">
+    <row r="126" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="101"/>
       <c r="F126" s="166" t="s">
         <v>130</v>
@@ -6292,13 +6178,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="2:10" s="125" customFormat="1">
+    <row r="127" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="101"/>
     </row>
-    <row r="128" spans="2:10" s="125" customFormat="1">
+    <row r="128" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="101"/>
     </row>
-    <row r="129" spans="1:25" s="125" customFormat="1">
+    <row r="129" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="101"/>
       <c r="D129" s="125">
         <v>1222</v>
@@ -6316,40 +6202,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="125" customFormat="1">
+    <row r="130" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="101"/>
     </row>
-    <row r="131" spans="1:25" s="125" customFormat="1">
+    <row r="131" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="101"/>
     </row>
-    <row r="132" spans="1:25" s="125" customFormat="1">
+    <row r="132" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="101"/>
     </row>
-    <row r="133" spans="1:25" s="125" customFormat="1">
+    <row r="133" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="101"/>
     </row>
-    <row r="134" spans="1:25" s="125" customFormat="1">
+    <row r="134" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="101"/>
     </row>
-    <row r="135" spans="1:25" s="125" customFormat="1">
+    <row r="135" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="101"/>
     </row>
-    <row r="136" spans="1:25" s="125" customFormat="1">
+    <row r="136" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="101"/>
     </row>
-    <row r="137" spans="1:25" s="125" customFormat="1">
+    <row r="137" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="101"/>
     </row>
-    <row r="138" spans="1:25" s="125" customFormat="1">
+    <row r="138" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="101"/>
     </row>
-    <row r="139" spans="1:25" s="125" customFormat="1">
+    <row r="139" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="101"/>
     </row>
-    <row r="140" spans="1:25" s="125" customFormat="1" ht="16" thickBot="1">
+    <row r="140" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="101"/>
     </row>
-    <row r="141" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="141" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" s="103"/>
       <c r="C141" s="104" t="s">
@@ -6378,7 +6264,7 @@
       <c r="T141" s="104"/>
       <c r="U141" s="104"/>
     </row>
-    <row r="142" spans="1:25" s="128" customFormat="1" ht="16">
+    <row r="142" spans="1:25" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="101"/>
       <c r="C142" s="156"/>
       <c r="D142" s="157"/>
@@ -6404,7 +6290,7 @@
       <c r="X142" s="157"/>
       <c r="Y142" s="157"/>
     </row>
-    <row r="143" spans="1:25" customFormat="1" ht="16">
+    <row r="143" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="101"/>
       <c r="C143" s="168" t="s">
         <v>113</v>
@@ -6431,7 +6317,7 @@
       <c r="W143" s="158"/>
       <c r="X143" s="158"/>
     </row>
-    <row r="144" spans="1:25" customFormat="1" ht="16">
+    <row r="144" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="101"/>
       <c r="C144" s="158"/>
       <c r="D144" s="158">
@@ -6460,7 +6346,7 @@
       <c r="W144" s="158"/>
       <c r="X144" s="158"/>
     </row>
-    <row r="145" spans="2:24" customFormat="1" ht="16">
+    <row r="145" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="101"/>
       <c r="C145" s="158"/>
       <c r="D145" s="158"/>
@@ -6485,7 +6371,7 @@
       <c r="W145" s="158"/>
       <c r="X145" s="158"/>
     </row>
-    <row r="146" spans="2:24" customFormat="1" ht="16">
+    <row r="146" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="101"/>
       <c r="C146" s="158"/>
       <c r="D146" s="158"/>
@@ -6510,7 +6396,7 @@
       <c r="W146" s="158"/>
       <c r="X146" s="158"/>
     </row>
-    <row r="147" spans="2:24" customFormat="1" ht="16">
+    <row r="147" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="101"/>
       <c r="C147" s="158"/>
       <c r="D147" s="158"/>
@@ -6535,7 +6421,7 @@
       <c r="W147" s="158"/>
       <c r="X147" s="158"/>
     </row>
-    <row r="148" spans="2:24" customFormat="1" ht="16">
+    <row r="148" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="101"/>
       <c r="C148" s="158"/>
       <c r="D148" s="158"/>
@@ -6562,7 +6448,7 @@
       <c r="W148" s="158"/>
       <c r="X148" s="158"/>
     </row>
-    <row r="149" spans="2:24" customFormat="1" ht="16">
+    <row r="149" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="101"/>
       <c r="C149" s="158"/>
       <c r="D149" s="158"/>
@@ -6587,7 +6473,7 @@
       <c r="W149" s="158"/>
       <c r="X149" s="158"/>
     </row>
-    <row r="150" spans="2:24" customFormat="1" ht="16">
+    <row r="150" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="101"/>
       <c r="C150" s="158"/>
       <c r="D150" s="161"/>
@@ -6616,7 +6502,7 @@
       <c r="W150" s="158"/>
       <c r="X150" s="158"/>
     </row>
-    <row r="151" spans="2:24" customFormat="1" ht="16">
+    <row r="151" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="101"/>
       <c r="C151" s="158"/>
       <c r="D151" s="161"/>
@@ -6647,7 +6533,7 @@
       <c r="W151" s="158"/>
       <c r="X151" s="158"/>
     </row>
-    <row r="152" spans="2:24" customFormat="1" ht="16">
+    <row r="152" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="101"/>
       <c r="C152" s="158"/>
       <c r="D152" s="161"/>
@@ -6678,7 +6564,7 @@
       <c r="W152" s="158"/>
       <c r="X152" s="158"/>
     </row>
-    <row r="153" spans="2:24" customFormat="1" ht="16">
+    <row r="153" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="101"/>
       <c r="C153" s="158"/>
       <c r="D153" s="161"/>
@@ -6707,7 +6593,7 @@
       <c r="W153" s="158"/>
       <c r="X153" s="158"/>
     </row>
-    <row r="154" spans="2:24" customFormat="1" ht="16">
+    <row r="154" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="101"/>
       <c r="C154" s="158"/>
       <c r="D154" s="161"/>
@@ -6740,7 +6626,7 @@
       <c r="W154" s="158"/>
       <c r="X154" s="158"/>
     </row>
-    <row r="155" spans="2:24" customFormat="1" ht="16">
+    <row r="155" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="101"/>
       <c r="C155" s="158"/>
       <c r="D155" s="161"/>
@@ -6773,7 +6659,7 @@
       <c r="W155" s="158"/>
       <c r="X155" s="158"/>
     </row>
-    <row r="156" spans="2:24" customFormat="1" ht="16">
+    <row r="156" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="101"/>
       <c r="C156" s="158"/>
       <c r="D156" s="161"/>
@@ -6804,7 +6690,7 @@
       <c r="W156" s="158"/>
       <c r="X156" s="158"/>
     </row>
-    <row r="157" spans="2:24" customFormat="1" ht="16">
+    <row r="157" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="101"/>
       <c r="C157" s="158"/>
       <c r="D157" s="161"/>
@@ -6840,7 +6726,7 @@
       <c r="W157" s="158"/>
       <c r="X157" s="158"/>
     </row>
-    <row r="158" spans="2:24" customFormat="1" ht="16">
+    <row r="158" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="101"/>
       <c r="C158" s="158"/>
       <c r="D158" s="161"/>
@@ -6876,7 +6762,7 @@
       <c r="W158" s="158"/>
       <c r="X158" s="158"/>
     </row>
-    <row r="159" spans="2:24" customFormat="1" ht="16">
+    <row r="159" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="101"/>
       <c r="C159" s="158"/>
       <c r="D159" s="161"/>
@@ -6904,7 +6790,7 @@
       <c r="W159" s="158"/>
       <c r="X159" s="158"/>
     </row>
-    <row r="160" spans="2:24" customFormat="1" ht="16">
+    <row r="160" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="101"/>
       <c r="C160" s="158"/>
       <c r="D160" s="161"/>
@@ -6938,7 +6824,7 @@
       <c r="W160" s="158"/>
       <c r="X160" s="158"/>
     </row>
-    <row r="161" spans="2:24" customFormat="1" ht="16">
+    <row r="161" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="101"/>
       <c r="C161" s="158"/>
       <c r="D161" s="158"/>
@@ -6963,7 +6849,7 @@
       <c r="W161" s="158"/>
       <c r="X161" s="158"/>
     </row>
-    <row r="162" spans="2:24" customFormat="1" ht="16">
+    <row r="162" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="101"/>
       <c r="C162" s="158"/>
       <c r="D162" s="158"/>
@@ -6988,7 +6874,7 @@
       <c r="W162" s="158"/>
       <c r="X162" s="158"/>
     </row>
-    <row r="163" spans="2:24" customFormat="1" ht="16">
+    <row r="163" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="101"/>
       <c r="C163" s="158"/>
       <c r="D163" s="158"/>
@@ -7013,7 +6899,7 @@
       <c r="W163" s="158"/>
       <c r="X163" s="158"/>
     </row>
-    <row r="164" spans="2:24" customFormat="1" ht="16">
+    <row r="164" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="101"/>
       <c r="C164" s="158"/>
       <c r="D164" s="158"/>
@@ -7038,7 +6924,7 @@
       <c r="W164" s="158"/>
       <c r="X164" s="158"/>
     </row>
-    <row r="165" spans="2:24" customFormat="1" ht="16">
+    <row r="165" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="101"/>
       <c r="C165" s="158"/>
       <c r="D165" s="158"/>
@@ -7063,7 +6949,7 @@
       <c r="W165" s="158"/>
       <c r="X165" s="158"/>
     </row>
-    <row r="166" spans="2:24" customFormat="1" ht="16">
+    <row r="166" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="101"/>
       <c r="C166" s="158"/>
       <c r="D166" s="158"/>
@@ -7088,7 +6974,7 @@
       <c r="W166" s="158"/>
       <c r="X166" s="158"/>
     </row>
-    <row r="167" spans="2:24" customFormat="1" ht="16">
+    <row r="167" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="101"/>
       <c r="C167" s="158"/>
       <c r="D167" s="158"/>
@@ -7113,7 +6999,7 @@
       <c r="W167" s="158"/>
       <c r="X167" s="158"/>
     </row>
-    <row r="168" spans="2:24" customFormat="1" ht="16">
+    <row r="168" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="101"/>
       <c r="C168" s="158"/>
       <c r="D168" s="158"/>
@@ -7138,7 +7024,7 @@
       <c r="W168" s="158"/>
       <c r="X168" s="158"/>
     </row>
-    <row r="169" spans="2:24" customFormat="1" ht="16">
+    <row r="169" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="101"/>
       <c r="C169" s="158"/>
       <c r="D169" s="158"/>
@@ -7163,7 +7049,7 @@
       <c r="W169" s="158"/>
       <c r="X169" s="158"/>
     </row>
-    <row r="170" spans="2:24" customFormat="1" ht="16">
+    <row r="170" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="101"/>
       <c r="C170" s="158"/>
       <c r="D170" s="158"/>
@@ -7188,7 +7074,7 @@
       <c r="W170" s="158"/>
       <c r="X170" s="158"/>
     </row>
-    <row r="171" spans="2:24" customFormat="1" ht="16">
+    <row r="171" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="101"/>
       <c r="C171" s="158"/>
       <c r="D171" s="158"/>
@@ -7213,7 +7099,7 @@
       <c r="W171" s="158"/>
       <c r="X171" s="158"/>
     </row>
-    <row r="172" spans="2:24" customFormat="1" ht="16">
+    <row r="172" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="101"/>
       <c r="C172" s="158"/>
       <c r="D172" s="158"/>
@@ -7238,7 +7124,7 @@
       <c r="W172" s="158"/>
       <c r="X172" s="158"/>
     </row>
-    <row r="173" spans="2:24" customFormat="1" ht="16">
+    <row r="173" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="101"/>
       <c r="C173" s="158"/>
       <c r="D173" s="158"/>
@@ -7263,7 +7149,7 @@
       <c r="W173" s="158"/>
       <c r="X173" s="158"/>
     </row>
-    <row r="174" spans="2:24" customFormat="1" ht="16">
+    <row r="174" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="101"/>
       <c r="C174" s="158"/>
       <c r="D174" s="158"/>
@@ -7288,7 +7174,7 @@
       <c r="W174" s="158"/>
       <c r="X174" s="158"/>
     </row>
-    <row r="175" spans="2:24" customFormat="1" ht="16">
+    <row r="175" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="101"/>
       <c r="C175" s="158"/>
       <c r="D175" s="158"/>
@@ -7313,7 +7199,7 @@
       <c r="W175" s="158"/>
       <c r="X175" s="158"/>
     </row>
-    <row r="176" spans="2:24" customFormat="1" ht="16">
+    <row r="176" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="101"/>
       <c r="C176" s="158"/>
       <c r="D176" s="158"/>
@@ -7338,7 +7224,7 @@
       <c r="W176" s="158"/>
       <c r="X176" s="158"/>
     </row>
-    <row r="177" spans="1:25" customFormat="1" ht="16">
+    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="101"/>
       <c r="C177" s="158"/>
       <c r="D177" s="158"/>
@@ -7363,7 +7249,7 @@
       <c r="W177" s="158"/>
       <c r="X177" s="158"/>
     </row>
-    <row r="178" spans="1:25" customFormat="1" ht="16">
+    <row r="178" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="101"/>
       <c r="C178" s="158"/>
       <c r="D178" s="158"/>
@@ -7388,7 +7274,7 @@
       <c r="W178" s="158"/>
       <c r="X178" s="158"/>
     </row>
-    <row r="179" spans="1:25" customFormat="1" ht="16">
+    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="101"/>
       <c r="C179" s="158"/>
       <c r="D179" s="158"/>
@@ -7413,7 +7299,7 @@
       <c r="W179" s="158"/>
       <c r="X179" s="158"/>
     </row>
-    <row r="180" spans="1:25" customFormat="1" ht="16">
+    <row r="180" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="101"/>
       <c r="C180" s="158"/>
       <c r="D180" s="158"/>
@@ -7438,7 +7324,7 @@
       <c r="W180" s="158"/>
       <c r="X180" s="158"/>
     </row>
-    <row r="181" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="181" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B181" s="101"/>
       <c r="C181" s="158"/>
       <c r="D181" s="158"/>
@@ -7463,7 +7349,7 @@
       <c r="W181" s="158"/>
       <c r="X181" s="158"/>
     </row>
-    <row r="182" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="182" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182" s="103"/>
       <c r="C182" s="104" t="s">
@@ -7492,7 +7378,7 @@
       <c r="T182" s="104"/>
       <c r="U182" s="104"/>
     </row>
-    <row r="183" spans="1:25" s="128" customFormat="1" ht="16">
+    <row r="183" spans="1:25" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="101"/>
       <c r="C183" s="156"/>
       <c r="D183" s="157"/>
@@ -7518,7 +7404,7 @@
       <c r="X183" s="157"/>
       <c r="Y183" s="157"/>
     </row>
-    <row r="184" spans="1:25" customFormat="1" ht="16">
+    <row r="184" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="101"/>
       <c r="C184" s="158"/>
       <c r="D184" s="158"/>
@@ -7543,7 +7429,7 @@
       <c r="W184" s="158"/>
       <c r="X184" s="158"/>
     </row>
-    <row r="185" spans="1:25" customFormat="1" ht="16">
+    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="101"/>
       <c r="C185" s="158" t="s">
         <v>120</v>
@@ -7570,7 +7456,7 @@
       <c r="W185" s="158"/>
       <c r="X185" s="158"/>
     </row>
-    <row r="186" spans="1:25" customFormat="1" ht="16">
+    <row r="186" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="101"/>
       <c r="C186" s="158"/>
       <c r="D186" s="158"/>
@@ -7597,7 +7483,7 @@
       <c r="W186" s="158"/>
       <c r="X186" s="158"/>
     </row>
-    <row r="187" spans="1:25" customFormat="1" ht="16">
+    <row r="187" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="101"/>
       <c r="C187" s="158"/>
       <c r="D187" s="158"/>
@@ -7625,7 +7511,7 @@
       <c r="W187" s="158"/>
       <c r="X187" s="158"/>
     </row>
-    <row r="188" spans="1:25" customFormat="1" ht="16">
+    <row r="188" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="101"/>
       <c r="C188" s="158"/>
       <c r="D188" s="158" t="s">
@@ -7652,7 +7538,7 @@
       <c r="W188" s="158"/>
       <c r="X188" s="158"/>
     </row>
-    <row r="189" spans="1:25" customFormat="1" ht="16">
+    <row r="189" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="101"/>
       <c r="C189" s="158"/>
       <c r="D189" s="158"/>
@@ -7664,7 +7550,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I189" s="158"/>
       <c r="J189" s="158"/>
@@ -7683,7 +7569,7 @@
       <c r="W189" s="158"/>
       <c r="X189" s="158"/>
     </row>
-    <row r="190" spans="1:25" customFormat="1" ht="16">
+    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="101"/>
       <c r="C190" s="158"/>
       <c r="D190" s="161"/>
@@ -7709,7 +7595,7 @@
       <c r="W190" s="158"/>
       <c r="X190" s="158"/>
     </row>
-    <row r="191" spans="1:25" customFormat="1" ht="16">
+    <row r="191" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="101"/>
       <c r="C191" s="158"/>
       <c r="D191" s="161"/>
@@ -7738,7 +7624,7 @@
       <c r="W191" s="158"/>
       <c r="X191" s="158"/>
     </row>
-    <row r="192" spans="1:25" customFormat="1" ht="16">
+    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="101"/>
       <c r="C192" s="158"/>
       <c r="D192" s="161"/>
@@ -7767,7 +7653,7 @@
       <c r="W192" s="158"/>
       <c r="X192" s="158"/>
     </row>
-    <row r="193" spans="2:24" customFormat="1" ht="16">
+    <row r="193" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="101"/>
       <c r="C193" s="158"/>
       <c r="D193" s="161"/>
@@ -7796,7 +7682,7 @@
       <c r="W193" s="158"/>
       <c r="X193" s="158"/>
     </row>
-    <row r="194" spans="2:24" customFormat="1" ht="16">
+    <row r="194" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="101"/>
       <c r="C194" s="158"/>
       <c r="D194" s="161"/>
@@ -7825,7 +7711,7 @@
       <c r="W194" s="158"/>
       <c r="X194" s="158"/>
     </row>
-    <row r="195" spans="2:24" customFormat="1" ht="16">
+    <row r="195" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="101"/>
       <c r="C195" s="158"/>
       <c r="D195" s="161"/>
@@ -7858,7 +7744,7 @@
       <c r="W195" s="158"/>
       <c r="X195" s="158"/>
     </row>
-    <row r="196" spans="2:24" customFormat="1" ht="16">
+    <row r="196" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="101"/>
       <c r="C196" s="158"/>
       <c r="D196" s="161"/>
@@ -7890,7 +7776,7 @@
       <c r="W196" s="158"/>
       <c r="X196" s="158"/>
     </row>
-    <row r="197" spans="2:24" customFormat="1" ht="16">
+    <row r="197" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="101"/>
       <c r="C197" s="158"/>
       <c r="D197" s="161"/>
@@ -7928,7 +7814,7 @@
       <c r="W197" s="158"/>
       <c r="X197" s="158"/>
     </row>
-    <row r="198" spans="2:24" customFormat="1" ht="16">
+    <row r="198" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="101"/>
       <c r="C198" s="158"/>
       <c r="D198" s="161"/>
@@ -7953,7 +7839,7 @@
       <c r="W198" s="158"/>
       <c r="X198" s="158"/>
     </row>
-    <row r="199" spans="2:24" customFormat="1" ht="16">
+    <row r="199" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="101"/>
       <c r="C199" s="158"/>
       <c r="D199" s="161"/>
@@ -7978,7 +7864,7 @@
       <c r="W199" s="158"/>
       <c r="X199" s="158"/>
     </row>
-    <row r="200" spans="2:24" customFormat="1" ht="16">
+    <row r="200" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="101"/>
       <c r="C200" s="158"/>
       <c r="D200" s="158"/>
@@ -8003,7 +7889,7 @@
       <c r="W200" s="158"/>
       <c r="X200" s="158"/>
     </row>
-    <row r="201" spans="2:24" customFormat="1" ht="16">
+    <row r="201" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="101"/>
       <c r="C201" s="158"/>
       <c r="D201" s="158"/>
@@ -8028,7 +7914,7 @@
       <c r="W201" s="158"/>
       <c r="X201" s="158"/>
     </row>
-    <row r="202" spans="2:24" customFormat="1" ht="16">
+    <row r="202" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="101"/>
       <c r="C202" s="158"/>
       <c r="D202" s="158"/>
@@ -8053,7 +7939,7 @@
       <c r="W202" s="158"/>
       <c r="X202" s="158"/>
     </row>
-    <row r="203" spans="2:24" customFormat="1" ht="16">
+    <row r="203" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="101"/>
       <c r="C203" s="158"/>
       <c r="D203" s="158"/>
@@ -8078,7 +7964,7 @@
       <c r="W203" s="158"/>
       <c r="X203" s="158"/>
     </row>
-    <row r="204" spans="2:24" customFormat="1" ht="16">
+    <row r="204" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="101"/>
       <c r="C204" s="158"/>
       <c r="D204" s="158"/>
@@ -8103,7 +7989,7 @@
       <c r="W204" s="158"/>
       <c r="X204" s="158"/>
     </row>
-    <row r="205" spans="2:24" customFormat="1" ht="16">
+    <row r="205" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="101"/>
       <c r="C205" s="158"/>
       <c r="D205" s="158"/>
@@ -8128,7 +8014,7 @@
       <c r="W205" s="158"/>
       <c r="X205" s="158"/>
     </row>
-    <row r="206" spans="2:24" customFormat="1" ht="16">
+    <row r="206" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="101"/>
       <c r="C206" s="158"/>
       <c r="D206" s="158"/>
@@ -8153,7 +8039,7 @@
       <c r="W206" s="158"/>
       <c r="X206" s="158"/>
     </row>
-    <row r="207" spans="2:24" customFormat="1" ht="16">
+    <row r="207" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="101"/>
       <c r="C207" s="158"/>
       <c r="D207" s="158"/>
@@ -8178,7 +8064,7 @@
       <c r="W207" s="158"/>
       <c r="X207" s="158"/>
     </row>
-    <row r="208" spans="2:24" customFormat="1" ht="16">
+    <row r="208" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="101"/>
       <c r="C208" s="158"/>
       <c r="D208" s="158"/>
@@ -8203,7 +8089,7 @@
       <c r="W208" s="158"/>
       <c r="X208" s="158"/>
     </row>
-    <row r="209" spans="2:24" customFormat="1" ht="16">
+    <row r="209" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="101"/>
       <c r="C209" s="158"/>
       <c r="D209" s="158"/>
@@ -8228,7 +8114,7 @@
       <c r="W209" s="158"/>
       <c r="X209" s="158"/>
     </row>
-    <row r="210" spans="2:24" customFormat="1" ht="16">
+    <row r="210" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="101"/>
       <c r="C210" s="158"/>
       <c r="D210" s="158"/>
@@ -8253,7 +8139,7 @@
       <c r="W210" s="158"/>
       <c r="X210" s="158"/>
     </row>
-    <row r="211" spans="2:24" customFormat="1" ht="16">
+    <row r="211" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="101"/>
       <c r="C211" s="158"/>
       <c r="D211" s="158"/>
@@ -8278,7 +8164,7 @@
       <c r="W211" s="158"/>
       <c r="X211" s="158"/>
     </row>
-    <row r="212" spans="2:24" customFormat="1" ht="16">
+    <row r="212" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="101"/>
       <c r="C212" s="158"/>
       <c r="D212" s="158"/>
@@ -8303,7 +8189,7 @@
       <c r="W212" s="158"/>
       <c r="X212" s="158"/>
     </row>
-    <row r="213" spans="2:24" customFormat="1" ht="16">
+    <row r="213" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="101"/>
       <c r="C213" s="158"/>
       <c r="D213" s="158"/>
@@ -8328,7 +8214,7 @@
       <c r="W213" s="158"/>
       <c r="X213" s="158"/>
     </row>
-    <row r="214" spans="2:24" customFormat="1" ht="16">
+    <row r="214" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="101"/>
       <c r="C214" s="158"/>
       <c r="D214" s="158"/>
@@ -8353,7 +8239,7 @@
       <c r="W214" s="158"/>
       <c r="X214" s="158"/>
     </row>
-    <row r="215" spans="2:24" customFormat="1" ht="16">
+    <row r="215" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="101"/>
       <c r="C215" s="158"/>
       <c r="D215" s="158"/>
@@ -8378,7 +8264,7 @@
       <c r="W215" s="158"/>
       <c r="X215" s="158"/>
     </row>
-    <row r="216" spans="2:24" customFormat="1" ht="16">
+    <row r="216" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="101"/>
       <c r="C216" s="158"/>
       <c r="D216" s="158"/>
@@ -8403,7 +8289,7 @@
       <c r="W216" s="158"/>
       <c r="X216" s="158"/>
     </row>
-    <row r="217" spans="2:24" customFormat="1" ht="16">
+    <row r="217" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="101"/>
       <c r="C217" s="158"/>
       <c r="D217" s="158"/>
@@ -8428,7 +8314,7 @@
       <c r="W217" s="158"/>
       <c r="X217" s="158"/>
     </row>
-    <row r="218" spans="2:24" customFormat="1" ht="16">
+    <row r="218" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="101"/>
       <c r="C218" s="158"/>
       <c r="D218" s="158"/>
@@ -8453,7 +8339,7 @@
       <c r="W218" s="158"/>
       <c r="X218" s="158"/>
     </row>
-    <row r="219" spans="2:24" customFormat="1" ht="16">
+    <row r="219" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="101"/>
       <c r="C219" s="158"/>
       <c r="D219" s="158"/>
@@ -8478,7 +8364,7 @@
       <c r="W219" s="158"/>
       <c r="X219" s="158"/>
     </row>
-    <row r="220" spans="2:24" customFormat="1" ht="16">
+    <row r="220" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="101"/>
       <c r="C220" s="158"/>
       <c r="D220" s="158"/>
@@ -8503,7 +8389,7 @@
       <c r="W220" s="158"/>
       <c r="X220" s="158"/>
     </row>
-    <row r="221" spans="2:24" customFormat="1" ht="16">
+    <row r="221" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="101"/>
       <c r="C221" s="158"/>
       <c r="D221" s="158"/>
@@ -8528,7 +8414,7 @@
       <c r="W221" s="158"/>
       <c r="X221" s="158"/>
     </row>
-    <row r="222" spans="2:24" customFormat="1" ht="16">
+    <row r="222" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="101"/>
       <c r="C222" s="158"/>
       <c r="D222" s="158"/>
@@ -8553,7 +8439,7 @@
       <c r="W222" s="158"/>
       <c r="X222" s="158"/>
     </row>
-    <row r="223" spans="2:24" customFormat="1" ht="16">
+    <row r="223" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="101"/>
       <c r="C223" s="158"/>
       <c r="D223" s="158"/>
@@ -8578,7 +8464,7 @@
       <c r="W223" s="158"/>
       <c r="X223" s="158"/>
     </row>
-    <row r="224" spans="2:24" customFormat="1" ht="16">
+    <row r="224" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="101"/>
       <c r="C224" s="158"/>
       <c r="D224" s="158"/>
@@ -8603,7 +8489,7 @@
       <c r="W224" s="158"/>
       <c r="X224" s="158"/>
     </row>
-    <row r="225" spans="1:25" customFormat="1" ht="16">
+    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="101"/>
       <c r="C225" s="158"/>
       <c r="D225" s="158"/>
@@ -8629,7 +8515,7 @@
       <c r="X225" s="158"/>
       <c r="Y225" s="158"/>
     </row>
-    <row r="226" spans="1:25" customFormat="1" ht="16">
+    <row r="226" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="101"/>
       <c r="C226" s="158"/>
       <c r="D226" s="158"/>
@@ -8655,7 +8541,7 @@
       <c r="X226" s="158"/>
       <c r="Y226" s="158"/>
     </row>
-    <row r="227" spans="1:25" customFormat="1" ht="16">
+    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="101"/>
       <c r="C227" s="158"/>
       <c r="D227" s="158"/>
@@ -8681,7 +8567,7 @@
       <c r="X227" s="158"/>
       <c r="Y227" s="158"/>
     </row>
-    <row r="228" spans="1:25" customFormat="1" ht="16">
+    <row r="228" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="101"/>
       <c r="C228" s="158"/>
       <c r="D228" s="158"/>
@@ -8707,10 +8593,10 @@
       <c r="X228" s="158"/>
       <c r="Y228" s="158"/>
     </row>
-    <row r="229" spans="1:25" s="125" customFormat="1" ht="16" thickBot="1">
+    <row r="229" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B229" s="101"/>
     </row>
-    <row r="230" spans="1:25" s="125" customFormat="1">
+    <row r="230" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="103"/>
       <c r="C230" s="104" t="s">
         <v>25</v>
@@ -8738,7 +8624,7 @@
       <c r="T230" s="104"/>
       <c r="U230" s="104"/>
     </row>
-    <row r="231" spans="1:25" s="125" customFormat="1">
+    <row r="231" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="101"/>
       <c r="C231" s="156"/>
       <c r="D231" s="157"/>
@@ -8760,7 +8646,7 @@
       <c r="T231" s="157"/>
       <c r="U231" s="157"/>
     </row>
-    <row r="232" spans="1:25" customFormat="1" ht="16">
+    <row r="232" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="125"/>
       <c r="B232" s="101"/>
       <c r="C232" s="158" t="s">
@@ -8788,7 +8674,7 @@
       <c r="W232" s="158"/>
       <c r="X232" s="158"/>
     </row>
-    <row r="233" spans="1:25" customFormat="1" ht="16">
+    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="101"/>
       <c r="C233" s="100"/>
       <c r="D233" s="160">
@@ -8815,7 +8701,7 @@
       <c r="W233" s="158"/>
       <c r="X233" s="158"/>
     </row>
-    <row r="234" spans="1:25" customFormat="1" ht="16">
+    <row r="234" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="101"/>
       <c r="C234" s="158"/>
       <c r="D234" s="158"/>
@@ -8840,7 +8726,7 @@
       <c r="W234" s="158"/>
       <c r="X234" s="158"/>
     </row>
-    <row r="235" spans="1:25" customFormat="1" ht="16">
+    <row r="235" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="101"/>
       <c r="C235" s="158"/>
       <c r="D235" s="158"/>
@@ -8872,7 +8758,7 @@
       <c r="W235" s="158"/>
       <c r="X235" s="158"/>
     </row>
-    <row r="236" spans="1:25" customFormat="1" ht="16">
+    <row r="236" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="101"/>
       <c r="C236" s="158"/>
       <c r="D236" s="158"/>
@@ -8904,7 +8790,7 @@
       <c r="W236" s="158"/>
       <c r="X236" s="158"/>
     </row>
-    <row r="237" spans="1:25" customFormat="1" ht="16">
+    <row r="237" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="101"/>
       <c r="C237" s="158"/>
       <c r="D237" s="158"/>
@@ -8929,7 +8815,7 @@
       <c r="W237" s="158"/>
       <c r="X237" s="158"/>
     </row>
-    <row r="238" spans="1:25" customFormat="1" ht="16">
+    <row r="238" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="101"/>
       <c r="C238" s="158"/>
       <c r="D238" s="158"/>
@@ -8954,7 +8840,7 @@
       <c r="W238" s="158"/>
       <c r="X238" s="158"/>
     </row>
-    <row r="239" spans="1:25" customFormat="1" ht="16">
+    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="101"/>
       <c r="C239" s="158"/>
       <c r="D239" s="158"/>
@@ -8979,7 +8865,7 @@
       <c r="W239" s="158"/>
       <c r="X239" s="158"/>
     </row>
-    <row r="240" spans="1:25" customFormat="1" ht="16">
+    <row r="240" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="101"/>
       <c r="C240" s="158"/>
       <c r="D240" s="158"/>
@@ -9004,7 +8890,7 @@
       <c r="W240" s="158"/>
       <c r="X240" s="158"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" ht="16">
+    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="101"/>
       <c r="C241" s="158"/>
       <c r="D241" s="158"/>
@@ -9029,7 +8915,7 @@
       <c r="W241" s="158"/>
       <c r="X241" s="158"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" ht="16">
+    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="101"/>
       <c r="C242" s="158"/>
       <c r="D242" s="158"/>
@@ -9054,7 +8940,7 @@
       <c r="W242" s="158"/>
       <c r="X242" s="158"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" ht="16">
+    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="101"/>
       <c r="C243" s="158"/>
       <c r="D243" s="158"/>
@@ -9079,7 +8965,7 @@
       <c r="W243" s="158"/>
       <c r="X243" s="158"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" ht="16">
+    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="101"/>
       <c r="C244" s="158"/>
       <c r="D244" s="158"/>
@@ -9104,7 +8990,7 @@
       <c r="W244" s="158"/>
       <c r="X244" s="158"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" ht="16">
+    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="101"/>
       <c r="C245" s="158"/>
       <c r="D245" s="158"/>
@@ -9129,7 +9015,7 @@
       <c r="W245" s="158"/>
       <c r="X245" s="158"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" ht="16">
+    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="101"/>
       <c r="C246" s="158"/>
       <c r="D246" s="158"/>
@@ -9154,7 +9040,7 @@
       <c r="W246" s="158"/>
       <c r="X246" s="158"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" ht="16">
+    <row r="247" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="101"/>
       <c r="C247" s="158"/>
       <c r="D247" s="158"/>
@@ -9179,7 +9065,7 @@
       <c r="W247" s="158"/>
       <c r="X247" s="158"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" ht="16">
+    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="101"/>
       <c r="C248" s="158"/>
       <c r="D248" s="158"/>
@@ -9204,7 +9090,7 @@
       <c r="W248" s="158"/>
       <c r="X248" s="158"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" ht="16">
+    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="101"/>
       <c r="C249" s="158"/>
       <c r="D249" s="158"/>
@@ -9229,7 +9115,7 @@
       <c r="W249" s="158"/>
       <c r="X249" s="158"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" ht="16">
+    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="101"/>
       <c r="C250" s="158"/>
       <c r="D250" s="158"/>
@@ -9254,7 +9140,7 @@
       <c r="W250" s="158"/>
       <c r="X250" s="158"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" ht="16">
+    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="101"/>
       <c r="C251" s="158"/>
       <c r="D251" s="158"/>
@@ -9279,7 +9165,7 @@
       <c r="W251" s="158"/>
       <c r="X251" s="158"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" ht="16">
+    <row r="252" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="101"/>
       <c r="C252" s="158"/>
       <c r="D252" s="158"/>
@@ -9304,7 +9190,7 @@
       <c r="W252" s="158"/>
       <c r="X252" s="158"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" ht="16">
+    <row r="253" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="101"/>
       <c r="C253" s="158"/>
       <c r="D253" s="158"/>
@@ -9329,7 +9215,7 @@
       <c r="W253" s="158"/>
       <c r="X253" s="158"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" ht="16">
+    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="101"/>
       <c r="C254" s="158"/>
       <c r="D254" s="158"/>
@@ -9354,7 +9240,7 @@
       <c r="W254" s="158"/>
       <c r="X254" s="158"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" ht="16">
+    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="101"/>
       <c r="C255" s="158"/>
       <c r="D255" s="158"/>
@@ -9364,7 +9250,7 @@
       <c r="H255" s="158"/>
       <c r="I255" s="161"/>
       <c r="J255" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K255" s="161" t="s">
         <v>93</v>
@@ -9372,7 +9258,7 @@
       <c r="L255" s="161"/>
       <c r="M255" s="161"/>
       <c r="N255" s="161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O255" s="161" t="s">
         <v>94</v>
@@ -9387,7 +9273,7 @@
       <c r="W255" s="158"/>
       <c r="X255" s="158"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" ht="16">
+    <row r="256" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="101"/>
       <c r="C256" s="158"/>
       <c r="D256" s="158"/>
@@ -9420,7 +9306,7 @@
       <c r="W256" s="158"/>
       <c r="X256" s="158"/>
     </row>
-    <row r="257" spans="1:25" customFormat="1" ht="16">
+    <row r="257" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="101"/>
       <c r="C257" s="158"/>
       <c r="D257" s="158"/>
@@ -9455,7 +9341,7 @@
       <c r="W257" s="158"/>
       <c r="X257" s="158"/>
     </row>
-    <row r="258" spans="1:25" customFormat="1" ht="16">
+    <row r="258" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="101"/>
       <c r="C258" s="158"/>
       <c r="D258" s="158"/>
@@ -9490,7 +9376,7 @@
       <c r="W258" s="158"/>
       <c r="X258" s="158"/>
     </row>
-    <row r="259" spans="1:25" customFormat="1" ht="16">
+    <row r="259" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="101"/>
       <c r="C259" s="158"/>
       <c r="D259" s="158"/>
@@ -9515,7 +9401,7 @@
       <c r="W259" s="158"/>
       <c r="X259" s="158"/>
     </row>
-    <row r="260" spans="1:25" customFormat="1" ht="16">
+    <row r="260" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="101"/>
       <c r="C260" s="158"/>
       <c r="D260" s="158"/>
@@ -9540,7 +9426,7 @@
       <c r="W260" s="158"/>
       <c r="X260" s="158"/>
     </row>
-    <row r="261" spans="1:25" customFormat="1" ht="16">
+    <row r="261" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="101"/>
       <c r="C261" s="158"/>
       <c r="D261" s="158"/>
@@ -9569,7 +9455,7 @@
       <c r="W261" s="158"/>
       <c r="X261" s="158"/>
     </row>
-    <row r="262" spans="1:25" customFormat="1" ht="16">
+    <row r="262" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="101"/>
       <c r="C262" s="158"/>
       <c r="D262" s="158"/>
@@ -9594,7 +9480,7 @@
       <c r="W262" s="158"/>
       <c r="X262" s="158"/>
     </row>
-    <row r="263" spans="1:25" customFormat="1" ht="16">
+    <row r="263" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="101"/>
       <c r="C263" s="158"/>
       <c r="D263" s="158"/>
@@ -9619,7 +9505,7 @@
       <c r="W263" s="158"/>
       <c r="X263" s="158"/>
     </row>
-    <row r="264" spans="1:25" ht="16">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264" s="101"/>
       <c r="C264" s="158"/>
@@ -9641,7 +9527,7 @@
       <c r="S264" s="158"/>
       <c r="T264" s="158"/>
     </row>
-    <row r="265" spans="1:25" ht="16">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265" s="101"/>
       <c r="C265" s="158"/>
@@ -9663,13 +9549,13 @@
       <c r="S265" s="158"/>
       <c r="T265" s="158"/>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B266" s="101"/>
     </row>
-    <row r="267" spans="1:25" ht="16" thickBot="1">
+    <row r="267" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B267" s="101"/>
     </row>
-    <row r="268" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="268" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268" s="103"/>
       <c r="C268" s="104" t="s">
@@ -9698,7 +9584,7 @@
       <c r="T268" s="104"/>
       <c r="U268" s="104"/>
     </row>
-    <row r="269" spans="1:25" customFormat="1" ht="16">
+    <row r="269" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="101"/>
       <c r="C269" s="114"/>
       <c r="D269" s="111"/>
@@ -9724,25 +9610,25 @@
       <c r="X269" s="111"/>
       <c r="Y269" s="111"/>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B270" s="101"/>
       <c r="C270" s="60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="271" spans="1:25" s="125" customFormat="1">
+    <row r="271" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="101"/>
     </row>
-    <row r="272" spans="1:25" s="125" customFormat="1">
+    <row r="272" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="101"/>
     </row>
-    <row r="273" spans="2:10" s="125" customFormat="1">
+    <row r="273" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="101"/>
       <c r="D273" s="125">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="2:10" s="125" customFormat="1">
+    <row r="274" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="101"/>
       <c r="F274" s="166" t="s">
         <v>101</v>
@@ -9754,7 +9640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="275" spans="2:10" s="125" customFormat="1">
+    <row r="275" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="101"/>
       <c r="H275" s="167">
         <f>H289*H274</f>
@@ -9764,7 +9650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="276" spans="2:10" s="125" customFormat="1">
+    <row r="276" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="101"/>
       <c r="H276" s="167">
         <f>H275*100</f>
@@ -9777,7 +9663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="277" spans="2:10" s="125" customFormat="1">
+    <row r="277" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="101"/>
       <c r="H277" s="167">
         <f>H276*H67</f>
@@ -9790,37 +9676,37 @@
         <v>134</v>
       </c>
     </row>
-    <row r="278" spans="2:10" s="125" customFormat="1">
+    <row r="278" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="101"/>
     </row>
-    <row r="279" spans="2:10" s="125" customFormat="1">
+    <row r="279" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="101"/>
     </row>
-    <row r="280" spans="2:10" s="125" customFormat="1">
+    <row r="280" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="101"/>
     </row>
-    <row r="281" spans="2:10" s="125" customFormat="1">
+    <row r="281" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="101"/>
     </row>
-    <row r="282" spans="2:10" s="125" customFormat="1">
+    <row r="282" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="101"/>
     </row>
-    <row r="283" spans="2:10" s="125" customFormat="1">
+    <row r="283" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="101"/>
     </row>
-    <row r="284" spans="2:10" s="125" customFormat="1">
+    <row r="284" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="101"/>
     </row>
-    <row r="285" spans="2:10" s="125" customFormat="1">
+    <row r="285" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="101"/>
     </row>
-    <row r="286" spans="2:10" s="125" customFormat="1">
+    <row r="286" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="101"/>
     </row>
-    <row r="287" spans="2:10" s="125" customFormat="1">
+    <row r="287" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="101"/>
     </row>
-    <row r="288" spans="2:10" s="125" customFormat="1">
+    <row r="288" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="101"/>
       <c r="F288" s="126" t="s">
         <v>85</v>
@@ -9832,7 +9718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="2:9" s="125" customFormat="1">
+    <row r="289" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="101"/>
       <c r="H289" s="125">
         <f>H288*1000</f>
@@ -9842,169 +9728,169 @@
         <v>87</v>
       </c>
     </row>
-    <row r="290" spans="2:9" s="125" customFormat="1">
+    <row r="290" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="101"/>
     </row>
-    <row r="291" spans="2:9" s="125" customFormat="1">
+    <row r="291" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="101"/>
     </row>
-    <row r="292" spans="2:9" s="125" customFormat="1">
+    <row r="292" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="101"/>
     </row>
-    <row r="293" spans="2:9" s="125" customFormat="1">
+    <row r="293" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="101"/>
     </row>
-    <row r="294" spans="2:9" s="125" customFormat="1">
+    <row r="294" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="101"/>
     </row>
-    <row r="295" spans="2:9" s="125" customFormat="1">
+    <row r="295" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="101"/>
     </row>
-    <row r="296" spans="2:9" s="125" customFormat="1">
+    <row r="296" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="101"/>
     </row>
-    <row r="297" spans="2:9" s="125" customFormat="1">
+    <row r="297" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="101"/>
     </row>
-    <row r="298" spans="2:9" s="125" customFormat="1">
+    <row r="298" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="101"/>
     </row>
-    <row r="299" spans="2:9" s="125" customFormat="1">
+    <row r="299" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="101"/>
     </row>
-    <row r="300" spans="2:9" s="125" customFormat="1">
+    <row r="300" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="101"/>
     </row>
-    <row r="301" spans="2:9" s="125" customFormat="1">
+    <row r="301" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="101"/>
     </row>
-    <row r="302" spans="2:9" s="125" customFormat="1">
+    <row r="302" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="101"/>
     </row>
-    <row r="303" spans="2:9" s="125" customFormat="1">
+    <row r="303" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="101"/>
     </row>
-    <row r="304" spans="2:9" s="125" customFormat="1">
+    <row r="304" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="101"/>
     </row>
-    <row r="305" spans="2:2" s="125" customFormat="1">
+    <row r="305" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="101"/>
     </row>
-    <row r="306" spans="2:2" s="125" customFormat="1">
+    <row r="306" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="101"/>
     </row>
-    <row r="307" spans="2:2" s="125" customFormat="1">
+    <row r="307" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="101"/>
     </row>
-    <row r="308" spans="2:2" s="125" customFormat="1">
+    <row r="308" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="101"/>
     </row>
-    <row r="309" spans="2:2" s="125" customFormat="1">
+    <row r="309" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="101"/>
     </row>
-    <row r="310" spans="2:2" s="125" customFormat="1">
+    <row r="310" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="101"/>
     </row>
-    <row r="311" spans="2:2" s="125" customFormat="1">
+    <row r="311" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="101"/>
     </row>
-    <row r="312" spans="2:2" s="125" customFormat="1">
+    <row r="312" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="101"/>
     </row>
-    <row r="313" spans="2:2" s="125" customFormat="1">
+    <row r="313" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="101"/>
     </row>
-    <row r="314" spans="2:2" s="125" customFormat="1">
+    <row r="314" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="101"/>
     </row>
-    <row r="315" spans="2:2" s="125" customFormat="1">
+    <row r="315" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="101"/>
     </row>
-    <row r="316" spans="2:2" s="125" customFormat="1">
+    <row r="316" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="101"/>
     </row>
-    <row r="317" spans="2:2" s="125" customFormat="1">
+    <row r="317" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="101"/>
     </row>
-    <row r="318" spans="2:2" s="125" customFormat="1">
+    <row r="318" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="101"/>
     </row>
-    <row r="319" spans="2:2" s="125" customFormat="1">
+    <row r="319" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="101"/>
     </row>
-    <row r="320" spans="2:2" s="125" customFormat="1">
+    <row r="320" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="101"/>
     </row>
-    <row r="321" spans="2:2" s="125" customFormat="1">
+    <row r="321" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="101"/>
     </row>
-    <row r="322" spans="2:2" s="125" customFormat="1">
+    <row r="322" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="101"/>
     </row>
-    <row r="323" spans="2:2" s="125" customFormat="1">
+    <row r="323" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="101"/>
     </row>
-    <row r="324" spans="2:2" s="125" customFormat="1">
+    <row r="324" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="101"/>
     </row>
-    <row r="325" spans="2:2" s="125" customFormat="1">
+    <row r="325" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="101"/>
     </row>
-    <row r="326" spans="2:2" s="125" customFormat="1">
+    <row r="326" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="101"/>
     </row>
-    <row r="327" spans="2:2" s="125" customFormat="1">
+    <row r="327" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="101"/>
     </row>
-    <row r="328" spans="2:2" s="125" customFormat="1">
+    <row r="328" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="101"/>
     </row>
-    <row r="329" spans="2:2" s="125" customFormat="1">
+    <row r="329" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="101"/>
     </row>
-    <row r="330" spans="2:2" s="125" customFormat="1">
+    <row r="330" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="101"/>
     </row>
-    <row r="331" spans="2:2" s="125" customFormat="1">
+    <row r="331" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="101"/>
     </row>
-    <row r="332" spans="2:2" s="125" customFormat="1">
+    <row r="332" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="101"/>
     </row>
-    <row r="333" spans="2:2" s="125" customFormat="1">
+    <row r="333" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="101"/>
     </row>
-    <row r="334" spans="2:2" s="125" customFormat="1">
+    <row r="334" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="101"/>
     </row>
-    <row r="335" spans="2:2" s="125" customFormat="1">
+    <row r="335" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="101"/>
     </row>
-    <row r="336" spans="2:2" s="125" customFormat="1">
+    <row r="336" spans="2:2" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="101"/>
     </row>
-    <row r="337" spans="2:23" s="125" customFormat="1">
+    <row r="337" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="101"/>
     </row>
-    <row r="338" spans="2:23" s="125" customFormat="1">
+    <row r="338" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="101"/>
     </row>
-    <row r="339" spans="2:23" s="125" customFormat="1">
+    <row r="339" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="101"/>
     </row>
-    <row r="340" spans="2:23" s="125" customFormat="1">
+    <row r="340" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="101"/>
     </row>
-    <row r="341" spans="2:23" s="125" customFormat="1">
+    <row r="341" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="101"/>
     </row>
-    <row r="342" spans="2:23" s="125" customFormat="1">
+    <row r="342" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="101"/>
     </row>
-    <row r="343" spans="2:23" s="125" customFormat="1" ht="16" thickBot="1">
+    <row r="343" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B343" s="101"/>
     </row>
-    <row r="344" spans="2:23" s="125" customFormat="1" ht="96" thickBot="1">
+    <row r="344" spans="2:23" s="125" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B344" s="101"/>
       <c r="O344" s="127"/>
       <c r="P344" s="153" t="s">
@@ -10030,7 +9916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="345" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="345" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="101"/>
       <c r="O345" s="129" t="s">
         <v>71</v>
@@ -10046,7 +9932,7 @@
       <c r="V345" s="131"/>
       <c r="W345" s="132"/>
     </row>
-    <row r="346" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="346" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="101"/>
       <c r="F346" s="125" t="s">
         <v>43</v>
@@ -10077,7 +9963,7 @@
       <c r="V346" s="135"/>
       <c r="W346" s="136"/>
     </row>
-    <row r="347" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="347" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="101"/>
       <c r="F347" s="125" t="s">
         <v>44</v>
@@ -10105,7 +9991,7 @@
       <c r="V347" s="135"/>
       <c r="W347" s="136"/>
     </row>
-    <row r="348" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="348" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="101"/>
       <c r="F348" s="125" t="s">
         <v>47</v>
@@ -10135,7 +10021,7 @@
       <c r="V348" s="140"/>
       <c r="W348" s="136"/>
     </row>
-    <row r="349" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="349" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="101"/>
       <c r="F349" s="125" t="s">
         <v>46</v>
@@ -10165,7 +10051,7 @@
       <c r="V349" s="135"/>
       <c r="W349" s="141"/>
     </row>
-    <row r="350" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
+    <row r="350" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B350" s="101"/>
       <c r="F350" s="125" t="s">
         <v>39</v>
@@ -10189,7 +10075,7 @@
       <c r="V350" s="143"/>
       <c r="W350" s="144"/>
     </row>
-    <row r="351" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="351" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="101"/>
       <c r="F351" s="125" t="s">
         <v>45</v>
@@ -10214,7 +10100,7 @@
       <c r="V351" s="131"/>
       <c r="W351" s="132"/>
     </row>
-    <row r="352" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="352" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="101"/>
       <c r="O352" s="133" t="s">
         <v>72</v>
@@ -10230,7 +10116,7 @@
       <c r="V352" s="135"/>
       <c r="W352" s="136"/>
     </row>
-    <row r="353" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="353" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="101"/>
       <c r="O353" s="133" t="s">
         <v>74</v>
@@ -10250,7 +10136,7 @@
       <c r="V353" s="135"/>
       <c r="W353" s="136"/>
     </row>
-    <row r="354" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="354" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="101"/>
       <c r="O354" s="133" t="s">
         <v>76</v>
@@ -10264,7 +10150,7 @@
       <c r="V354" s="135"/>
       <c r="W354" s="136"/>
     </row>
-    <row r="355" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="355" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="101"/>
       <c r="O355" s="133" t="s">
         <v>77</v>
@@ -10284,7 +10170,7 @@
       <c r="V355" s="135"/>
       <c r="W355" s="141"/>
     </row>
-    <row r="356" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
+    <row r="356" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="101"/>
       <c r="O356" s="123" t="s">
         <v>78</v>
@@ -10300,7 +10186,7 @@
       <c r="V356" s="143"/>
       <c r="W356" s="144"/>
     </row>
-    <row r="357" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="357" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="101"/>
       <c r="O357" s="129" t="s">
         <v>80</v>
@@ -10316,7 +10202,7 @@
       <c r="V357" s="131"/>
       <c r="W357" s="132"/>
     </row>
-    <row r="358" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="358" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="101"/>
       <c r="O358" s="133" t="s">
         <v>72</v>
@@ -10336,7 +10222,7 @@
       <c r="V358" s="135"/>
       <c r="W358" s="141"/>
     </row>
-    <row r="359" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="359" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="101"/>
       <c r="O359" s="133" t="s">
         <v>74</v>
@@ -10352,7 +10238,7 @@
       <c r="V359" s="135"/>
       <c r="W359" s="141"/>
     </row>
-    <row r="360" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="360" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="101"/>
       <c r="O360" s="133" t="s">
         <v>76</v>
@@ -10366,7 +10252,7 @@
       <c r="V360" s="135"/>
       <c r="W360" s="141"/>
     </row>
-    <row r="361" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="361" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="101"/>
       <c r="O361" s="133" t="s">
         <v>77</v>
@@ -10386,7 +10272,7 @@
       <c r="V361" s="135"/>
       <c r="W361" s="141"/>
     </row>
-    <row r="362" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
+    <row r="362" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B362" s="101"/>
       <c r="O362" s="123" t="s">
         <v>78</v>
@@ -10400,7 +10286,7 @@
       <c r="V362" s="143"/>
       <c r="W362" s="144"/>
     </row>
-    <row r="363" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="363" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="101"/>
       <c r="O363" s="129" t="s">
         <v>81</v>
@@ -10416,7 +10302,7 @@
       <c r="V363" s="148"/>
       <c r="W363" s="149"/>
     </row>
-    <row r="364" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="364" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="101"/>
       <c r="O364" s="133" t="s">
         <v>72</v>
@@ -10432,7 +10318,7 @@
       <c r="V364" s="135"/>
       <c r="W364" s="141"/>
     </row>
-    <row r="365" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="365" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="101"/>
       <c r="O365" s="133" t="s">
         <v>74</v>
@@ -10452,7 +10338,7 @@
         <v>2.8648369907752248E-2</v>
       </c>
     </row>
-    <row r="366" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="366" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="101"/>
       <c r="O366" s="133" t="s">
         <v>76</v>
@@ -10466,7 +10352,7 @@
       <c r="V366" s="135"/>
       <c r="W366" s="141"/>
     </row>
-    <row r="367" spans="2:23" s="125" customFormat="1" ht="16">
+    <row r="367" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="101"/>
       <c r="O367" s="133" t="s">
         <v>77</v>
@@ -10486,7 +10372,7 @@
       <c r="V367" s="135"/>
       <c r="W367" s="141"/>
     </row>
-    <row r="368" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1">
+    <row r="368" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B368" s="101"/>
       <c r="O368" s="123" t="s">
         <v>78</v>
@@ -10504,7 +10390,7 @@
       <c r="V368" s="151"/>
       <c r="W368" s="152"/>
     </row>
-    <row r="369" spans="1:25" s="125" customFormat="1" ht="16">
+    <row r="369" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="101"/>
       <c r="O369" s="129" t="s">
         <v>82</v>
@@ -10520,7 +10406,7 @@
       <c r="V369" s="131"/>
       <c r="W369" s="132"/>
     </row>
-    <row r="370" spans="1:25" s="125" customFormat="1" ht="16">
+    <row r="370" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="101"/>
       <c r="O370" s="133" t="s">
         <v>72</v>
@@ -10536,7 +10422,7 @@
       <c r="V370" s="135"/>
       <c r="W370" s="136"/>
     </row>
-    <row r="371" spans="1:25" s="125" customFormat="1" ht="16">
+    <row r="371" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="101"/>
       <c r="O371" s="133" t="s">
         <v>74</v>
@@ -10552,7 +10438,7 @@
       <c r="V371" s="135"/>
       <c r="W371" s="136"/>
     </row>
-    <row r="372" spans="1:25" s="125" customFormat="1" ht="16">
+    <row r="372" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="101"/>
       <c r="O372" s="133" t="s">
         <v>76</v>
@@ -10566,7 +10452,7 @@
       <c r="V372" s="135"/>
       <c r="W372" s="136"/>
     </row>
-    <row r="373" spans="1:25" s="125" customFormat="1" ht="16">
+    <row r="373" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="101"/>
       <c r="O373" s="133" t="s">
         <v>77</v>
@@ -10580,7 +10466,7 @@
       <c r="V373" s="135"/>
       <c r="W373" s="136"/>
     </row>
-    <row r="374" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1">
+    <row r="374" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B374" s="101"/>
       <c r="O374" s="123" t="s">
         <v>78</v>
@@ -10594,16 +10480,16 @@
       <c r="V374" s="143"/>
       <c r="W374" s="144"/>
     </row>
-    <row r="375" spans="1:25" s="125" customFormat="1">
+    <row r="375" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="101"/>
     </row>
-    <row r="376" spans="1:25" s="125" customFormat="1">
+    <row r="376" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="101"/>
     </row>
-    <row r="377" spans="1:25" s="125" customFormat="1" ht="16" thickBot="1">
+    <row r="377" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B377" s="101"/>
     </row>
-    <row r="378" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="378" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378"/>
       <c r="B378" s="103"/>
       <c r="C378" s="104" t="s">
@@ -10632,7 +10518,7 @@
       <c r="T378" s="104"/>
       <c r="U378" s="104"/>
     </row>
-    <row r="379" spans="1:25" customFormat="1" ht="16">
+    <row r="379" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="101"/>
       <c r="C379" s="114"/>
       <c r="D379" s="111"/>
@@ -10658,7 +10544,7 @@
       <c r="X379" s="111"/>
       <c r="Y379" s="111"/>
     </row>
-    <row r="380" spans="1:25" ht="16">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B380" s="101"/>
       <c r="C380" s="173" t="s">
         <v>140</v>
@@ -10667,7 +10553,7 @@
         <v>139.09</v>
       </c>
       <c r="G380" s="158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H380" s="176" t="s">
         <v>141</v>
@@ -10679,7 +10565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="381" spans="1:25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B381" s="101"/>
       <c r="F381" s="191">
         <f>'Research data'!G8</f>
@@ -10690,33 +10576,33 @@
       </c>
       <c r="H381" s="174"/>
     </row>
-    <row r="382" spans="1:25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B382" s="101"/>
       <c r="F382" s="100">
         <f>F381*1000</f>
         <v>17800</v>
       </c>
       <c r="G382" s="190" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="383" spans="1:25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B383" s="101"/>
       <c r="F383" s="192">
         <f>F380/F382</f>
         <v>7.8140449438202243E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B384" s="101"/>
     </row>
-    <row r="385" spans="2:35">
+    <row r="385" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B385" s="101"/>
     </row>
-    <row r="386" spans="2:35" ht="16" thickBot="1">
+    <row r="386" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B386" s="101"/>
     </row>
-    <row r="387" spans="2:35">
+    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B387" s="201"/>
       <c r="C387" s="202" t="s">
         <v>25</v>
@@ -10758,7 +10644,7 @@
       <c r="AH387" s="203"/>
       <c r="AI387" s="203"/>
     </row>
-    <row r="388" spans="2:35">
+    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B388" s="204"/>
       <c r="C388" s="205"/>
       <c r="D388" s="205"/>
@@ -10794,10 +10680,10 @@
       <c r="AH388" s="205"/>
       <c r="AI388" s="205"/>
     </row>
-    <row r="389" spans="2:35" ht="16">
+    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B389" s="204"/>
       <c r="C389" s="206" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D389" s="207"/>
       <c r="E389" s="207"/>
@@ -10832,7 +10718,7 @@
       <c r="AH389" s="208"/>
       <c r="AI389" s="208"/>
     </row>
-    <row r="390" spans="2:35" ht="16">
+    <row r="390" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B390" s="204"/>
       <c r="C390" s="207"/>
       <c r="D390" s="207"/>
@@ -10868,7 +10754,7 @@
       <c r="AH390" s="208"/>
       <c r="AI390" s="208"/>
     </row>
-    <row r="391" spans="2:35" ht="16">
+    <row r="391" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B391" s="204"/>
       <c r="C391" s="207"/>
       <c r="D391" s="207"/>
@@ -10904,7 +10790,7 @@
       <c r="AH391" s="208"/>
       <c r="AI391" s="208"/>
     </row>
-    <row r="392" spans="2:35" ht="16">
+    <row r="392" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B392" s="204"/>
       <c r="C392" s="207"/>
       <c r="D392" s="207"/>
@@ -10940,7 +10826,7 @@
       <c r="AH392" s="208"/>
       <c r="AI392" s="208"/>
     </row>
-    <row r="393" spans="2:35" ht="16">
+    <row r="393" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B393" s="204"/>
       <c r="C393" s="207"/>
       <c r="D393" s="220"/>
@@ -10976,7 +10862,7 @@
       <c r="AH393" s="208"/>
       <c r="AI393" s="208"/>
     </row>
-    <row r="394" spans="2:35" ht="16">
+    <row r="394" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B394" s="204"/>
       <c r="C394" s="207"/>
       <c r="D394" s="125"/>
@@ -11012,7 +10898,7 @@
       <c r="AH394" s="208"/>
       <c r="AI394" s="208"/>
     </row>
-    <row r="395" spans="2:35" ht="16">
+    <row r="395" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B395" s="204"/>
       <c r="C395" s="207"/>
       <c r="D395" s="125"/>
@@ -11048,7 +10934,7 @@
       <c r="AH395" s="208"/>
       <c r="AI395" s="208"/>
     </row>
-    <row r="396" spans="2:35" ht="16">
+    <row r="396" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B396" s="204"/>
       <c r="C396" s="207"/>
       <c r="D396" s="125"/>
@@ -11084,7 +10970,7 @@
       <c r="AH396" s="208"/>
       <c r="AI396" s="208"/>
     </row>
-    <row r="397" spans="2:35" ht="16">
+    <row r="397" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B397" s="204"/>
       <c r="C397" s="111"/>
       <c r="D397" s="157"/>
@@ -11120,7 +11006,7 @@
       <c r="AH397" s="208"/>
       <c r="AI397" s="208"/>
     </row>
-    <row r="398" spans="2:35" ht="16">
+    <row r="398" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B398" s="204"/>
       <c r="C398" s="111"/>
       <c r="D398" s="157"/>
@@ -11156,7 +11042,7 @@
       <c r="AH398" s="208"/>
       <c r="AI398" s="208"/>
     </row>
-    <row r="399" spans="2:35" ht="16">
+    <row r="399" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B399" s="204"/>
       <c r="C399" s="111"/>
       <c r="D399" s="111"/>
@@ -11192,7 +11078,7 @@
       <c r="AH399" s="208"/>
       <c r="AI399" s="208"/>
     </row>
-    <row r="400" spans="2:35" ht="16">
+    <row r="400" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B400" s="204"/>
       <c r="C400" s="111"/>
       <c r="D400" s="111"/>
@@ -11228,7 +11114,7 @@
       <c r="AH400" s="208"/>
       <c r="AI400" s="208"/>
     </row>
-    <row r="401" spans="2:35" ht="16">
+    <row r="401" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B401" s="204"/>
       <c r="C401" s="111"/>
       <c r="D401" s="111"/>
@@ -11264,7 +11150,7 @@
       <c r="AH401" s="208"/>
       <c r="AI401" s="208"/>
     </row>
-    <row r="402" spans="2:35" ht="16">
+    <row r="402" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B402" s="204"/>
       <c r="C402" s="111"/>
       <c r="D402" s="111"/>
@@ -11300,7 +11186,7 @@
       <c r="AH402" s="208"/>
       <c r="AI402" s="208"/>
     </row>
-    <row r="403" spans="2:35" ht="16">
+    <row r="403" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B403" s="204"/>
       <c r="C403" s="111"/>
       <c r="D403" s="111"/>
@@ -11336,7 +11222,7 @@
       <c r="AH403" s="208"/>
       <c r="AI403" s="208"/>
     </row>
-    <row r="404" spans="2:35" ht="16">
+    <row r="404" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B404" s="204"/>
       <c r="C404" s="111"/>
       <c r="D404" s="111"/>
@@ -11372,7 +11258,7 @@
       <c r="AH404" s="208"/>
       <c r="AI404" s="208"/>
     </row>
-    <row r="405" spans="2:35" ht="16">
+    <row r="405" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B405" s="204"/>
       <c r="C405" s="111"/>
       <c r="D405" s="111"/>
@@ -11408,7 +11294,7 @@
       <c r="AH405" s="208"/>
       <c r="AI405" s="208"/>
     </row>
-    <row r="406" spans="2:35" ht="16">
+    <row r="406" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B406" s="204"/>
       <c r="C406" s="111"/>
       <c r="D406" s="111"/>
@@ -11444,7 +11330,7 @@
       <c r="AH406" s="208"/>
       <c r="AI406" s="208"/>
     </row>
-    <row r="407" spans="2:35" ht="16">
+    <row r="407" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B407" s="204"/>
       <c r="C407" s="111"/>
       <c r="D407" s="111"/>
@@ -11480,7 +11366,7 @@
       <c r="AH407" s="208"/>
       <c r="AI407" s="208"/>
     </row>
-    <row r="408" spans="2:35" ht="16">
+    <row r="408" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B408" s="204"/>
       <c r="C408" s="111"/>
       <c r="D408" s="111"/>
@@ -11516,7 +11402,7 @@
       <c r="AH408" s="208"/>
       <c r="AI408" s="208"/>
     </row>
-    <row r="409" spans="2:35" ht="16">
+    <row r="409" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B409" s="204"/>
       <c r="C409" s="111"/>
       <c r="D409" s="111"/>
@@ -11552,7 +11438,7 @@
       <c r="AH409" s="208"/>
       <c r="AI409" s="208"/>
     </row>
-    <row r="410" spans="2:35" ht="16">
+    <row r="410" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B410" s="204"/>
       <c r="C410" s="111"/>
       <c r="D410" s="207">
@@ -11564,7 +11450,7 @@
         <v>112000</v>
       </c>
       <c r="H410" s="207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I410" s="207"/>
       <c r="J410" s="111"/>
@@ -11594,7 +11480,7 @@
       <c r="AH410" s="208"/>
       <c r="AI410" s="208"/>
     </row>
-    <row r="411" spans="2:35" ht="16">
+    <row r="411" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B411" s="204"/>
       <c r="C411" s="111"/>
       <c r="D411" s="207"/>
@@ -11605,7 +11491,7 @@
         <v>1000000</v>
       </c>
       <c r="H411" s="207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I411" s="207"/>
       <c r="J411" s="111"/>
@@ -11635,7 +11521,7 @@
       <c r="AH411" s="208"/>
       <c r="AI411" s="208"/>
     </row>
-    <row r="412" spans="2:35" ht="16">
+    <row r="412" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B412" s="204"/>
       <c r="C412" s="111"/>
       <c r="D412" s="207"/>
@@ -11646,7 +11532,7 @@
         <v>0.112</v>
       </c>
       <c r="H412" s="207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I412" s="207"/>
       <c r="J412" s="111"/>
@@ -11676,7 +11562,7 @@
       <c r="AH412" s="208"/>
       <c r="AI412" s="208"/>
     </row>
-    <row r="413" spans="2:35" ht="16">
+    <row r="413" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B413" s="204"/>
       <c r="C413" s="111"/>
       <c r="D413" s="111"/>
@@ -11712,7 +11598,7 @@
       <c r="AH413" s="208"/>
       <c r="AI413" s="208"/>
     </row>
-    <row r="414" spans="2:35" ht="16">
+    <row r="414" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B414" s="204"/>
       <c r="C414" s="208"/>
       <c r="D414" s="208"/>
@@ -11748,7 +11634,7 @@
       <c r="AH414" s="208"/>
       <c r="AI414" s="208"/>
     </row>
-    <row r="415" spans="2:35" ht="16">
+    <row r="415" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B415" s="204"/>
       <c r="C415" s="208"/>
       <c r="D415" s="208"/>
@@ -11784,7 +11670,7 @@
       <c r="AH415" s="208"/>
       <c r="AI415" s="208"/>
     </row>
-    <row r="416" spans="2:35" ht="16">
+    <row r="416" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B416" s="204"/>
       <c r="C416" s="208"/>
       <c r="D416" s="208"/>
@@ -11820,7 +11706,7 @@
       <c r="AH416" s="208"/>
       <c r="AI416" s="208"/>
     </row>
-    <row r="417" spans="2:35" ht="16">
+    <row r="417" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B417" s="204"/>
       <c r="C417" s="208"/>
       <c r="D417" s="208"/>
@@ -11856,7 +11742,7 @@
       <c r="AH417" s="208"/>
       <c r="AI417" s="208"/>
     </row>
-    <row r="418" spans="2:35" ht="16">
+    <row r="418" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B418" s="204"/>
       <c r="C418" s="208"/>
       <c r="D418" s="208"/>
@@ -11892,7 +11778,7 @@
       <c r="AH418" s="208"/>
       <c r="AI418" s="208"/>
     </row>
-    <row r="419" spans="2:35" ht="16">
+    <row r="419" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B419" s="204"/>
       <c r="C419" s="208"/>
       <c r="D419" s="208"/>
@@ -11928,7 +11814,7 @@
       <c r="AH419" s="208"/>
       <c r="AI419" s="208"/>
     </row>
-    <row r="420" spans="2:35" ht="16">
+    <row r="420" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B420" s="204"/>
       <c r="C420" s="208"/>
       <c r="D420" s="208"/>
@@ -11964,7 +11850,7 @@
       <c r="AH420" s="208"/>
       <c r="AI420" s="208"/>
     </row>
-    <row r="421" spans="2:35" ht="16">
+    <row r="421" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B421" s="204"/>
       <c r="C421" s="208"/>
       <c r="D421" s="208"/>
@@ -12000,7 +11886,7 @@
       <c r="AH421" s="208"/>
       <c r="AI421" s="208"/>
     </row>
-    <row r="422" spans="2:35" ht="16">
+    <row r="422" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B422" s="204"/>
       <c r="C422" s="208"/>
       <c r="D422" s="208"/>
@@ -12036,7 +11922,7 @@
       <c r="AH422" s="208"/>
       <c r="AI422" s="208"/>
     </row>
-    <row r="423" spans="2:35" ht="16">
+    <row r="423" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B423" s="204"/>
       <c r="C423" s="208"/>
       <c r="D423" s="208"/>
@@ -12072,7 +11958,7 @@
       <c r="AH423" s="208"/>
       <c r="AI423" s="208"/>
     </row>
-    <row r="424" spans="2:35" ht="16">
+    <row r="424" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B424" s="204"/>
       <c r="C424" s="208"/>
       <c r="D424" s="208"/>
@@ -12108,7 +11994,7 @@
       <c r="AH424" s="208"/>
       <c r="AI424" s="208"/>
     </row>
-    <row r="425" spans="2:35" ht="16">
+    <row r="425" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B425" s="204"/>
       <c r="C425" s="208"/>
       <c r="D425" s="208"/>
@@ -12144,7 +12030,7 @@
       <c r="AH425" s="208"/>
       <c r="AI425" s="208"/>
     </row>
-    <row r="426" spans="2:35" ht="16">
+    <row r="426" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B426" s="204"/>
       <c r="C426" s="208"/>
       <c r="D426" s="208"/>
@@ -12180,7 +12066,7 @@
       <c r="AH426" s="208"/>
       <c r="AI426" s="208"/>
     </row>
-    <row r="427" spans="2:35" ht="16">
+    <row r="427" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B427" s="204"/>
       <c r="C427" s="208"/>
       <c r="D427" s="208"/>
@@ -12216,7 +12102,7 @@
       <c r="AH427" s="208"/>
       <c r="AI427" s="208"/>
     </row>
-    <row r="428" spans="2:35" ht="16">
+    <row r="428" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B428" s="204"/>
       <c r="C428" s="208"/>
       <c r="D428" s="208"/>
@@ -12252,7 +12138,7 @@
       <c r="AH428" s="208"/>
       <c r="AI428" s="208"/>
     </row>
-    <row r="429" spans="2:35" ht="16">
+    <row r="429" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B429" s="204"/>
       <c r="C429" s="208"/>
       <c r="D429" s="208"/>
@@ -12288,7 +12174,7 @@
       <c r="AH429" s="208"/>
       <c r="AI429" s="208"/>
     </row>
-    <row r="430" spans="2:35" ht="16">
+    <row r="430" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B430" s="204"/>
       <c r="C430" s="208"/>
       <c r="D430" s="208"/>
@@ -12324,7 +12210,7 @@
       <c r="AH430" s="208"/>
       <c r="AI430" s="208"/>
     </row>
-    <row r="431" spans="2:35" ht="16">
+    <row r="431" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B431" s="204"/>
       <c r="C431" s="208"/>
       <c r="D431" s="208"/>
@@ -12360,7 +12246,7 @@
       <c r="AH431" s="208"/>
       <c r="AI431" s="208"/>
     </row>
-    <row r="432" spans="2:35" ht="16">
+    <row r="432" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B432" s="204"/>
       <c r="C432" s="208"/>
       <c r="D432" s="208"/>
@@ -12396,7 +12282,7 @@
       <c r="AH432" s="208"/>
       <c r="AI432" s="208"/>
     </row>
-    <row r="433" spans="2:35" ht="16">
+    <row r="433" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B433" s="204"/>
       <c r="C433" s="208"/>
       <c r="D433" s="208"/>
@@ -12432,7 +12318,7 @@
       <c r="AH433" s="208"/>
       <c r="AI433" s="208"/>
     </row>
-    <row r="434" spans="2:35" ht="16">
+    <row r="434" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B434" s="204"/>
       <c r="C434" s="208"/>
       <c r="D434" s="208"/>
@@ -12468,7 +12354,7 @@
       <c r="AH434" s="208"/>
       <c r="AI434" s="208"/>
     </row>
-    <row r="435" spans="2:35" ht="16">
+    <row r="435" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B435" s="204"/>
       <c r="C435" s="208"/>
       <c r="D435" s="208"/>
@@ -12504,7 +12390,7 @@
       <c r="AH435" s="208"/>
       <c r="AI435" s="208"/>
     </row>
-    <row r="436" spans="2:35" ht="16">
+    <row r="436" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B436" s="204"/>
       <c r="C436" s="208"/>
       <c r="D436" s="208"/>
@@ -12540,7 +12426,7 @@
       <c r="AH436" s="208"/>
       <c r="AI436" s="208"/>
     </row>
-    <row r="437" spans="2:35" ht="16">
+    <row r="437" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B437" s="204"/>
       <c r="C437" s="208"/>
       <c r="D437" s="208"/>
@@ -12576,7 +12462,7 @@
       <c r="AH437" s="208"/>
       <c r="AI437" s="208"/>
     </row>
-    <row r="438" spans="2:35" ht="16">
+    <row r="438" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B438" s="204"/>
       <c r="C438" s="208"/>
       <c r="D438" s="208"/>
@@ -12612,7 +12498,7 @@
       <c r="AH438" s="208"/>
       <c r="AI438" s="208"/>
     </row>
-    <row r="439" spans="2:35" ht="16">
+    <row r="439" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B439" s="204"/>
       <c r="C439" s="208"/>
       <c r="D439" s="208"/>
@@ -12648,7 +12534,7 @@
       <c r="AH439" s="208"/>
       <c r="AI439" s="208"/>
     </row>
-    <row r="440" spans="2:35" ht="16">
+    <row r="440" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B440" s="204"/>
       <c r="C440" s="208"/>
       <c r="D440" s="208"/>
@@ -12684,7 +12570,7 @@
       <c r="AH440" s="208"/>
       <c r="AI440" s="208"/>
     </row>
-    <row r="441" spans="2:35" ht="16">
+    <row r="441" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B441" s="204"/>
       <c r="C441" s="208"/>
       <c r="D441" s="208"/>
@@ -12720,7 +12606,7 @@
       <c r="AH441" s="208"/>
       <c r="AI441" s="208"/>
     </row>
-    <row r="442" spans="2:35" ht="16">
+    <row r="442" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B442" s="204"/>
       <c r="C442" s="208"/>
       <c r="D442" s="208"/>
@@ -12756,7 +12642,7 @@
       <c r="AH442" s="208"/>
       <c r="AI442" s="208"/>
     </row>
-    <row r="443" spans="2:35" ht="16">
+    <row r="443" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B443" s="204"/>
       <c r="C443" s="208"/>
       <c r="D443" s="208"/>
@@ -12792,7 +12678,7 @@
       <c r="AH443" s="208"/>
       <c r="AI443" s="208"/>
     </row>
-    <row r="444" spans="2:35" ht="16">
+    <row r="444" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B444" s="204"/>
       <c r="C444" s="208"/>
       <c r="D444" s="208"/>
@@ -12828,7 +12714,7 @@
       <c r="AH444" s="208"/>
       <c r="AI444" s="208"/>
     </row>
-    <row r="445" spans="2:35" ht="16">
+    <row r="445" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B445" s="204"/>
       <c r="C445" s="208"/>
       <c r="D445" s="208"/>
@@ -12864,7 +12750,7 @@
       <c r="AH445" s="208"/>
       <c r="AI445" s="208"/>
     </row>
-    <row r="446" spans="2:35" ht="16">
+    <row r="446" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B446" s="204"/>
       <c r="C446" s="208"/>
       <c r="D446" s="208"/>
@@ -12907,10 +12793,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/wood.carrier.xlsx
+++ b/carriers_source_analyses/wood.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44320" yWindow="-2800" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="700" yWindow="3840" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="169">
   <si>
     <t>Source</t>
   </si>
@@ -333,33 +332,6 @@
     <t>Sikkema_2010_The European wood pellet markets. Current status and prospects for 2020</t>
   </si>
   <si>
-    <t>industrial wood pellets price</t>
-  </si>
-  <si>
-    <t>€ cost per MJ</t>
-  </si>
-  <si>
-    <t>residential wood pellets price</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>price per tonne</t>
-  </si>
-  <si>
-    <t>GJ to MJ</t>
-  </si>
-  <si>
-    <t>cost per MJ</t>
-  </si>
-  <si>
-    <t>efficiency rate</t>
-  </si>
-  <si>
     <t>1210-1211</t>
   </si>
   <si>
@@ -525,12 +497,6 @@
     <t>a tonne of woodpellets has 17,6 GJ</t>
   </si>
   <si>
-    <t>17,6 GJ per tonne with tonne costing 135</t>
-  </si>
-  <si>
-    <t>17,6 GJ per tonne with tonne costing 220</t>
-  </si>
-  <si>
     <t>Sikkema</t>
   </si>
   <si>
@@ -541,9 +507,6 @@
   </si>
   <si>
     <t>Assumption by Quintel; no proper market data available</t>
-  </si>
-  <si>
-    <t>Assumption by Quintel</t>
   </si>
   <si>
     <t>Quintel definition</t>
@@ -600,12 +563,36 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
   </si>
+  <si>
+    <t>ECN Basisbedragen SDE+ 2017</t>
+  </si>
+  <si>
+    <t>Price B-hout</t>
+  </si>
+  <si>
+    <t>euro/tonne</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>eur/mj</t>
+  </si>
+  <si>
+    <t>GJ/tonne</t>
+  </si>
+  <si>
+    <t>ECN</t>
+  </si>
+  <si>
+    <t>https://www.rvo.nl/file/eindadvies-basisbedragen-sde-2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -616,13 +603,21 @@
     <numFmt numFmtId="171" formatCode="0.000000000000"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -769,6 +764,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -776,6 +772,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,6 +780,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,6 +788,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,17 +796,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,11 +823,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -920,6 +924,12 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Lettertype hoofdtekst"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1002,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1394,759 +1404,778 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="41" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="42" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="47" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="409">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -2622,13 +2651,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2705,147 +2734,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>488536</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>32164</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>109883</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>119131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14306136" y="41510364"/>
-          <a:ext cx="3888547" cy="4354167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438564</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>176419</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8839200" y="39852600"/>
-          <a:ext cx="3994564" cy="3834019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>465758</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>81307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>116922</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>2761</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14283358" y="40137107"/>
-          <a:ext cx="3918364" cy="1343854"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
@@ -2865,7 +2753,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2912,7 +2800,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2959,7 +2847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2993,8 +2881,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>622301</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2310</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>127565</xdr:rowOff>
     </xdr:to>
@@ -3006,7 +2894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3031,8 +2919,8 @@
       <xdr:rowOff>118234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2309</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3044,7 +2932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3082,7 +2970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3129,7 +3017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3176,7 +3064,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3210,8 +3098,8 @@
       <xdr:rowOff>164612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2309</xdr:colOff>
       <xdr:row>227</xdr:row>
       <xdr:rowOff>21398</xdr:rowOff>
     </xdr:to>
@@ -3223,7 +3111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3253,13 +3141,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>429</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3270,7 +3158,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3279,6 +3167,44 @@
         <a:xfrm>
           <a:off x="6299200" y="78600300"/>
           <a:ext cx="9779000" cy="7785100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>78509</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>162791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315364" y="47705818"/>
+          <a:ext cx="9118600" cy="4330700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3398,28 +3324,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3756,11 +3660,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -3783,10 +3687,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3955,22 +3859,22 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="36" customWidth="1"/>
     <col min="3" max="3" width="46" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="36" customWidth="1"/>
     <col min="7" max="7" width="45" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="36"/>
+    <col min="8" max="8" width="5.1640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -3980,30 +3884,30 @@
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="222" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="224"/>
+      <c r="B2" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="223"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="227"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
     </row>
     <row r="4" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="230"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="229"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="34"/>
@@ -4054,7 +3958,7 @@
     <row r="9" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="19"/>
@@ -4094,22 +3998,22 @@
       <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="194">
-        <f>'Research data'!G7</f>
-        <v>3.3E-3</v>
+      <c r="E11" s="193">
+        <f>'Research data'!U6</f>
+        <v>1.9230769230769232E-3</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="105"/>
       <c r="H11" s="31"/>
       <c r="I11" s="184" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="105" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>51</v>
@@ -4122,7 +4026,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="31"/>
       <c r="I12" s="184" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J12" s="44"/>
     </row>
@@ -4139,19 +4043,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="35"/>
-      <c r="G13" s="219" t="s">
-        <v>170</v>
+      <c r="G13" s="218" t="s">
+        <v>158</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="200" t="s">
+      <c r="I13" s="199" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="44"/>
     </row>
     <row r="14" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
-      <c r="C14" s="199" t="s">
-        <v>162</v>
+      <c r="C14" s="198" t="s">
+        <v>150</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>48</v>
@@ -4161,12 +4065,12 @@
         <v>0.112</v>
       </c>
       <c r="F14" s="35"/>
-      <c r="G14" s="219" t="s">
-        <v>171</v>
+      <c r="G14" s="218" t="s">
+        <v>159</v>
       </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="221" t="s">
-        <v>167</v>
+      <c r="I14" s="220" t="s">
+        <v>155</v>
       </c>
       <c r="J14" s="44"/>
     </row>
@@ -4217,40 +4121,40 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:V12"/>
+  <dimension ref="B1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="64" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="64" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="64" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="64" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="64" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="64" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="65" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="64" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="64" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="64" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="64" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="65" customWidth="1"/>
     <col min="10" max="10" width="3" style="65" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="65" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="65" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="65" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="65" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="65" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="65" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="65" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="65" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="65" customWidth="1"/>
-    <col min="22" max="22" width="60" style="64" customWidth="1"/>
-    <col min="23" max="16384" width="10.7109375" style="64"/>
+    <col min="11" max="11" width="12.6640625" style="65" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="10" style="65" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="65" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="65" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="65" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" style="65" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="65" customWidth="1"/>
+    <col min="20" max="21" width="9.5" style="65" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" style="65" customWidth="1"/>
+    <col min="23" max="23" width="60" style="64" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -4271,9 +4175,10 @@
       <c r="S2" s="68"/>
       <c r="T2" s="68"/>
       <c r="U2" s="68"/>
-      <c r="V2" s="69"/>
-    </row>
-    <row r="3" spans="2:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="68"/>
+      <c r="W2" s="69"/>
+    </row>
+    <row r="3" spans="2:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="97" t="s">
         <v>30</v>
@@ -4288,7 +4193,7 @@
       </c>
       <c r="H3" s="97"/>
       <c r="I3" s="63" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
@@ -4296,29 +4201,32 @@
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="63" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T3" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="63"/>
+      <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="70"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -4338,10 +4246,11 @@
       <c r="R4" s="96"/>
       <c r="S4" s="94"/>
       <c r="T4" s="94"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="94"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="70"/>
       <c r="C5" s="19" t="s">
         <v>53</v>
@@ -4364,9 +4273,10 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="16"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="108" t="s">
         <v>37</v>
@@ -4396,12 +4306,14 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="196" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="233">
+        <f>Notes!G235</f>
+        <v>1.9230769230769232E-3</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="195"/>
+    </row>
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="109" t="s">
         <v>38</v>
@@ -4417,7 +4329,7 @@
       </c>
       <c r="G7" s="124">
         <f>S7</f>
-        <v>3.3E-3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4430,19 +4342,18 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="193">
-        <v>3.3E-3</v>
-      </c>
-      <c r="T7" s="218"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="196" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="16"/>
+      <c r="T7" s="217"/>
+      <c r="U7" s="217"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="195" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="109" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D8" s="109" t="s">
         <v>50</v>
@@ -4464,7 +4375,7 @@
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="46">
-        <f>Notes!H288</f>
+        <f>Notes!H290</f>
         <v>18.5</v>
       </c>
       <c r="L8" s="18"/>
@@ -4483,9 +4394,10 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="16"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
         <v>39</v>
@@ -4516,16 +4428,17 @@
       <c r="S9" s="99">
         <v>0</v>
       </c>
-      <c r="T9" s="197"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="196" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="196"/>
+      <c r="U9" s="196"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="195" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="198" t="s">
-        <v>162</v>
+      <c r="C10" s="197" t="s">
+        <v>150</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>39</v>
@@ -4551,15 +4464,16 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="197"/>
+      <c r="S10" s="196"/>
       <c r="T10" s="99">
-        <f>Notes!G412</f>
+        <f>Notes!G414</f>
         <v>0.112</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="196"/>
-    </row>
-    <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="196"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="195"/>
+    </row>
+    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="70"/>
       <c r="C11" s="110" t="s">
         <v>40</v>
@@ -4581,7 +4495,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="171">
-        <f>Notes!H276</f>
+        <f>Notes!H278</f>
         <v>18500000</v>
       </c>
       <c r="L11" s="18"/>
@@ -4595,14 +4509,14 @@
         <v>18879000</v>
       </c>
       <c r="P11" s="16"/>
-      <c r="Q11" s="195"/>
+      <c r="Q11" s="194"/>
       <c r="R11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="172" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V11" s="16"/>
+      <c r="W11" s="172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="70"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4623,7 +4537,8 @@
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
-      <c r="V12" s="115"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4638,23 +4553,23 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="47" customWidth="1"/>
     <col min="6" max="6" width="5" style="47" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="47" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="47" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="47"/>
+    <col min="7" max="7" width="10.33203125" style="47" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="47" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4746,25 +4661,34 @@
       <c r="C7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="173" t="s">
-        <v>140</v>
+      <c r="E7" s="230" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>3</v>
       </c>
       <c r="H7" s="47">
-        <v>2013</v>
+        <v>2016</v>
+      </c>
+      <c r="I7" s="47">
+        <v>2017</v>
+      </c>
+      <c r="J7" s="234">
+        <v>43070</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
-      <c r="E8" s="173"/>
+      <c r="E8" s="230"/>
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="120" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D9" s="60"/>
       <c r="E9" s="119" t="s">
@@ -4818,29 +4742,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="216" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="210"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="205" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="205" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="205"/>
-      <c r="G12" s="210" t="s">
+    <row r="12" spans="1:12" s="215" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="209"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="204" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="211"/>
+      <c r="E12" s="204" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="204"/>
+      <c r="G12" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="217" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="213"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" s="215"/>
+      <c r="H12" s="216" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="213" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="214"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="52"/>
@@ -4869,7 +4793,7 @@
         <v>2008</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4887,13 +4811,13 @@
         <v>50</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H19" s="47">
         <v>2002</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -4908,13 +4832,13 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="52"/>
       <c r="E22" s="47" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H22" s="47">
         <v>2010</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -4929,7 +4853,7 @@
         <v>2010</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -4955,23 +4879,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI446"/>
+  <dimension ref="A1:AI448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D393" sqref="D393:J398"/>
+    <sheetView topLeftCell="A221" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I244" sqref="I244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="100" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="100" customWidth="1"/>
     <col min="2" max="2" width="5" style="100" customWidth="1"/>
     <col min="3" max="5" width="7" style="100"/>
-    <col min="6" max="6" width="11.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="100" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="100"/>
-    <col min="8" max="8" width="8.140625" style="100" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="100" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="100" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="100" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="100" customWidth="1"/>
     <col min="12" max="16384" width="7" style="100"/>
   </cols>
   <sheetData>
@@ -5859,10 +5783,10 @@
     <row r="66" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="101"/>
       <c r="D66" s="158" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F66" s="126" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -5928,7 +5852,7 @@
       <c r="B83" s="101"/>
       <c r="D83"/>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H83">
         <v>16.899999999999999</v>
@@ -5937,7 +5861,7 @@
         <v>51</v>
       </c>
       <c r="J83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -5951,21 +5875,21 @@
         <v>51</v>
       </c>
       <c r="J84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="101"/>
       <c r="D85"/>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H85" s="165">
         <v>0.12</v>
       </c>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -5977,7 +5901,7 @@
       </c>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -6028,7 +5952,7 @@
     <row r="101" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="101"/>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H101">
         <v>17.7</v>
@@ -6058,7 +5982,7 @@
     <row r="108" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="101"/>
       <c r="F108" s="126" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H108" s="164">
         <v>0.84</v>
@@ -6079,7 +6003,7 @@
         <v>1216</v>
       </c>
       <c r="F112" s="126" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -6121,13 +6045,13 @@
     <row r="121" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="101"/>
       <c r="F121" s="166" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H121" s="125">
         <v>22.4</v>
       </c>
       <c r="I121" s="166" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -6137,7 +6061,7 @@
         <v>22400</v>
       </c>
       <c r="I122" s="166" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -6147,7 +6071,7 @@
         <v>2240000</v>
       </c>
       <c r="I123" s="166" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -6162,20 +6086,20 @@
         <v>39648000</v>
       </c>
       <c r="I125" s="166" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="101"/>
       <c r="F126" s="166" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H126" s="167">
         <f>H125*H108</f>
         <v>33304320</v>
       </c>
       <c r="I126" s="166" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
@@ -6190,7 +6114,7 @@
         <v>1222</v>
       </c>
       <c r="F129" s="126" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H129" s="158">
         <v>17.7</v>
@@ -6293,7 +6217,7 @@
     <row r="143" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="101"/>
       <c r="C143" s="168" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D143" s="158"/>
       <c r="E143" s="158"/>
@@ -6325,7 +6249,7 @@
       </c>
       <c r="E144" s="100"/>
       <c r="F144" s="158" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G144" s="158"/>
       <c r="H144" s="158"/>
@@ -6427,7 +6351,7 @@
       <c r="D148" s="158"/>
       <c r="E148" s="100"/>
       <c r="F148" s="159" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G148" s="158"/>
       <c r="H148" s="158"/>
@@ -6481,10 +6405,10 @@
       <c r="F150" s="161"/>
       <c r="G150" s="100"/>
       <c r="H150" s="161" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I150" s="161" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J150" s="161"/>
       <c r="K150" s="158"/>
@@ -6508,7 +6432,7 @@
       <c r="D151" s="161"/>
       <c r="E151" s="100"/>
       <c r="F151" s="161" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G151" s="100"/>
       <c r="H151" s="161">
@@ -6539,7 +6463,7 @@
       <c r="D152" s="161"/>
       <c r="E152" s="100"/>
       <c r="F152" s="161" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G152" s="100"/>
       <c r="H152" s="161">
@@ -6572,10 +6496,10 @@
       <c r="F153" s="161"/>
       <c r="G153" s="100"/>
       <c r="H153" s="161" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I153" s="161" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J153" s="161"/>
       <c r="K153" s="158"/>
@@ -6599,7 +6523,7 @@
       <c r="D154" s="161"/>
       <c r="E154" s="100"/>
       <c r="F154" s="161" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G154" s="100"/>
       <c r="H154" s="161">
@@ -6632,7 +6556,7 @@
       <c r="D155" s="161"/>
       <c r="E155" s="100"/>
       <c r="F155" s="161" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G155" s="100"/>
       <c r="H155" s="161">
@@ -6674,7 +6598,7 @@
       </c>
       <c r="J156" s="161"/>
       <c r="K156" s="158" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L156" s="158"/>
       <c r="M156" s="158"/>
@@ -6696,7 +6620,7 @@
       <c r="D157" s="161"/>
       <c r="E157" s="100"/>
       <c r="F157" s="161" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G157" s="100"/>
       <c r="H157" s="169">
@@ -6732,7 +6656,7 @@
       <c r="D158" s="161"/>
       <c r="E158" s="100"/>
       <c r="F158" s="161" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G158" s="100"/>
       <c r="H158" s="169">
@@ -6796,7 +6720,7 @@
       <c r="D160" s="161"/>
       <c r="E160" s="100"/>
       <c r="F160" s="166" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G160" s="100"/>
       <c r="H160" s="169">
@@ -7432,7 +7356,7 @@
     <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="101"/>
       <c r="C185" s="158" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D185" s="158"/>
       <c r="E185" s="100"/>
@@ -7462,7 +7386,7 @@
       <c r="D186" s="158"/>
       <c r="E186" s="100"/>
       <c r="F186" s="158" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G186" s="158"/>
       <c r="H186" s="158"/>
@@ -7515,7 +7439,7 @@
       <c r="B188" s="101"/>
       <c r="C188" s="158"/>
       <c r="D188" s="158" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E188" s="100"/>
       <c r="F188" s="158"/>
@@ -7544,13 +7468,13 @@
       <c r="D189" s="158"/>
       <c r="E189" s="100"/>
       <c r="F189" s="170" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G189">
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="158" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I189" s="158"/>
       <c r="J189" s="158"/>
@@ -7576,7 +7500,7 @@
       <c r="E190" s="100"/>
       <c r="F190" s="158"/>
       <c r="H190" s="158" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I190" s="158"/>
       <c r="J190" s="158"/>
@@ -7605,7 +7529,7 @@
         <v>50</v>
       </c>
       <c r="H191" s="161" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I191" s="161"/>
       <c r="J191" s="161"/>
@@ -7634,7 +7558,7 @@
         <v>200</v>
       </c>
       <c r="H192" s="161" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I192" s="161"/>
       <c r="J192" s="161"/>
@@ -7660,10 +7584,10 @@
       <c r="E193" s="100"/>
       <c r="F193" s="161"/>
       <c r="G193" s="161" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H193" s="161" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I193" s="161"/>
       <c r="J193" s="161"/>
@@ -7689,12 +7613,12 @@
       <c r="E194" s="100"/>
       <c r="F194" s="161"/>
       <c r="G194" s="161" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H194" s="161"/>
       <c r="I194" s="161"/>
       <c r="J194" s="161" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K194" s="158"/>
       <c r="L194" s="158"/>
@@ -7717,7 +7641,7 @@
       <c r="D195" s="161"/>
       <c r="E195" s="100"/>
       <c r="F195" s="161" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G195" s="161">
         <f>50/17500</f>
@@ -7750,7 +7674,7 @@
       <c r="D196" s="161"/>
       <c r="E196" s="100"/>
       <c r="F196" s="161" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G196" s="161">
         <f>200/17500</f>
@@ -7782,7 +7706,7 @@
       <c r="D197" s="161"/>
       <c r="E197" s="161"/>
       <c r="F197" s="161" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G197" s="161">
         <f>170/17500</f>
@@ -8646,11 +8570,11 @@
       <c r="T231" s="157"/>
       <c r="U231" s="157"/>
     </row>
-    <row r="232" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="125"/>
       <c r="B232" s="101"/>
       <c r="C232" s="158" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D232" s="125"/>
       <c r="E232" s="125"/>
@@ -8674,16 +8598,20 @@
       <c r="W232" s="158"/>
       <c r="X232" s="158"/>
     </row>
-    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B233" s="101"/>
       <c r="C233" s="100"/>
-      <c r="D233" s="160">
-        <v>10</v>
-      </c>
+      <c r="D233" s="160"/>
       <c r="E233" s="100"/>
-      <c r="F233" s="100"/>
-      <c r="G233" s="100"/>
-      <c r="H233" s="100"/>
+      <c r="F233" s="230" t="s">
+        <v>162</v>
+      </c>
+      <c r="G233" s="232">
+        <v>25</v>
+      </c>
+      <c r="H233" s="230" t="s">
+        <v>163</v>
+      </c>
       <c r="I233" s="158"/>
       <c r="J233" s="158"/>
       <c r="K233" s="158"/>
@@ -8701,14 +8629,20 @@
       <c r="W233" s="158"/>
       <c r="X233" s="158"/>
     </row>
-    <row r="234" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B234" s="101"/>
       <c r="C234" s="158"/>
       <c r="D234" s="158"/>
       <c r="E234" s="100"/>
-      <c r="F234" s="100"/>
-      <c r="G234" s="100"/>
-      <c r="H234" s="100"/>
+      <c r="F234" s="230" t="s">
+        <v>164</v>
+      </c>
+      <c r="G234" s="232">
+        <v>13</v>
+      </c>
+      <c r="H234" s="230" t="s">
+        <v>166</v>
+      </c>
       <c r="I234" s="158"/>
       <c r="J234" s="158"/>
       <c r="K234" s="158"/>
@@ -8726,20 +8660,18 @@
       <c r="W234" s="158"/>
       <c r="X234" s="158"/>
     </row>
-    <row r="235" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B235" s="101"/>
       <c r="C235" s="158"/>
       <c r="D235" s="158"/>
-      <c r="E235" s="158" t="s">
-        <v>90</v>
-      </c>
+      <c r="E235" s="158"/>
       <c r="F235" s="100"/>
       <c r="G235" s="158">
-        <f>J258</f>
-        <v>7.6704545454545454E-3</v>
+        <f>G233/G234/1000</f>
+        <v>1.9230769230769232E-3</v>
       </c>
       <c r="H235" s="161" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="I235" s="158"/>
       <c r="J235" s="158"/>
@@ -8762,17 +8694,10 @@
       <c r="B236" s="101"/>
       <c r="C236" s="158"/>
       <c r="D236" s="158"/>
-      <c r="E236" s="158" t="s">
-        <v>92</v>
-      </c>
+      <c r="E236" s="158"/>
       <c r="F236" s="100"/>
-      <c r="G236" s="158">
-        <f>N258</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H236" s="161" t="s">
-        <v>91</v>
-      </c>
+      <c r="G236" s="158"/>
+      <c r="H236" s="161"/>
       <c r="I236" s="158"/>
       <c r="J236" s="158"/>
       <c r="K236" s="158"/>
@@ -9249,20 +9174,12 @@
       <c r="G255" s="158"/>
       <c r="H255" s="158"/>
       <c r="I255" s="161"/>
-      <c r="J255" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="K255" s="161" t="s">
-        <v>93</v>
-      </c>
+      <c r="J255" s="161"/>
+      <c r="K255" s="161"/>
       <c r="L255" s="161"/>
       <c r="M255" s="161"/>
-      <c r="N255" s="161" t="s">
-        <v>155</v>
-      </c>
-      <c r="O255" s="161" t="s">
-        <v>94</v>
-      </c>
+      <c r="N255" s="161"/>
+      <c r="O255" s="161"/>
       <c r="P255" s="158"/>
       <c r="Q255" s="158"/>
       <c r="R255" s="158"/>
@@ -9282,20 +9199,12 @@
       <c r="G256" s="158"/>
       <c r="H256" s="158"/>
       <c r="I256" s="161"/>
-      <c r="J256" s="161">
-        <v>135</v>
-      </c>
-      <c r="K256" s="161" t="s">
-        <v>95</v>
-      </c>
+      <c r="J256" s="231"/>
+      <c r="K256" s="161"/>
       <c r="L256" s="161"/>
       <c r="M256" s="161"/>
-      <c r="N256" s="161">
-        <v>220</v>
-      </c>
-      <c r="O256" s="161" t="s">
-        <v>95</v>
-      </c>
+      <c r="N256" s="161"/>
+      <c r="O256" s="161"/>
       <c r="P256" s="158"/>
       <c r="Q256" s="158"/>
       <c r="R256" s="158"/>
@@ -9315,22 +9224,12 @@
       <c r="G257" s="158"/>
       <c r="H257" s="158"/>
       <c r="I257" s="161"/>
-      <c r="J257" s="161">
-        <f>17.6*1000</f>
-        <v>17600</v>
-      </c>
-      <c r="K257" s="161" t="s">
-        <v>96</v>
-      </c>
+      <c r="J257" s="161"/>
+      <c r="K257" s="161"/>
       <c r="L257" s="161"/>
       <c r="M257" s="161"/>
-      <c r="N257" s="161">
-        <f xml:space="preserve"> 17.6 *1000</f>
-        <v>17600</v>
-      </c>
-      <c r="O257" s="161" t="s">
-        <v>96</v>
-      </c>
+      <c r="N257" s="161"/>
+      <c r="O257" s="161"/>
       <c r="P257" s="158"/>
       <c r="Q257" s="158"/>
       <c r="R257" s="158"/>
@@ -9350,22 +9249,12 @@
       <c r="G258" s="158"/>
       <c r="H258" s="158"/>
       <c r="I258" s="161"/>
-      <c r="J258" s="161">
-        <f>J256/J257</f>
-        <v>7.6704545454545454E-3</v>
-      </c>
-      <c r="K258" s="161" t="s">
-        <v>97</v>
-      </c>
+      <c r="J258" s="161"/>
+      <c r="K258" s="161"/>
       <c r="L258" s="161"/>
       <c r="M258" s="161"/>
-      <c r="N258" s="161">
-        <f>N256/N257</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="O258" s="161" t="s">
-        <v>97</v>
-      </c>
+      <c r="N258" s="161"/>
+      <c r="O258" s="161"/>
       <c r="P258" s="158"/>
       <c r="Q258" s="158"/>
       <c r="R258" s="158"/>
@@ -9432,15 +9321,11 @@
       <c r="D261" s="158"/>
       <c r="E261" s="158"/>
       <c r="F261" s="158"/>
-      <c r="G261" s="162"/>
+      <c r="G261" s="158"/>
       <c r="H261" s="158"/>
       <c r="I261" s="161"/>
-      <c r="J261" s="161" t="s">
-        <v>98</v>
-      </c>
-      <c r="K261" s="163">
-        <v>0.40100000000000002</v>
-      </c>
+      <c r="J261" s="161"/>
+      <c r="K261" s="161"/>
       <c r="L261" s="161"/>
       <c r="M261" s="161"/>
       <c r="N261" s="161"/>
@@ -9486,11 +9371,11 @@
       <c r="D263" s="158"/>
       <c r="E263" s="158"/>
       <c r="F263" s="158"/>
-      <c r="G263" s="158"/>
+      <c r="G263" s="162"/>
       <c r="H263" s="158"/>
       <c r="I263" s="161"/>
       <c r="J263" s="161"/>
-      <c r="K263" s="161"/>
+      <c r="K263" s="163"/>
       <c r="L263" s="161"/>
       <c r="M263" s="161"/>
       <c r="N263" s="161"/>
@@ -9505,8 +9390,7 @@
       <c r="W263" s="158"/>
       <c r="X263" s="158"/>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A264"/>
+    <row r="264" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="101"/>
       <c r="C264" s="158"/>
       <c r="D264" s="158"/>
@@ -9514,21 +9398,24 @@
       <c r="F264" s="158"/>
       <c r="G264" s="158"/>
       <c r="H264" s="158"/>
-      <c r="I264" s="158"/>
-      <c r="J264" s="158"/>
-      <c r="K264" s="158"/>
-      <c r="L264" s="158"/>
-      <c r="M264" s="158"/>
-      <c r="N264" s="158"/>
-      <c r="O264" s="158"/>
+      <c r="I264" s="161"/>
+      <c r="J264" s="161"/>
+      <c r="K264" s="161"/>
+      <c r="L264" s="161"/>
+      <c r="M264" s="161"/>
+      <c r="N264" s="161"/>
+      <c r="O264" s="161"/>
       <c r="P264" s="158"/>
       <c r="Q264" s="158"/>
       <c r="R264" s="158"/>
       <c r="S264" s="158"/>
       <c r="T264" s="158"/>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A265"/>
+      <c r="U264" s="158"/>
+      <c r="V264" s="158"/>
+      <c r="W264" s="158"/>
+      <c r="X264" s="158"/>
+    </row>
+    <row r="265" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="101"/>
       <c r="C265" s="158"/>
       <c r="D265" s="158"/>
@@ -9536,151 +9423,193 @@
       <c r="F265" s="158"/>
       <c r="G265" s="158"/>
       <c r="H265" s="158"/>
-      <c r="I265" s="158"/>
-      <c r="J265" s="158"/>
-      <c r="K265" s="158"/>
-      <c r="L265" s="158"/>
-      <c r="M265" s="158"/>
-      <c r="N265" s="158"/>
-      <c r="O265" s="158"/>
+      <c r="I265" s="161"/>
+      <c r="J265" s="161"/>
+      <c r="K265" s="161"/>
+      <c r="L265" s="161"/>
+      <c r="M265" s="161"/>
+      <c r="N265" s="161"/>
+      <c r="O265" s="161"/>
       <c r="P265" s="158"/>
       <c r="Q265" s="158"/>
       <c r="R265" s="158"/>
       <c r="S265" s="158"/>
       <c r="T265" s="158"/>
+      <c r="U265" s="158"/>
+      <c r="V265" s="158"/>
+      <c r="W265" s="158"/>
+      <c r="X265" s="158"/>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A266"/>
       <c r="B266" s="101"/>
-    </row>
-    <row r="267" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C266" s="158"/>
+      <c r="D266" s="158"/>
+      <c r="E266" s="158"/>
+      <c r="F266" s="158"/>
+      <c r="G266" s="158"/>
+      <c r="H266" s="158"/>
+      <c r="I266" s="158"/>
+      <c r="J266" s="158"/>
+      <c r="K266" s="158"/>
+      <c r="L266" s="158"/>
+      <c r="M266" s="158"/>
+      <c r="N266" s="158"/>
+      <c r="O266" s="158"/>
+      <c r="P266" s="158"/>
+      <c r="Q266" s="158"/>
+      <c r="R266" s="158"/>
+      <c r="S266" s="158"/>
+      <c r="T266" s="158"/>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A267"/>
       <c r="B267" s="101"/>
-    </row>
-    <row r="268" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268"/>
-      <c r="B268" s="103"/>
-      <c r="C268" s="104" t="s">
+      <c r="C267" s="158"/>
+      <c r="D267" s="158"/>
+      <c r="E267" s="158"/>
+      <c r="F267" s="158"/>
+      <c r="G267" s="158"/>
+      <c r="H267" s="158"/>
+      <c r="I267" s="158"/>
+      <c r="J267" s="158"/>
+      <c r="K267" s="158"/>
+      <c r="L267" s="158"/>
+      <c r="M267" s="158"/>
+      <c r="N267" s="158"/>
+      <c r="O267" s="158"/>
+      <c r="P267" s="158"/>
+      <c r="Q267" s="158"/>
+      <c r="R267" s="158"/>
+      <c r="S267" s="158"/>
+      <c r="T267" s="158"/>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B268" s="101"/>
+    </row>
+    <row r="269" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="101"/>
+    </row>
+    <row r="270" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270"/>
+      <c r="B270" s="103"/>
+      <c r="C270" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="104" t="s">
+      <c r="D270" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E268" s="104"/>
-      <c r="F268" s="104" t="s">
+      <c r="E270" s="104"/>
+      <c r="F270" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="G268" s="104"/>
-      <c r="H268" s="104"/>
-      <c r="I268" s="104"/>
-      <c r="J268" s="104"/>
-      <c r="K268" s="104"/>
-      <c r="L268" s="104"/>
-      <c r="M268" s="104"/>
-      <c r="N268" s="104"/>
-      <c r="O268" s="104"/>
-      <c r="P268" s="104"/>
-      <c r="Q268" s="104"/>
-      <c r="R268" s="104"/>
-      <c r="S268" s="104"/>
-      <c r="T268" s="104"/>
-      <c r="U268" s="104"/>
-    </row>
-    <row r="269" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="101"/>
-      <c r="C269" s="114"/>
-      <c r="D269" s="111"/>
-      <c r="E269" s="111"/>
-      <c r="F269" s="111"/>
-      <c r="G269" s="111"/>
-      <c r="H269" s="111"/>
-      <c r="I269" s="111"/>
-      <c r="J269" s="111"/>
-      <c r="K269" s="111"/>
-      <c r="L269" s="111"/>
-      <c r="M269" s="111"/>
-      <c r="N269" s="111"/>
-      <c r="O269" s="111"/>
-      <c r="P269" s="111"/>
-      <c r="Q269" s="111"/>
-      <c r="R269" s="111"/>
-      <c r="S269" s="111"/>
-      <c r="T269" s="111"/>
-      <c r="U269" s="111"/>
-      <c r="V269" s="111"/>
-      <c r="W269" s="111"/>
-      <c r="X269" s="111"/>
-      <c r="Y269" s="111"/>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B270" s="101"/>
-      <c r="C270" s="60" t="s">
+      <c r="G270" s="104"/>
+      <c r="H270" s="104"/>
+      <c r="I270" s="104"/>
+      <c r="J270" s="104"/>
+      <c r="K270" s="104"/>
+      <c r="L270" s="104"/>
+      <c r="M270" s="104"/>
+      <c r="N270" s="104"/>
+      <c r="O270" s="104"/>
+      <c r="P270" s="104"/>
+      <c r="Q270" s="104"/>
+      <c r="R270" s="104"/>
+      <c r="S270" s="104"/>
+      <c r="T270" s="104"/>
+      <c r="U270" s="104"/>
+    </row>
+    <row r="271" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="101"/>
+      <c r="C271" s="114"/>
+      <c r="D271" s="111"/>
+      <c r="E271" s="111"/>
+      <c r="F271" s="111"/>
+      <c r="G271" s="111"/>
+      <c r="H271" s="111"/>
+      <c r="I271" s="111"/>
+      <c r="J271" s="111"/>
+      <c r="K271" s="111"/>
+      <c r="L271" s="111"/>
+      <c r="M271" s="111"/>
+      <c r="N271" s="111"/>
+      <c r="O271" s="111"/>
+      <c r="P271" s="111"/>
+      <c r="Q271" s="111"/>
+      <c r="R271" s="111"/>
+      <c r="S271" s="111"/>
+      <c r="T271" s="111"/>
+      <c r="U271" s="111"/>
+      <c r="V271" s="111"/>
+      <c r="W271" s="111"/>
+      <c r="X271" s="111"/>
+      <c r="Y271" s="111"/>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B272" s="101"/>
+      <c r="C272" s="60" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="271" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="101"/>
-    </row>
-    <row r="272" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="101"/>
     </row>
     <row r="273" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="101"/>
-      <c r="D273" s="125">
-        <v>9</v>
-      </c>
     </row>
     <row r="274" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="101"/>
-      <c r="F274" s="166" t="s">
-        <v>101</v>
-      </c>
-      <c r="H274" s="125">
-        <v>10</v>
-      </c>
-      <c r="I274" s="166" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="275" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="101"/>
-      <c r="H275" s="167">
-        <f>H289*H274</f>
-        <v>185000</v>
-      </c>
-      <c r="I275" s="166" t="s">
-        <v>132</v>
+      <c r="D275" s="125">
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="101"/>
-      <c r="H276" s="167">
-        <f>H275*100</f>
-        <v>18500000</v>
+      <c r="F276" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="H276" s="125">
+        <v>10</v>
       </c>
       <c r="I276" s="166" t="s">
-        <v>54</v>
-      </c>
-      <c r="J276" s="166" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="101"/>
       <c r="H277" s="167">
-        <f>H276*H67</f>
-        <v>16095000</v>
+        <f>H291*H276</f>
+        <v>185000</v>
       </c>
       <c r="I277" s="166" t="s">
-        <v>54</v>
-      </c>
-      <c r="J277" s="166" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="278" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="101"/>
+      <c r="H278" s="167">
+        <f>H277*100</f>
+        <v>18500000</v>
+      </c>
+      <c r="I278" s="166" t="s">
+        <v>54</v>
+      </c>
+      <c r="J278" s="166" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="279" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="101"/>
+      <c r="H279" s="167">
+        <f>H278*H67</f>
+        <v>16095000</v>
+      </c>
+      <c r="I279" s="166" t="s">
+        <v>54</v>
+      </c>
+      <c r="J279" s="166" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="280" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="101"/>
@@ -9708,31 +9637,31 @@
     </row>
     <row r="288" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="101"/>
-      <c r="F288" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="H288" s="125">
-        <v>18.5</v>
-      </c>
-      <c r="I288" s="126" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="289" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="101"/>
-      <c r="H289" s="125">
-        <f>H288*1000</f>
-        <v>18500</v>
-      </c>
-      <c r="I289" s="126" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="290" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="101"/>
+      <c r="F290" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="H290" s="125">
+        <v>18.5</v>
+      </c>
+      <c r="I290" s="126" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="291" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="101"/>
+      <c r="H291" s="125">
+        <f>H290*1000</f>
+        <v>18500</v>
+      </c>
+      <c r="I291" s="126" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="292" spans="2:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="101"/>
@@ -9887,265 +9816,237 @@
     <row r="342" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="101"/>
     </row>
-    <row r="343" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="101"/>
     </row>
-    <row r="344" spans="2:23" s="125" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="101"/>
-      <c r="O344" s="127"/>
-      <c r="P344" s="153" t="s">
+    </row>
+    <row r="345" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="101"/>
+    </row>
+    <row r="346" spans="2:23" s="125" customFormat="1" ht="151" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="101"/>
+      <c r="O346" s="127"/>
+      <c r="P346" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="Q344" s="153" t="s">
+      <c r="Q346" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="R344" s="154" t="s">
+      <c r="R346" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="S344" s="128"/>
-      <c r="T344" s="155" t="s">
+      <c r="S346" s="128"/>
+      <c r="T346" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="U344" s="153" t="s">
+      <c r="U346" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="V344" s="153" t="s">
+      <c r="V346" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="W344" s="154" t="s">
+      <c r="W346" s="154" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="345" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="101"/>
-      <c r="O345" s="129" t="s">
-        <v>71</v>
-      </c>
-      <c r="P345" s="130"/>
-      <c r="Q345" s="131"/>
-      <c r="R345" s="132"/>
-      <c r="S345" s="128"/>
-      <c r="T345" s="129" t="s">
-        <v>71</v>
-      </c>
-      <c r="U345" s="130"/>
-      <c r="V345" s="131"/>
-      <c r="W345" s="132"/>
-    </row>
-    <row r="346" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="101"/>
-      <c r="F346" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="I346" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="J346" s="125">
-        <v>0</v>
-      </c>
-      <c r="O346" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="P346" s="134">
-        <v>7.9890805766714692</v>
-      </c>
-      <c r="Q346" s="135">
-        <v>1.7193651625000923</v>
-      </c>
-      <c r="R346" s="136">
-        <v>1.1470417155166663</v>
-      </c>
-      <c r="S346" s="128"/>
-      <c r="T346" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="U346" s="134"/>
-      <c r="V346" s="135"/>
-      <c r="W346" s="136"/>
     </row>
     <row r="347" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="101"/>
-      <c r="F347" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="I347" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="J347" s="138">
-        <f>R349/1000</f>
-        <v>1.1470417155166664E-3</v>
-      </c>
-      <c r="O347" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="P347" s="134">
-        <v>4.5482472277188012E-2</v>
-      </c>
-      <c r="Q347" s="135"/>
-      <c r="R347" s="136"/>
+      <c r="O347" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="P347" s="130"/>
+      <c r="Q347" s="131"/>
+      <c r="R347" s="132"/>
       <c r="S347" s="128"/>
-      <c r="T347" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="U347" s="134"/>
-      <c r="V347" s="135"/>
-      <c r="W347" s="136"/>
+      <c r="T347" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="U347" s="130"/>
+      <c r="V347" s="131"/>
+      <c r="W347" s="132"/>
     </row>
     <row r="348" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="101"/>
       <c r="F348" s="125" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I348" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J348" s="139">
-        <f>R355/1000</f>
+      <c r="J348" s="125">
         <v>0</v>
       </c>
       <c r="O348" s="133" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P348" s="134">
-        <v>2.9196099920271799E-2</v>
-      </c>
-      <c r="Q348" s="140">
-        <v>1.8313704493592459E-2</v>
+        <v>7.9890805766714692</v>
+      </c>
+      <c r="Q348" s="135">
+        <v>1.7193651625000923</v>
       </c>
       <c r="R348" s="136">
-        <v>0</v>
+        <v>1.1470417155166663</v>
       </c>
       <c r="S348" s="128"/>
-      <c r="T348" s="133"/>
+      <c r="T348" s="137" t="s">
+        <v>73</v>
+      </c>
       <c r="U348" s="134"/>
-      <c r="V348" s="140"/>
+      <c r="V348" s="135"/>
       <c r="W348" s="136"/>
     </row>
     <row r="349" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="101"/>
       <c r="F349" s="125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I349" s="125" t="s">
         <v>48</v>
       </c>
       <c r="J349" s="138">
-        <f>R361/1000</f>
-        <v>8.0811981354912427E-3</v>
+        <f>R351/1000</f>
+        <v>1.1470417155166664E-3</v>
       </c>
       <c r="O349" s="133" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P349" s="134">
-        <v>17.826580159842166</v>
-      </c>
-      <c r="Q349" s="135">
-        <v>7.176849101590645</v>
-      </c>
-      <c r="R349" s="141">
-        <v>1.1470417155166663</v>
-      </c>
+        <v>4.5482472277188012E-2</v>
+      </c>
+      <c r="Q349" s="135"/>
+      <c r="R349" s="136"/>
       <c r="S349" s="128"/>
-      <c r="T349" s="133"/>
+      <c r="T349" s="137" t="s">
+        <v>75</v>
+      </c>
       <c r="U349" s="134"/>
       <c r="V349" s="135"/>
-      <c r="W349" s="141"/>
-    </row>
-    <row r="350" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W349" s="136"/>
+    </row>
+    <row r="350" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="101"/>
       <c r="F350" s="125" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I350" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J350" s="138">
-        <f>R367/1000</f>
+      <c r="J350" s="139">
+        <f>R357/1000</f>
         <v>0</v>
       </c>
-      <c r="O350" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="P350" s="142"/>
-      <c r="Q350" s="143"/>
-      <c r="R350" s="144"/>
+      <c r="O350" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="P350" s="134">
+        <v>2.9196099920271799E-2</v>
+      </c>
+      <c r="Q350" s="140">
+        <v>1.8313704493592459E-2</v>
+      </c>
+      <c r="R350" s="136">
+        <v>0</v>
+      </c>
       <c r="S350" s="128"/>
-      <c r="T350" s="123"/>
-      <c r="U350" s="142"/>
-      <c r="V350" s="143"/>
-      <c r="W350" s="144"/>
+      <c r="T350" s="133"/>
+      <c r="U350" s="134"/>
+      <c r="V350" s="140"/>
+      <c r="W350" s="136"/>
     </row>
     <row r="351" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="101"/>
       <c r="F351" s="125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I351" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J351" s="125">
+      <c r="J351" s="138">
+        <f>R363/1000</f>
+        <v>8.0811981354912427E-3</v>
+      </c>
+      <c r="O351" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P351" s="134">
+        <v>17.826580159842166</v>
+      </c>
+      <c r="Q351" s="135">
+        <v>7.176849101590645</v>
+      </c>
+      <c r="R351" s="141">
+        <v>1.1470417155166663</v>
+      </c>
+      <c r="S351" s="128"/>
+      <c r="T351" s="133"/>
+      <c r="U351" s="134"/>
+      <c r="V351" s="135"/>
+      <c r="W351" s="141"/>
+    </row>
+    <row r="352" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="101"/>
+      <c r="F352" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="I352" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="J352" s="138">
+        <f>R369/1000</f>
         <v>0</v>
       </c>
-      <c r="O351" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="P351" s="130"/>
-      <c r="Q351" s="131"/>
-      <c r="R351" s="132"/>
-      <c r="S351" s="128"/>
-      <c r="T351" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="U351" s="130"/>
-      <c r="V351" s="131"/>
-      <c r="W351" s="132"/>
-    </row>
-    <row r="352" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="101"/>
-      <c r="O352" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="P352" s="134"/>
-      <c r="Q352" s="135"/>
-      <c r="R352" s="136"/>
+      <c r="O352" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="P352" s="142"/>
+      <c r="Q352" s="143"/>
+      <c r="R352" s="144"/>
       <c r="S352" s="128"/>
-      <c r="T352" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="U352" s="134"/>
-      <c r="V352" s="135"/>
-      <c r="W352" s="136"/>
+      <c r="T352" s="123"/>
+      <c r="U352" s="142"/>
+      <c r="V352" s="143"/>
+      <c r="W352" s="144"/>
     </row>
     <row r="353" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="101"/>
-      <c r="O353" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="P353" s="134">
-        <v>6.6464692278060872E-2</v>
-      </c>
-      <c r="Q353" s="135"/>
-      <c r="R353" s="136"/>
+      <c r="F353" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="I353" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="J353" s="125">
+        <v>0</v>
+      </c>
+      <c r="O353" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="P353" s="130"/>
+      <c r="Q353" s="131"/>
+      <c r="R353" s="132"/>
       <c r="S353" s="128"/>
-      <c r="T353" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="U353" s="134">
-        <v>6.3635256261973708E-2</v>
-      </c>
-      <c r="V353" s="135"/>
-      <c r="W353" s="136"/>
+      <c r="T353" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="U353" s="130"/>
+      <c r="V353" s="131"/>
+      <c r="W353" s="132"/>
     </row>
     <row r="354" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="101"/>
       <c r="O354" s="133" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P354" s="134"/>
       <c r="Q354" s="135"/>
       <c r="R354" s="136"/>
       <c r="S354" s="128"/>
-      <c r="T354" s="133"/>
+      <c r="T354" s="137" t="s">
+        <v>73</v>
+      </c>
       <c r="U354" s="134"/>
       <c r="V354" s="135"/>
       <c r="W354" s="136"/>
@@ -10153,101 +10054,105 @@
     <row r="355" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="101"/>
       <c r="O355" s="133" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P355" s="134">
-        <v>1.6616173069515219</v>
-      </c>
-      <c r="Q355" s="135">
-        <v>0</v>
-      </c>
-      <c r="R355" s="141">
-        <v>0</v>
-      </c>
+        <v>6.6464692278060872E-2</v>
+      </c>
+      <c r="Q355" s="135"/>
+      <c r="R355" s="136"/>
       <c r="S355" s="128"/>
-      <c r="T355" s="133"/>
-      <c r="U355" s="134"/>
+      <c r="T355" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="U355" s="134">
+        <v>6.3635256261973708E-2</v>
+      </c>
       <c r="V355" s="135"/>
-      <c r="W355" s="141"/>
-    </row>
-    <row r="356" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W355" s="136"/>
+    </row>
+    <row r="356" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="101"/>
-      <c r="O356" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="P356" s="145">
-        <v>6.3635256261973708E-2</v>
-      </c>
-      <c r="Q356" s="143"/>
-      <c r="R356" s="144"/>
+      <c r="O356" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="P356" s="134"/>
+      <c r="Q356" s="135"/>
+      <c r="R356" s="136"/>
       <c r="S356" s="128"/>
-      <c r="T356" s="123"/>
-      <c r="U356" s="145"/>
-      <c r="V356" s="143"/>
-      <c r="W356" s="144"/>
+      <c r="T356" s="133"/>
+      <c r="U356" s="134"/>
+      <c r="V356" s="135"/>
+      <c r="W356" s="136"/>
     </row>
     <row r="357" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="101"/>
-      <c r="O357" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="P357" s="130"/>
-      <c r="Q357" s="131"/>
-      <c r="R357" s="132"/>
+      <c r="O357" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P357" s="134">
+        <v>1.6616173069515219</v>
+      </c>
+      <c r="Q357" s="135">
+        <v>0</v>
+      </c>
+      <c r="R357" s="141">
+        <v>0</v>
+      </c>
       <c r="S357" s="128"/>
-      <c r="T357" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="U357" s="130"/>
-      <c r="V357" s="131"/>
-      <c r="W357" s="132"/>
-    </row>
-    <row r="358" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T357" s="133"/>
+      <c r="U357" s="134"/>
+      <c r="V357" s="135"/>
+      <c r="W357" s="141"/>
+    </row>
+    <row r="358" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B358" s="101"/>
-      <c r="O358" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="P358" s="146"/>
-      <c r="Q358" s="135">
-        <v>0.82064901499619913</v>
-      </c>
-      <c r="R358" s="141">
-        <v>8.0811981354912419</v>
-      </c>
+      <c r="O358" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="P358" s="145">
+        <v>6.3635256261973708E-2</v>
+      </c>
+      <c r="Q358" s="143"/>
+      <c r="R358" s="144"/>
       <c r="S358" s="128"/>
-      <c r="T358" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="U358" s="146"/>
-      <c r="V358" s="135"/>
-      <c r="W358" s="141"/>
+      <c r="T358" s="123"/>
+      <c r="U358" s="145"/>
+      <c r="V358" s="143"/>
+      <c r="W358" s="144"/>
     </row>
     <row r="359" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="101"/>
-      <c r="O359" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="P359" s="146"/>
-      <c r="Q359" s="135"/>
-      <c r="R359" s="141"/>
+      <c r="O359" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="P359" s="130"/>
+      <c r="Q359" s="131"/>
+      <c r="R359" s="132"/>
       <c r="S359" s="128"/>
-      <c r="T359" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="U359" s="146"/>
-      <c r="V359" s="135"/>
-      <c r="W359" s="141"/>
+      <c r="T359" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="U359" s="130"/>
+      <c r="V359" s="131"/>
+      <c r="W359" s="132"/>
     </row>
     <row r="360" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="101"/>
       <c r="O360" s="133" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P360" s="146"/>
-      <c r="Q360" s="135"/>
-      <c r="R360" s="141"/>
+      <c r="Q360" s="135">
+        <v>0.82064901499619913</v>
+      </c>
+      <c r="R360" s="141">
+        <v>8.0811981354912419</v>
+      </c>
       <c r="S360" s="128"/>
-      <c r="T360" s="133"/>
+      <c r="T360" s="137" t="s">
+        <v>73</v>
+      </c>
       <c r="U360" s="146"/>
       <c r="V360" s="135"/>
       <c r="W360" s="141"/>
@@ -10255,99 +10160,95 @@
     <row r="361" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="101"/>
       <c r="O361" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="P361" s="134">
-        <v>0</v>
-      </c>
-      <c r="Q361" s="135">
-        <v>0.82064901499619913</v>
-      </c>
-      <c r="R361" s="141">
-        <v>8.0811981354912419</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P361" s="146"/>
+      <c r="Q361" s="135"/>
+      <c r="R361" s="141"/>
       <c r="S361" s="128"/>
-      <c r="T361" s="133"/>
-      <c r="U361" s="134"/>
+      <c r="T361" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="U361" s="146"/>
       <c r="V361" s="135"/>
       <c r="W361" s="141"/>
     </row>
-    <row r="362" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="101"/>
-      <c r="O362" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="P362" s="147"/>
-      <c r="Q362" s="143"/>
-      <c r="R362" s="144"/>
+      <c r="O362" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="P362" s="146"/>
+      <c r="Q362" s="135"/>
+      <c r="R362" s="141"/>
       <c r="S362" s="128"/>
-      <c r="T362" s="123"/>
-      <c r="U362" s="147"/>
-      <c r="V362" s="143"/>
-      <c r="W362" s="144"/>
+      <c r="T362" s="133"/>
+      <c r="U362" s="146"/>
+      <c r="V362" s="135"/>
+      <c r="W362" s="141"/>
     </row>
     <row r="363" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="101"/>
-      <c r="O363" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="P363" s="146"/>
-      <c r="Q363" s="148"/>
-      <c r="R363" s="149"/>
+      <c r="O363" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P363" s="134">
+        <v>0</v>
+      </c>
+      <c r="Q363" s="135">
+        <v>0.82064901499619913</v>
+      </c>
+      <c r="R363" s="141">
+        <v>8.0811981354912419</v>
+      </c>
       <c r="S363" s="128"/>
-      <c r="T363" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="U363" s="146"/>
-      <c r="V363" s="148"/>
-      <c r="W363" s="149"/>
-    </row>
-    <row r="364" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T363" s="133"/>
+      <c r="U363" s="134"/>
+      <c r="V363" s="135"/>
+      <c r="W363" s="141"/>
+    </row>
+    <row r="364" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B364" s="101"/>
-      <c r="O364" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="P364" s="146"/>
-      <c r="Q364" s="135"/>
-      <c r="R364" s="141"/>
+      <c r="O364" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="P364" s="147"/>
+      <c r="Q364" s="143"/>
+      <c r="R364" s="144"/>
       <c r="S364" s="128"/>
-      <c r="T364" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="U364" s="146"/>
-      <c r="V364" s="135"/>
-      <c r="W364" s="141"/>
+      <c r="T364" s="123"/>
+      <c r="U364" s="147"/>
+      <c r="V364" s="143"/>
+      <c r="W364" s="144"/>
     </row>
     <row r="365" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="101"/>
-      <c r="O365" s="133" t="s">
-        <v>74</v>
+      <c r="O365" s="129" t="s">
+        <v>81</v>
       </c>
       <c r="P365" s="146"/>
-      <c r="Q365" s="135"/>
-      <c r="R365" s="141"/>
+      <c r="Q365" s="148"/>
+      <c r="R365" s="149"/>
       <c r="S365" s="128"/>
-      <c r="T365" s="137" t="s">
-        <v>75</v>
+      <c r="T365" s="129" t="s">
+        <v>81</v>
       </c>
       <c r="U365" s="146"/>
-      <c r="V365" s="150">
-        <v>2.8648369907752248E-2</v>
-      </c>
-      <c r="W365" s="136">
-        <v>2.8648369907752248E-2</v>
-      </c>
+      <c r="V365" s="148"/>
+      <c r="W365" s="149"/>
     </row>
     <row r="366" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="101"/>
       <c r="O366" s="133" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P366" s="146"/>
       <c r="Q366" s="135"/>
       <c r="R366" s="141"/>
       <c r="S366" s="128"/>
-      <c r="T366" s="133"/>
+      <c r="T366" s="137" t="s">
+        <v>73</v>
+      </c>
       <c r="U366" s="146"/>
       <c r="V366" s="135"/>
       <c r="W366" s="141"/>
@@ -10355,99 +10256,103 @@
     <row r="367" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="101"/>
       <c r="O367" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="P367" s="134">
-        <v>0</v>
-      </c>
-      <c r="Q367" s="135">
-        <v>0</v>
-      </c>
-      <c r="R367" s="141">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P367" s="146"/>
+      <c r="Q367" s="135"/>
+      <c r="R367" s="141"/>
       <c r="S367" s="128"/>
-      <c r="T367" s="133"/>
-      <c r="U367" s="134"/>
-      <c r="V367" s="135"/>
-      <c r="W367" s="141"/>
-    </row>
-    <row r="368" spans="2:23" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T367" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="U367" s="146"/>
+      <c r="V367" s="150">
+        <v>2.8648369907752248E-2</v>
+      </c>
+      <c r="W367" s="136">
+        <v>2.8648369907752248E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="2:23" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="101"/>
-      <c r="O368" s="123" t="s">
-        <v>78</v>
+      <c r="O368" s="133" t="s">
+        <v>76</v>
       </c>
       <c r="P368" s="146"/>
-      <c r="Q368" s="151">
-        <v>2.8648369907752248E-2</v>
-      </c>
-      <c r="R368" s="152">
-        <v>2.8648369907752248E-2</v>
-      </c>
+      <c r="Q368" s="135"/>
+      <c r="R368" s="141"/>
       <c r="S368" s="128"/>
-      <c r="T368" s="123"/>
+      <c r="T368" s="133"/>
       <c r="U368" s="146"/>
-      <c r="V368" s="151"/>
-      <c r="W368" s="152"/>
+      <c r="V368" s="135"/>
+      <c r="W368" s="141"/>
     </row>
     <row r="369" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="101"/>
-      <c r="O369" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="P369" s="130"/>
-      <c r="Q369" s="131"/>
-      <c r="R369" s="132"/>
+      <c r="O369" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P369" s="134">
+        <v>0</v>
+      </c>
+      <c r="Q369" s="135">
+        <v>0</v>
+      </c>
+      <c r="R369" s="141">
+        <v>0</v>
+      </c>
       <c r="S369" s="128"/>
-      <c r="T369" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="U369" s="130"/>
-      <c r="V369" s="131"/>
-      <c r="W369" s="132"/>
-    </row>
-    <row r="370" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T369" s="133"/>
+      <c r="U369" s="134"/>
+      <c r="V369" s="135"/>
+      <c r="W369" s="141"/>
+    </row>
+    <row r="370" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B370" s="101"/>
-      <c r="O370" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="P370" s="134"/>
-      <c r="Q370" s="135"/>
-      <c r="R370" s="136"/>
+      <c r="O370" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="P370" s="146"/>
+      <c r="Q370" s="151">
+        <v>2.8648369907752248E-2</v>
+      </c>
+      <c r="R370" s="152">
+        <v>2.8648369907752248E-2</v>
+      </c>
       <c r="S370" s="128"/>
-      <c r="T370" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="U370" s="134"/>
-      <c r="V370" s="135"/>
-      <c r="W370" s="136"/>
+      <c r="T370" s="123"/>
+      <c r="U370" s="146"/>
+      <c r="V370" s="151"/>
+      <c r="W370" s="152"/>
     </row>
     <row r="371" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="101"/>
-      <c r="O371" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="P371" s="134"/>
-      <c r="Q371" s="135"/>
-      <c r="R371" s="136"/>
+      <c r="O371" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="P371" s="130"/>
+      <c r="Q371" s="131"/>
+      <c r="R371" s="132"/>
       <c r="S371" s="128"/>
-      <c r="T371" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="U371" s="134"/>
-      <c r="V371" s="135"/>
-      <c r="W371" s="136"/>
+      <c r="T371" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="U371" s="130"/>
+      <c r="V371" s="131"/>
+      <c r="W371" s="132"/>
     </row>
     <row r="372" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="101"/>
       <c r="O372" s="133" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P372" s="134"/>
       <c r="Q372" s="135"/>
       <c r="R372" s="136"/>
       <c r="S372" s="128"/>
-      <c r="T372" s="133"/>
+      <c r="T372" s="137" t="s">
+        <v>73</v>
+      </c>
       <c r="U372" s="134"/>
       <c r="V372" s="135"/>
       <c r="W372" s="136"/>
@@ -10455,314 +10360,272 @@
     <row r="373" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="101"/>
       <c r="O373" s="133" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P373" s="134"/>
       <c r="Q373" s="135"/>
       <c r="R373" s="136"/>
       <c r="S373" s="128"/>
-      <c r="T373" s="133"/>
+      <c r="T373" s="137" t="s">
+        <v>75</v>
+      </c>
       <c r="U373" s="134"/>
       <c r="V373" s="135"/>
       <c r="W373" s="136"/>
     </row>
-    <row r="374" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="101"/>
-      <c r="O374" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="P374" s="142"/>
-      <c r="Q374" s="143"/>
-      <c r="R374" s="144"/>
+      <c r="O374" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="P374" s="134"/>
+      <c r="Q374" s="135"/>
+      <c r="R374" s="136"/>
       <c r="S374" s="128"/>
-      <c r="T374" s="123"/>
-      <c r="U374" s="142"/>
-      <c r="V374" s="143"/>
-      <c r="W374" s="144"/>
+      <c r="T374" s="133"/>
+      <c r="U374" s="134"/>
+      <c r="V374" s="135"/>
+      <c r="W374" s="136"/>
     </row>
     <row r="375" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="101"/>
-    </row>
-    <row r="376" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O375" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P375" s="134"/>
+      <c r="Q375" s="135"/>
+      <c r="R375" s="136"/>
+      <c r="S375" s="128"/>
+      <c r="T375" s="133"/>
+      <c r="U375" s="134"/>
+      <c r="V375" s="135"/>
+      <c r="W375" s="136"/>
+    </row>
+    <row r="376" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B376" s="101"/>
-    </row>
-    <row r="377" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O376" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="P376" s="142"/>
+      <c r="Q376" s="143"/>
+      <c r="R376" s="144"/>
+      <c r="S376" s="128"/>
+      <c r="T376" s="123"/>
+      <c r="U376" s="142"/>
+      <c r="V376" s="143"/>
+      <c r="W376" s="144"/>
+    </row>
+    <row r="377" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="101"/>
     </row>
-    <row r="378" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378"/>
-      <c r="B378" s="103"/>
-      <c r="C378" s="104" t="s">
+    <row r="378" spans="1:25" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B378" s="101"/>
+    </row>
+    <row r="379" spans="1:25" s="125" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="101"/>
+    </row>
+    <row r="380" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380"/>
+      <c r="B380" s="103"/>
+      <c r="C380" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D378" s="104" t="s">
+      <c r="D380" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E378" s="104"/>
-      <c r="F378" s="104" t="s">
+      <c r="E380" s="104"/>
+      <c r="F380" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="G378" s="104"/>
-      <c r="H378" s="104"/>
-      <c r="I378" s="104"/>
-      <c r="J378" s="104"/>
-      <c r="K378" s="104"/>
-      <c r="L378" s="104"/>
-      <c r="M378" s="104"/>
-      <c r="N378" s="104"/>
-      <c r="O378" s="104"/>
-      <c r="P378" s="104"/>
-      <c r="Q378" s="104"/>
-      <c r="R378" s="104"/>
-      <c r="S378" s="104"/>
-      <c r="T378" s="104"/>
-      <c r="U378" s="104"/>
-    </row>
-    <row r="379" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="101"/>
-      <c r="C379" s="114"/>
-      <c r="D379" s="111"/>
-      <c r="E379" s="111"/>
-      <c r="F379" s="111"/>
-      <c r="G379" s="111"/>
-      <c r="H379" s="111"/>
-      <c r="I379" s="111"/>
-      <c r="J379" s="111"/>
-      <c r="K379" s="111"/>
-      <c r="L379" s="111"/>
-      <c r="M379" s="111"/>
-      <c r="N379" s="111"/>
-      <c r="O379" s="111"/>
-      <c r="P379" s="111"/>
-      <c r="Q379" s="111"/>
-      <c r="R379" s="111"/>
-      <c r="S379" s="111"/>
-      <c r="T379" s="111"/>
-      <c r="U379" s="111"/>
-      <c r="V379" s="111"/>
-      <c r="W379" s="111"/>
-      <c r="X379" s="111"/>
-      <c r="Y379" s="111"/>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B380" s="101"/>
-      <c r="C380" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="F380" s="175">
+      <c r="G380" s="104"/>
+      <c r="H380" s="104"/>
+      <c r="I380" s="104"/>
+      <c r="J380" s="104"/>
+      <c r="K380" s="104"/>
+      <c r="L380" s="104"/>
+      <c r="M380" s="104"/>
+      <c r="N380" s="104"/>
+      <c r="O380" s="104"/>
+      <c r="P380" s="104"/>
+      <c r="Q380" s="104"/>
+      <c r="R380" s="104"/>
+      <c r="S380" s="104"/>
+      <c r="T380" s="104"/>
+      <c r="U380" s="104"/>
+    </row>
+    <row r="381" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B381" s="101"/>
+      <c r="C381" s="114"/>
+      <c r="D381" s="111"/>
+      <c r="E381" s="111"/>
+      <c r="F381" s="111"/>
+      <c r="G381" s="111"/>
+      <c r="H381" s="111"/>
+      <c r="I381" s="111"/>
+      <c r="J381" s="111"/>
+      <c r="K381" s="111"/>
+      <c r="L381" s="111"/>
+      <c r="M381" s="111"/>
+      <c r="N381" s="111"/>
+      <c r="O381" s="111"/>
+      <c r="P381" s="111"/>
+      <c r="Q381" s="111"/>
+      <c r="R381" s="111"/>
+      <c r="S381" s="111"/>
+      <c r="T381" s="111"/>
+      <c r="U381" s="111"/>
+      <c r="V381" s="111"/>
+      <c r="W381" s="111"/>
+      <c r="X381" s="111"/>
+      <c r="Y381" s="111"/>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B382" s="101"/>
+      <c r="C382" s="173" t="s">
+        <v>131</v>
+      </c>
+      <c r="F382" s="175">
         <v>139.09</v>
       </c>
-      <c r="G380" s="158" t="s">
-        <v>151</v>
-      </c>
-      <c r="H380" s="176" t="s">
-        <v>141</v>
-      </c>
-      <c r="I380" s="177">
+      <c r="G382" s="158" t="s">
+        <v>142</v>
+      </c>
+      <c r="H382" s="176" t="s">
+        <v>132</v>
+      </c>
+      <c r="I382" s="177">
         <v>41327</v>
       </c>
-      <c r="J380" s="178" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B381" s="101"/>
-      <c r="F381" s="191">
+      <c r="J382" s="178" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B383" s="101"/>
+      <c r="F383" s="191">
         <f>'Research data'!G8</f>
         <v>17.8</v>
       </c>
-      <c r="G381" s="158" t="s">
+      <c r="G383" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="H381" s="174"/>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B382" s="101"/>
-      <c r="F382" s="100">
-        <f>F381*1000</f>
-        <v>17800</v>
-      </c>
-      <c r="G382" s="190" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B383" s="101"/>
-      <c r="F383" s="192">
-        <f>F380/F382</f>
-        <v>7.8140449438202243E-3</v>
-      </c>
+      <c r="H383" s="174"/>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B384" s="101"/>
+      <c r="F384" s="100">
+        <f>F383*1000</f>
+        <v>17800</v>
+      </c>
+      <c r="G384" s="190" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="385" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B385" s="101"/>
-    </row>
-    <row r="386" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F385" s="192">
+        <f>F382/F384</f>
+        <v>7.8140449438202243E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B386" s="101"/>
     </row>
     <row r="387" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B387" s="201"/>
-      <c r="C387" s="202" t="s">
+      <c r="B387" s="101"/>
+    </row>
+    <row r="388" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="101"/>
+    </row>
+    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B389" s="200"/>
+      <c r="C389" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="D387" s="202" t="s">
+      <c r="D389" s="201" t="s">
         <v>55</v>
       </c>
-      <c r="E387" s="202"/>
-      <c r="F387" s="202" t="s">
+      <c r="E389" s="201"/>
+      <c r="F389" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="G387" s="202"/>
-      <c r="H387" s="202"/>
-      <c r="I387" s="202"/>
-      <c r="J387" s="202"/>
-      <c r="K387" s="202"/>
-      <c r="L387" s="202"/>
-      <c r="M387" s="202"/>
-      <c r="N387" s="202"/>
-      <c r="O387" s="202"/>
-      <c r="P387" s="202"/>
-      <c r="Q387" s="202"/>
-      <c r="R387" s="202"/>
-      <c r="S387" s="202"/>
-      <c r="T387" s="202"/>
-      <c r="U387" s="202"/>
-      <c r="V387" s="203"/>
-      <c r="W387" s="203"/>
-      <c r="X387" s="203"/>
-      <c r="Y387" s="203"/>
-      <c r="Z387" s="203"/>
-      <c r="AA387" s="203"/>
-      <c r="AB387" s="203"/>
-      <c r="AC387" s="203"/>
-      <c r="AD387" s="203"/>
-      <c r="AE387" s="203"/>
-      <c r="AF387" s="203"/>
-      <c r="AG387" s="203"/>
-      <c r="AH387" s="203"/>
-      <c r="AI387" s="203"/>
-    </row>
-    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B388" s="204"/>
-      <c r="C388" s="205"/>
-      <c r="D388" s="205"/>
-      <c r="E388" s="205"/>
-      <c r="F388" s="205"/>
-      <c r="G388" s="205"/>
-      <c r="H388" s="205"/>
-      <c r="I388" s="205"/>
-      <c r="J388" s="205"/>
-      <c r="K388" s="205"/>
-      <c r="L388" s="205"/>
-      <c r="M388" s="205"/>
-      <c r="N388" s="205"/>
-      <c r="O388" s="205"/>
-      <c r="P388" s="205"/>
-      <c r="Q388" s="205"/>
-      <c r="R388" s="205"/>
-      <c r="S388" s="205"/>
-      <c r="T388" s="205"/>
-      <c r="U388" s="205"/>
-      <c r="V388" s="205"/>
-      <c r="W388" s="205"/>
-      <c r="X388" s="205"/>
-      <c r="Y388" s="205"/>
-      <c r="Z388" s="205"/>
-      <c r="AA388" s="205"/>
-      <c r="AB388" s="205"/>
-      <c r="AC388" s="205"/>
-      <c r="AD388" s="205"/>
-      <c r="AE388" s="205"/>
-      <c r="AF388" s="205"/>
-      <c r="AG388" s="205"/>
-      <c r="AH388" s="205"/>
-      <c r="AI388" s="205"/>
-    </row>
-    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B389" s="204"/>
-      <c r="C389" s="206" t="s">
-        <v>163</v>
-      </c>
-      <c r="D389" s="207"/>
-      <c r="E389" s="207"/>
-      <c r="F389" s="207"/>
-      <c r="G389" s="207"/>
-      <c r="H389" s="207"/>
-      <c r="I389" s="207"/>
-      <c r="J389" s="111"/>
-      <c r="K389" s="111"/>
-      <c r="L389" s="111"/>
-      <c r="M389" s="111"/>
-      <c r="N389" s="111"/>
-      <c r="O389" s="111"/>
-      <c r="P389" s="111"/>
-      <c r="Q389" s="111"/>
-      <c r="R389" s="111"/>
-      <c r="S389" s="111"/>
-      <c r="T389" s="111"/>
-      <c r="U389" s="111"/>
-      <c r="V389" s="111"/>
-      <c r="W389" s="111"/>
-      <c r="X389" s="111"/>
-      <c r="Y389" s="111"/>
-      <c r="Z389" s="208"/>
-      <c r="AA389" s="208"/>
-      <c r="AB389" s="208"/>
-      <c r="AC389" s="208"/>
-      <c r="AD389" s="208"/>
-      <c r="AE389" s="208"/>
-      <c r="AF389" s="208"/>
-      <c r="AG389" s="208"/>
-      <c r="AH389" s="208"/>
-      <c r="AI389" s="208"/>
+      <c r="G389" s="201"/>
+      <c r="H389" s="201"/>
+      <c r="I389" s="201"/>
+      <c r="J389" s="201"/>
+      <c r="K389" s="201"/>
+      <c r="L389" s="201"/>
+      <c r="M389" s="201"/>
+      <c r="N389" s="201"/>
+      <c r="O389" s="201"/>
+      <c r="P389" s="201"/>
+      <c r="Q389" s="201"/>
+      <c r="R389" s="201"/>
+      <c r="S389" s="201"/>
+      <c r="T389" s="201"/>
+      <c r="U389" s="201"/>
+      <c r="V389" s="202"/>
+      <c r="W389" s="202"/>
+      <c r="X389" s="202"/>
+      <c r="Y389" s="202"/>
+      <c r="Z389" s="202"/>
+      <c r="AA389" s="202"/>
+      <c r="AB389" s="202"/>
+      <c r="AC389" s="202"/>
+      <c r="AD389" s="202"/>
+      <c r="AE389" s="202"/>
+      <c r="AF389" s="202"/>
+      <c r="AG389" s="202"/>
+      <c r="AH389" s="202"/>
+      <c r="AI389" s="202"/>
     </row>
     <row r="390" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B390" s="204"/>
-      <c r="C390" s="207"/>
-      <c r="D390" s="207"/>
-      <c r="E390" s="207"/>
-      <c r="F390" s="207"/>
-      <c r="G390" s="207"/>
-      <c r="H390" s="207"/>
-      <c r="I390" s="207"/>
-      <c r="J390" s="111"/>
-      <c r="K390" s="111"/>
-      <c r="L390" s="111"/>
-      <c r="M390" s="111"/>
-      <c r="N390" s="111"/>
-      <c r="O390" s="111"/>
-      <c r="P390" s="111"/>
-      <c r="Q390" s="111"/>
-      <c r="R390" s="111"/>
-      <c r="S390" s="111"/>
-      <c r="T390" s="111"/>
-      <c r="U390" s="111"/>
-      <c r="V390" s="111"/>
-      <c r="W390" s="111"/>
-      <c r="X390" s="111"/>
-      <c r="Y390" s="111"/>
-      <c r="Z390" s="208"/>
-      <c r="AA390" s="208"/>
-      <c r="AB390" s="208"/>
-      <c r="AC390" s="208"/>
-      <c r="AD390" s="208"/>
-      <c r="AE390" s="208"/>
-      <c r="AF390" s="208"/>
-      <c r="AG390" s="208"/>
-      <c r="AH390" s="208"/>
-      <c r="AI390" s="208"/>
+      <c r="B390" s="203"/>
+      <c r="C390" s="204"/>
+      <c r="D390" s="204"/>
+      <c r="E390" s="204"/>
+      <c r="F390" s="204"/>
+      <c r="G390" s="204"/>
+      <c r="H390" s="204"/>
+      <c r="I390" s="204"/>
+      <c r="J390" s="204"/>
+      <c r="K390" s="204"/>
+      <c r="L390" s="204"/>
+      <c r="M390" s="204"/>
+      <c r="N390" s="204"/>
+      <c r="O390" s="204"/>
+      <c r="P390" s="204"/>
+      <c r="Q390" s="204"/>
+      <c r="R390" s="204"/>
+      <c r="S390" s="204"/>
+      <c r="T390" s="204"/>
+      <c r="U390" s="204"/>
+      <c r="V390" s="204"/>
+      <c r="W390" s="204"/>
+      <c r="X390" s="204"/>
+      <c r="Y390" s="204"/>
+      <c r="Z390" s="204"/>
+      <c r="AA390" s="204"/>
+      <c r="AB390" s="204"/>
+      <c r="AC390" s="204"/>
+      <c r="AD390" s="204"/>
+      <c r="AE390" s="204"/>
+      <c r="AF390" s="204"/>
+      <c r="AG390" s="204"/>
+      <c r="AH390" s="204"/>
+      <c r="AI390" s="204"/>
     </row>
     <row r="391" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B391" s="204"/>
-      <c r="C391" s="207"/>
-      <c r="D391" s="207"/>
-      <c r="E391" s="207"/>
-      <c r="F391" s="207"/>
-      <c r="G391" s="207"/>
-      <c r="H391" s="207"/>
-      <c r="I391" s="207"/>
+      <c r="B391" s="203"/>
+      <c r="C391" s="205" t="s">
+        <v>151</v>
+      </c>
+      <c r="D391" s="206"/>
+      <c r="E391" s="206"/>
+      <c r="F391" s="206"/>
+      <c r="G391" s="206"/>
+      <c r="H391" s="206"/>
+      <c r="I391" s="206"/>
       <c r="J391" s="111"/>
       <c r="K391" s="111"/>
       <c r="L391" s="111"/>
@@ -10779,26 +10642,26 @@
       <c r="W391" s="111"/>
       <c r="X391" s="111"/>
       <c r="Y391" s="111"/>
-      <c r="Z391" s="208"/>
-      <c r="AA391" s="208"/>
-      <c r="AB391" s="208"/>
-      <c r="AC391" s="208"/>
-      <c r="AD391" s="208"/>
-      <c r="AE391" s="208"/>
-      <c r="AF391" s="208"/>
-      <c r="AG391" s="208"/>
-      <c r="AH391" s="208"/>
-      <c r="AI391" s="208"/>
+      <c r="Z391" s="207"/>
+      <c r="AA391" s="207"/>
+      <c r="AB391" s="207"/>
+      <c r="AC391" s="207"/>
+      <c r="AD391" s="207"/>
+      <c r="AE391" s="207"/>
+      <c r="AF391" s="207"/>
+      <c r="AG391" s="207"/>
+      <c r="AH391" s="207"/>
+      <c r="AI391" s="207"/>
     </row>
     <row r="392" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B392" s="204"/>
-      <c r="C392" s="207"/>
-      <c r="D392" s="207"/>
-      <c r="E392" s="207"/>
-      <c r="F392" s="207"/>
-      <c r="G392" s="207"/>
-      <c r="H392" s="207"/>
-      <c r="I392" s="207"/>
+      <c r="B392" s="203"/>
+      <c r="C392" s="206"/>
+      <c r="D392" s="206"/>
+      <c r="E392" s="206"/>
+      <c r="F392" s="206"/>
+      <c r="G392" s="206"/>
+      <c r="H392" s="206"/>
+      <c r="I392" s="206"/>
       <c r="J392" s="111"/>
       <c r="K392" s="111"/>
       <c r="L392" s="111"/>
@@ -10815,27 +10678,27 @@
       <c r="W392" s="111"/>
       <c r="X392" s="111"/>
       <c r="Y392" s="111"/>
-      <c r="Z392" s="208"/>
-      <c r="AA392" s="208"/>
-      <c r="AB392" s="208"/>
-      <c r="AC392" s="208"/>
-      <c r="AD392" s="208"/>
-      <c r="AE392" s="208"/>
-      <c r="AF392" s="208"/>
-      <c r="AG392" s="208"/>
-      <c r="AH392" s="208"/>
-      <c r="AI392" s="208"/>
+      <c r="Z392" s="207"/>
+      <c r="AA392" s="207"/>
+      <c r="AB392" s="207"/>
+      <c r="AC392" s="207"/>
+      <c r="AD392" s="207"/>
+      <c r="AE392" s="207"/>
+      <c r="AF392" s="207"/>
+      <c r="AG392" s="207"/>
+      <c r="AH392" s="207"/>
+      <c r="AI392" s="207"/>
     </row>
     <row r="393" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B393" s="204"/>
-      <c r="C393" s="207"/>
-      <c r="D393" s="220"/>
-      <c r="E393" s="220"/>
-      <c r="F393" s="220"/>
-      <c r="G393" s="220"/>
-      <c r="H393" s="220"/>
-      <c r="I393" s="220"/>
-      <c r="J393" s="157"/>
+      <c r="B393" s="203"/>
+      <c r="C393" s="206"/>
+      <c r="D393" s="206"/>
+      <c r="E393" s="206"/>
+      <c r="F393" s="206"/>
+      <c r="G393" s="206"/>
+      <c r="H393" s="206"/>
+      <c r="I393" s="206"/>
+      <c r="J393" s="111"/>
       <c r="K393" s="111"/>
       <c r="L393" s="111"/>
       <c r="M393" s="111"/>
@@ -10851,27 +10714,27 @@
       <c r="W393" s="111"/>
       <c r="X393" s="111"/>
       <c r="Y393" s="111"/>
-      <c r="Z393" s="208"/>
-      <c r="AA393" s="208"/>
-      <c r="AB393" s="208"/>
-      <c r="AC393" s="208"/>
-      <c r="AD393" s="208"/>
-      <c r="AE393" s="208"/>
-      <c r="AF393" s="208"/>
-      <c r="AG393" s="208"/>
-      <c r="AH393" s="208"/>
-      <c r="AI393" s="208"/>
+      <c r="Z393" s="207"/>
+      <c r="AA393" s="207"/>
+      <c r="AB393" s="207"/>
+      <c r="AC393" s="207"/>
+      <c r="AD393" s="207"/>
+      <c r="AE393" s="207"/>
+      <c r="AF393" s="207"/>
+      <c r="AG393" s="207"/>
+      <c r="AH393" s="207"/>
+      <c r="AI393" s="207"/>
     </row>
     <row r="394" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B394" s="204"/>
-      <c r="C394" s="207"/>
-      <c r="D394" s="125"/>
-      <c r="E394" s="125"/>
-      <c r="F394" s="125"/>
-      <c r="G394" s="125"/>
-      <c r="H394" s="125"/>
-      <c r="I394" s="125"/>
-      <c r="J394" s="157"/>
+      <c r="B394" s="203"/>
+      <c r="C394" s="206"/>
+      <c r="D394" s="206"/>
+      <c r="E394" s="206"/>
+      <c r="F394" s="206"/>
+      <c r="G394" s="206"/>
+      <c r="H394" s="206"/>
+      <c r="I394" s="206"/>
+      <c r="J394" s="111"/>
       <c r="K394" s="111"/>
       <c r="L394" s="111"/>
       <c r="M394" s="111"/>
@@ -10887,26 +10750,26 @@
       <c r="W394" s="111"/>
       <c r="X394" s="111"/>
       <c r="Y394" s="111"/>
-      <c r="Z394" s="208"/>
-      <c r="AA394" s="208"/>
-      <c r="AB394" s="208"/>
-      <c r="AC394" s="208"/>
-      <c r="AD394" s="208"/>
-      <c r="AE394" s="208"/>
-      <c r="AF394" s="208"/>
-      <c r="AG394" s="208"/>
-      <c r="AH394" s="208"/>
-      <c r="AI394" s="208"/>
+      <c r="Z394" s="207"/>
+      <c r="AA394" s="207"/>
+      <c r="AB394" s="207"/>
+      <c r="AC394" s="207"/>
+      <c r="AD394" s="207"/>
+      <c r="AE394" s="207"/>
+      <c r="AF394" s="207"/>
+      <c r="AG394" s="207"/>
+      <c r="AH394" s="207"/>
+      <c r="AI394" s="207"/>
     </row>
     <row r="395" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B395" s="204"/>
-      <c r="C395" s="207"/>
-      <c r="D395" s="125"/>
-      <c r="E395" s="125"/>
-      <c r="F395" s="125"/>
-      <c r="G395" s="125"/>
-      <c r="H395" s="125"/>
-      <c r="I395" s="125"/>
+      <c r="B395" s="203"/>
+      <c r="C395" s="206"/>
+      <c r="D395" s="219"/>
+      <c r="E395" s="219"/>
+      <c r="F395" s="219"/>
+      <c r="G395" s="219"/>
+      <c r="H395" s="219"/>
+      <c r="I395" s="219"/>
       <c r="J395" s="157"/>
       <c r="K395" s="111"/>
       <c r="L395" s="111"/>
@@ -10923,20 +10786,20 @@
       <c r="W395" s="111"/>
       <c r="X395" s="111"/>
       <c r="Y395" s="111"/>
-      <c r="Z395" s="208"/>
-      <c r="AA395" s="208"/>
-      <c r="AB395" s="208"/>
-      <c r="AC395" s="208"/>
-      <c r="AD395" s="208"/>
-      <c r="AE395" s="208"/>
-      <c r="AF395" s="208"/>
-      <c r="AG395" s="208"/>
-      <c r="AH395" s="208"/>
-      <c r="AI395" s="208"/>
+      <c r="Z395" s="207"/>
+      <c r="AA395" s="207"/>
+      <c r="AB395" s="207"/>
+      <c r="AC395" s="207"/>
+      <c r="AD395" s="207"/>
+      <c r="AE395" s="207"/>
+      <c r="AF395" s="207"/>
+      <c r="AG395" s="207"/>
+      <c r="AH395" s="207"/>
+      <c r="AI395" s="207"/>
     </row>
     <row r="396" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B396" s="204"/>
-      <c r="C396" s="207"/>
+      <c r="B396" s="203"/>
+      <c r="C396" s="206"/>
       <c r="D396" s="125"/>
       <c r="E396" s="125"/>
       <c r="F396" s="125"/>
@@ -10959,26 +10822,26 @@
       <c r="W396" s="111"/>
       <c r="X396" s="111"/>
       <c r="Y396" s="111"/>
-      <c r="Z396" s="208"/>
-      <c r="AA396" s="208"/>
-      <c r="AB396" s="208"/>
-      <c r="AC396" s="208"/>
-      <c r="AD396" s="208"/>
-      <c r="AE396" s="208"/>
-      <c r="AF396" s="208"/>
-      <c r="AG396" s="208"/>
-      <c r="AH396" s="208"/>
-      <c r="AI396" s="208"/>
+      <c r="Z396" s="207"/>
+      <c r="AA396" s="207"/>
+      <c r="AB396" s="207"/>
+      <c r="AC396" s="207"/>
+      <c r="AD396" s="207"/>
+      <c r="AE396" s="207"/>
+      <c r="AF396" s="207"/>
+      <c r="AG396" s="207"/>
+      <c r="AH396" s="207"/>
+      <c r="AI396" s="207"/>
     </row>
     <row r="397" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B397" s="204"/>
-      <c r="C397" s="111"/>
-      <c r="D397" s="157"/>
-      <c r="E397" s="157"/>
-      <c r="F397" s="157"/>
-      <c r="G397" s="157"/>
-      <c r="H397" s="157"/>
-      <c r="I397" s="157"/>
+      <c r="B397" s="203"/>
+      <c r="C397" s="206"/>
+      <c r="D397" s="125"/>
+      <c r="E397" s="125"/>
+      <c r="F397" s="125"/>
+      <c r="G397" s="125"/>
+      <c r="H397" s="125"/>
+      <c r="I397" s="125"/>
       <c r="J397" s="157"/>
       <c r="K397" s="111"/>
       <c r="L397" s="111"/>
@@ -10995,26 +10858,26 @@
       <c r="W397" s="111"/>
       <c r="X397" s="111"/>
       <c r="Y397" s="111"/>
-      <c r="Z397" s="208"/>
-      <c r="AA397" s="208"/>
-      <c r="AB397" s="208"/>
-      <c r="AC397" s="208"/>
-      <c r="AD397" s="208"/>
-      <c r="AE397" s="208"/>
-      <c r="AF397" s="208"/>
-      <c r="AG397" s="208"/>
-      <c r="AH397" s="208"/>
-      <c r="AI397" s="208"/>
+      <c r="Z397" s="207"/>
+      <c r="AA397" s="207"/>
+      <c r="AB397" s="207"/>
+      <c r="AC397" s="207"/>
+      <c r="AD397" s="207"/>
+      <c r="AE397" s="207"/>
+      <c r="AF397" s="207"/>
+      <c r="AG397" s="207"/>
+      <c r="AH397" s="207"/>
+      <c r="AI397" s="207"/>
     </row>
     <row r="398" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B398" s="204"/>
-      <c r="C398" s="111"/>
-      <c r="D398" s="157"/>
-      <c r="E398" s="157"/>
-      <c r="F398" s="157"/>
-      <c r="G398" s="157"/>
-      <c r="H398" s="157"/>
-      <c r="I398" s="157"/>
+      <c r="B398" s="203"/>
+      <c r="C398" s="206"/>
+      <c r="D398" s="125"/>
+      <c r="E398" s="125"/>
+      <c r="F398" s="125"/>
+      <c r="G398" s="125"/>
+      <c r="H398" s="125"/>
+      <c r="I398" s="125"/>
       <c r="J398" s="157"/>
       <c r="K398" s="111"/>
       <c r="L398" s="111"/>
@@ -11031,27 +10894,27 @@
       <c r="W398" s="111"/>
       <c r="X398" s="111"/>
       <c r="Y398" s="111"/>
-      <c r="Z398" s="208"/>
-      <c r="AA398" s="208"/>
-      <c r="AB398" s="208"/>
-      <c r="AC398" s="208"/>
-      <c r="AD398" s="208"/>
-      <c r="AE398" s="208"/>
-      <c r="AF398" s="208"/>
-      <c r="AG398" s="208"/>
-      <c r="AH398" s="208"/>
-      <c r="AI398" s="208"/>
+      <c r="Z398" s="207"/>
+      <c r="AA398" s="207"/>
+      <c r="AB398" s="207"/>
+      <c r="AC398" s="207"/>
+      <c r="AD398" s="207"/>
+      <c r="AE398" s="207"/>
+      <c r="AF398" s="207"/>
+      <c r="AG398" s="207"/>
+      <c r="AH398" s="207"/>
+      <c r="AI398" s="207"/>
     </row>
     <row r="399" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B399" s="204"/>
+      <c r="B399" s="203"/>
       <c r="C399" s="111"/>
-      <c r="D399" s="111"/>
-      <c r="E399" s="111"/>
-      <c r="F399" s="111"/>
-      <c r="G399" s="111"/>
-      <c r="H399" s="111"/>
-      <c r="I399" s="111"/>
-      <c r="J399" s="111"/>
+      <c r="D399" s="157"/>
+      <c r="E399" s="157"/>
+      <c r="F399" s="157"/>
+      <c r="G399" s="157"/>
+      <c r="H399" s="157"/>
+      <c r="I399" s="157"/>
+      <c r="J399" s="157"/>
       <c r="K399" s="111"/>
       <c r="L399" s="111"/>
       <c r="M399" s="111"/>
@@ -11067,27 +10930,27 @@
       <c r="W399" s="111"/>
       <c r="X399" s="111"/>
       <c r="Y399" s="111"/>
-      <c r="Z399" s="208"/>
-      <c r="AA399" s="208"/>
-      <c r="AB399" s="208"/>
-      <c r="AC399" s="208"/>
-      <c r="AD399" s="208"/>
-      <c r="AE399" s="208"/>
-      <c r="AF399" s="208"/>
-      <c r="AG399" s="208"/>
-      <c r="AH399" s="208"/>
-      <c r="AI399" s="208"/>
+      <c r="Z399" s="207"/>
+      <c r="AA399" s="207"/>
+      <c r="AB399" s="207"/>
+      <c r="AC399" s="207"/>
+      <c r="AD399" s="207"/>
+      <c r="AE399" s="207"/>
+      <c r="AF399" s="207"/>
+      <c r="AG399" s="207"/>
+      <c r="AH399" s="207"/>
+      <c r="AI399" s="207"/>
     </row>
     <row r="400" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B400" s="204"/>
+      <c r="B400" s="203"/>
       <c r="C400" s="111"/>
-      <c r="D400" s="111"/>
-      <c r="E400" s="111"/>
-      <c r="F400" s="111"/>
-      <c r="G400" s="111"/>
-      <c r="H400" s="111"/>
-      <c r="I400" s="111"/>
-      <c r="J400" s="111"/>
+      <c r="D400" s="157"/>
+      <c r="E400" s="157"/>
+      <c r="F400" s="157"/>
+      <c r="G400" s="157"/>
+      <c r="H400" s="157"/>
+      <c r="I400" s="157"/>
+      <c r="J400" s="157"/>
       <c r="K400" s="111"/>
       <c r="L400" s="111"/>
       <c r="M400" s="111"/>
@@ -11103,19 +10966,19 @@
       <c r="W400" s="111"/>
       <c r="X400" s="111"/>
       <c r="Y400" s="111"/>
-      <c r="Z400" s="208"/>
-      <c r="AA400" s="208"/>
-      <c r="AB400" s="208"/>
-      <c r="AC400" s="208"/>
-      <c r="AD400" s="208"/>
-      <c r="AE400" s="208"/>
-      <c r="AF400" s="208"/>
-      <c r="AG400" s="208"/>
-      <c r="AH400" s="208"/>
-      <c r="AI400" s="208"/>
+      <c r="Z400" s="207"/>
+      <c r="AA400" s="207"/>
+      <c r="AB400" s="207"/>
+      <c r="AC400" s="207"/>
+      <c r="AD400" s="207"/>
+      <c r="AE400" s="207"/>
+      <c r="AF400" s="207"/>
+      <c r="AG400" s="207"/>
+      <c r="AH400" s="207"/>
+      <c r="AI400" s="207"/>
     </row>
     <row r="401" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B401" s="204"/>
+      <c r="B401" s="203"/>
       <c r="C401" s="111"/>
       <c r="D401" s="111"/>
       <c r="E401" s="111"/>
@@ -11139,19 +11002,19 @@
       <c r="W401" s="111"/>
       <c r="X401" s="111"/>
       <c r="Y401" s="111"/>
-      <c r="Z401" s="208"/>
-      <c r="AA401" s="208"/>
-      <c r="AB401" s="208"/>
-      <c r="AC401" s="208"/>
-      <c r="AD401" s="208"/>
-      <c r="AE401" s="208"/>
-      <c r="AF401" s="208"/>
-      <c r="AG401" s="208"/>
-      <c r="AH401" s="208"/>
-      <c r="AI401" s="208"/>
+      <c r="Z401" s="207"/>
+      <c r="AA401" s="207"/>
+      <c r="AB401" s="207"/>
+      <c r="AC401" s="207"/>
+      <c r="AD401" s="207"/>
+      <c r="AE401" s="207"/>
+      <c r="AF401" s="207"/>
+      <c r="AG401" s="207"/>
+      <c r="AH401" s="207"/>
+      <c r="AI401" s="207"/>
     </row>
     <row r="402" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B402" s="204"/>
+      <c r="B402" s="203"/>
       <c r="C402" s="111"/>
       <c r="D402" s="111"/>
       <c r="E402" s="111"/>
@@ -11175,19 +11038,19 @@
       <c r="W402" s="111"/>
       <c r="X402" s="111"/>
       <c r="Y402" s="111"/>
-      <c r="Z402" s="208"/>
-      <c r="AA402" s="208"/>
-      <c r="AB402" s="208"/>
-      <c r="AC402" s="208"/>
-      <c r="AD402" s="208"/>
-      <c r="AE402" s="208"/>
-      <c r="AF402" s="208"/>
-      <c r="AG402" s="208"/>
-      <c r="AH402" s="208"/>
-      <c r="AI402" s="208"/>
+      <c r="Z402" s="207"/>
+      <c r="AA402" s="207"/>
+      <c r="AB402" s="207"/>
+      <c r="AC402" s="207"/>
+      <c r="AD402" s="207"/>
+      <c r="AE402" s="207"/>
+      <c r="AF402" s="207"/>
+      <c r="AG402" s="207"/>
+      <c r="AH402" s="207"/>
+      <c r="AI402" s="207"/>
     </row>
     <row r="403" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B403" s="204"/>
+      <c r="B403" s="203"/>
       <c r="C403" s="111"/>
       <c r="D403" s="111"/>
       <c r="E403" s="111"/>
@@ -11211,19 +11074,19 @@
       <c r="W403" s="111"/>
       <c r="X403" s="111"/>
       <c r="Y403" s="111"/>
-      <c r="Z403" s="208"/>
-      <c r="AA403" s="208"/>
-      <c r="AB403" s="208"/>
-      <c r="AC403" s="208"/>
-      <c r="AD403" s="208"/>
-      <c r="AE403" s="208"/>
-      <c r="AF403" s="208"/>
-      <c r="AG403" s="208"/>
-      <c r="AH403" s="208"/>
-      <c r="AI403" s="208"/>
+      <c r="Z403" s="207"/>
+      <c r="AA403" s="207"/>
+      <c r="AB403" s="207"/>
+      <c r="AC403" s="207"/>
+      <c r="AD403" s="207"/>
+      <c r="AE403" s="207"/>
+      <c r="AF403" s="207"/>
+      <c r="AG403" s="207"/>
+      <c r="AH403" s="207"/>
+      <c r="AI403" s="207"/>
     </row>
     <row r="404" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B404" s="204"/>
+      <c r="B404" s="203"/>
       <c r="C404" s="111"/>
       <c r="D404" s="111"/>
       <c r="E404" s="111"/>
@@ -11247,19 +11110,19 @@
       <c r="W404" s="111"/>
       <c r="X404" s="111"/>
       <c r="Y404" s="111"/>
-      <c r="Z404" s="208"/>
-      <c r="AA404" s="208"/>
-      <c r="AB404" s="208"/>
-      <c r="AC404" s="208"/>
-      <c r="AD404" s="208"/>
-      <c r="AE404" s="208"/>
-      <c r="AF404" s="208"/>
-      <c r="AG404" s="208"/>
-      <c r="AH404" s="208"/>
-      <c r="AI404" s="208"/>
+      <c r="Z404" s="207"/>
+      <c r="AA404" s="207"/>
+      <c r="AB404" s="207"/>
+      <c r="AC404" s="207"/>
+      <c r="AD404" s="207"/>
+      <c r="AE404" s="207"/>
+      <c r="AF404" s="207"/>
+      <c r="AG404" s="207"/>
+      <c r="AH404" s="207"/>
+      <c r="AI404" s="207"/>
     </row>
     <row r="405" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B405" s="204"/>
+      <c r="B405" s="203"/>
       <c r="C405" s="111"/>
       <c r="D405" s="111"/>
       <c r="E405" s="111"/>
@@ -11283,19 +11146,19 @@
       <c r="W405" s="111"/>
       <c r="X405" s="111"/>
       <c r="Y405" s="111"/>
-      <c r="Z405" s="208"/>
-      <c r="AA405" s="208"/>
-      <c r="AB405" s="208"/>
-      <c r="AC405" s="208"/>
-      <c r="AD405" s="208"/>
-      <c r="AE405" s="208"/>
-      <c r="AF405" s="208"/>
-      <c r="AG405" s="208"/>
-      <c r="AH405" s="208"/>
-      <c r="AI405" s="208"/>
+      <c r="Z405" s="207"/>
+      <c r="AA405" s="207"/>
+      <c r="AB405" s="207"/>
+      <c r="AC405" s="207"/>
+      <c r="AD405" s="207"/>
+      <c r="AE405" s="207"/>
+      <c r="AF405" s="207"/>
+      <c r="AG405" s="207"/>
+      <c r="AH405" s="207"/>
+      <c r="AI405" s="207"/>
     </row>
     <row r="406" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B406" s="204"/>
+      <c r="B406" s="203"/>
       <c r="C406" s="111"/>
       <c r="D406" s="111"/>
       <c r="E406" s="111"/>
@@ -11319,19 +11182,19 @@
       <c r="W406" s="111"/>
       <c r="X406" s="111"/>
       <c r="Y406" s="111"/>
-      <c r="Z406" s="208"/>
-      <c r="AA406" s="208"/>
-      <c r="AB406" s="208"/>
-      <c r="AC406" s="208"/>
-      <c r="AD406" s="208"/>
-      <c r="AE406" s="208"/>
-      <c r="AF406" s="208"/>
-      <c r="AG406" s="208"/>
-      <c r="AH406" s="208"/>
-      <c r="AI406" s="208"/>
+      <c r="Z406" s="207"/>
+      <c r="AA406" s="207"/>
+      <c r="AB406" s="207"/>
+      <c r="AC406" s="207"/>
+      <c r="AD406" s="207"/>
+      <c r="AE406" s="207"/>
+      <c r="AF406" s="207"/>
+      <c r="AG406" s="207"/>
+      <c r="AH406" s="207"/>
+      <c r="AI406" s="207"/>
     </row>
     <row r="407" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B407" s="204"/>
+      <c r="B407" s="203"/>
       <c r="C407" s="111"/>
       <c r="D407" s="111"/>
       <c r="E407" s="111"/>
@@ -11355,19 +11218,19 @@
       <c r="W407" s="111"/>
       <c r="X407" s="111"/>
       <c r="Y407" s="111"/>
-      <c r="Z407" s="208"/>
-      <c r="AA407" s="208"/>
-      <c r="AB407" s="208"/>
-      <c r="AC407" s="208"/>
-      <c r="AD407" s="208"/>
-      <c r="AE407" s="208"/>
-      <c r="AF407" s="208"/>
-      <c r="AG407" s="208"/>
-      <c r="AH407" s="208"/>
-      <c r="AI407" s="208"/>
+      <c r="Z407" s="207"/>
+      <c r="AA407" s="207"/>
+      <c r="AB407" s="207"/>
+      <c r="AC407" s="207"/>
+      <c r="AD407" s="207"/>
+      <c r="AE407" s="207"/>
+      <c r="AF407" s="207"/>
+      <c r="AG407" s="207"/>
+      <c r="AH407" s="207"/>
+      <c r="AI407" s="207"/>
     </row>
     <row r="408" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B408" s="204"/>
+      <c r="B408" s="203"/>
       <c r="C408" s="111"/>
       <c r="D408" s="111"/>
       <c r="E408" s="111"/>
@@ -11391,19 +11254,19 @@
       <c r="W408" s="111"/>
       <c r="X408" s="111"/>
       <c r="Y408" s="111"/>
-      <c r="Z408" s="208"/>
-      <c r="AA408" s="208"/>
-      <c r="AB408" s="208"/>
-      <c r="AC408" s="208"/>
-      <c r="AD408" s="208"/>
-      <c r="AE408" s="208"/>
-      <c r="AF408" s="208"/>
-      <c r="AG408" s="208"/>
-      <c r="AH408" s="208"/>
-      <c r="AI408" s="208"/>
+      <c r="Z408" s="207"/>
+      <c r="AA408" s="207"/>
+      <c r="AB408" s="207"/>
+      <c r="AC408" s="207"/>
+      <c r="AD408" s="207"/>
+      <c r="AE408" s="207"/>
+      <c r="AF408" s="207"/>
+      <c r="AG408" s="207"/>
+      <c r="AH408" s="207"/>
+      <c r="AI408" s="207"/>
     </row>
     <row r="409" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B409" s="204"/>
+      <c r="B409" s="203"/>
       <c r="C409" s="111"/>
       <c r="D409" s="111"/>
       <c r="E409" s="111"/>
@@ -11427,32 +11290,26 @@
       <c r="W409" s="111"/>
       <c r="X409" s="111"/>
       <c r="Y409" s="111"/>
-      <c r="Z409" s="208"/>
-      <c r="AA409" s="208"/>
-      <c r="AB409" s="208"/>
-      <c r="AC409" s="208"/>
-      <c r="AD409" s="208"/>
-      <c r="AE409" s="208"/>
-      <c r="AF409" s="208"/>
-      <c r="AG409" s="208"/>
-      <c r="AH409" s="208"/>
-      <c r="AI409" s="208"/>
+      <c r="Z409" s="207"/>
+      <c r="AA409" s="207"/>
+      <c r="AB409" s="207"/>
+      <c r="AC409" s="207"/>
+      <c r="AD409" s="207"/>
+      <c r="AE409" s="207"/>
+      <c r="AF409" s="207"/>
+      <c r="AG409" s="207"/>
+      <c r="AH409" s="207"/>
+      <c r="AI409" s="207"/>
     </row>
     <row r="410" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B410" s="204"/>
+      <c r="B410" s="203"/>
       <c r="C410" s="111"/>
-      <c r="D410" s="207">
-        <v>1.24</v>
-      </c>
-      <c r="E410" s="209"/>
-      <c r="F410" s="207"/>
-      <c r="G410" s="207">
-        <v>112000</v>
-      </c>
-      <c r="H410" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="I410" s="207"/>
+      <c r="D410" s="111"/>
+      <c r="E410" s="111"/>
+      <c r="F410" s="111"/>
+      <c r="G410" s="111"/>
+      <c r="H410" s="111"/>
+      <c r="I410" s="111"/>
       <c r="J410" s="111"/>
       <c r="K410" s="111"/>
       <c r="L410" s="111"/>
@@ -11469,31 +11326,26 @@
       <c r="W410" s="111"/>
       <c r="X410" s="111"/>
       <c r="Y410" s="111"/>
-      <c r="Z410" s="208"/>
-      <c r="AA410" s="208"/>
-      <c r="AB410" s="208"/>
-      <c r="AC410" s="208"/>
-      <c r="AD410" s="208"/>
-      <c r="AE410" s="208"/>
-      <c r="AF410" s="208"/>
-      <c r="AG410" s="208"/>
-      <c r="AH410" s="208"/>
-      <c r="AI410" s="208"/>
+      <c r="Z410" s="207"/>
+      <c r="AA410" s="207"/>
+      <c r="AB410" s="207"/>
+      <c r="AC410" s="207"/>
+      <c r="AD410" s="207"/>
+      <c r="AE410" s="207"/>
+      <c r="AF410" s="207"/>
+      <c r="AG410" s="207"/>
+      <c r="AH410" s="207"/>
+      <c r="AI410" s="207"/>
     </row>
     <row r="411" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B411" s="204"/>
+      <c r="B411" s="203"/>
       <c r="C411" s="111"/>
-      <c r="D411" s="207"/>
-      <c r="E411" s="209"/>
-      <c r="F411" s="207"/>
-      <c r="G411" s="207">
-        <f>10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="H411" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="I411" s="207"/>
+      <c r="D411" s="111"/>
+      <c r="E411" s="111"/>
+      <c r="F411" s="111"/>
+      <c r="G411" s="111"/>
+      <c r="H411" s="111"/>
+      <c r="I411" s="111"/>
       <c r="J411" s="111"/>
       <c r="K411" s="111"/>
       <c r="L411" s="111"/>
@@ -11510,31 +11362,32 @@
       <c r="W411" s="111"/>
       <c r="X411" s="111"/>
       <c r="Y411" s="111"/>
-      <c r="Z411" s="208"/>
-      <c r="AA411" s="208"/>
-      <c r="AB411" s="208"/>
-      <c r="AC411" s="208"/>
-      <c r="AD411" s="208"/>
-      <c r="AE411" s="208"/>
-      <c r="AF411" s="208"/>
-      <c r="AG411" s="208"/>
-      <c r="AH411" s="208"/>
-      <c r="AI411" s="208"/>
+      <c r="Z411" s="207"/>
+      <c r="AA411" s="207"/>
+      <c r="AB411" s="207"/>
+      <c r="AC411" s="207"/>
+      <c r="AD411" s="207"/>
+      <c r="AE411" s="207"/>
+      <c r="AF411" s="207"/>
+      <c r="AG411" s="207"/>
+      <c r="AH411" s="207"/>
+      <c r="AI411" s="207"/>
     </row>
     <row r="412" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B412" s="204"/>
+      <c r="B412" s="203"/>
       <c r="C412" s="111"/>
-      <c r="D412" s="207"/>
-      <c r="E412" s="209"/>
-      <c r="F412" s="207"/>
-      <c r="G412" s="207">
-        <f>G410/G411</f>
-        <v>0.112</v>
-      </c>
-      <c r="H412" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="I412" s="207"/>
+      <c r="D412" s="206">
+        <v>1.24</v>
+      </c>
+      <c r="E412" s="208"/>
+      <c r="F412" s="206"/>
+      <c r="G412" s="206">
+        <v>112000</v>
+      </c>
+      <c r="H412" s="206" t="s">
+        <v>152</v>
+      </c>
+      <c r="I412" s="206"/>
       <c r="J412" s="111"/>
       <c r="K412" s="111"/>
       <c r="L412" s="111"/>
@@ -11551,26 +11404,31 @@
       <c r="W412" s="111"/>
       <c r="X412" s="111"/>
       <c r="Y412" s="111"/>
-      <c r="Z412" s="208"/>
-      <c r="AA412" s="208"/>
-      <c r="AB412" s="208"/>
-      <c r="AC412" s="208"/>
-      <c r="AD412" s="208"/>
-      <c r="AE412" s="208"/>
-      <c r="AF412" s="208"/>
-      <c r="AG412" s="208"/>
-      <c r="AH412" s="208"/>
-      <c r="AI412" s="208"/>
+      <c r="Z412" s="207"/>
+      <c r="AA412" s="207"/>
+      <c r="AB412" s="207"/>
+      <c r="AC412" s="207"/>
+      <c r="AD412" s="207"/>
+      <c r="AE412" s="207"/>
+      <c r="AF412" s="207"/>
+      <c r="AG412" s="207"/>
+      <c r="AH412" s="207"/>
+      <c r="AI412" s="207"/>
     </row>
     <row r="413" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B413" s="204"/>
+      <c r="B413" s="203"/>
       <c r="C413" s="111"/>
-      <c r="D413" s="111"/>
-      <c r="E413" s="111"/>
-      <c r="F413" s="111"/>
-      <c r="G413" s="111"/>
-      <c r="H413" s="111"/>
-      <c r="I413" s="111"/>
+      <c r="D413" s="206"/>
+      <c r="E413" s="208"/>
+      <c r="F413" s="206"/>
+      <c r="G413" s="206">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H413" s="206" t="s">
+        <v>153</v>
+      </c>
+      <c r="I413" s="206"/>
       <c r="J413" s="111"/>
       <c r="K413" s="111"/>
       <c r="L413" s="111"/>
@@ -11587,1208 +11445,1285 @@
       <c r="W413" s="111"/>
       <c r="X413" s="111"/>
       <c r="Y413" s="111"/>
-      <c r="Z413" s="208"/>
-      <c r="AA413" s="208"/>
-      <c r="AB413" s="208"/>
-      <c r="AC413" s="208"/>
-      <c r="AD413" s="208"/>
-      <c r="AE413" s="208"/>
-      <c r="AF413" s="208"/>
-      <c r="AG413" s="208"/>
-      <c r="AH413" s="208"/>
-      <c r="AI413" s="208"/>
+      <c r="Z413" s="207"/>
+      <c r="AA413" s="207"/>
+      <c r="AB413" s="207"/>
+      <c r="AC413" s="207"/>
+      <c r="AD413" s="207"/>
+      <c r="AE413" s="207"/>
+      <c r="AF413" s="207"/>
+      <c r="AG413" s="207"/>
+      <c r="AH413" s="207"/>
+      <c r="AI413" s="207"/>
     </row>
     <row r="414" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B414" s="204"/>
-      <c r="C414" s="208"/>
-      <c r="D414" s="208"/>
+      <c r="B414" s="203"/>
+      <c r="C414" s="111"/>
+      <c r="D414" s="206"/>
       <c r="E414" s="208"/>
-      <c r="F414" s="208"/>
-      <c r="G414" s="208"/>
-      <c r="H414" s="208"/>
-      <c r="I414" s="208"/>
-      <c r="J414" s="208"/>
-      <c r="K414" s="208"/>
-      <c r="L414" s="208"/>
-      <c r="M414" s="208"/>
-      <c r="N414" s="208"/>
-      <c r="O414" s="208"/>
-      <c r="P414" s="208"/>
-      <c r="Q414" s="208"/>
-      <c r="R414" s="208"/>
-      <c r="S414" s="208"/>
-      <c r="T414" s="208"/>
-      <c r="U414" s="208"/>
-      <c r="V414" s="208"/>
-      <c r="W414" s="208"/>
-      <c r="X414" s="208"/>
-      <c r="Y414" s="208"/>
-      <c r="Z414" s="208"/>
-      <c r="AA414" s="208"/>
-      <c r="AB414" s="208"/>
-      <c r="AC414" s="208"/>
-      <c r="AD414" s="208"/>
-      <c r="AE414" s="208"/>
-      <c r="AF414" s="208"/>
-      <c r="AG414" s="208"/>
-      <c r="AH414" s="208"/>
-      <c r="AI414" s="208"/>
+      <c r="F414" s="206"/>
+      <c r="G414" s="206">
+        <f>G412/G413</f>
+        <v>0.112</v>
+      </c>
+      <c r="H414" s="206" t="s">
+        <v>152</v>
+      </c>
+      <c r="I414" s="206"/>
+      <c r="J414" s="111"/>
+      <c r="K414" s="111"/>
+      <c r="L414" s="111"/>
+      <c r="M414" s="111"/>
+      <c r="N414" s="111"/>
+      <c r="O414" s="111"/>
+      <c r="P414" s="111"/>
+      <c r="Q414" s="111"/>
+      <c r="R414" s="111"/>
+      <c r="S414" s="111"/>
+      <c r="T414" s="111"/>
+      <c r="U414" s="111"/>
+      <c r="V414" s="111"/>
+      <c r="W414" s="111"/>
+      <c r="X414" s="111"/>
+      <c r="Y414" s="111"/>
+      <c r="Z414" s="207"/>
+      <c r="AA414" s="207"/>
+      <c r="AB414" s="207"/>
+      <c r="AC414" s="207"/>
+      <c r="AD414" s="207"/>
+      <c r="AE414" s="207"/>
+      <c r="AF414" s="207"/>
+      <c r="AG414" s="207"/>
+      <c r="AH414" s="207"/>
+      <c r="AI414" s="207"/>
     </row>
     <row r="415" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B415" s="204"/>
-      <c r="C415" s="208"/>
-      <c r="D415" s="208"/>
-      <c r="E415" s="208"/>
-      <c r="F415" s="208"/>
-      <c r="G415" s="208"/>
-      <c r="H415" s="208"/>
-      <c r="I415" s="208"/>
-      <c r="J415" s="208"/>
-      <c r="K415" s="208"/>
-      <c r="L415" s="208"/>
-      <c r="M415" s="208"/>
-      <c r="N415" s="208"/>
-      <c r="O415" s="208"/>
-      <c r="P415" s="208"/>
-      <c r="Q415" s="208"/>
-      <c r="R415" s="208"/>
-      <c r="S415" s="208"/>
-      <c r="T415" s="208"/>
-      <c r="U415" s="208"/>
-      <c r="V415" s="208"/>
-      <c r="W415" s="208"/>
-      <c r="X415" s="208"/>
-      <c r="Y415" s="208"/>
-      <c r="Z415" s="208"/>
-      <c r="AA415" s="208"/>
-      <c r="AB415" s="208"/>
-      <c r="AC415" s="208"/>
-      <c r="AD415" s="208"/>
-      <c r="AE415" s="208"/>
-      <c r="AF415" s="208"/>
-      <c r="AG415" s="208"/>
-      <c r="AH415" s="208"/>
-      <c r="AI415" s="208"/>
+      <c r="B415" s="203"/>
+      <c r="C415" s="111"/>
+      <c r="D415" s="111"/>
+      <c r="E415" s="111"/>
+      <c r="F415" s="111"/>
+      <c r="G415" s="111"/>
+      <c r="H415" s="111"/>
+      <c r="I415" s="111"/>
+      <c r="J415" s="111"/>
+      <c r="K415" s="111"/>
+      <c r="L415" s="111"/>
+      <c r="M415" s="111"/>
+      <c r="N415" s="111"/>
+      <c r="O415" s="111"/>
+      <c r="P415" s="111"/>
+      <c r="Q415" s="111"/>
+      <c r="R415" s="111"/>
+      <c r="S415" s="111"/>
+      <c r="T415" s="111"/>
+      <c r="U415" s="111"/>
+      <c r="V415" s="111"/>
+      <c r="W415" s="111"/>
+      <c r="X415" s="111"/>
+      <c r="Y415" s="111"/>
+      <c r="Z415" s="207"/>
+      <c r="AA415" s="207"/>
+      <c r="AB415" s="207"/>
+      <c r="AC415" s="207"/>
+      <c r="AD415" s="207"/>
+      <c r="AE415" s="207"/>
+      <c r="AF415" s="207"/>
+      <c r="AG415" s="207"/>
+      <c r="AH415" s="207"/>
+      <c r="AI415" s="207"/>
     </row>
     <row r="416" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B416" s="204"/>
-      <c r="C416" s="208"/>
-      <c r="D416" s="208"/>
-      <c r="E416" s="208"/>
-      <c r="F416" s="208"/>
-      <c r="G416" s="208"/>
-      <c r="H416" s="208"/>
-      <c r="I416" s="208"/>
-      <c r="J416" s="208"/>
-      <c r="K416" s="208"/>
-      <c r="L416" s="208"/>
-      <c r="M416" s="208"/>
-      <c r="N416" s="208"/>
-      <c r="O416" s="208"/>
-      <c r="P416" s="208"/>
-      <c r="Q416" s="208"/>
-      <c r="R416" s="208"/>
-      <c r="S416" s="208"/>
-      <c r="T416" s="208"/>
-      <c r="U416" s="208"/>
-      <c r="V416" s="208"/>
-      <c r="W416" s="208"/>
-      <c r="X416" s="208"/>
-      <c r="Y416" s="208"/>
-      <c r="Z416" s="208"/>
-      <c r="AA416" s="208"/>
-      <c r="AB416" s="208"/>
-      <c r="AC416" s="208"/>
-      <c r="AD416" s="208"/>
-      <c r="AE416" s="208"/>
-      <c r="AF416" s="208"/>
-      <c r="AG416" s="208"/>
-      <c r="AH416" s="208"/>
-      <c r="AI416" s="208"/>
+      <c r="B416" s="203"/>
+      <c r="C416" s="207"/>
+      <c r="D416" s="207"/>
+      <c r="E416" s="207"/>
+      <c r="F416" s="207"/>
+      <c r="G416" s="207"/>
+      <c r="H416" s="207"/>
+      <c r="I416" s="207"/>
+      <c r="J416" s="207"/>
+      <c r="K416" s="207"/>
+      <c r="L416" s="207"/>
+      <c r="M416" s="207"/>
+      <c r="N416" s="207"/>
+      <c r="O416" s="207"/>
+      <c r="P416" s="207"/>
+      <c r="Q416" s="207"/>
+      <c r="R416" s="207"/>
+      <c r="S416" s="207"/>
+      <c r="T416" s="207"/>
+      <c r="U416" s="207"/>
+      <c r="V416" s="207"/>
+      <c r="W416" s="207"/>
+      <c r="X416" s="207"/>
+      <c r="Y416" s="207"/>
+      <c r="Z416" s="207"/>
+      <c r="AA416" s="207"/>
+      <c r="AB416" s="207"/>
+      <c r="AC416" s="207"/>
+      <c r="AD416" s="207"/>
+      <c r="AE416" s="207"/>
+      <c r="AF416" s="207"/>
+      <c r="AG416" s="207"/>
+      <c r="AH416" s="207"/>
+      <c r="AI416" s="207"/>
     </row>
     <row r="417" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B417" s="204"/>
-      <c r="C417" s="208"/>
-      <c r="D417" s="208"/>
-      <c r="E417" s="208"/>
-      <c r="F417" s="208"/>
-      <c r="G417" s="208"/>
-      <c r="H417" s="208"/>
-      <c r="I417" s="208"/>
-      <c r="J417" s="208"/>
-      <c r="K417" s="208"/>
-      <c r="L417" s="208"/>
-      <c r="M417" s="208"/>
-      <c r="N417" s="208"/>
-      <c r="O417" s="208"/>
-      <c r="P417" s="208"/>
-      <c r="Q417" s="208"/>
-      <c r="R417" s="208"/>
-      <c r="S417" s="208"/>
-      <c r="T417" s="208"/>
-      <c r="U417" s="208"/>
-      <c r="V417" s="208"/>
-      <c r="W417" s="208"/>
-      <c r="X417" s="208"/>
-      <c r="Y417" s="208"/>
-      <c r="Z417" s="208"/>
-      <c r="AA417" s="208"/>
-      <c r="AB417" s="208"/>
-      <c r="AC417" s="208"/>
-      <c r="AD417" s="208"/>
-      <c r="AE417" s="208"/>
-      <c r="AF417" s="208"/>
-      <c r="AG417" s="208"/>
-      <c r="AH417" s="208"/>
-      <c r="AI417" s="208"/>
+      <c r="B417" s="203"/>
+      <c r="C417" s="207"/>
+      <c r="D417" s="207"/>
+      <c r="E417" s="207"/>
+      <c r="F417" s="207"/>
+      <c r="G417" s="207"/>
+      <c r="H417" s="207"/>
+      <c r="I417" s="207"/>
+      <c r="J417" s="207"/>
+      <c r="K417" s="207"/>
+      <c r="L417" s="207"/>
+      <c r="M417" s="207"/>
+      <c r="N417" s="207"/>
+      <c r="O417" s="207"/>
+      <c r="P417" s="207"/>
+      <c r="Q417" s="207"/>
+      <c r="R417" s="207"/>
+      <c r="S417" s="207"/>
+      <c r="T417" s="207"/>
+      <c r="U417" s="207"/>
+      <c r="V417" s="207"/>
+      <c r="W417" s="207"/>
+      <c r="X417" s="207"/>
+      <c r="Y417" s="207"/>
+      <c r="Z417" s="207"/>
+      <c r="AA417" s="207"/>
+      <c r="AB417" s="207"/>
+      <c r="AC417" s="207"/>
+      <c r="AD417" s="207"/>
+      <c r="AE417" s="207"/>
+      <c r="AF417" s="207"/>
+      <c r="AG417" s="207"/>
+      <c r="AH417" s="207"/>
+      <c r="AI417" s="207"/>
     </row>
     <row r="418" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B418" s="204"/>
-      <c r="C418" s="208"/>
-      <c r="D418" s="208"/>
-      <c r="E418" s="208"/>
-      <c r="F418" s="208"/>
-      <c r="G418" s="208"/>
-      <c r="H418" s="208"/>
-      <c r="I418" s="208"/>
-      <c r="J418" s="208"/>
-      <c r="K418" s="208"/>
-      <c r="L418" s="208"/>
-      <c r="M418" s="208"/>
-      <c r="N418" s="208"/>
-      <c r="O418" s="208"/>
-      <c r="P418" s="208"/>
-      <c r="Q418" s="208"/>
-      <c r="R418" s="208"/>
-      <c r="S418" s="208"/>
-      <c r="T418" s="208"/>
-      <c r="U418" s="208"/>
-      <c r="V418" s="208"/>
-      <c r="W418" s="208"/>
-      <c r="X418" s="208"/>
-      <c r="Y418" s="208"/>
-      <c r="Z418" s="208"/>
-      <c r="AA418" s="208"/>
-      <c r="AB418" s="208"/>
-      <c r="AC418" s="208"/>
-      <c r="AD418" s="208"/>
-      <c r="AE418" s="208"/>
-      <c r="AF418" s="208"/>
-      <c r="AG418" s="208"/>
-      <c r="AH418" s="208"/>
-      <c r="AI418" s="208"/>
+      <c r="B418" s="203"/>
+      <c r="C418" s="207"/>
+      <c r="D418" s="207"/>
+      <c r="E418" s="207"/>
+      <c r="F418" s="207"/>
+      <c r="G418" s="207"/>
+      <c r="H418" s="207"/>
+      <c r="I418" s="207"/>
+      <c r="J418" s="207"/>
+      <c r="K418" s="207"/>
+      <c r="L418" s="207"/>
+      <c r="M418" s="207"/>
+      <c r="N418" s="207"/>
+      <c r="O418" s="207"/>
+      <c r="P418" s="207"/>
+      <c r="Q418" s="207"/>
+      <c r="R418" s="207"/>
+      <c r="S418" s="207"/>
+      <c r="T418" s="207"/>
+      <c r="U418" s="207"/>
+      <c r="V418" s="207"/>
+      <c r="W418" s="207"/>
+      <c r="X418" s="207"/>
+      <c r="Y418" s="207"/>
+      <c r="Z418" s="207"/>
+      <c r="AA418" s="207"/>
+      <c r="AB418" s="207"/>
+      <c r="AC418" s="207"/>
+      <c r="AD418" s="207"/>
+      <c r="AE418" s="207"/>
+      <c r="AF418" s="207"/>
+      <c r="AG418" s="207"/>
+      <c r="AH418" s="207"/>
+      <c r="AI418" s="207"/>
     </row>
     <row r="419" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B419" s="204"/>
-      <c r="C419" s="208"/>
-      <c r="D419" s="208"/>
-      <c r="E419" s="208"/>
-      <c r="F419" s="208"/>
-      <c r="G419" s="208"/>
-      <c r="H419" s="208"/>
-      <c r="I419" s="208"/>
-      <c r="J419" s="208"/>
-      <c r="K419" s="208"/>
-      <c r="L419" s="208"/>
-      <c r="M419" s="208"/>
-      <c r="N419" s="208"/>
-      <c r="O419" s="208"/>
-      <c r="P419" s="208"/>
-      <c r="Q419" s="208"/>
-      <c r="R419" s="208"/>
-      <c r="S419" s="208"/>
-      <c r="T419" s="208"/>
-      <c r="U419" s="208"/>
-      <c r="V419" s="208"/>
-      <c r="W419" s="208"/>
-      <c r="X419" s="208"/>
-      <c r="Y419" s="208"/>
-      <c r="Z419" s="208"/>
-      <c r="AA419" s="208"/>
-      <c r="AB419" s="208"/>
-      <c r="AC419" s="208"/>
-      <c r="AD419" s="208"/>
-      <c r="AE419" s="208"/>
-      <c r="AF419" s="208"/>
-      <c r="AG419" s="208"/>
-      <c r="AH419" s="208"/>
-      <c r="AI419" s="208"/>
+      <c r="B419" s="203"/>
+      <c r="C419" s="207"/>
+      <c r="D419" s="207"/>
+      <c r="E419" s="207"/>
+      <c r="F419" s="207"/>
+      <c r="G419" s="207"/>
+      <c r="H419" s="207"/>
+      <c r="I419" s="207"/>
+      <c r="J419" s="207"/>
+      <c r="K419" s="207"/>
+      <c r="L419" s="207"/>
+      <c r="M419" s="207"/>
+      <c r="N419" s="207"/>
+      <c r="O419" s="207"/>
+      <c r="P419" s="207"/>
+      <c r="Q419" s="207"/>
+      <c r="R419" s="207"/>
+      <c r="S419" s="207"/>
+      <c r="T419" s="207"/>
+      <c r="U419" s="207"/>
+      <c r="V419" s="207"/>
+      <c r="W419" s="207"/>
+      <c r="X419" s="207"/>
+      <c r="Y419" s="207"/>
+      <c r="Z419" s="207"/>
+      <c r="AA419" s="207"/>
+      <c r="AB419" s="207"/>
+      <c r="AC419" s="207"/>
+      <c r="AD419" s="207"/>
+      <c r="AE419" s="207"/>
+      <c r="AF419" s="207"/>
+      <c r="AG419" s="207"/>
+      <c r="AH419" s="207"/>
+      <c r="AI419" s="207"/>
     </row>
     <row r="420" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B420" s="204"/>
-      <c r="C420" s="208"/>
-      <c r="D420" s="208"/>
-      <c r="E420" s="208"/>
-      <c r="F420" s="208"/>
-      <c r="G420" s="208"/>
-      <c r="H420" s="208"/>
-      <c r="I420" s="208"/>
-      <c r="J420" s="208"/>
-      <c r="K420" s="208"/>
-      <c r="L420" s="208"/>
-      <c r="M420" s="208"/>
-      <c r="N420" s="208"/>
-      <c r="O420" s="208"/>
-      <c r="P420" s="208"/>
-      <c r="Q420" s="208"/>
-      <c r="R420" s="208"/>
-      <c r="S420" s="208"/>
-      <c r="T420" s="208"/>
-      <c r="U420" s="208"/>
-      <c r="V420" s="208"/>
-      <c r="W420" s="208"/>
-      <c r="X420" s="208"/>
-      <c r="Y420" s="208"/>
-      <c r="Z420" s="208"/>
-      <c r="AA420" s="208"/>
-      <c r="AB420" s="208"/>
-      <c r="AC420" s="208"/>
-      <c r="AD420" s="208"/>
-      <c r="AE420" s="208"/>
-      <c r="AF420" s="208"/>
-      <c r="AG420" s="208"/>
-      <c r="AH420" s="208"/>
-      <c r="AI420" s="208"/>
+      <c r="B420" s="203"/>
+      <c r="C420" s="207"/>
+      <c r="D420" s="207"/>
+      <c r="E420" s="207"/>
+      <c r="F420" s="207"/>
+      <c r="G420" s="207"/>
+      <c r="H420" s="207"/>
+      <c r="I420" s="207"/>
+      <c r="J420" s="207"/>
+      <c r="K420" s="207"/>
+      <c r="L420" s="207"/>
+      <c r="M420" s="207"/>
+      <c r="N420" s="207"/>
+      <c r="O420" s="207"/>
+      <c r="P420" s="207"/>
+      <c r="Q420" s="207"/>
+      <c r="R420" s="207"/>
+      <c r="S420" s="207"/>
+      <c r="T420" s="207"/>
+      <c r="U420" s="207"/>
+      <c r="V420" s="207"/>
+      <c r="W420" s="207"/>
+      <c r="X420" s="207"/>
+      <c r="Y420" s="207"/>
+      <c r="Z420" s="207"/>
+      <c r="AA420" s="207"/>
+      <c r="AB420" s="207"/>
+      <c r="AC420" s="207"/>
+      <c r="AD420" s="207"/>
+      <c r="AE420" s="207"/>
+      <c r="AF420" s="207"/>
+      <c r="AG420" s="207"/>
+      <c r="AH420" s="207"/>
+      <c r="AI420" s="207"/>
     </row>
     <row r="421" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B421" s="204"/>
-      <c r="C421" s="208"/>
-      <c r="D421" s="208"/>
-      <c r="E421" s="208"/>
-      <c r="F421" s="208"/>
-      <c r="G421" s="208"/>
-      <c r="H421" s="208"/>
-      <c r="I421" s="208"/>
-      <c r="J421" s="208"/>
-      <c r="K421" s="208"/>
-      <c r="L421" s="208"/>
-      <c r="M421" s="208"/>
-      <c r="N421" s="208"/>
-      <c r="O421" s="208"/>
-      <c r="P421" s="208"/>
-      <c r="Q421" s="208"/>
-      <c r="R421" s="208"/>
-      <c r="S421" s="208"/>
-      <c r="T421" s="208"/>
-      <c r="U421" s="208"/>
-      <c r="V421" s="208"/>
-      <c r="W421" s="208"/>
-      <c r="X421" s="208"/>
-      <c r="Y421" s="208"/>
-      <c r="Z421" s="208"/>
-      <c r="AA421" s="208"/>
-      <c r="AB421" s="208"/>
-      <c r="AC421" s="208"/>
-      <c r="AD421" s="208"/>
-      <c r="AE421" s="208"/>
-      <c r="AF421" s="208"/>
-      <c r="AG421" s="208"/>
-      <c r="AH421" s="208"/>
-      <c r="AI421" s="208"/>
+      <c r="B421" s="203"/>
+      <c r="C421" s="207"/>
+      <c r="D421" s="207"/>
+      <c r="E421" s="207"/>
+      <c r="F421" s="207"/>
+      <c r="G421" s="207"/>
+      <c r="H421" s="207"/>
+      <c r="I421" s="207"/>
+      <c r="J421" s="207"/>
+      <c r="K421" s="207"/>
+      <c r="L421" s="207"/>
+      <c r="M421" s="207"/>
+      <c r="N421" s="207"/>
+      <c r="O421" s="207"/>
+      <c r="P421" s="207"/>
+      <c r="Q421" s="207"/>
+      <c r="R421" s="207"/>
+      <c r="S421" s="207"/>
+      <c r="T421" s="207"/>
+      <c r="U421" s="207"/>
+      <c r="V421" s="207"/>
+      <c r="W421" s="207"/>
+      <c r="X421" s="207"/>
+      <c r="Y421" s="207"/>
+      <c r="Z421" s="207"/>
+      <c r="AA421" s="207"/>
+      <c r="AB421" s="207"/>
+      <c r="AC421" s="207"/>
+      <c r="AD421" s="207"/>
+      <c r="AE421" s="207"/>
+      <c r="AF421" s="207"/>
+      <c r="AG421" s="207"/>
+      <c r="AH421" s="207"/>
+      <c r="AI421" s="207"/>
     </row>
     <row r="422" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B422" s="204"/>
-      <c r="C422" s="208"/>
-      <c r="D422" s="208"/>
-      <c r="E422" s="208"/>
-      <c r="F422" s="208"/>
-      <c r="G422" s="208"/>
-      <c r="H422" s="208"/>
-      <c r="I422" s="208"/>
-      <c r="J422" s="208"/>
-      <c r="K422" s="208"/>
-      <c r="L422" s="208"/>
-      <c r="M422" s="208"/>
-      <c r="N422" s="208"/>
-      <c r="O422" s="208"/>
-      <c r="P422" s="208"/>
-      <c r="Q422" s="208"/>
-      <c r="R422" s="208"/>
-      <c r="S422" s="208"/>
-      <c r="T422" s="208"/>
-      <c r="U422" s="208"/>
-      <c r="V422" s="208"/>
-      <c r="W422" s="208"/>
-      <c r="X422" s="208"/>
-      <c r="Y422" s="208"/>
-      <c r="Z422" s="208"/>
-      <c r="AA422" s="208"/>
-      <c r="AB422" s="208"/>
-      <c r="AC422" s="208"/>
-      <c r="AD422" s="208"/>
-      <c r="AE422" s="208"/>
-      <c r="AF422" s="208"/>
-      <c r="AG422" s="208"/>
-      <c r="AH422" s="208"/>
-      <c r="AI422" s="208"/>
+      <c r="B422" s="203"/>
+      <c r="C422" s="207"/>
+      <c r="D422" s="207"/>
+      <c r="E422" s="207"/>
+      <c r="F422" s="207"/>
+      <c r="G422" s="207"/>
+      <c r="H422" s="207"/>
+      <c r="I422" s="207"/>
+      <c r="J422" s="207"/>
+      <c r="K422" s="207"/>
+      <c r="L422" s="207"/>
+      <c r="M422" s="207"/>
+      <c r="N422" s="207"/>
+      <c r="O422" s="207"/>
+      <c r="P422" s="207"/>
+      <c r="Q422" s="207"/>
+      <c r="R422" s="207"/>
+      <c r="S422" s="207"/>
+      <c r="T422" s="207"/>
+      <c r="U422" s="207"/>
+      <c r="V422" s="207"/>
+      <c r="W422" s="207"/>
+      <c r="X422" s="207"/>
+      <c r="Y422" s="207"/>
+      <c r="Z422" s="207"/>
+      <c r="AA422" s="207"/>
+      <c r="AB422" s="207"/>
+      <c r="AC422" s="207"/>
+      <c r="AD422" s="207"/>
+      <c r="AE422" s="207"/>
+      <c r="AF422" s="207"/>
+      <c r="AG422" s="207"/>
+      <c r="AH422" s="207"/>
+      <c r="AI422" s="207"/>
     </row>
     <row r="423" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B423" s="204"/>
-      <c r="C423" s="208"/>
-      <c r="D423" s="208"/>
-      <c r="E423" s="208"/>
-      <c r="F423" s="208"/>
-      <c r="G423" s="208"/>
-      <c r="H423" s="208"/>
-      <c r="I423" s="208"/>
-      <c r="J423" s="208"/>
-      <c r="K423" s="208"/>
-      <c r="L423" s="208"/>
-      <c r="M423" s="208"/>
-      <c r="N423" s="208"/>
-      <c r="O423" s="208"/>
-      <c r="P423" s="208"/>
-      <c r="Q423" s="208"/>
-      <c r="R423" s="208"/>
-      <c r="S423" s="208"/>
-      <c r="T423" s="208"/>
-      <c r="U423" s="208"/>
-      <c r="V423" s="208"/>
-      <c r="W423" s="208"/>
-      <c r="X423" s="208"/>
-      <c r="Y423" s="208"/>
-      <c r="Z423" s="208"/>
-      <c r="AA423" s="208"/>
-      <c r="AB423" s="208"/>
-      <c r="AC423" s="208"/>
-      <c r="AD423" s="208"/>
-      <c r="AE423" s="208"/>
-      <c r="AF423" s="208"/>
-      <c r="AG423" s="208"/>
-      <c r="AH423" s="208"/>
-      <c r="AI423" s="208"/>
+      <c r="B423" s="203"/>
+      <c r="C423" s="207"/>
+      <c r="D423" s="207"/>
+      <c r="E423" s="207"/>
+      <c r="F423" s="207"/>
+      <c r="G423" s="207"/>
+      <c r="H423" s="207"/>
+      <c r="I423" s="207"/>
+      <c r="J423" s="207"/>
+      <c r="K423" s="207"/>
+      <c r="L423" s="207"/>
+      <c r="M423" s="207"/>
+      <c r="N423" s="207"/>
+      <c r="O423" s="207"/>
+      <c r="P423" s="207"/>
+      <c r="Q423" s="207"/>
+      <c r="R423" s="207"/>
+      <c r="S423" s="207"/>
+      <c r="T423" s="207"/>
+      <c r="U423" s="207"/>
+      <c r="V423" s="207"/>
+      <c r="W423" s="207"/>
+      <c r="X423" s="207"/>
+      <c r="Y423" s="207"/>
+      <c r="Z423" s="207"/>
+      <c r="AA423" s="207"/>
+      <c r="AB423" s="207"/>
+      <c r="AC423" s="207"/>
+      <c r="AD423" s="207"/>
+      <c r="AE423" s="207"/>
+      <c r="AF423" s="207"/>
+      <c r="AG423" s="207"/>
+      <c r="AH423" s="207"/>
+      <c r="AI423" s="207"/>
     </row>
     <row r="424" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B424" s="204"/>
-      <c r="C424" s="208"/>
-      <c r="D424" s="208"/>
-      <c r="E424" s="208"/>
-      <c r="F424" s="208"/>
-      <c r="G424" s="208"/>
-      <c r="H424" s="208"/>
-      <c r="I424" s="208"/>
-      <c r="J424" s="208"/>
-      <c r="K424" s="208"/>
-      <c r="L424" s="208"/>
-      <c r="M424" s="208"/>
-      <c r="N424" s="208"/>
-      <c r="O424" s="208"/>
-      <c r="P424" s="208"/>
-      <c r="Q424" s="208"/>
-      <c r="R424" s="208"/>
-      <c r="S424" s="208"/>
-      <c r="T424" s="208"/>
-      <c r="U424" s="208"/>
-      <c r="V424" s="208"/>
-      <c r="W424" s="208"/>
-      <c r="X424" s="208"/>
-      <c r="Y424" s="208"/>
-      <c r="Z424" s="208"/>
-      <c r="AA424" s="208"/>
-      <c r="AB424" s="208"/>
-      <c r="AC424" s="208"/>
-      <c r="AD424" s="208"/>
-      <c r="AE424" s="208"/>
-      <c r="AF424" s="208"/>
-      <c r="AG424" s="208"/>
-      <c r="AH424" s="208"/>
-      <c r="AI424" s="208"/>
+      <c r="B424" s="203"/>
+      <c r="C424" s="207"/>
+      <c r="D424" s="207"/>
+      <c r="E424" s="207"/>
+      <c r="F424" s="207"/>
+      <c r="G424" s="207"/>
+      <c r="H424" s="207"/>
+      <c r="I424" s="207"/>
+      <c r="J424" s="207"/>
+      <c r="K424" s="207"/>
+      <c r="L424" s="207"/>
+      <c r="M424" s="207"/>
+      <c r="N424" s="207"/>
+      <c r="O424" s="207"/>
+      <c r="P424" s="207"/>
+      <c r="Q424" s="207"/>
+      <c r="R424" s="207"/>
+      <c r="S424" s="207"/>
+      <c r="T424" s="207"/>
+      <c r="U424" s="207"/>
+      <c r="V424" s="207"/>
+      <c r="W424" s="207"/>
+      <c r="X424" s="207"/>
+      <c r="Y424" s="207"/>
+      <c r="Z424" s="207"/>
+      <c r="AA424" s="207"/>
+      <c r="AB424" s="207"/>
+      <c r="AC424" s="207"/>
+      <c r="AD424" s="207"/>
+      <c r="AE424" s="207"/>
+      <c r="AF424" s="207"/>
+      <c r="AG424" s="207"/>
+      <c r="AH424" s="207"/>
+      <c r="AI424" s="207"/>
     </row>
     <row r="425" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B425" s="204"/>
-      <c r="C425" s="208"/>
-      <c r="D425" s="208"/>
-      <c r="E425" s="208"/>
-      <c r="F425" s="208"/>
-      <c r="G425" s="208"/>
-      <c r="H425" s="208"/>
-      <c r="I425" s="208"/>
-      <c r="J425" s="208"/>
-      <c r="K425" s="208"/>
-      <c r="L425" s="208"/>
-      <c r="M425" s="208"/>
-      <c r="N425" s="208"/>
-      <c r="O425" s="208"/>
-      <c r="P425" s="208"/>
-      <c r="Q425" s="208"/>
-      <c r="R425" s="208"/>
-      <c r="S425" s="208"/>
-      <c r="T425" s="208"/>
-      <c r="U425" s="208"/>
-      <c r="V425" s="208"/>
-      <c r="W425" s="208"/>
-      <c r="X425" s="208"/>
-      <c r="Y425" s="208"/>
-      <c r="Z425" s="208"/>
-      <c r="AA425" s="208"/>
-      <c r="AB425" s="208"/>
-      <c r="AC425" s="208"/>
-      <c r="AD425" s="208"/>
-      <c r="AE425" s="208"/>
-      <c r="AF425" s="208"/>
-      <c r="AG425" s="208"/>
-      <c r="AH425" s="208"/>
-      <c r="AI425" s="208"/>
+      <c r="B425" s="203"/>
+      <c r="C425" s="207"/>
+      <c r="D425" s="207"/>
+      <c r="E425" s="207"/>
+      <c r="F425" s="207"/>
+      <c r="G425" s="207"/>
+      <c r="H425" s="207"/>
+      <c r="I425" s="207"/>
+      <c r="J425" s="207"/>
+      <c r="K425" s="207"/>
+      <c r="L425" s="207"/>
+      <c r="M425" s="207"/>
+      <c r="N425" s="207"/>
+      <c r="O425" s="207"/>
+      <c r="P425" s="207"/>
+      <c r="Q425" s="207"/>
+      <c r="R425" s="207"/>
+      <c r="S425" s="207"/>
+      <c r="T425" s="207"/>
+      <c r="U425" s="207"/>
+      <c r="V425" s="207"/>
+      <c r="W425" s="207"/>
+      <c r="X425" s="207"/>
+      <c r="Y425" s="207"/>
+      <c r="Z425" s="207"/>
+      <c r="AA425" s="207"/>
+      <c r="AB425" s="207"/>
+      <c r="AC425" s="207"/>
+      <c r="AD425" s="207"/>
+      <c r="AE425" s="207"/>
+      <c r="AF425" s="207"/>
+      <c r="AG425" s="207"/>
+      <c r="AH425" s="207"/>
+      <c r="AI425" s="207"/>
     </row>
     <row r="426" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B426" s="204"/>
-      <c r="C426" s="208"/>
-      <c r="D426" s="208"/>
-      <c r="E426" s="208"/>
-      <c r="F426" s="208"/>
-      <c r="G426" s="208"/>
-      <c r="H426" s="208"/>
-      <c r="I426" s="208"/>
-      <c r="J426" s="208"/>
-      <c r="K426" s="208"/>
-      <c r="L426" s="208"/>
-      <c r="M426" s="208"/>
-      <c r="N426" s="208"/>
-      <c r="O426" s="208"/>
-      <c r="P426" s="208"/>
-      <c r="Q426" s="208"/>
-      <c r="R426" s="208"/>
-      <c r="S426" s="208"/>
-      <c r="T426" s="208"/>
-      <c r="U426" s="208"/>
-      <c r="V426" s="208"/>
-      <c r="W426" s="208"/>
-      <c r="X426" s="208"/>
-      <c r="Y426" s="208"/>
-      <c r="Z426" s="208"/>
-      <c r="AA426" s="208"/>
-      <c r="AB426" s="208"/>
-      <c r="AC426" s="208"/>
-      <c r="AD426" s="208"/>
-      <c r="AE426" s="208"/>
-      <c r="AF426" s="208"/>
-      <c r="AG426" s="208"/>
-      <c r="AH426" s="208"/>
-      <c r="AI426" s="208"/>
+      <c r="B426" s="203"/>
+      <c r="C426" s="207"/>
+      <c r="D426" s="207"/>
+      <c r="E426" s="207"/>
+      <c r="F426" s="207"/>
+      <c r="G426" s="207"/>
+      <c r="H426" s="207"/>
+      <c r="I426" s="207"/>
+      <c r="J426" s="207"/>
+      <c r="K426" s="207"/>
+      <c r="L426" s="207"/>
+      <c r="M426" s="207"/>
+      <c r="N426" s="207"/>
+      <c r="O426" s="207"/>
+      <c r="P426" s="207"/>
+      <c r="Q426" s="207"/>
+      <c r="R426" s="207"/>
+      <c r="S426" s="207"/>
+      <c r="T426" s="207"/>
+      <c r="U426" s="207"/>
+      <c r="V426" s="207"/>
+      <c r="W426" s="207"/>
+      <c r="X426" s="207"/>
+      <c r="Y426" s="207"/>
+      <c r="Z426" s="207"/>
+      <c r="AA426" s="207"/>
+      <c r="AB426" s="207"/>
+      <c r="AC426" s="207"/>
+      <c r="AD426" s="207"/>
+      <c r="AE426" s="207"/>
+      <c r="AF426" s="207"/>
+      <c r="AG426" s="207"/>
+      <c r="AH426" s="207"/>
+      <c r="AI426" s="207"/>
     </row>
     <row r="427" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B427" s="204"/>
-      <c r="C427" s="208"/>
-      <c r="D427" s="208"/>
-      <c r="E427" s="208"/>
-      <c r="F427" s="208"/>
-      <c r="G427" s="208"/>
-      <c r="H427" s="208"/>
-      <c r="I427" s="208"/>
-      <c r="J427" s="208"/>
-      <c r="K427" s="208"/>
-      <c r="L427" s="208"/>
-      <c r="M427" s="208"/>
-      <c r="N427" s="208"/>
-      <c r="O427" s="208"/>
-      <c r="P427" s="208"/>
-      <c r="Q427" s="208"/>
-      <c r="R427" s="208"/>
-      <c r="S427" s="208"/>
-      <c r="T427" s="208"/>
-      <c r="U427" s="208"/>
-      <c r="V427" s="208"/>
-      <c r="W427" s="208"/>
-      <c r="X427" s="208"/>
-      <c r="Y427" s="208"/>
-      <c r="Z427" s="208"/>
-      <c r="AA427" s="208"/>
-      <c r="AB427" s="208"/>
-      <c r="AC427" s="208"/>
-      <c r="AD427" s="208"/>
-      <c r="AE427" s="208"/>
-      <c r="AF427" s="208"/>
-      <c r="AG427" s="208"/>
-      <c r="AH427" s="208"/>
-      <c r="AI427" s="208"/>
+      <c r="B427" s="203"/>
+      <c r="C427" s="207"/>
+      <c r="D427" s="207"/>
+      <c r="E427" s="207"/>
+      <c r="F427" s="207"/>
+      <c r="G427" s="207"/>
+      <c r="H427" s="207"/>
+      <c r="I427" s="207"/>
+      <c r="J427" s="207"/>
+      <c r="K427" s="207"/>
+      <c r="L427" s="207"/>
+      <c r="M427" s="207"/>
+      <c r="N427" s="207"/>
+      <c r="O427" s="207"/>
+      <c r="P427" s="207"/>
+      <c r="Q427" s="207"/>
+      <c r="R427" s="207"/>
+      <c r="S427" s="207"/>
+      <c r="T427" s="207"/>
+      <c r="U427" s="207"/>
+      <c r="V427" s="207"/>
+      <c r="W427" s="207"/>
+      <c r="X427" s="207"/>
+      <c r="Y427" s="207"/>
+      <c r="Z427" s="207"/>
+      <c r="AA427" s="207"/>
+      <c r="AB427" s="207"/>
+      <c r="AC427" s="207"/>
+      <c r="AD427" s="207"/>
+      <c r="AE427" s="207"/>
+      <c r="AF427" s="207"/>
+      <c r="AG427" s="207"/>
+      <c r="AH427" s="207"/>
+      <c r="AI427" s="207"/>
     </row>
     <row r="428" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B428" s="204"/>
-      <c r="C428" s="208"/>
-      <c r="D428" s="208"/>
-      <c r="E428" s="208"/>
-      <c r="F428" s="208"/>
-      <c r="G428" s="208"/>
-      <c r="H428" s="208"/>
-      <c r="I428" s="208"/>
-      <c r="J428" s="208"/>
-      <c r="K428" s="208"/>
-      <c r="L428" s="208"/>
-      <c r="M428" s="208"/>
-      <c r="N428" s="208"/>
-      <c r="O428" s="208"/>
-      <c r="P428" s="208"/>
-      <c r="Q428" s="208"/>
-      <c r="R428" s="208"/>
-      <c r="S428" s="208"/>
-      <c r="T428" s="208"/>
-      <c r="U428" s="208"/>
-      <c r="V428" s="208"/>
-      <c r="W428" s="208"/>
-      <c r="X428" s="208"/>
-      <c r="Y428" s="208"/>
-      <c r="Z428" s="208"/>
-      <c r="AA428" s="208"/>
-      <c r="AB428" s="208"/>
-      <c r="AC428" s="208"/>
-      <c r="AD428" s="208"/>
-      <c r="AE428" s="208"/>
-      <c r="AF428" s="208"/>
-      <c r="AG428" s="208"/>
-      <c r="AH428" s="208"/>
-      <c r="AI428" s="208"/>
+      <c r="B428" s="203"/>
+      <c r="C428" s="207"/>
+      <c r="D428" s="207"/>
+      <c r="E428" s="207"/>
+      <c r="F428" s="207"/>
+      <c r="G428" s="207"/>
+      <c r="H428" s="207"/>
+      <c r="I428" s="207"/>
+      <c r="J428" s="207"/>
+      <c r="K428" s="207"/>
+      <c r="L428" s="207"/>
+      <c r="M428" s="207"/>
+      <c r="N428" s="207"/>
+      <c r="O428" s="207"/>
+      <c r="P428" s="207"/>
+      <c r="Q428" s="207"/>
+      <c r="R428" s="207"/>
+      <c r="S428" s="207"/>
+      <c r="T428" s="207"/>
+      <c r="U428" s="207"/>
+      <c r="V428" s="207"/>
+      <c r="W428" s="207"/>
+      <c r="X428" s="207"/>
+      <c r="Y428" s="207"/>
+      <c r="Z428" s="207"/>
+      <c r="AA428" s="207"/>
+      <c r="AB428" s="207"/>
+      <c r="AC428" s="207"/>
+      <c r="AD428" s="207"/>
+      <c r="AE428" s="207"/>
+      <c r="AF428" s="207"/>
+      <c r="AG428" s="207"/>
+      <c r="AH428" s="207"/>
+      <c r="AI428" s="207"/>
     </row>
     <row r="429" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B429" s="204"/>
-      <c r="C429" s="208"/>
-      <c r="D429" s="208"/>
-      <c r="E429" s="208"/>
-      <c r="F429" s="208"/>
-      <c r="G429" s="208"/>
-      <c r="H429" s="208"/>
-      <c r="I429" s="208"/>
-      <c r="J429" s="208"/>
-      <c r="K429" s="208"/>
-      <c r="L429" s="208"/>
-      <c r="M429" s="208"/>
-      <c r="N429" s="208"/>
-      <c r="O429" s="208"/>
-      <c r="P429" s="208"/>
-      <c r="Q429" s="208"/>
-      <c r="R429" s="208"/>
-      <c r="S429" s="208"/>
-      <c r="T429" s="208"/>
-      <c r="U429" s="208"/>
-      <c r="V429" s="208"/>
-      <c r="W429" s="208"/>
-      <c r="X429" s="208"/>
-      <c r="Y429" s="208"/>
-      <c r="Z429" s="208"/>
-      <c r="AA429" s="208"/>
-      <c r="AB429" s="208"/>
-      <c r="AC429" s="208"/>
-      <c r="AD429" s="208"/>
-      <c r="AE429" s="208"/>
-      <c r="AF429" s="208"/>
-      <c r="AG429" s="208"/>
-      <c r="AH429" s="208"/>
-      <c r="AI429" s="208"/>
+      <c r="B429" s="203"/>
+      <c r="C429" s="207"/>
+      <c r="D429" s="207"/>
+      <c r="E429" s="207"/>
+      <c r="F429" s="207"/>
+      <c r="G429" s="207"/>
+      <c r="H429" s="207"/>
+      <c r="I429" s="207"/>
+      <c r="J429" s="207"/>
+      <c r="K429" s="207"/>
+      <c r="L429" s="207"/>
+      <c r="M429" s="207"/>
+      <c r="N429" s="207"/>
+      <c r="O429" s="207"/>
+      <c r="P429" s="207"/>
+      <c r="Q429" s="207"/>
+      <c r="R429" s="207"/>
+      <c r="S429" s="207"/>
+      <c r="T429" s="207"/>
+      <c r="U429" s="207"/>
+      <c r="V429" s="207"/>
+      <c r="W429" s="207"/>
+      <c r="X429" s="207"/>
+      <c r="Y429" s="207"/>
+      <c r="Z429" s="207"/>
+      <c r="AA429" s="207"/>
+      <c r="AB429" s="207"/>
+      <c r="AC429" s="207"/>
+      <c r="AD429" s="207"/>
+      <c r="AE429" s="207"/>
+      <c r="AF429" s="207"/>
+      <c r="AG429" s="207"/>
+      <c r="AH429" s="207"/>
+      <c r="AI429" s="207"/>
     </row>
     <row r="430" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B430" s="204"/>
-      <c r="C430" s="208"/>
-      <c r="D430" s="208"/>
-      <c r="E430" s="208"/>
-      <c r="F430" s="208"/>
-      <c r="G430" s="208"/>
-      <c r="H430" s="208"/>
-      <c r="I430" s="208"/>
-      <c r="J430" s="208"/>
-      <c r="K430" s="208"/>
-      <c r="L430" s="208"/>
-      <c r="M430" s="208"/>
-      <c r="N430" s="208"/>
-      <c r="O430" s="208"/>
-      <c r="P430" s="208"/>
-      <c r="Q430" s="208"/>
-      <c r="R430" s="208"/>
-      <c r="S430" s="208"/>
-      <c r="T430" s="208"/>
-      <c r="U430" s="208"/>
-      <c r="V430" s="208"/>
-      <c r="W430" s="208"/>
-      <c r="X430" s="208"/>
-      <c r="Y430" s="208"/>
-      <c r="Z430" s="208"/>
-      <c r="AA430" s="208"/>
-      <c r="AB430" s="208"/>
-      <c r="AC430" s="208"/>
-      <c r="AD430" s="208"/>
-      <c r="AE430" s="208"/>
-      <c r="AF430" s="208"/>
-      <c r="AG430" s="208"/>
-      <c r="AH430" s="208"/>
-      <c r="AI430" s="208"/>
+      <c r="B430" s="203"/>
+      <c r="C430" s="207"/>
+      <c r="D430" s="207"/>
+      <c r="E430" s="207"/>
+      <c r="F430" s="207"/>
+      <c r="G430" s="207"/>
+      <c r="H430" s="207"/>
+      <c r="I430" s="207"/>
+      <c r="J430" s="207"/>
+      <c r="K430" s="207"/>
+      <c r="L430" s="207"/>
+      <c r="M430" s="207"/>
+      <c r="N430" s="207"/>
+      <c r="O430" s="207"/>
+      <c r="P430" s="207"/>
+      <c r="Q430" s="207"/>
+      <c r="R430" s="207"/>
+      <c r="S430" s="207"/>
+      <c r="T430" s="207"/>
+      <c r="U430" s="207"/>
+      <c r="V430" s="207"/>
+      <c r="W430" s="207"/>
+      <c r="X430" s="207"/>
+      <c r="Y430" s="207"/>
+      <c r="Z430" s="207"/>
+      <c r="AA430" s="207"/>
+      <c r="AB430" s="207"/>
+      <c r="AC430" s="207"/>
+      <c r="AD430" s="207"/>
+      <c r="AE430" s="207"/>
+      <c r="AF430" s="207"/>
+      <c r="AG430" s="207"/>
+      <c r="AH430" s="207"/>
+      <c r="AI430" s="207"/>
     </row>
     <row r="431" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B431" s="204"/>
-      <c r="C431" s="208"/>
-      <c r="D431" s="208"/>
-      <c r="E431" s="208"/>
-      <c r="F431" s="208"/>
-      <c r="G431" s="208"/>
-      <c r="H431" s="208"/>
-      <c r="I431" s="208"/>
-      <c r="J431" s="208"/>
-      <c r="K431" s="208"/>
-      <c r="L431" s="208"/>
-      <c r="M431" s="208"/>
-      <c r="N431" s="208"/>
-      <c r="O431" s="208"/>
-      <c r="P431" s="208"/>
-      <c r="Q431" s="208"/>
-      <c r="R431" s="208"/>
-      <c r="S431" s="208"/>
-      <c r="T431" s="208"/>
-      <c r="U431" s="208"/>
-      <c r="V431" s="208"/>
-      <c r="W431" s="208"/>
-      <c r="X431" s="208"/>
-      <c r="Y431" s="208"/>
-      <c r="Z431" s="208"/>
-      <c r="AA431" s="208"/>
-      <c r="AB431" s="208"/>
-      <c r="AC431" s="208"/>
-      <c r="AD431" s="208"/>
-      <c r="AE431" s="208"/>
-      <c r="AF431" s="208"/>
-      <c r="AG431" s="208"/>
-      <c r="AH431" s="208"/>
-      <c r="AI431" s="208"/>
+      <c r="B431" s="203"/>
+      <c r="C431" s="207"/>
+      <c r="D431" s="207"/>
+      <c r="E431" s="207"/>
+      <c r="F431" s="207"/>
+      <c r="G431" s="207"/>
+      <c r="H431" s="207"/>
+      <c r="I431" s="207"/>
+      <c r="J431" s="207"/>
+      <c r="K431" s="207"/>
+      <c r="L431" s="207"/>
+      <c r="M431" s="207"/>
+      <c r="N431" s="207"/>
+      <c r="O431" s="207"/>
+      <c r="P431" s="207"/>
+      <c r="Q431" s="207"/>
+      <c r="R431" s="207"/>
+      <c r="S431" s="207"/>
+      <c r="T431" s="207"/>
+      <c r="U431" s="207"/>
+      <c r="V431" s="207"/>
+      <c r="W431" s="207"/>
+      <c r="X431" s="207"/>
+      <c r="Y431" s="207"/>
+      <c r="Z431" s="207"/>
+      <c r="AA431" s="207"/>
+      <c r="AB431" s="207"/>
+      <c r="AC431" s="207"/>
+      <c r="AD431" s="207"/>
+      <c r="AE431" s="207"/>
+      <c r="AF431" s="207"/>
+      <c r="AG431" s="207"/>
+      <c r="AH431" s="207"/>
+      <c r="AI431" s="207"/>
     </row>
     <row r="432" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B432" s="204"/>
-      <c r="C432" s="208"/>
-      <c r="D432" s="208"/>
-      <c r="E432" s="208"/>
-      <c r="F432" s="208"/>
-      <c r="G432" s="208"/>
-      <c r="H432" s="208"/>
-      <c r="I432" s="208"/>
-      <c r="J432" s="208"/>
-      <c r="K432" s="208"/>
-      <c r="L432" s="208"/>
-      <c r="M432" s="208"/>
-      <c r="N432" s="208"/>
-      <c r="O432" s="208"/>
-      <c r="P432" s="208"/>
-      <c r="Q432" s="208"/>
-      <c r="R432" s="208"/>
-      <c r="S432" s="208"/>
-      <c r="T432" s="208"/>
-      <c r="U432" s="208"/>
-      <c r="V432" s="208"/>
-      <c r="W432" s="208"/>
-      <c r="X432" s="208"/>
-      <c r="Y432" s="208"/>
-      <c r="Z432" s="208"/>
-      <c r="AA432" s="208"/>
-      <c r="AB432" s="208"/>
-      <c r="AC432" s="208"/>
-      <c r="AD432" s="208"/>
-      <c r="AE432" s="208"/>
-      <c r="AF432" s="208"/>
-      <c r="AG432" s="208"/>
-      <c r="AH432" s="208"/>
-      <c r="AI432" s="208"/>
+      <c r="B432" s="203"/>
+      <c r="C432" s="207"/>
+      <c r="D432" s="207"/>
+      <c r="E432" s="207"/>
+      <c r="F432" s="207"/>
+      <c r="G432" s="207"/>
+      <c r="H432" s="207"/>
+      <c r="I432" s="207"/>
+      <c r="J432" s="207"/>
+      <c r="K432" s="207"/>
+      <c r="L432" s="207"/>
+      <c r="M432" s="207"/>
+      <c r="N432" s="207"/>
+      <c r="O432" s="207"/>
+      <c r="P432" s="207"/>
+      <c r="Q432" s="207"/>
+      <c r="R432" s="207"/>
+      <c r="S432" s="207"/>
+      <c r="T432" s="207"/>
+      <c r="U432" s="207"/>
+      <c r="V432" s="207"/>
+      <c r="W432" s="207"/>
+      <c r="X432" s="207"/>
+      <c r="Y432" s="207"/>
+      <c r="Z432" s="207"/>
+      <c r="AA432" s="207"/>
+      <c r="AB432" s="207"/>
+      <c r="AC432" s="207"/>
+      <c r="AD432" s="207"/>
+      <c r="AE432" s="207"/>
+      <c r="AF432" s="207"/>
+      <c r="AG432" s="207"/>
+      <c r="AH432" s="207"/>
+      <c r="AI432" s="207"/>
     </row>
     <row r="433" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B433" s="204"/>
-      <c r="C433" s="208"/>
-      <c r="D433" s="208"/>
-      <c r="E433" s="208"/>
-      <c r="F433" s="208"/>
-      <c r="G433" s="208"/>
-      <c r="H433" s="208"/>
-      <c r="I433" s="208"/>
-      <c r="J433" s="208"/>
-      <c r="K433" s="208"/>
-      <c r="L433" s="208"/>
-      <c r="M433" s="208"/>
-      <c r="N433" s="208"/>
-      <c r="O433" s="208"/>
-      <c r="P433" s="208"/>
-      <c r="Q433" s="208"/>
-      <c r="R433" s="208"/>
-      <c r="S433" s="208"/>
-      <c r="T433" s="208"/>
-      <c r="U433" s="208"/>
-      <c r="V433" s="208"/>
-      <c r="W433" s="208"/>
-      <c r="X433" s="208"/>
-      <c r="Y433" s="208"/>
-      <c r="Z433" s="208"/>
-      <c r="AA433" s="208"/>
-      <c r="AB433" s="208"/>
-      <c r="AC433" s="208"/>
-      <c r="AD433" s="208"/>
-      <c r="AE433" s="208"/>
-      <c r="AF433" s="208"/>
-      <c r="AG433" s="208"/>
-      <c r="AH433" s="208"/>
-      <c r="AI433" s="208"/>
+      <c r="B433" s="203"/>
+      <c r="C433" s="207"/>
+      <c r="D433" s="207"/>
+      <c r="E433" s="207"/>
+      <c r="F433" s="207"/>
+      <c r="G433" s="207"/>
+      <c r="H433" s="207"/>
+      <c r="I433" s="207"/>
+      <c r="J433" s="207"/>
+      <c r="K433" s="207"/>
+      <c r="L433" s="207"/>
+      <c r="M433" s="207"/>
+      <c r="N433" s="207"/>
+      <c r="O433" s="207"/>
+      <c r="P433" s="207"/>
+      <c r="Q433" s="207"/>
+      <c r="R433" s="207"/>
+      <c r="S433" s="207"/>
+      <c r="T433" s="207"/>
+      <c r="U433" s="207"/>
+      <c r="V433" s="207"/>
+      <c r="W433" s="207"/>
+      <c r="X433" s="207"/>
+      <c r="Y433" s="207"/>
+      <c r="Z433" s="207"/>
+      <c r="AA433" s="207"/>
+      <c r="AB433" s="207"/>
+      <c r="AC433" s="207"/>
+      <c r="AD433" s="207"/>
+      <c r="AE433" s="207"/>
+      <c r="AF433" s="207"/>
+      <c r="AG433" s="207"/>
+      <c r="AH433" s="207"/>
+      <c r="AI433" s="207"/>
     </row>
     <row r="434" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B434" s="204"/>
-      <c r="C434" s="208"/>
-      <c r="D434" s="208"/>
-      <c r="E434" s="208"/>
-      <c r="F434" s="208"/>
-      <c r="G434" s="208"/>
-      <c r="H434" s="208"/>
-      <c r="I434" s="208"/>
-      <c r="J434" s="208"/>
-      <c r="K434" s="208"/>
-      <c r="L434" s="208"/>
-      <c r="M434" s="208"/>
-      <c r="N434" s="208"/>
-      <c r="O434" s="208"/>
-      <c r="P434" s="208"/>
-      <c r="Q434" s="208"/>
-      <c r="R434" s="208"/>
-      <c r="S434" s="208"/>
-      <c r="T434" s="208"/>
-      <c r="U434" s="208"/>
-      <c r="V434" s="208"/>
-      <c r="W434" s="208"/>
-      <c r="X434" s="208"/>
-      <c r="Y434" s="208"/>
-      <c r="Z434" s="208"/>
-      <c r="AA434" s="208"/>
-      <c r="AB434" s="208"/>
-      <c r="AC434" s="208"/>
-      <c r="AD434" s="208"/>
-      <c r="AE434" s="208"/>
-      <c r="AF434" s="208"/>
-      <c r="AG434" s="208"/>
-      <c r="AH434" s="208"/>
-      <c r="AI434" s="208"/>
+      <c r="B434" s="203"/>
+      <c r="C434" s="207"/>
+      <c r="D434" s="207"/>
+      <c r="E434" s="207"/>
+      <c r="F434" s="207"/>
+      <c r="G434" s="207"/>
+      <c r="H434" s="207"/>
+      <c r="I434" s="207"/>
+      <c r="J434" s="207"/>
+      <c r="K434" s="207"/>
+      <c r="L434" s="207"/>
+      <c r="M434" s="207"/>
+      <c r="N434" s="207"/>
+      <c r="O434" s="207"/>
+      <c r="P434" s="207"/>
+      <c r="Q434" s="207"/>
+      <c r="R434" s="207"/>
+      <c r="S434" s="207"/>
+      <c r="T434" s="207"/>
+      <c r="U434" s="207"/>
+      <c r="V434" s="207"/>
+      <c r="W434" s="207"/>
+      <c r="X434" s="207"/>
+      <c r="Y434" s="207"/>
+      <c r="Z434" s="207"/>
+      <c r="AA434" s="207"/>
+      <c r="AB434" s="207"/>
+      <c r="AC434" s="207"/>
+      <c r="AD434" s="207"/>
+      <c r="AE434" s="207"/>
+      <c r="AF434" s="207"/>
+      <c r="AG434" s="207"/>
+      <c r="AH434" s="207"/>
+      <c r="AI434" s="207"/>
     </row>
     <row r="435" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B435" s="204"/>
-      <c r="C435" s="208"/>
-      <c r="D435" s="208"/>
-      <c r="E435" s="208"/>
-      <c r="F435" s="208"/>
-      <c r="G435" s="208"/>
-      <c r="H435" s="208"/>
-      <c r="I435" s="208"/>
-      <c r="J435" s="208"/>
-      <c r="K435" s="208"/>
-      <c r="L435" s="208"/>
-      <c r="M435" s="208"/>
-      <c r="N435" s="208"/>
-      <c r="O435" s="208"/>
-      <c r="P435" s="208"/>
-      <c r="Q435" s="208"/>
-      <c r="R435" s="208"/>
-      <c r="S435" s="208"/>
-      <c r="T435" s="208"/>
-      <c r="U435" s="208"/>
-      <c r="V435" s="208"/>
-      <c r="W435" s="208"/>
-      <c r="X435" s="208"/>
-      <c r="Y435" s="208"/>
-      <c r="Z435" s="208"/>
-      <c r="AA435" s="208"/>
-      <c r="AB435" s="208"/>
-      <c r="AC435" s="208"/>
-      <c r="AD435" s="208"/>
-      <c r="AE435" s="208"/>
-      <c r="AF435" s="208"/>
-      <c r="AG435" s="208"/>
-      <c r="AH435" s="208"/>
-      <c r="AI435" s="208"/>
+      <c r="B435" s="203"/>
+      <c r="C435" s="207"/>
+      <c r="D435" s="207"/>
+      <c r="E435" s="207"/>
+      <c r="F435" s="207"/>
+      <c r="G435" s="207"/>
+      <c r="H435" s="207"/>
+      <c r="I435" s="207"/>
+      <c r="J435" s="207"/>
+      <c r="K435" s="207"/>
+      <c r="L435" s="207"/>
+      <c r="M435" s="207"/>
+      <c r="N435" s="207"/>
+      <c r="O435" s="207"/>
+      <c r="P435" s="207"/>
+      <c r="Q435" s="207"/>
+      <c r="R435" s="207"/>
+      <c r="S435" s="207"/>
+      <c r="T435" s="207"/>
+      <c r="U435" s="207"/>
+      <c r="V435" s="207"/>
+      <c r="W435" s="207"/>
+      <c r="X435" s="207"/>
+      <c r="Y435" s="207"/>
+      <c r="Z435" s="207"/>
+      <c r="AA435" s="207"/>
+      <c r="AB435" s="207"/>
+      <c r="AC435" s="207"/>
+      <c r="AD435" s="207"/>
+      <c r="AE435" s="207"/>
+      <c r="AF435" s="207"/>
+      <c r="AG435" s="207"/>
+      <c r="AH435" s="207"/>
+      <c r="AI435" s="207"/>
     </row>
     <row r="436" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B436" s="204"/>
-      <c r="C436" s="208"/>
-      <c r="D436" s="208"/>
-      <c r="E436" s="208"/>
-      <c r="F436" s="208"/>
-      <c r="G436" s="208"/>
-      <c r="H436" s="208"/>
-      <c r="I436" s="208"/>
-      <c r="J436" s="208"/>
-      <c r="K436" s="208"/>
-      <c r="L436" s="208"/>
-      <c r="M436" s="208"/>
-      <c r="N436" s="208"/>
-      <c r="O436" s="208"/>
-      <c r="P436" s="208"/>
-      <c r="Q436" s="208"/>
-      <c r="R436" s="208"/>
-      <c r="S436" s="208"/>
-      <c r="T436" s="208"/>
-      <c r="U436" s="208"/>
-      <c r="V436" s="208"/>
-      <c r="W436" s="208"/>
-      <c r="X436" s="208"/>
-      <c r="Y436" s="208"/>
-      <c r="Z436" s="208"/>
-      <c r="AA436" s="208"/>
-      <c r="AB436" s="208"/>
-      <c r="AC436" s="208"/>
-      <c r="AD436" s="208"/>
-      <c r="AE436" s="208"/>
-      <c r="AF436" s="208"/>
-      <c r="AG436" s="208"/>
-      <c r="AH436" s="208"/>
-      <c r="AI436" s="208"/>
+      <c r="B436" s="203"/>
+      <c r="C436" s="207"/>
+      <c r="D436" s="207"/>
+      <c r="E436" s="207"/>
+      <c r="F436" s="207"/>
+      <c r="G436" s="207"/>
+      <c r="H436" s="207"/>
+      <c r="I436" s="207"/>
+      <c r="J436" s="207"/>
+      <c r="K436" s="207"/>
+      <c r="L436" s="207"/>
+      <c r="M436" s="207"/>
+      <c r="N436" s="207"/>
+      <c r="O436" s="207"/>
+      <c r="P436" s="207"/>
+      <c r="Q436" s="207"/>
+      <c r="R436" s="207"/>
+      <c r="S436" s="207"/>
+      <c r="T436" s="207"/>
+      <c r="U436" s="207"/>
+      <c r="V436" s="207"/>
+      <c r="W436" s="207"/>
+      <c r="X436" s="207"/>
+      <c r="Y436" s="207"/>
+      <c r="Z436" s="207"/>
+      <c r="AA436" s="207"/>
+      <c r="AB436" s="207"/>
+      <c r="AC436" s="207"/>
+      <c r="AD436" s="207"/>
+      <c r="AE436" s="207"/>
+      <c r="AF436" s="207"/>
+      <c r="AG436" s="207"/>
+      <c r="AH436" s="207"/>
+      <c r="AI436" s="207"/>
     </row>
     <row r="437" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B437" s="204"/>
-      <c r="C437" s="208"/>
-      <c r="D437" s="208"/>
-      <c r="E437" s="208"/>
-      <c r="F437" s="208"/>
-      <c r="G437" s="208"/>
-      <c r="H437" s="208"/>
-      <c r="I437" s="208"/>
-      <c r="J437" s="208"/>
-      <c r="K437" s="208"/>
-      <c r="L437" s="208"/>
-      <c r="M437" s="208"/>
-      <c r="N437" s="208"/>
-      <c r="O437" s="208"/>
-      <c r="P437" s="208"/>
-      <c r="Q437" s="208"/>
-      <c r="R437" s="208"/>
-      <c r="S437" s="208"/>
-      <c r="T437" s="208"/>
-      <c r="U437" s="208"/>
-      <c r="V437" s="208"/>
-      <c r="W437" s="208"/>
-      <c r="X437" s="208"/>
-      <c r="Y437" s="208"/>
-      <c r="Z437" s="208"/>
-      <c r="AA437" s="208"/>
-      <c r="AB437" s="208"/>
-      <c r="AC437" s="208"/>
-      <c r="AD437" s="208"/>
-      <c r="AE437" s="208"/>
-      <c r="AF437" s="208"/>
-      <c r="AG437" s="208"/>
-      <c r="AH437" s="208"/>
-      <c r="AI437" s="208"/>
+      <c r="B437" s="203"/>
+      <c r="C437" s="207"/>
+      <c r="D437" s="207"/>
+      <c r="E437" s="207"/>
+      <c r="F437" s="207"/>
+      <c r="G437" s="207"/>
+      <c r="H437" s="207"/>
+      <c r="I437" s="207"/>
+      <c r="J437" s="207"/>
+      <c r="K437" s="207"/>
+      <c r="L437" s="207"/>
+      <c r="M437" s="207"/>
+      <c r="N437" s="207"/>
+      <c r="O437" s="207"/>
+      <c r="P437" s="207"/>
+      <c r="Q437" s="207"/>
+      <c r="R437" s="207"/>
+      <c r="S437" s="207"/>
+      <c r="T437" s="207"/>
+      <c r="U437" s="207"/>
+      <c r="V437" s="207"/>
+      <c r="W437" s="207"/>
+      <c r="X437" s="207"/>
+      <c r="Y437" s="207"/>
+      <c r="Z437" s="207"/>
+      <c r="AA437" s="207"/>
+      <c r="AB437" s="207"/>
+      <c r="AC437" s="207"/>
+      <c r="AD437" s="207"/>
+      <c r="AE437" s="207"/>
+      <c r="AF437" s="207"/>
+      <c r="AG437" s="207"/>
+      <c r="AH437" s="207"/>
+      <c r="AI437" s="207"/>
     </row>
     <row r="438" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B438" s="204"/>
-      <c r="C438" s="208"/>
-      <c r="D438" s="208"/>
-      <c r="E438" s="208"/>
-      <c r="F438" s="208"/>
-      <c r="G438" s="208"/>
-      <c r="H438" s="208"/>
-      <c r="I438" s="208"/>
-      <c r="J438" s="208"/>
-      <c r="K438" s="208"/>
-      <c r="L438" s="208"/>
-      <c r="M438" s="208"/>
-      <c r="N438" s="208"/>
-      <c r="O438" s="208"/>
-      <c r="P438" s="208"/>
-      <c r="Q438" s="208"/>
-      <c r="R438" s="208"/>
-      <c r="S438" s="208"/>
-      <c r="T438" s="208"/>
-      <c r="U438" s="208"/>
-      <c r="V438" s="208"/>
-      <c r="W438" s="208"/>
-      <c r="X438" s="208"/>
-      <c r="Y438" s="208"/>
-      <c r="Z438" s="208"/>
-      <c r="AA438" s="208"/>
-      <c r="AB438" s="208"/>
-      <c r="AC438" s="208"/>
-      <c r="AD438" s="208"/>
-      <c r="AE438" s="208"/>
-      <c r="AF438" s="208"/>
-      <c r="AG438" s="208"/>
-      <c r="AH438" s="208"/>
-      <c r="AI438" s="208"/>
+      <c r="B438" s="203"/>
+      <c r="C438" s="207"/>
+      <c r="D438" s="207"/>
+      <c r="E438" s="207"/>
+      <c r="F438" s="207"/>
+      <c r="G438" s="207"/>
+      <c r="H438" s="207"/>
+      <c r="I438" s="207"/>
+      <c r="J438" s="207"/>
+      <c r="K438" s="207"/>
+      <c r="L438" s="207"/>
+      <c r="M438" s="207"/>
+      <c r="N438" s="207"/>
+      <c r="O438" s="207"/>
+      <c r="P438" s="207"/>
+      <c r="Q438" s="207"/>
+      <c r="R438" s="207"/>
+      <c r="S438" s="207"/>
+      <c r="T438" s="207"/>
+      <c r="U438" s="207"/>
+      <c r="V438" s="207"/>
+      <c r="W438" s="207"/>
+      <c r="X438" s="207"/>
+      <c r="Y438" s="207"/>
+      <c r="Z438" s="207"/>
+      <c r="AA438" s="207"/>
+      <c r="AB438" s="207"/>
+      <c r="AC438" s="207"/>
+      <c r="AD438" s="207"/>
+      <c r="AE438" s="207"/>
+      <c r="AF438" s="207"/>
+      <c r="AG438" s="207"/>
+      <c r="AH438" s="207"/>
+      <c r="AI438" s="207"/>
     </row>
     <row r="439" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B439" s="204"/>
-      <c r="C439" s="208"/>
-      <c r="D439" s="208"/>
-      <c r="E439" s="208"/>
-      <c r="F439" s="208"/>
-      <c r="G439" s="208"/>
-      <c r="H439" s="208"/>
-      <c r="I439" s="208"/>
-      <c r="J439" s="208"/>
-      <c r="K439" s="208"/>
-      <c r="L439" s="208"/>
-      <c r="M439" s="208"/>
-      <c r="N439" s="208"/>
-      <c r="O439" s="208"/>
-      <c r="P439" s="208"/>
-      <c r="Q439" s="208"/>
-      <c r="R439" s="208"/>
-      <c r="S439" s="208"/>
-      <c r="T439" s="208"/>
-      <c r="U439" s="208"/>
-      <c r="V439" s="208"/>
-      <c r="W439" s="208"/>
-      <c r="X439" s="208"/>
-      <c r="Y439" s="208"/>
-      <c r="Z439" s="208"/>
-      <c r="AA439" s="208"/>
-      <c r="AB439" s="208"/>
-      <c r="AC439" s="208"/>
-      <c r="AD439" s="208"/>
-      <c r="AE439" s="208"/>
-      <c r="AF439" s="208"/>
-      <c r="AG439" s="208"/>
-      <c r="AH439" s="208"/>
-      <c r="AI439" s="208"/>
+      <c r="B439" s="203"/>
+      <c r="C439" s="207"/>
+      <c r="D439" s="207"/>
+      <c r="E439" s="207"/>
+      <c r="F439" s="207"/>
+      <c r="G439" s="207"/>
+      <c r="H439" s="207"/>
+      <c r="I439" s="207"/>
+      <c r="J439" s="207"/>
+      <c r="K439" s="207"/>
+      <c r="L439" s="207"/>
+      <c r="M439" s="207"/>
+      <c r="N439" s="207"/>
+      <c r="O439" s="207"/>
+      <c r="P439" s="207"/>
+      <c r="Q439" s="207"/>
+      <c r="R439" s="207"/>
+      <c r="S439" s="207"/>
+      <c r="T439" s="207"/>
+      <c r="U439" s="207"/>
+      <c r="V439" s="207"/>
+      <c r="W439" s="207"/>
+      <c r="X439" s="207"/>
+      <c r="Y439" s="207"/>
+      <c r="Z439" s="207"/>
+      <c r="AA439" s="207"/>
+      <c r="AB439" s="207"/>
+      <c r="AC439" s="207"/>
+      <c r="AD439" s="207"/>
+      <c r="AE439" s="207"/>
+      <c r="AF439" s="207"/>
+      <c r="AG439" s="207"/>
+      <c r="AH439" s="207"/>
+      <c r="AI439" s="207"/>
     </row>
     <row r="440" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B440" s="204"/>
-      <c r="C440" s="208"/>
-      <c r="D440" s="208"/>
-      <c r="E440" s="208"/>
-      <c r="F440" s="208"/>
-      <c r="G440" s="208"/>
-      <c r="H440" s="208"/>
-      <c r="I440" s="208"/>
-      <c r="J440" s="208"/>
-      <c r="K440" s="208"/>
-      <c r="L440" s="208"/>
-      <c r="M440" s="208"/>
-      <c r="N440" s="208"/>
-      <c r="O440" s="208"/>
-      <c r="P440" s="208"/>
-      <c r="Q440" s="208"/>
-      <c r="R440" s="208"/>
-      <c r="S440" s="208"/>
-      <c r="T440" s="208"/>
-      <c r="U440" s="208"/>
-      <c r="V440" s="208"/>
-      <c r="W440" s="208"/>
-      <c r="X440" s="208"/>
-      <c r="Y440" s="208"/>
-      <c r="Z440" s="208"/>
-      <c r="AA440" s="208"/>
-      <c r="AB440" s="208"/>
-      <c r="AC440" s="208"/>
-      <c r="AD440" s="208"/>
-      <c r="AE440" s="208"/>
-      <c r="AF440" s="208"/>
-      <c r="AG440" s="208"/>
-      <c r="AH440" s="208"/>
-      <c r="AI440" s="208"/>
+      <c r="B440" s="203"/>
+      <c r="C440" s="207"/>
+      <c r="D440" s="207"/>
+      <c r="E440" s="207"/>
+      <c r="F440" s="207"/>
+      <c r="G440" s="207"/>
+      <c r="H440" s="207"/>
+      <c r="I440" s="207"/>
+      <c r="J440" s="207"/>
+      <c r="K440" s="207"/>
+      <c r="L440" s="207"/>
+      <c r="M440" s="207"/>
+      <c r="N440" s="207"/>
+      <c r="O440" s="207"/>
+      <c r="P440" s="207"/>
+      <c r="Q440" s="207"/>
+      <c r="R440" s="207"/>
+      <c r="S440" s="207"/>
+      <c r="T440" s="207"/>
+      <c r="U440" s="207"/>
+      <c r="V440" s="207"/>
+      <c r="W440" s="207"/>
+      <c r="X440" s="207"/>
+      <c r="Y440" s="207"/>
+      <c r="Z440" s="207"/>
+      <c r="AA440" s="207"/>
+      <c r="AB440" s="207"/>
+      <c r="AC440" s="207"/>
+      <c r="AD440" s="207"/>
+      <c r="AE440" s="207"/>
+      <c r="AF440" s="207"/>
+      <c r="AG440" s="207"/>
+      <c r="AH440" s="207"/>
+      <c r="AI440" s="207"/>
     </row>
     <row r="441" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B441" s="204"/>
-      <c r="C441" s="208"/>
-      <c r="D441" s="208"/>
-      <c r="E441" s="208"/>
-      <c r="F441" s="208"/>
-      <c r="G441" s="208"/>
-      <c r="H441" s="208"/>
-      <c r="I441" s="208"/>
-      <c r="J441" s="208"/>
-      <c r="K441" s="208"/>
-      <c r="L441" s="208"/>
-      <c r="M441" s="208"/>
-      <c r="N441" s="208"/>
-      <c r="O441" s="208"/>
-      <c r="P441" s="208"/>
-      <c r="Q441" s="208"/>
-      <c r="R441" s="208"/>
-      <c r="S441" s="208"/>
-      <c r="T441" s="208"/>
-      <c r="U441" s="208"/>
-      <c r="V441" s="208"/>
-      <c r="W441" s="208"/>
-      <c r="X441" s="208"/>
-      <c r="Y441" s="208"/>
-      <c r="Z441" s="208"/>
-      <c r="AA441" s="208"/>
-      <c r="AB441" s="208"/>
-      <c r="AC441" s="208"/>
-      <c r="AD441" s="208"/>
-      <c r="AE441" s="208"/>
-      <c r="AF441" s="208"/>
-      <c r="AG441" s="208"/>
-      <c r="AH441" s="208"/>
-      <c r="AI441" s="208"/>
+      <c r="B441" s="203"/>
+      <c r="C441" s="207"/>
+      <c r="D441" s="207"/>
+      <c r="E441" s="207"/>
+      <c r="F441" s="207"/>
+      <c r="G441" s="207"/>
+      <c r="H441" s="207"/>
+      <c r="I441" s="207"/>
+      <c r="J441" s="207"/>
+      <c r="K441" s="207"/>
+      <c r="L441" s="207"/>
+      <c r="M441" s="207"/>
+      <c r="N441" s="207"/>
+      <c r="O441" s="207"/>
+      <c r="P441" s="207"/>
+      <c r="Q441" s="207"/>
+      <c r="R441" s="207"/>
+      <c r="S441" s="207"/>
+      <c r="T441" s="207"/>
+      <c r="U441" s="207"/>
+      <c r="V441" s="207"/>
+      <c r="W441" s="207"/>
+      <c r="X441" s="207"/>
+      <c r="Y441" s="207"/>
+      <c r="Z441" s="207"/>
+      <c r="AA441" s="207"/>
+      <c r="AB441" s="207"/>
+      <c r="AC441" s="207"/>
+      <c r="AD441" s="207"/>
+      <c r="AE441" s="207"/>
+      <c r="AF441" s="207"/>
+      <c r="AG441" s="207"/>
+      <c r="AH441" s="207"/>
+      <c r="AI441" s="207"/>
     </row>
     <row r="442" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B442" s="204"/>
-      <c r="C442" s="208"/>
-      <c r="D442" s="208"/>
-      <c r="E442" s="208"/>
-      <c r="F442" s="208"/>
-      <c r="G442" s="208"/>
-      <c r="H442" s="208"/>
-      <c r="I442" s="208"/>
-      <c r="J442" s="208"/>
-      <c r="K442" s="208"/>
-      <c r="L442" s="208"/>
-      <c r="M442" s="208"/>
-      <c r="N442" s="208"/>
-      <c r="O442" s="208"/>
-      <c r="P442" s="208"/>
-      <c r="Q442" s="208"/>
-      <c r="R442" s="208"/>
-      <c r="S442" s="208"/>
-      <c r="T442" s="208"/>
-      <c r="U442" s="208"/>
-      <c r="V442" s="208"/>
-      <c r="W442" s="208"/>
-      <c r="X442" s="208"/>
-      <c r="Y442" s="208"/>
-      <c r="Z442" s="208"/>
-      <c r="AA442" s="208"/>
-      <c r="AB442" s="208"/>
-      <c r="AC442" s="208"/>
-      <c r="AD442" s="208"/>
-      <c r="AE442" s="208"/>
-      <c r="AF442" s="208"/>
-      <c r="AG442" s="208"/>
-      <c r="AH442" s="208"/>
-      <c r="AI442" s="208"/>
+      <c r="B442" s="203"/>
+      <c r="C442" s="207"/>
+      <c r="D442" s="207"/>
+      <c r="E442" s="207"/>
+      <c r="F442" s="207"/>
+      <c r="G442" s="207"/>
+      <c r="H442" s="207"/>
+      <c r="I442" s="207"/>
+      <c r="J442" s="207"/>
+      <c r="K442" s="207"/>
+      <c r="L442" s="207"/>
+      <c r="M442" s="207"/>
+      <c r="N442" s="207"/>
+      <c r="O442" s="207"/>
+      <c r="P442" s="207"/>
+      <c r="Q442" s="207"/>
+      <c r="R442" s="207"/>
+      <c r="S442" s="207"/>
+      <c r="T442" s="207"/>
+      <c r="U442" s="207"/>
+      <c r="V442" s="207"/>
+      <c r="W442" s="207"/>
+      <c r="X442" s="207"/>
+      <c r="Y442" s="207"/>
+      <c r="Z442" s="207"/>
+      <c r="AA442" s="207"/>
+      <c r="AB442" s="207"/>
+      <c r="AC442" s="207"/>
+      <c r="AD442" s="207"/>
+      <c r="AE442" s="207"/>
+      <c r="AF442" s="207"/>
+      <c r="AG442" s="207"/>
+      <c r="AH442" s="207"/>
+      <c r="AI442" s="207"/>
     </row>
     <row r="443" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B443" s="204"/>
-      <c r="C443" s="208"/>
-      <c r="D443" s="208"/>
-      <c r="E443" s="208"/>
-      <c r="F443" s="208"/>
-      <c r="G443" s="208"/>
-      <c r="H443" s="208"/>
-      <c r="I443" s="208"/>
-      <c r="J443" s="208"/>
-      <c r="K443" s="208"/>
-      <c r="L443" s="208"/>
-      <c r="M443" s="208"/>
-      <c r="N443" s="208"/>
-      <c r="O443" s="208"/>
-      <c r="P443" s="208"/>
-      <c r="Q443" s="208"/>
-      <c r="R443" s="208"/>
-      <c r="S443" s="208"/>
-      <c r="T443" s="208"/>
-      <c r="U443" s="208"/>
-      <c r="V443" s="208"/>
-      <c r="W443" s="208"/>
-      <c r="X443" s="208"/>
-      <c r="Y443" s="208"/>
-      <c r="Z443" s="208"/>
-      <c r="AA443" s="208"/>
-      <c r="AB443" s="208"/>
-      <c r="AC443" s="208"/>
-      <c r="AD443" s="208"/>
-      <c r="AE443" s="208"/>
-      <c r="AF443" s="208"/>
-      <c r="AG443" s="208"/>
-      <c r="AH443" s="208"/>
-      <c r="AI443" s="208"/>
+      <c r="B443" s="203"/>
+      <c r="C443" s="207"/>
+      <c r="D443" s="207"/>
+      <c r="E443" s="207"/>
+      <c r="F443" s="207"/>
+      <c r="G443" s="207"/>
+      <c r="H443" s="207"/>
+      <c r="I443" s="207"/>
+      <c r="J443" s="207"/>
+      <c r="K443" s="207"/>
+      <c r="L443" s="207"/>
+      <c r="M443" s="207"/>
+      <c r="N443" s="207"/>
+      <c r="O443" s="207"/>
+      <c r="P443" s="207"/>
+      <c r="Q443" s="207"/>
+      <c r="R443" s="207"/>
+      <c r="S443" s="207"/>
+      <c r="T443" s="207"/>
+      <c r="U443" s="207"/>
+      <c r="V443" s="207"/>
+      <c r="W443" s="207"/>
+      <c r="X443" s="207"/>
+      <c r="Y443" s="207"/>
+      <c r="Z443" s="207"/>
+      <c r="AA443" s="207"/>
+      <c r="AB443" s="207"/>
+      <c r="AC443" s="207"/>
+      <c r="AD443" s="207"/>
+      <c r="AE443" s="207"/>
+      <c r="AF443" s="207"/>
+      <c r="AG443" s="207"/>
+      <c r="AH443" s="207"/>
+      <c r="AI443" s="207"/>
     </row>
     <row r="444" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B444" s="204"/>
-      <c r="C444" s="208"/>
-      <c r="D444" s="208"/>
-      <c r="E444" s="208"/>
-      <c r="F444" s="208"/>
-      <c r="G444" s="208"/>
-      <c r="H444" s="208"/>
-      <c r="I444" s="208"/>
-      <c r="J444" s="208"/>
-      <c r="K444" s="208"/>
-      <c r="L444" s="208"/>
-      <c r="M444" s="208"/>
-      <c r="N444" s="208"/>
-      <c r="O444" s="208"/>
-      <c r="P444" s="208"/>
-      <c r="Q444" s="208"/>
-      <c r="R444" s="208"/>
-      <c r="S444" s="208"/>
-      <c r="T444" s="208"/>
-      <c r="U444" s="208"/>
-      <c r="V444" s="208"/>
-      <c r="W444" s="208"/>
-      <c r="X444" s="208"/>
-      <c r="Y444" s="208"/>
-      <c r="Z444" s="208"/>
-      <c r="AA444" s="208"/>
-      <c r="AB444" s="208"/>
-      <c r="AC444" s="208"/>
-      <c r="AD444" s="208"/>
-      <c r="AE444" s="208"/>
-      <c r="AF444" s="208"/>
-      <c r="AG444" s="208"/>
-      <c r="AH444" s="208"/>
-      <c r="AI444" s="208"/>
+      <c r="B444" s="203"/>
+      <c r="C444" s="207"/>
+      <c r="D444" s="207"/>
+      <c r="E444" s="207"/>
+      <c r="F444" s="207"/>
+      <c r="G444" s="207"/>
+      <c r="H444" s="207"/>
+      <c r="I444" s="207"/>
+      <c r="J444" s="207"/>
+      <c r="K444" s="207"/>
+      <c r="L444" s="207"/>
+      <c r="M444" s="207"/>
+      <c r="N444" s="207"/>
+      <c r="O444" s="207"/>
+      <c r="P444" s="207"/>
+      <c r="Q444" s="207"/>
+      <c r="R444" s="207"/>
+      <c r="S444" s="207"/>
+      <c r="T444" s="207"/>
+      <c r="U444" s="207"/>
+      <c r="V444" s="207"/>
+      <c r="W444" s="207"/>
+      <c r="X444" s="207"/>
+      <c r="Y444" s="207"/>
+      <c r="Z444" s="207"/>
+      <c r="AA444" s="207"/>
+      <c r="AB444" s="207"/>
+      <c r="AC444" s="207"/>
+      <c r="AD444" s="207"/>
+      <c r="AE444" s="207"/>
+      <c r="AF444" s="207"/>
+      <c r="AG444" s="207"/>
+      <c r="AH444" s="207"/>
+      <c r="AI444" s="207"/>
     </row>
     <row r="445" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B445" s="204"/>
-      <c r="C445" s="208"/>
-      <c r="D445" s="208"/>
-      <c r="E445" s="208"/>
-      <c r="F445" s="208"/>
-      <c r="G445" s="208"/>
-      <c r="H445" s="208"/>
-      <c r="I445" s="208"/>
-      <c r="J445" s="208"/>
-      <c r="K445" s="208"/>
-      <c r="L445" s="208"/>
-      <c r="M445" s="208"/>
-      <c r="N445" s="208"/>
-      <c r="O445" s="208"/>
-      <c r="P445" s="208"/>
-      <c r="Q445" s="208"/>
-      <c r="R445" s="208"/>
-      <c r="S445" s="208"/>
-      <c r="T445" s="208"/>
-      <c r="U445" s="208"/>
-      <c r="V445" s="208"/>
-      <c r="W445" s="208"/>
-      <c r="X445" s="208"/>
-      <c r="Y445" s="208"/>
-      <c r="Z445" s="208"/>
-      <c r="AA445" s="208"/>
-      <c r="AB445" s="208"/>
-      <c r="AC445" s="208"/>
-      <c r="AD445" s="208"/>
-      <c r="AE445" s="208"/>
-      <c r="AF445" s="208"/>
-      <c r="AG445" s="208"/>
-      <c r="AH445" s="208"/>
-      <c r="AI445" s="208"/>
+      <c r="B445" s="203"/>
+      <c r="C445" s="207"/>
+      <c r="D445" s="207"/>
+      <c r="E445" s="207"/>
+      <c r="F445" s="207"/>
+      <c r="G445" s="207"/>
+      <c r="H445" s="207"/>
+      <c r="I445" s="207"/>
+      <c r="J445" s="207"/>
+      <c r="K445" s="207"/>
+      <c r="L445" s="207"/>
+      <c r="M445" s="207"/>
+      <c r="N445" s="207"/>
+      <c r="O445" s="207"/>
+      <c r="P445" s="207"/>
+      <c r="Q445" s="207"/>
+      <c r="R445" s="207"/>
+      <c r="S445" s="207"/>
+      <c r="T445" s="207"/>
+      <c r="U445" s="207"/>
+      <c r="V445" s="207"/>
+      <c r="W445" s="207"/>
+      <c r="X445" s="207"/>
+      <c r="Y445" s="207"/>
+      <c r="Z445" s="207"/>
+      <c r="AA445" s="207"/>
+      <c r="AB445" s="207"/>
+      <c r="AC445" s="207"/>
+      <c r="AD445" s="207"/>
+      <c r="AE445" s="207"/>
+      <c r="AF445" s="207"/>
+      <c r="AG445" s="207"/>
+      <c r="AH445" s="207"/>
+      <c r="AI445" s="207"/>
     </row>
     <row r="446" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B446" s="204"/>
-      <c r="C446" s="208"/>
-      <c r="D446" s="208"/>
-      <c r="E446" s="208"/>
-      <c r="F446" s="208"/>
-      <c r="G446" s="208"/>
-      <c r="H446" s="208"/>
-      <c r="I446" s="208"/>
-      <c r="J446" s="208"/>
-      <c r="K446" s="208"/>
-      <c r="L446" s="208"/>
-      <c r="M446" s="208"/>
-      <c r="N446" s="208"/>
-      <c r="O446" s="208"/>
-      <c r="P446" s="208"/>
-      <c r="Q446" s="208"/>
-      <c r="R446" s="208"/>
-      <c r="S446" s="208"/>
-      <c r="T446" s="208"/>
-      <c r="U446" s="208"/>
-      <c r="V446" s="208"/>
-      <c r="W446" s="208"/>
-      <c r="X446" s="208"/>
-      <c r="Y446" s="208"/>
-      <c r="Z446" s="208"/>
-      <c r="AA446" s="208"/>
-      <c r="AB446" s="208"/>
-      <c r="AC446" s="208"/>
-      <c r="AD446" s="208"/>
-      <c r="AE446" s="208"/>
-      <c r="AF446" s="208"/>
-      <c r="AG446" s="208"/>
-      <c r="AH446" s="208"/>
-      <c r="AI446" s="208"/>
+      <c r="B446" s="203"/>
+      <c r="C446" s="207"/>
+      <c r="D446" s="207"/>
+      <c r="E446" s="207"/>
+      <c r="F446" s="207"/>
+      <c r="G446" s="207"/>
+      <c r="H446" s="207"/>
+      <c r="I446" s="207"/>
+      <c r="J446" s="207"/>
+      <c r="K446" s="207"/>
+      <c r="L446" s="207"/>
+      <c r="M446" s="207"/>
+      <c r="N446" s="207"/>
+      <c r="O446" s="207"/>
+      <c r="P446" s="207"/>
+      <c r="Q446" s="207"/>
+      <c r="R446" s="207"/>
+      <c r="S446" s="207"/>
+      <c r="T446" s="207"/>
+      <c r="U446" s="207"/>
+      <c r="V446" s="207"/>
+      <c r="W446" s="207"/>
+      <c r="X446" s="207"/>
+      <c r="Y446" s="207"/>
+      <c r="Z446" s="207"/>
+      <c r="AA446" s="207"/>
+      <c r="AB446" s="207"/>
+      <c r="AC446" s="207"/>
+      <c r="AD446" s="207"/>
+      <c r="AE446" s="207"/>
+      <c r="AF446" s="207"/>
+      <c r="AG446" s="207"/>
+      <c r="AH446" s="207"/>
+      <c r="AI446" s="207"/>
+    </row>
+    <row r="447" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B447" s="203"/>
+      <c r="C447" s="207"/>
+      <c r="D447" s="207"/>
+      <c r="E447" s="207"/>
+      <c r="F447" s="207"/>
+      <c r="G447" s="207"/>
+      <c r="H447" s="207"/>
+      <c r="I447" s="207"/>
+      <c r="J447" s="207"/>
+      <c r="K447" s="207"/>
+      <c r="L447" s="207"/>
+      <c r="M447" s="207"/>
+      <c r="N447" s="207"/>
+      <c r="O447" s="207"/>
+      <c r="P447" s="207"/>
+      <c r="Q447" s="207"/>
+      <c r="R447" s="207"/>
+      <c r="S447" s="207"/>
+      <c r="T447" s="207"/>
+      <c r="U447" s="207"/>
+      <c r="V447" s="207"/>
+      <c r="W447" s="207"/>
+      <c r="X447" s="207"/>
+      <c r="Y447" s="207"/>
+      <c r="Z447" s="207"/>
+      <c r="AA447" s="207"/>
+      <c r="AB447" s="207"/>
+      <c r="AC447" s="207"/>
+      <c r="AD447" s="207"/>
+      <c r="AE447" s="207"/>
+      <c r="AF447" s="207"/>
+      <c r="AG447" s="207"/>
+      <c r="AH447" s="207"/>
+      <c r="AI447" s="207"/>
+    </row>
+    <row r="448" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B448" s="203"/>
+      <c r="C448" s="207"/>
+      <c r="D448" s="207"/>
+      <c r="E448" s="207"/>
+      <c r="F448" s="207"/>
+      <c r="G448" s="207"/>
+      <c r="H448" s="207"/>
+      <c r="I448" s="207"/>
+      <c r="J448" s="207"/>
+      <c r="K448" s="207"/>
+      <c r="L448" s="207"/>
+      <c r="M448" s="207"/>
+      <c r="N448" s="207"/>
+      <c r="O448" s="207"/>
+      <c r="P448" s="207"/>
+      <c r="Q448" s="207"/>
+      <c r="R448" s="207"/>
+      <c r="S448" s="207"/>
+      <c r="T448" s="207"/>
+      <c r="U448" s="207"/>
+      <c r="V448" s="207"/>
+      <c r="W448" s="207"/>
+      <c r="X448" s="207"/>
+      <c r="Y448" s="207"/>
+      <c r="Z448" s="207"/>
+      <c r="AA448" s="207"/>
+      <c r="AB448" s="207"/>
+      <c r="AC448" s="207"/>
+      <c r="AD448" s="207"/>
+      <c r="AE448" s="207"/>
+      <c r="AF448" s="207"/>
+      <c r="AG448" s="207"/>
+      <c r="AH448" s="207"/>
+      <c r="AI448" s="207"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J380" r:id="rId1"/>
+    <hyperlink ref="J382" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
